--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMR30101_Bao cao KH moi theo nhan vien.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMR30101_Bao cao KH moi theo nhan vien.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Bao cao khach hang moi theo nhan vien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Bao cao KH moi theo nhan vien\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -2074,7 +2074,24 @@
     <t>Thực thi @SQL0001 để truyền @DivisionID mở tab để load  báo cáo Khách hàng mới theo nhân viên_CRMR30101</t>
   </si>
   <si>
-    <t xml:space="preserve">EXEC CRMP10104(
+    <t xml:space="preserve">@DivisionID @DivisionIDList  @FromDate @ToDate   @IsDate 
+@Period  
+@FromAccountID @ToAccountID 
+@FromEmployeeID@ToEmployeeID @UserID
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biến môi trường @@DivisionIDList  @@FromDate @@ToDate   @@IsDate 
+@@Period 
+@@FromAccountID @@ToAccountID
+@@FromEmployeeID @@ToEmployeeID Biến môi trường
+</t>
+  </si>
+  <si>
+    <t>Click BttnPrint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXEC CRMP30101(
  @DivisionID       VARCHAR(50),  
   @DivisionIDList    NVARCHAR(2000), 
   @FromDate         DATETIME,
@@ -2087,23 +2104,6 @@
   @ToEmployeeID           Varchar(50),
   @UserID  VARCHAR(50)
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@DivisionID @DivisionIDList  @FromDate @ToDate   @IsDate 
-@Period  
-@FromAccountID @ToAccountID 
-@FromEmployeeID@ToEmployeeID @UserID
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biến môi trường @@DivisionIDList  @@FromDate @@ToDate   @@IsDate 
-@@Period 
-@@FromAccountID @@ToAccountID
-@@FromEmployeeID @@ToEmployeeID Biến môi trường
-</t>
-  </si>
-  <si>
-    <t>Click BttnPrint</t>
   </si>
 </sst>
 </file>
@@ -2971,102 +2971,102 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3149,6 +3149,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3160,15 +3169,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3178,6 +3178,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3186,9 +3189,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4179,65 +4179,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="145"/>
-      <c r="B1" s="145"/>
-      <c r="C1" s="147" t="s">
+      <c r="A1" s="139"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="141" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="146" t="s">
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="140" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146" t="s">
+      <c r="H1" s="140"/>
+      <c r="I1" s="140" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="146"/>
+      <c r="J1" s="140"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="145"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="146" t="s">
+      <c r="A2" s="139"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="140" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="145"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="142" t="s">
+      <c r="A3" s="139"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="136" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="143"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="143"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="137"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="119"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="144"/>
-      <c r="B13" s="144"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
+      <c r="A13" s="138"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
       <c r="K13" s="120"/>
       <c r="L13" s="120"/>
       <c r="M13" s="120"/>
@@ -4248,56 +4248,56 @@
       <c r="R13" s="120"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="138"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="138"/>
-      <c r="M14" s="138"/>
-      <c r="N14" s="138"/>
-      <c r="O14" s="138"/>
-      <c r="P14" s="138"/>
-      <c r="Q14" s="138"/>
-      <c r="R14" s="138"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="134"/>
+      <c r="Q14" s="134"/>
+      <c r="R14" s="134"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="138"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="138"/>
-      <c r="K15" s="138"/>
-      <c r="L15" s="138"/>
-      <c r="M15" s="138"/>
-      <c r="N15" s="138"/>
-      <c r="O15" s="138"/>
-      <c r="P15" s="138"/>
-      <c r="Q15" s="138"/>
-      <c r="R15" s="138"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
+      <c r="P15" s="134"/>
+      <c r="Q15" s="134"/>
+      <c r="R15" s="134"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="141" t="s">
+      <c r="A16" s="135" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="141"/>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
       <c r="K16" s="121"/>
       <c r="L16" s="121"/>
       <c r="M16" s="121"/>
@@ -4308,384 +4308,384 @@
       <c r="R16" s="121"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="138"/>
-      <c r="K17" s="138"/>
-      <c r="L17" s="138"/>
-      <c r="M17" s="138"/>
-      <c r="N17" s="138"/>
-      <c r="O17" s="138"/>
-      <c r="P17" s="138"/>
-      <c r="Q17" s="138"/>
-      <c r="R17" s="138"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="134"/>
+      <c r="P17" s="134"/>
+      <c r="Q17" s="134"/>
+      <c r="R17" s="134"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="138"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="138"/>
-      <c r="L18" s="138"/>
-      <c r="M18" s="138"/>
-      <c r="N18" s="138"/>
-      <c r="O18" s="138"/>
-      <c r="P18" s="138"/>
-      <c r="Q18" s="138"/>
-      <c r="R18" s="138"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="134"/>
+      <c r="Q18" s="134"/>
+      <c r="R18" s="134"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="140"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="140"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="140"/>
-      <c r="N19" s="140"/>
-      <c r="O19" s="140"/>
-      <c r="P19" s="140"/>
-      <c r="Q19" s="140"/>
-      <c r="R19" s="140"/>
+      <c r="B19" s="151"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="151"/>
+      <c r="N19" s="151"/>
+      <c r="O19" s="151"/>
+      <c r="P19" s="151"/>
+      <c r="Q19" s="151"/>
+      <c r="R19" s="151"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="138"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="138"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="138"/>
-      <c r="L20" s="138"/>
-      <c r="M20" s="138"/>
-      <c r="N20" s="138"/>
-      <c r="O20" s="138"/>
-      <c r="P20" s="138"/>
-      <c r="Q20" s="138"/>
-      <c r="R20" s="138"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="134"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="134"/>
+      <c r="P20" s="134"/>
+      <c r="Q20" s="134"/>
+      <c r="R20" s="134"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="138"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="138"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="138"/>
-      <c r="N21" s="138"/>
-      <c r="O21" s="138"/>
-      <c r="P21" s="138"/>
-      <c r="Q21" s="138"/>
-      <c r="R21" s="138"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="134"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
+      <c r="N21" s="134"/>
+      <c r="O21" s="134"/>
+      <c r="P21" s="134"/>
+      <c r="Q21" s="134"/>
+      <c r="R21" s="134"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="139"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="139"/>
-      <c r="K22" s="139"/>
-      <c r="L22" s="139"/>
-      <c r="M22" s="139"/>
-      <c r="N22" s="139"/>
-      <c r="O22" s="139"/>
-      <c r="P22" s="139"/>
-      <c r="Q22" s="139"/>
-      <c r="R22" s="139"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="150"/>
+      <c r="J22" s="150"/>
+      <c r="K22" s="150"/>
+      <c r="L22" s="150"/>
+      <c r="M22" s="150"/>
+      <c r="N22" s="150"/>
+      <c r="O22" s="150"/>
+      <c r="P22" s="150"/>
+      <c r="Q22" s="150"/>
+      <c r="R22" s="150"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="139"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="139"/>
-      <c r="K23" s="139"/>
-      <c r="L23" s="139"/>
-      <c r="M23" s="139"/>
-      <c r="N23" s="139"/>
-      <c r="O23" s="139"/>
-      <c r="P23" s="139"/>
-      <c r="Q23" s="139"/>
-      <c r="R23" s="139"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="150"/>
+      <c r="L23" s="150"/>
+      <c r="M23" s="150"/>
+      <c r="N23" s="150"/>
+      <c r="O23" s="150"/>
+      <c r="P23" s="150"/>
+      <c r="Q23" s="150"/>
+      <c r="R23" s="150"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="136"/>
-      <c r="C26" s="136"/>
-      <c r="D26" s="136"/>
-      <c r="E26" s="136"/>
-      <c r="F26" s="136"/>
-      <c r="G26" s="136"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="136"/>
-      <c r="J26" s="136"/>
-      <c r="K26" s="136"/>
-      <c r="L26" s="136"/>
-      <c r="M26" s="136"/>
-      <c r="N26" s="136"/>
-      <c r="O26" s="136"/>
-      <c r="P26" s="136"/>
-      <c r="Q26" s="136"/>
-      <c r="R26" s="136"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="152"/>
+      <c r="M26" s="152"/>
+      <c r="N26" s="152"/>
+      <c r="O26" s="152"/>
+      <c r="P26" s="152"/>
+      <c r="Q26" s="152"/>
+      <c r="R26" s="152"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="137"/>
-      <c r="C28" s="137"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="137"/>
-      <c r="J28" s="137"/>
-      <c r="K28" s="137"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="137"/>
-      <c r="N28" s="137"/>
-      <c r="O28" s="137"/>
-      <c r="P28" s="137"/>
-      <c r="Q28" s="137"/>
-      <c r="R28" s="137"/>
-      <c r="S28" s="135"/>
-      <c r="T28" s="135"/>
-      <c r="U28" s="135"/>
-      <c r="V28" s="135"/>
-      <c r="W28" s="135"/>
-      <c r="X28" s="135"/>
-      <c r="Y28" s="135"/>
-      <c r="Z28" s="135"/>
-      <c r="AA28" s="135"/>
-      <c r="AB28" s="135"/>
-      <c r="AC28" s="135"/>
-      <c r="AD28" s="135"/>
-      <c r="AE28" s="135"/>
-      <c r="AF28" s="135"/>
-      <c r="AG28" s="135"/>
-      <c r="AH28" s="135"/>
-      <c r="AI28" s="135"/>
-      <c r="AJ28" s="135"/>
-      <c r="AK28" s="135"/>
-      <c r="AL28" s="135"/>
-      <c r="AM28" s="135"/>
-      <c r="AN28" s="135"/>
-      <c r="AO28" s="135"/>
-      <c r="AP28" s="135"/>
-      <c r="AQ28" s="135"/>
-      <c r="AR28" s="135"/>
-      <c r="AS28" s="135"/>
-      <c r="AT28" s="135"/>
-      <c r="AU28" s="135"/>
-      <c r="AV28" s="135"/>
-      <c r="AW28" s="135"/>
-      <c r="AX28" s="135"/>
-      <c r="AY28" s="135"/>
-      <c r="AZ28" s="135"/>
-      <c r="BA28" s="135"/>
-      <c r="BB28" s="135"/>
-      <c r="BC28" s="135"/>
-      <c r="BD28" s="135"/>
-      <c r="BE28" s="135"/>
-      <c r="BF28" s="135"/>
-      <c r="BG28" s="135"/>
-      <c r="BH28" s="135"/>
-      <c r="BI28" s="135"/>
-      <c r="BJ28" s="135"/>
-      <c r="BK28" s="135"/>
-      <c r="BL28" s="135"/>
-      <c r="BM28" s="135"/>
-      <c r="BN28" s="135"/>
-      <c r="BO28" s="135"/>
-      <c r="BP28" s="135"/>
-      <c r="BQ28" s="135"/>
-      <c r="BR28" s="135"/>
-      <c r="BS28" s="135"/>
-      <c r="BT28" s="135"/>
-      <c r="BU28" s="135"/>
-      <c r="BV28" s="135"/>
-      <c r="BW28" s="135"/>
-      <c r="BX28" s="135"/>
-      <c r="BY28" s="135"/>
-      <c r="BZ28" s="135"/>
-      <c r="CA28" s="135"/>
-      <c r="CB28" s="135"/>
-      <c r="CC28" s="135"/>
-      <c r="CD28" s="135"/>
-      <c r="CE28" s="135"/>
-      <c r="CF28" s="135"/>
-      <c r="CG28" s="135"/>
-      <c r="CH28" s="135"/>
-      <c r="CI28" s="135"/>
-      <c r="CJ28" s="135"/>
-      <c r="CK28" s="135"/>
-      <c r="CL28" s="135"/>
-      <c r="CM28" s="135"/>
-      <c r="CN28" s="135"/>
-      <c r="CO28" s="135"/>
-      <c r="CP28" s="135"/>
-      <c r="CQ28" s="135"/>
-      <c r="CR28" s="135"/>
-      <c r="CS28" s="135"/>
-      <c r="CT28" s="135"/>
-      <c r="CU28" s="135"/>
-      <c r="CV28" s="135"/>
-      <c r="CW28" s="135"/>
-      <c r="CX28" s="135"/>
-      <c r="CY28" s="135"/>
-      <c r="CZ28" s="135"/>
-      <c r="DA28" s="135"/>
-      <c r="DB28" s="135"/>
-      <c r="DC28" s="135"/>
-      <c r="DD28" s="135"/>
-      <c r="DE28" s="135"/>
-      <c r="DF28" s="135"/>
-      <c r="DG28" s="135"/>
-      <c r="DH28" s="135"/>
-      <c r="DI28" s="135"/>
-      <c r="DJ28" s="135"/>
-      <c r="DK28" s="135"/>
-      <c r="DL28" s="135"/>
-      <c r="DM28" s="135"/>
-      <c r="DN28" s="135"/>
-      <c r="DO28" s="135"/>
-      <c r="DP28" s="135"/>
-      <c r="DQ28" s="135"/>
-      <c r="DR28" s="135"/>
-      <c r="DS28" s="135"/>
-      <c r="DT28" s="135"/>
-      <c r="DU28" s="135"/>
-      <c r="DV28" s="135"/>
-      <c r="DW28" s="135"/>
-      <c r="DX28" s="135"/>
-      <c r="DY28" s="135"/>
-      <c r="DZ28" s="135"/>
-      <c r="EA28" s="135"/>
-      <c r="EB28" s="135"/>
-      <c r="EC28" s="135"/>
-      <c r="ED28" s="135"/>
-      <c r="EE28" s="135"/>
-      <c r="EF28" s="135"/>
-      <c r="EG28" s="135"/>
-      <c r="EH28" s="135"/>
-      <c r="EI28" s="135"/>
-      <c r="EJ28" s="135"/>
-      <c r="EK28" s="135"/>
-      <c r="EL28" s="135"/>
-      <c r="EM28" s="135"/>
-      <c r="EN28" s="135"/>
-      <c r="EO28" s="135"/>
-      <c r="EP28" s="135"/>
-      <c r="EQ28" s="135"/>
-      <c r="ER28" s="135"/>
-      <c r="ES28" s="135"/>
-      <c r="ET28" s="135"/>
-      <c r="EU28" s="135"/>
-      <c r="EV28" s="135"/>
-      <c r="EW28" s="135"/>
-      <c r="EX28" s="135"/>
-      <c r="EY28" s="135"/>
-      <c r="EZ28" s="135"/>
-      <c r="FA28" s="135"/>
-      <c r="FB28" s="135"/>
-      <c r="FC28" s="135"/>
-      <c r="FD28" s="135"/>
-      <c r="FE28" s="135"/>
-      <c r="FF28" s="135"/>
-      <c r="FG28" s="135"/>
-      <c r="FH28" s="135"/>
-      <c r="FI28" s="135"/>
-      <c r="FJ28" s="135"/>
-      <c r="FK28" s="135"/>
-      <c r="FL28" s="135"/>
-      <c r="FM28" s="135"/>
-      <c r="FN28" s="135"/>
-      <c r="FO28" s="135"/>
-      <c r="FP28" s="135"/>
-      <c r="FQ28" s="135"/>
-      <c r="FR28" s="135"/>
-      <c r="FS28" s="135"/>
-      <c r="FT28" s="135"/>
-      <c r="FU28" s="135"/>
-      <c r="FV28" s="135"/>
-      <c r="FW28" s="135"/>
-      <c r="FX28" s="135"/>
-      <c r="FY28" s="135"/>
-      <c r="FZ28" s="135"/>
-      <c r="GA28" s="135"/>
-      <c r="GB28" s="135"/>
-      <c r="GC28" s="135"/>
-      <c r="GD28" s="135"/>
-      <c r="GE28" s="135"/>
-      <c r="GF28" s="135"/>
-      <c r="GG28" s="135"/>
-      <c r="GH28" s="135"/>
-      <c r="GI28" s="135"/>
-      <c r="GJ28" s="135"/>
-      <c r="GK28" s="135"/>
-      <c r="GL28" s="135"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="154"/>
+      <c r="M28" s="154"/>
+      <c r="N28" s="154"/>
+      <c r="O28" s="154"/>
+      <c r="P28" s="154"/>
+      <c r="Q28" s="154"/>
+      <c r="R28" s="154"/>
+      <c r="S28" s="153"/>
+      <c r="T28" s="153"/>
+      <c r="U28" s="153"/>
+      <c r="V28" s="153"/>
+      <c r="W28" s="153"/>
+      <c r="X28" s="153"/>
+      <c r="Y28" s="153"/>
+      <c r="Z28" s="153"/>
+      <c r="AA28" s="153"/>
+      <c r="AB28" s="153"/>
+      <c r="AC28" s="153"/>
+      <c r="AD28" s="153"/>
+      <c r="AE28" s="153"/>
+      <c r="AF28" s="153"/>
+      <c r="AG28" s="153"/>
+      <c r="AH28" s="153"/>
+      <c r="AI28" s="153"/>
+      <c r="AJ28" s="153"/>
+      <c r="AK28" s="153"/>
+      <c r="AL28" s="153"/>
+      <c r="AM28" s="153"/>
+      <c r="AN28" s="153"/>
+      <c r="AO28" s="153"/>
+      <c r="AP28" s="153"/>
+      <c r="AQ28" s="153"/>
+      <c r="AR28" s="153"/>
+      <c r="AS28" s="153"/>
+      <c r="AT28" s="153"/>
+      <c r="AU28" s="153"/>
+      <c r="AV28" s="153"/>
+      <c r="AW28" s="153"/>
+      <c r="AX28" s="153"/>
+      <c r="AY28" s="153"/>
+      <c r="AZ28" s="153"/>
+      <c r="BA28" s="153"/>
+      <c r="BB28" s="153"/>
+      <c r="BC28" s="153"/>
+      <c r="BD28" s="153"/>
+      <c r="BE28" s="153"/>
+      <c r="BF28" s="153"/>
+      <c r="BG28" s="153"/>
+      <c r="BH28" s="153"/>
+      <c r="BI28" s="153"/>
+      <c r="BJ28" s="153"/>
+      <c r="BK28" s="153"/>
+      <c r="BL28" s="153"/>
+      <c r="BM28" s="153"/>
+      <c r="BN28" s="153"/>
+      <c r="BO28" s="153"/>
+      <c r="BP28" s="153"/>
+      <c r="BQ28" s="153"/>
+      <c r="BR28" s="153"/>
+      <c r="BS28" s="153"/>
+      <c r="BT28" s="153"/>
+      <c r="BU28" s="153"/>
+      <c r="BV28" s="153"/>
+      <c r="BW28" s="153"/>
+      <c r="BX28" s="153"/>
+      <c r="BY28" s="153"/>
+      <c r="BZ28" s="153"/>
+      <c r="CA28" s="153"/>
+      <c r="CB28" s="153"/>
+      <c r="CC28" s="153"/>
+      <c r="CD28" s="153"/>
+      <c r="CE28" s="153"/>
+      <c r="CF28" s="153"/>
+      <c r="CG28" s="153"/>
+      <c r="CH28" s="153"/>
+      <c r="CI28" s="153"/>
+      <c r="CJ28" s="153"/>
+      <c r="CK28" s="153"/>
+      <c r="CL28" s="153"/>
+      <c r="CM28" s="153"/>
+      <c r="CN28" s="153"/>
+      <c r="CO28" s="153"/>
+      <c r="CP28" s="153"/>
+      <c r="CQ28" s="153"/>
+      <c r="CR28" s="153"/>
+      <c r="CS28" s="153"/>
+      <c r="CT28" s="153"/>
+      <c r="CU28" s="153"/>
+      <c r="CV28" s="153"/>
+      <c r="CW28" s="153"/>
+      <c r="CX28" s="153"/>
+      <c r="CY28" s="153"/>
+      <c r="CZ28" s="153"/>
+      <c r="DA28" s="153"/>
+      <c r="DB28" s="153"/>
+      <c r="DC28" s="153"/>
+      <c r="DD28" s="153"/>
+      <c r="DE28" s="153"/>
+      <c r="DF28" s="153"/>
+      <c r="DG28" s="153"/>
+      <c r="DH28" s="153"/>
+      <c r="DI28" s="153"/>
+      <c r="DJ28" s="153"/>
+      <c r="DK28" s="153"/>
+      <c r="DL28" s="153"/>
+      <c r="DM28" s="153"/>
+      <c r="DN28" s="153"/>
+      <c r="DO28" s="153"/>
+      <c r="DP28" s="153"/>
+      <c r="DQ28" s="153"/>
+      <c r="DR28" s="153"/>
+      <c r="DS28" s="153"/>
+      <c r="DT28" s="153"/>
+      <c r="DU28" s="153"/>
+      <c r="DV28" s="153"/>
+      <c r="DW28" s="153"/>
+      <c r="DX28" s="153"/>
+      <c r="DY28" s="153"/>
+      <c r="DZ28" s="153"/>
+      <c r="EA28" s="153"/>
+      <c r="EB28" s="153"/>
+      <c r="EC28" s="153"/>
+      <c r="ED28" s="153"/>
+      <c r="EE28" s="153"/>
+      <c r="EF28" s="153"/>
+      <c r="EG28" s="153"/>
+      <c r="EH28" s="153"/>
+      <c r="EI28" s="153"/>
+      <c r="EJ28" s="153"/>
+      <c r="EK28" s="153"/>
+      <c r="EL28" s="153"/>
+      <c r="EM28" s="153"/>
+      <c r="EN28" s="153"/>
+      <c r="EO28" s="153"/>
+      <c r="EP28" s="153"/>
+      <c r="EQ28" s="153"/>
+      <c r="ER28" s="153"/>
+      <c r="ES28" s="153"/>
+      <c r="ET28" s="153"/>
+      <c r="EU28" s="153"/>
+      <c r="EV28" s="153"/>
+      <c r="EW28" s="153"/>
+      <c r="EX28" s="153"/>
+      <c r="EY28" s="153"/>
+      <c r="EZ28" s="153"/>
+      <c r="FA28" s="153"/>
+      <c r="FB28" s="153"/>
+      <c r="FC28" s="153"/>
+      <c r="FD28" s="153"/>
+      <c r="FE28" s="153"/>
+      <c r="FF28" s="153"/>
+      <c r="FG28" s="153"/>
+      <c r="FH28" s="153"/>
+      <c r="FI28" s="153"/>
+      <c r="FJ28" s="153"/>
+      <c r="FK28" s="153"/>
+      <c r="FL28" s="153"/>
+      <c r="FM28" s="153"/>
+      <c r="FN28" s="153"/>
+      <c r="FO28" s="153"/>
+      <c r="FP28" s="153"/>
+      <c r="FQ28" s="153"/>
+      <c r="FR28" s="153"/>
+      <c r="FS28" s="153"/>
+      <c r="FT28" s="153"/>
+      <c r="FU28" s="153"/>
+      <c r="FV28" s="153"/>
+      <c r="FW28" s="153"/>
+      <c r="FX28" s="153"/>
+      <c r="FY28" s="153"/>
+      <c r="FZ28" s="153"/>
+      <c r="GA28" s="153"/>
+      <c r="GB28" s="153"/>
+      <c r="GC28" s="153"/>
+      <c r="GD28" s="153"/>
+      <c r="GE28" s="153"/>
+      <c r="GF28" s="153"/>
+      <c r="GG28" s="153"/>
+      <c r="GH28" s="153"/>
+      <c r="GI28" s="153"/>
+      <c r="GJ28" s="153"/>
+      <c r="GK28" s="153"/>
+      <c r="GL28" s="153"/>
       <c r="GM28" s="122"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="136"/>
-      <c r="C29" s="136"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="136"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="136"/>
-      <c r="N29" s="136"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="136"/>
-      <c r="Q29" s="136"/>
-      <c r="R29" s="136"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="152"/>
+      <c r="K29" s="152"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="152"/>
+      <c r="N29" s="152"/>
+      <c r="O29" s="152"/>
+      <c r="P29" s="152"/>
+      <c r="Q29" s="152"/>
+      <c r="R29" s="152"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="134"/>
-      <c r="B30" s="134"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="134"/>
-      <c r="J30" s="134"/>
+      <c r="A30" s="155"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="155"/>
       <c r="K30" s="123"/>
       <c r="L30" s="123"/>
       <c r="M30" s="123"/>
@@ -4696,16 +4696,16 @@
       <c r="R30" s="123"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="134"/>
-      <c r="B31" s="134"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="134"/>
-      <c r="J31" s="134"/>
+      <c r="A31" s="155"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="155"/>
       <c r="K31" s="123"/>
       <c r="L31" s="123"/>
       <c r="M31" s="123"/>
@@ -4717,6 +4717,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4730,28 +4752,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5306,10 +5306,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
+      <c r="B1" s="162"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5336,8 +5336,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
+      <c r="A2" s="162"/>
+      <c r="B2" s="162"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5379,14 +5379,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="164" t="s">
+      <c r="E4" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
       <c r="A5" s="40">
@@ -5401,14 +5401,14 @@
       <c r="D5" s="102" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="165" t="s">
+      <c r="E5" s="164" t="s">
         <v>210</v>
       </c>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="92">
@@ -5435,12 +5435,12 @@
       </c>
       <c r="C7" s="80"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="159"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="157"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="158"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="94">
@@ -5451,12 +5451,12 @@
       </c>
       <c r="C8" s="80"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="162"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="161"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="95">
@@ -5467,12 +5467,12 @@
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="159"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="158"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="96">
@@ -5483,12 +5483,12 @@
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="159"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="158"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="97">
@@ -5499,12 +5499,12 @@
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="159"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="158"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="98">
@@ -5515,12 +5515,12 @@
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="159"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="157"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="158"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="99">
@@ -5531,12 +5531,12 @@
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="159"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="158"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="100">
@@ -5547,12 +5547,12 @@
       </c>
       <c r="C14" s="80"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="159"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="157"/>
+      <c r="J14" s="158"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5563,12 +5563,12 @@
       </c>
       <c r="C15" s="80"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="156"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="92">
@@ -5579,12 +5579,12 @@
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="156"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="93">
@@ -5595,12 +5595,12 @@
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="156"/>
-      <c r="I17" s="156"/>
-      <c r="J17" s="156"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="94">
@@ -5611,12 +5611,12 @@
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="156"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="95">
@@ -5627,12 +5627,12 @@
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="156"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="96">
@@ -5643,12 +5643,12 @@
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="165"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="97">
@@ -5659,12 +5659,12 @@
       </c>
       <c r="C21" s="80"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="156"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="98">
@@ -5675,12 +5675,12 @@
       </c>
       <c r="C22" s="80"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="99">
@@ -5691,12 +5691,12 @@
       </c>
       <c r="C23" s="80"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="156"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="100">
@@ -5707,12 +5707,12 @@
       </c>
       <c r="C24" s="80"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="156"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="165"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5723,12 +5723,12 @@
       </c>
       <c r="C25" s="80"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="156"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5739,12 +5739,12 @@
       </c>
       <c r="C26" s="80"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="92">
@@ -5755,12 +5755,12 @@
       </c>
       <c r="C27" s="80"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="156"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="93">
@@ -5771,12 +5771,12 @@
       </c>
       <c r="C28" s="80"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="94">
@@ -5787,12 +5787,12 @@
       </c>
       <c r="C29" s="80"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="156"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="95">
@@ -5803,12 +5803,12 @@
       </c>
       <c r="C30" s="80"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="165"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="165"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="96">
@@ -5819,12 +5819,12 @@
       </c>
       <c r="C31" s="80"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="165"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="97">
@@ -5835,12 +5835,12 @@
       </c>
       <c r="C32" s="80"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="156"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="165"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="165"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="98">
@@ -5851,12 +5851,12 @@
       </c>
       <c r="C33" s="80"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="156"/>
-      <c r="I33" s="156"/>
-      <c r="J33" s="156"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="165"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="165"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="99">
@@ -5867,12 +5867,12 @@
       </c>
       <c r="C34" s="80"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="156"/>
-      <c r="H34" s="156"/>
-      <c r="I34" s="156"/>
-      <c r="J34" s="156"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="165"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="100">
@@ -5883,12 +5883,12 @@
       </c>
       <c r="C35" s="80"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="156"/>
-      <c r="H35" s="156"/>
-      <c r="I35" s="156"/>
-      <c r="J35" s="156"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="165"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="165"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -5899,12 +5899,12 @@
       </c>
       <c r="C36" s="80"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="156"/>
-      <c r="H36" s="156"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="156"/>
+      <c r="E36" s="165"/>
+      <c r="F36" s="165"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="165"/>
+      <c r="I36" s="165"/>
+      <c r="J36" s="165"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="92">
@@ -5915,12 +5915,12 @@
       </c>
       <c r="C37" s="80"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="156"/>
-      <c r="G37" s="156"/>
-      <c r="H37" s="156"/>
-      <c r="I37" s="156"/>
-      <c r="J37" s="156"/>
+      <c r="E37" s="165"/>
+      <c r="F37" s="165"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="165"/>
+      <c r="I37" s="165"/>
+      <c r="J37" s="165"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="93">
@@ -5931,12 +5931,12 @@
       </c>
       <c r="C38" s="80"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="156"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="156"/>
+      <c r="E38" s="165"/>
+      <c r="F38" s="165"/>
+      <c r="G38" s="165"/>
+      <c r="H38" s="165"/>
+      <c r="I38" s="165"/>
+      <c r="J38" s="165"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="94">
@@ -5947,12 +5947,12 @@
       </c>
       <c r="C39" s="80"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="156"/>
-      <c r="F39" s="156"/>
-      <c r="G39" s="156"/>
-      <c r="H39" s="156"/>
-      <c r="I39" s="156"/>
-      <c r="J39" s="156"/>
+      <c r="E39" s="165"/>
+      <c r="F39" s="165"/>
+      <c r="G39" s="165"/>
+      <c r="H39" s="165"/>
+      <c r="I39" s="165"/>
+      <c r="J39" s="165"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="95">
@@ -5963,12 +5963,12 @@
       </c>
       <c r="C40" s="80"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="156"/>
-      <c r="G40" s="156"/>
-      <c r="H40" s="156"/>
-      <c r="I40" s="156"/>
-      <c r="J40" s="156"/>
+      <c r="E40" s="165"/>
+      <c r="F40" s="165"/>
+      <c r="G40" s="165"/>
+      <c r="H40" s="165"/>
+      <c r="I40" s="165"/>
+      <c r="J40" s="165"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="96">
@@ -5979,12 +5979,12 @@
       </c>
       <c r="C41" s="80"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="156"/>
-      <c r="F41" s="156"/>
-      <c r="G41" s="156"/>
-      <c r="H41" s="156"/>
-      <c r="I41" s="156"/>
-      <c r="J41" s="156"/>
+      <c r="E41" s="165"/>
+      <c r="F41" s="165"/>
+      <c r="G41" s="165"/>
+      <c r="H41" s="165"/>
+      <c r="I41" s="165"/>
+      <c r="J41" s="165"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="97">
@@ -5995,23 +5995,32 @@
       </c>
       <c r="C42" s="80"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="156"/>
-      <c r="F42" s="156"/>
-      <c r="G42" s="156"/>
-      <c r="H42" s="156"/>
-      <c r="I42" s="156"/>
-      <c r="J42" s="156"/>
+      <c r="E42" s="165"/>
+      <c r="F42" s="165"/>
+      <c r="G42" s="165"/>
+      <c r="H42" s="165"/>
+      <c r="I42" s="165"/>
+      <c r="J42" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6027,23 +6036,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6069,7 +6069,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J2"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6088,10 +6088,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
+      <c r="B1" s="162"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6121,8 +6121,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
+      <c r="A2" s="162"/>
+      <c r="B2" s="162"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6700,7 +6700,7 @@
       <pane xSplit="7" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P1" sqref="P1:P2"/>
+      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6725,13 +6725,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6763,11 +6763,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
+      <c r="A2" s="162"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -9114,8 +9114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9139,7 +9139,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="198" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="126"/>
@@ -9174,7 +9174,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="196"/>
+      <c r="A2" s="199"/>
       <c r="B2" s="127"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -9222,15 +9222,15 @@
       <c r="E4" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="163" t="s">
+      <c r="F4" s="162" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163" t="s">
+      <c r="G4" s="162"/>
+      <c r="H4" s="162" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="25.5" customHeight="1">
       <c r="A5" s="33">
@@ -9244,15 +9244,15 @@
         <v>134</v>
       </c>
       <c r="E5" s="32"/>
-      <c r="F5" s="193" t="s">
+      <c r="F5" s="196" t="s">
         <v>212</v>
       </c>
-      <c r="G5" s="194"/>
-      <c r="H5" s="197" t="s">
+      <c r="G5" s="197"/>
+      <c r="H5" s="193" t="s">
         <v>213</v>
       </c>
-      <c r="I5" s="198"/>
-      <c r="J5" s="199"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="195"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -9262,11 +9262,11 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="197"/>
-      <c r="I6" s="198"/>
-      <c r="J6" s="199"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="197"/>
+      <c r="H6" s="193"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="195"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9276,11 +9276,11 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="194"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="198"/>
-      <c r="J7" s="199"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="195"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9290,11 +9290,11 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="199"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="193"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="195"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9304,11 +9304,11 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="194"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="198"/>
-      <c r="J9" s="199"/>
+      <c r="F9" s="196"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="195"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9318,11 +9318,11 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="194"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="199"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="197"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="195"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9332,11 +9332,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="194"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="199"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="197"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="195"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9346,11 +9346,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="193"/>
-      <c r="G12" s="194"/>
-      <c r="H12" s="197"/>
-      <c r="I12" s="198"/>
-      <c r="J12" s="199"/>
+      <c r="F12" s="196"/>
+      <c r="G12" s="197"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="195"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9360,11 +9360,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="194"/>
-      <c r="H13" s="197"/>
-      <c r="I13" s="198"/>
-      <c r="J13" s="199"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="197"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="194"/>
+      <c r="J13" s="195"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9374,11 +9374,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="197"/>
-      <c r="I14" s="198"/>
-      <c r="J14" s="199"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="197"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="195"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9388,11 +9388,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="198"/>
-      <c r="J15" s="199"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="197"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="194"/>
+      <c r="J15" s="195"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9402,11 +9402,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="199"/>
+      <c r="F16" s="196"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="195"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9416,11 +9416,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="194"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="199"/>
+      <c r="F17" s="196"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="194"/>
+      <c r="J17" s="195"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9430,11 +9430,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="198"/>
-      <c r="J18" s="199"/>
+      <c r="F18" s="196"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="195"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9444,11 +9444,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="194"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="198"/>
-      <c r="J19" s="199"/>
+      <c r="F19" s="196"/>
+      <c r="G19" s="197"/>
+      <c r="H19" s="193"/>
+      <c r="I19" s="194"/>
+      <c r="J19" s="195"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9458,11 +9458,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="194"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="198"/>
-      <c r="J20" s="199"/>
+      <c r="F20" s="196"/>
+      <c r="G20" s="197"/>
+      <c r="H20" s="193"/>
+      <c r="I20" s="194"/>
+      <c r="J20" s="195"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9472,11 +9472,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="194"/>
-      <c r="H21" s="197"/>
-      <c r="I21" s="198"/>
-      <c r="J21" s="199"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="197"/>
+      <c r="H21" s="193"/>
+      <c r="I21" s="194"/>
+      <c r="J21" s="195"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9486,11 +9486,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="197"/>
-      <c r="I22" s="198"/>
-      <c r="J22" s="199"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="193"/>
+      <c r="I22" s="194"/>
+      <c r="J22" s="195"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9500,11 +9500,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="197"/>
-      <c r="I23" s="198"/>
-      <c r="J23" s="199"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="193"/>
+      <c r="I23" s="194"/>
+      <c r="J23" s="195"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9514,11 +9514,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="197"/>
-      <c r="I24" s="198"/>
-      <c r="J24" s="199"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="193"/>
+      <c r="I24" s="194"/>
+      <c r="J24" s="195"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9528,11 +9528,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="197"/>
-      <c r="I25" s="198"/>
-      <c r="J25" s="199"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="194"/>
+      <c r="J25" s="195"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9542,11 +9542,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="197"/>
-      <c r="I26" s="198"/>
-      <c r="J26" s="199"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="193"/>
+      <c r="I26" s="194"/>
+      <c r="J26" s="195"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9556,11 +9556,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="197"/>
-      <c r="I27" s="198"/>
-      <c r="J27" s="199"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="193"/>
+      <c r="I27" s="194"/>
+      <c r="J27" s="195"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9570,11 +9570,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="197"/>
-      <c r="I28" s="198"/>
-      <c r="J28" s="199"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="193"/>
+      <c r="I28" s="194"/>
+      <c r="J28" s="195"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9584,11 +9584,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="197"/>
-      <c r="I29" s="198"/>
-      <c r="J29" s="199"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="193"/>
+      <c r="I29" s="194"/>
+      <c r="J29" s="195"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9598,11 +9598,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="197"/>
-      <c r="I30" s="198"/>
-      <c r="J30" s="199"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="193"/>
+      <c r="I30" s="194"/>
+      <c r="J30" s="195"/>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9612,11 +9612,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="159"/>
-      <c r="H31" s="197"/>
-      <c r="I31" s="198"/>
-      <c r="J31" s="199"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="193"/>
+      <c r="I31" s="194"/>
+      <c r="J31" s="195"/>
     </row>
     <row r="32" spans="1:18" ht="11.25">
       <c r="A32" s="33">
@@ -9626,11 +9626,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="197"/>
-      <c r="I32" s="198"/>
-      <c r="J32" s="199"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="193"/>
+      <c r="I32" s="194"/>
+      <c r="J32" s="195"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -9647,11 +9647,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="197"/>
-      <c r="I33" s="198"/>
-      <c r="J33" s="199"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="193"/>
+      <c r="I33" s="194"/>
+      <c r="J33" s="195"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -9668,11 +9668,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="197"/>
-      <c r="I34" s="198"/>
-      <c r="J34" s="199"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="193"/>
+      <c r="I34" s="194"/>
+      <c r="J34" s="195"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -9689,11 +9689,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="197"/>
-      <c r="I35" s="198"/>
-      <c r="J35" s="199"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="193"/>
+      <c r="I35" s="194"/>
+      <c r="J35" s="195"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -9710,11 +9710,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="197"/>
-      <c r="I36" s="198"/>
-      <c r="J36" s="199"/>
+      <c r="F36" s="156"/>
+      <c r="G36" s="158"/>
+      <c r="H36" s="193"/>
+      <c r="I36" s="194"/>
+      <c r="J36" s="195"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -9731,11 +9731,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="157"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="197"/>
-      <c r="I37" s="198"/>
-      <c r="J37" s="199"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="158"/>
+      <c r="H37" s="193"/>
+      <c r="I37" s="194"/>
+      <c r="J37" s="195"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -9752,11 +9752,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="159"/>
-      <c r="H38" s="197"/>
-      <c r="I38" s="198"/>
-      <c r="J38" s="199"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="158"/>
+      <c r="H38" s="193"/>
+      <c r="I38" s="194"/>
+      <c r="J38" s="195"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -9773,11 +9773,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="159"/>
-      <c r="H39" s="197"/>
-      <c r="I39" s="198"/>
-      <c r="J39" s="199"/>
+      <c r="F39" s="156"/>
+      <c r="G39" s="158"/>
+      <c r="H39" s="193"/>
+      <c r="I39" s="194"/>
+      <c r="J39" s="195"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -9794,11 +9794,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="157"/>
-      <c r="G40" s="159"/>
-      <c r="H40" s="197"/>
-      <c r="I40" s="198"/>
-      <c r="J40" s="199"/>
+      <c r="F40" s="156"/>
+      <c r="G40" s="158"/>
+      <c r="H40" s="193"/>
+      <c r="I40" s="194"/>
+      <c r="J40" s="195"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -9815,11 +9815,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="157"/>
-      <c r="G41" s="159"/>
-      <c r="H41" s="197"/>
-      <c r="I41" s="198"/>
-      <c r="J41" s="199"/>
+      <c r="F41" s="156"/>
+      <c r="G41" s="158"/>
+      <c r="H41" s="193"/>
+      <c r="I41" s="194"/>
+      <c r="J41" s="195"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -9836,11 +9836,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="157"/>
-      <c r="G42" s="159"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="198"/>
-      <c r="J42" s="199"/>
+      <c r="F42" s="156"/>
+      <c r="G42" s="158"/>
+      <c r="H42" s="193"/>
+      <c r="I42" s="194"/>
+      <c r="J42" s="195"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -9857,11 +9857,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="157"/>
-      <c r="G43" s="159"/>
-      <c r="H43" s="197"/>
-      <c r="I43" s="198"/>
-      <c r="J43" s="199"/>
+      <c r="F43" s="156"/>
+      <c r="G43" s="158"/>
+      <c r="H43" s="193"/>
+      <c r="I43" s="194"/>
+      <c r="J43" s="195"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -9878,11 +9878,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="157"/>
-      <c r="G44" s="159"/>
-      <c r="H44" s="197"/>
-      <c r="I44" s="198"/>
-      <c r="J44" s="199"/>
+      <c r="F44" s="156"/>
+      <c r="G44" s="158"/>
+      <c r="H44" s="193"/>
+      <c r="I44" s="194"/>
+      <c r="J44" s="195"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -9899,11 +9899,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="157"/>
-      <c r="G45" s="159"/>
-      <c r="H45" s="197"/>
-      <c r="I45" s="198"/>
-      <c r="J45" s="199"/>
+      <c r="F45" s="156"/>
+      <c r="G45" s="158"/>
+      <c r="H45" s="193"/>
+      <c r="I45" s="194"/>
+      <c r="J45" s="195"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -9920,11 +9920,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="157"/>
-      <c r="G46" s="159"/>
-      <c r="H46" s="197"/>
-      <c r="I46" s="198"/>
-      <c r="J46" s="199"/>
+      <c r="F46" s="156"/>
+      <c r="G46" s="158"/>
+      <c r="H46" s="193"/>
+      <c r="I46" s="194"/>
+      <c r="J46" s="195"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -9941,11 +9941,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="157"/>
-      <c r="G47" s="159"/>
-      <c r="H47" s="197"/>
-      <c r="I47" s="198"/>
-      <c r="J47" s="199"/>
+      <c r="F47" s="156"/>
+      <c r="G47" s="158"/>
+      <c r="H47" s="193"/>
+      <c r="I47" s="194"/>
+      <c r="J47" s="195"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -9962,11 +9962,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="157"/>
-      <c r="G48" s="159"/>
-      <c r="H48" s="197"/>
-      <c r="I48" s="198"/>
-      <c r="J48" s="199"/>
+      <c r="F48" s="156"/>
+      <c r="G48" s="158"/>
+      <c r="H48" s="193"/>
+      <c r="I48" s="194"/>
+      <c r="J48" s="195"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -9983,11 +9983,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="157"/>
-      <c r="G49" s="159"/>
-      <c r="H49" s="197"/>
-      <c r="I49" s="198"/>
-      <c r="J49" s="199"/>
+      <c r="F49" s="156"/>
+      <c r="G49" s="158"/>
+      <c r="H49" s="193"/>
+      <c r="I49" s="194"/>
+      <c r="J49" s="195"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -10004,11 +10004,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="157"/>
-      <c r="G50" s="159"/>
-      <c r="H50" s="197"/>
-      <c r="I50" s="198"/>
-      <c r="J50" s="199"/>
+      <c r="F50" s="156"/>
+      <c r="G50" s="158"/>
+      <c r="H50" s="193"/>
+      <c r="I50" s="194"/>
+      <c r="J50" s="195"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -10025,11 +10025,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="157"/>
-      <c r="G51" s="159"/>
-      <c r="H51" s="197"/>
-      <c r="I51" s="198"/>
-      <c r="J51" s="199"/>
+      <c r="F51" s="156"/>
+      <c r="G51" s="158"/>
+      <c r="H51" s="193"/>
+      <c r="I51" s="194"/>
+      <c r="J51" s="195"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -10046,11 +10046,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="157"/>
-      <c r="G52" s="159"/>
-      <c r="H52" s="197"/>
-      <c r="I52" s="198"/>
-      <c r="J52" s="199"/>
+      <c r="F52" s="156"/>
+      <c r="G52" s="158"/>
+      <c r="H52" s="193"/>
+      <c r="I52" s="194"/>
+      <c r="J52" s="195"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -10067,11 +10067,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="157"/>
-      <c r="G53" s="159"/>
-      <c r="H53" s="197"/>
-      <c r="I53" s="198"/>
-      <c r="J53" s="199"/>
+      <c r="F53" s="156"/>
+      <c r="G53" s="158"/>
+      <c r="H53" s="193"/>
+      <c r="I53" s="194"/>
+      <c r="J53" s="195"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -10088,11 +10088,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="157"/>
-      <c r="G54" s="159"/>
-      <c r="H54" s="197"/>
-      <c r="I54" s="198"/>
-      <c r="J54" s="199"/>
+      <c r="F54" s="156"/>
+      <c r="G54" s="158"/>
+      <c r="H54" s="193"/>
+      <c r="I54" s="194"/>
+      <c r="J54" s="195"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -10109,11 +10109,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="157"/>
-      <c r="G55" s="159"/>
-      <c r="H55" s="197"/>
-      <c r="I55" s="198"/>
-      <c r="J55" s="199"/>
+      <c r="F55" s="156"/>
+      <c r="G55" s="158"/>
+      <c r="H55" s="193"/>
+      <c r="I55" s="194"/>
+      <c r="J55" s="195"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -10130,11 +10130,11 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="32"/>
-      <c r="F56" s="157"/>
-      <c r="G56" s="159"/>
-      <c r="H56" s="197"/>
-      <c r="I56" s="198"/>
-      <c r="J56" s="199"/>
+      <c r="F56" s="156"/>
+      <c r="G56" s="158"/>
+      <c r="H56" s="193"/>
+      <c r="I56" s="194"/>
+      <c r="J56" s="195"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -10146,6 +10146,99 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="F54:G54"/>
@@ -10160,99 +10253,6 @@
     <mergeCell ref="H54:J54"/>
     <mergeCell ref="H55:J55"/>
     <mergeCell ref="H56:J56"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E56">
@@ -10270,7 +10270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1048467"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="G1" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J5" sqref="J5:M5"/>
     </sheetView>
   </sheetViews>
@@ -10299,23 +10299,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
       <c r="H1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="206" t="str">
+      <c r="I1" s="203" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="J1" s="206"/>
+      <c r="J1" s="203"/>
       <c r="K1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10342,21 +10342,21 @@
       <c r="T1" s="52"/>
     </row>
     <row r="2" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
+      <c r="A2" s="162"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
       <c r="H2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="206" t="str">
+      <c r="I2" s="203" t="str">
         <f>'Update History'!D2</f>
         <v>ASSOFT - CRM</v>
       </c>
-      <c r="J2" s="206"/>
+      <c r="J2" s="203"/>
       <c r="K2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10455,19 +10455,19 @@
         <v>199</v>
       </c>
       <c r="J5" s="200" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K5" s="201"/>
       <c r="L5" s="201"/>
       <c r="M5" s="202"/>
       <c r="N5" s="133" t="s">
+        <v>215</v>
+      </c>
+      <c r="O5" s="133" t="s">
         <v>216</v>
       </c>
-      <c r="O5" s="133" t="s">
+      <c r="P5" s="77" t="s">
         <v>217</v>
-      </c>
-      <c r="P5" s="77" t="s">
-        <v>218</v>
       </c>
       <c r="Q5" s="76" t="s">
         <v>200</v>
@@ -10522,7 +10522,7 @@
       <c r="O7" s="90"/>
       <c r="P7" s="77"/>
       <c r="Q7" s="76"/>
-      <c r="R7" s="203"/>
+      <c r="R7" s="204"/>
       <c r="S7" s="64"/>
       <c r="T7" s="64"/>
     </row>
@@ -10546,7 +10546,7 @@
       <c r="O8" s="90"/>
       <c r="P8" s="77"/>
       <c r="Q8" s="76"/>
-      <c r="R8" s="204"/>
+      <c r="R8" s="205"/>
       <c r="S8" s="64"/>
       <c r="T8" s="64"/>
     </row>
@@ -10570,7 +10570,7 @@
       <c r="O9" s="90"/>
       <c r="P9" s="77"/>
       <c r="Q9" s="76"/>
-      <c r="R9" s="205"/>
+      <c r="R9" s="206"/>
       <c r="S9" s="64"/>
       <c r="T9" s="64"/>
     </row>
@@ -10594,7 +10594,7 @@
       <c r="O10" s="90"/>
       <c r="P10" s="77"/>
       <c r="Q10" s="76"/>
-      <c r="R10" s="203"/>
+      <c r="R10" s="204"/>
       <c r="S10" s="64"/>
       <c r="T10" s="64"/>
     </row>
@@ -10618,7 +10618,7 @@
       <c r="O11" s="90"/>
       <c r="P11" s="77"/>
       <c r="Q11" s="76"/>
-      <c r="R11" s="204"/>
+      <c r="R11" s="205"/>
       <c r="S11" s="64"/>
       <c r="T11" s="64"/>
     </row>
@@ -10642,7 +10642,7 @@
       <c r="O12" s="86"/>
       <c r="P12" s="77"/>
       <c r="Q12" s="76"/>
-      <c r="R12" s="204"/>
+      <c r="R12" s="205"/>
       <c r="S12" s="64"/>
       <c r="T12" s="64"/>
     </row>
@@ -10666,7 +10666,7 @@
       <c r="O13" s="86"/>
       <c r="P13" s="77"/>
       <c r="Q13" s="76"/>
-      <c r="R13" s="205"/>
+      <c r="R13" s="206"/>
       <c r="S13" s="64"/>
       <c r="T13" s="64"/>
     </row>
@@ -12558,60 +12558,32 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="96">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="J91:M91"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="R10:R13"/>
+    <mergeCell ref="J87:M87"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J76:M76"/>
     <mergeCell ref="J93:M93"/>
     <mergeCell ref="J94:M94"/>
     <mergeCell ref="J5:M5"/>
@@ -12628,32 +12600,60 @@
     <mergeCell ref="J69:M69"/>
     <mergeCell ref="J70:M70"/>
     <mergeCell ref="J71:M71"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="R10:R13"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="J91:M91"/>
-    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J11:M11"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="P1048467:P1048576 P5:P94"/>
@@ -12683,7 +12683,7 @@
   <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J2"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -12699,10 +12699,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
+      <c r="B1" s="162"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12732,8 +12732,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
+      <c r="A2" s="162"/>
+      <c r="B2" s="162"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13786,7 +13786,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -13802,10 +13802,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
+      <c r="B1" s="162"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13835,8 +13835,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
+      <c r="A2" s="162"/>
+      <c r="B2" s="162"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMR30101_Bao cao KH moi theo nhan vien.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMR30101_Bao cao KH moi theo nhan vien.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -2050,11 +2050,6 @@
     <t>CRMR3010</t>
   </si>
   <si>
-    <t>Click Link Báo cáo KH mới theo nhân viên-&gt; Form CRMF3010
--&gt; In
--&gt; Báo cáo khách hàng mới theo nhân viên</t>
-  </si>
-  <si>
     <t>CRMR30101</t>
   </si>
   <si>
@@ -2104,6 +2099,14 @@
   @ToEmployeeID           Varchar(50),
   @UserID  VARCHAR(50)
 </t>
+  </si>
+  <si>
+    <t>Menu [Báo cáo]
+ -&gt; MenuItem[Báo cáo biểu đồ_CRMF3000] 
+-&gt; Click vào Link Báo cáo KH mới theo nhân viên 
+-&gt;Pop [Báo cáo khách hàng mới theo nhân viên_CRMF3010]
+-&gt; In
+-&gt; [Tab]Báo cáo khách hàng mới theo nhân viên</t>
   </si>
 </sst>
 </file>
@@ -2971,9 +2974,27 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3019,23 +3040,8 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3064,9 +3070,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3149,6 +3152,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3157,18 +3172,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3178,17 +3181,17 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4179,65 +4182,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="139"/>
-      <c r="B1" s="139"/>
-      <c r="C1" s="141" t="s">
+      <c r="A1" s="145"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="147" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="140" t="s">
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="146" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140" t="s">
+      <c r="H1" s="146"/>
+      <c r="I1" s="146" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="140"/>
+      <c r="J1" s="146"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="139"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="140" t="s">
+      <c r="A2" s="145"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="146" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="139"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="136" t="s">
+      <c r="A3" s="145"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="142" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="137"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="137"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="143"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="119"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="138"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
+      <c r="A13" s="144"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="144"/>
       <c r="K13" s="120"/>
       <c r="L13" s="120"/>
       <c r="M13" s="120"/>
@@ -4248,56 +4251,56 @@
       <c r="R13" s="120"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="134"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="134"/>
-      <c r="N14" s="134"/>
-      <c r="O14" s="134"/>
-      <c r="P14" s="134"/>
-      <c r="Q14" s="134"/>
-      <c r="R14" s="134"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="138"/>
+      <c r="N14" s="138"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="138"/>
+      <c r="Q14" s="138"/>
+      <c r="R14" s="138"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="134"/>
-      <c r="N15" s="134"/>
-      <c r="O15" s="134"/>
-      <c r="P15" s="134"/>
-      <c r="Q15" s="134"/>
-      <c r="R15" s="134"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="138"/>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="138"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="135" t="s">
+      <c r="A16" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="135"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="135"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="141"/>
       <c r="K16" s="121"/>
       <c r="L16" s="121"/>
       <c r="M16" s="121"/>
@@ -4308,384 +4311,384 @@
       <c r="R16" s="121"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="134"/>
-      <c r="N17" s="134"/>
-      <c r="O17" s="134"/>
-      <c r="P17" s="134"/>
-      <c r="Q17" s="134"/>
-      <c r="R17" s="134"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="138"/>
+      <c r="Q17" s="138"/>
+      <c r="R17" s="138"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="134"/>
-      <c r="K18" s="134"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
-      <c r="N18" s="134"/>
-      <c r="O18" s="134"/>
-      <c r="P18" s="134"/>
-      <c r="Q18" s="134"/>
-      <c r="R18" s="134"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="138"/>
+      <c r="Q18" s="138"/>
+      <c r="R18" s="138"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="151"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="151"/>
-      <c r="O19" s="151"/>
-      <c r="P19" s="151"/>
-      <c r="Q19" s="151"/>
-      <c r="R19" s="151"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="140"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="140"/>
+      <c r="N19" s="140"/>
+      <c r="O19" s="140"/>
+      <c r="P19" s="140"/>
+      <c r="Q19" s="140"/>
+      <c r="R19" s="140"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="134"/>
-      <c r="C20" s="134"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="134"/>
-      <c r="J20" s="134"/>
-      <c r="K20" s="134"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="134"/>
-      <c r="N20" s="134"/>
-      <c r="O20" s="134"/>
-      <c r="P20" s="134"/>
-      <c r="Q20" s="134"/>
-      <c r="R20" s="134"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="138"/>
+      <c r="P20" s="138"/>
+      <c r="Q20" s="138"/>
+      <c r="R20" s="138"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="134"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="134"/>
-      <c r="I21" s="134"/>
-      <c r="J21" s="134"/>
-      <c r="K21" s="134"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="134"/>
-      <c r="N21" s="134"/>
-      <c r="O21" s="134"/>
-      <c r="P21" s="134"/>
-      <c r="Q21" s="134"/>
-      <c r="R21" s="134"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="138"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="138"/>
+      <c r="Q21" s="138"/>
+      <c r="R21" s="138"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="150"/>
-      <c r="I22" s="150"/>
-      <c r="J22" s="150"/>
-      <c r="K22" s="150"/>
-      <c r="L22" s="150"/>
-      <c r="M22" s="150"/>
-      <c r="N22" s="150"/>
-      <c r="O22" s="150"/>
-      <c r="P22" s="150"/>
-      <c r="Q22" s="150"/>
-      <c r="R22" s="150"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="139"/>
+      <c r="K22" s="139"/>
+      <c r="L22" s="139"/>
+      <c r="M22" s="139"/>
+      <c r="N22" s="139"/>
+      <c r="O22" s="139"/>
+      <c r="P22" s="139"/>
+      <c r="Q22" s="139"/>
+      <c r="R22" s="139"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="150"/>
-      <c r="C23" s="150"/>
-      <c r="D23" s="150"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="150"/>
-      <c r="I23" s="150"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="150"/>
-      <c r="L23" s="150"/>
-      <c r="M23" s="150"/>
-      <c r="N23" s="150"/>
-      <c r="O23" s="150"/>
-      <c r="P23" s="150"/>
-      <c r="Q23" s="150"/>
-      <c r="R23" s="150"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="139"/>
+      <c r="L23" s="139"/>
+      <c r="M23" s="139"/>
+      <c r="N23" s="139"/>
+      <c r="O23" s="139"/>
+      <c r="P23" s="139"/>
+      <c r="Q23" s="139"/>
+      <c r="R23" s="139"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="152"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="152"/>
-      <c r="L26" s="152"/>
-      <c r="M26" s="152"/>
-      <c r="N26" s="152"/>
-      <c r="O26" s="152"/>
-      <c r="P26" s="152"/>
-      <c r="Q26" s="152"/>
-      <c r="R26" s="152"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="136"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="136"/>
+      <c r="P26" s="136"/>
+      <c r="Q26" s="136"/>
+      <c r="R26" s="136"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="154"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="154"/>
-      <c r="L28" s="154"/>
-      <c r="M28" s="154"/>
-      <c r="N28" s="154"/>
-      <c r="O28" s="154"/>
-      <c r="P28" s="154"/>
-      <c r="Q28" s="154"/>
-      <c r="R28" s="154"/>
-      <c r="S28" s="153"/>
-      <c r="T28" s="153"/>
-      <c r="U28" s="153"/>
-      <c r="V28" s="153"/>
-      <c r="W28" s="153"/>
-      <c r="X28" s="153"/>
-      <c r="Y28" s="153"/>
-      <c r="Z28" s="153"/>
-      <c r="AA28" s="153"/>
-      <c r="AB28" s="153"/>
-      <c r="AC28" s="153"/>
-      <c r="AD28" s="153"/>
-      <c r="AE28" s="153"/>
-      <c r="AF28" s="153"/>
-      <c r="AG28" s="153"/>
-      <c r="AH28" s="153"/>
-      <c r="AI28" s="153"/>
-      <c r="AJ28" s="153"/>
-      <c r="AK28" s="153"/>
-      <c r="AL28" s="153"/>
-      <c r="AM28" s="153"/>
-      <c r="AN28" s="153"/>
-      <c r="AO28" s="153"/>
-      <c r="AP28" s="153"/>
-      <c r="AQ28" s="153"/>
-      <c r="AR28" s="153"/>
-      <c r="AS28" s="153"/>
-      <c r="AT28" s="153"/>
-      <c r="AU28" s="153"/>
-      <c r="AV28" s="153"/>
-      <c r="AW28" s="153"/>
-      <c r="AX28" s="153"/>
-      <c r="AY28" s="153"/>
-      <c r="AZ28" s="153"/>
-      <c r="BA28" s="153"/>
-      <c r="BB28" s="153"/>
-      <c r="BC28" s="153"/>
-      <c r="BD28" s="153"/>
-      <c r="BE28" s="153"/>
-      <c r="BF28" s="153"/>
-      <c r="BG28" s="153"/>
-      <c r="BH28" s="153"/>
-      <c r="BI28" s="153"/>
-      <c r="BJ28" s="153"/>
-      <c r="BK28" s="153"/>
-      <c r="BL28" s="153"/>
-      <c r="BM28" s="153"/>
-      <c r="BN28" s="153"/>
-      <c r="BO28" s="153"/>
-      <c r="BP28" s="153"/>
-      <c r="BQ28" s="153"/>
-      <c r="BR28" s="153"/>
-      <c r="BS28" s="153"/>
-      <c r="BT28" s="153"/>
-      <c r="BU28" s="153"/>
-      <c r="BV28" s="153"/>
-      <c r="BW28" s="153"/>
-      <c r="BX28" s="153"/>
-      <c r="BY28" s="153"/>
-      <c r="BZ28" s="153"/>
-      <c r="CA28" s="153"/>
-      <c r="CB28" s="153"/>
-      <c r="CC28" s="153"/>
-      <c r="CD28" s="153"/>
-      <c r="CE28" s="153"/>
-      <c r="CF28" s="153"/>
-      <c r="CG28" s="153"/>
-      <c r="CH28" s="153"/>
-      <c r="CI28" s="153"/>
-      <c r="CJ28" s="153"/>
-      <c r="CK28" s="153"/>
-      <c r="CL28" s="153"/>
-      <c r="CM28" s="153"/>
-      <c r="CN28" s="153"/>
-      <c r="CO28" s="153"/>
-      <c r="CP28" s="153"/>
-      <c r="CQ28" s="153"/>
-      <c r="CR28" s="153"/>
-      <c r="CS28" s="153"/>
-      <c r="CT28" s="153"/>
-      <c r="CU28" s="153"/>
-      <c r="CV28" s="153"/>
-      <c r="CW28" s="153"/>
-      <c r="CX28" s="153"/>
-      <c r="CY28" s="153"/>
-      <c r="CZ28" s="153"/>
-      <c r="DA28" s="153"/>
-      <c r="DB28" s="153"/>
-      <c r="DC28" s="153"/>
-      <c r="DD28" s="153"/>
-      <c r="DE28" s="153"/>
-      <c r="DF28" s="153"/>
-      <c r="DG28" s="153"/>
-      <c r="DH28" s="153"/>
-      <c r="DI28" s="153"/>
-      <c r="DJ28" s="153"/>
-      <c r="DK28" s="153"/>
-      <c r="DL28" s="153"/>
-      <c r="DM28" s="153"/>
-      <c r="DN28" s="153"/>
-      <c r="DO28" s="153"/>
-      <c r="DP28" s="153"/>
-      <c r="DQ28" s="153"/>
-      <c r="DR28" s="153"/>
-      <c r="DS28" s="153"/>
-      <c r="DT28" s="153"/>
-      <c r="DU28" s="153"/>
-      <c r="DV28" s="153"/>
-      <c r="DW28" s="153"/>
-      <c r="DX28" s="153"/>
-      <c r="DY28" s="153"/>
-      <c r="DZ28" s="153"/>
-      <c r="EA28" s="153"/>
-      <c r="EB28" s="153"/>
-      <c r="EC28" s="153"/>
-      <c r="ED28" s="153"/>
-      <c r="EE28" s="153"/>
-      <c r="EF28" s="153"/>
-      <c r="EG28" s="153"/>
-      <c r="EH28" s="153"/>
-      <c r="EI28" s="153"/>
-      <c r="EJ28" s="153"/>
-      <c r="EK28" s="153"/>
-      <c r="EL28" s="153"/>
-      <c r="EM28" s="153"/>
-      <c r="EN28" s="153"/>
-      <c r="EO28" s="153"/>
-      <c r="EP28" s="153"/>
-      <c r="EQ28" s="153"/>
-      <c r="ER28" s="153"/>
-      <c r="ES28" s="153"/>
-      <c r="ET28" s="153"/>
-      <c r="EU28" s="153"/>
-      <c r="EV28" s="153"/>
-      <c r="EW28" s="153"/>
-      <c r="EX28" s="153"/>
-      <c r="EY28" s="153"/>
-      <c r="EZ28" s="153"/>
-      <c r="FA28" s="153"/>
-      <c r="FB28" s="153"/>
-      <c r="FC28" s="153"/>
-      <c r="FD28" s="153"/>
-      <c r="FE28" s="153"/>
-      <c r="FF28" s="153"/>
-      <c r="FG28" s="153"/>
-      <c r="FH28" s="153"/>
-      <c r="FI28" s="153"/>
-      <c r="FJ28" s="153"/>
-      <c r="FK28" s="153"/>
-      <c r="FL28" s="153"/>
-      <c r="FM28" s="153"/>
-      <c r="FN28" s="153"/>
-      <c r="FO28" s="153"/>
-      <c r="FP28" s="153"/>
-      <c r="FQ28" s="153"/>
-      <c r="FR28" s="153"/>
-      <c r="FS28" s="153"/>
-      <c r="FT28" s="153"/>
-      <c r="FU28" s="153"/>
-      <c r="FV28" s="153"/>
-      <c r="FW28" s="153"/>
-      <c r="FX28" s="153"/>
-      <c r="FY28" s="153"/>
-      <c r="FZ28" s="153"/>
-      <c r="GA28" s="153"/>
-      <c r="GB28" s="153"/>
-      <c r="GC28" s="153"/>
-      <c r="GD28" s="153"/>
-      <c r="GE28" s="153"/>
-      <c r="GF28" s="153"/>
-      <c r="GG28" s="153"/>
-      <c r="GH28" s="153"/>
-      <c r="GI28" s="153"/>
-      <c r="GJ28" s="153"/>
-      <c r="GK28" s="153"/>
-      <c r="GL28" s="153"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="137"/>
+      <c r="J28" s="137"/>
+      <c r="K28" s="137"/>
+      <c r="L28" s="137"/>
+      <c r="M28" s="137"/>
+      <c r="N28" s="137"/>
+      <c r="O28" s="137"/>
+      <c r="P28" s="137"/>
+      <c r="Q28" s="137"/>
+      <c r="R28" s="137"/>
+      <c r="S28" s="135"/>
+      <c r="T28" s="135"/>
+      <c r="U28" s="135"/>
+      <c r="V28" s="135"/>
+      <c r="W28" s="135"/>
+      <c r="X28" s="135"/>
+      <c r="Y28" s="135"/>
+      <c r="Z28" s="135"/>
+      <c r="AA28" s="135"/>
+      <c r="AB28" s="135"/>
+      <c r="AC28" s="135"/>
+      <c r="AD28" s="135"/>
+      <c r="AE28" s="135"/>
+      <c r="AF28" s="135"/>
+      <c r="AG28" s="135"/>
+      <c r="AH28" s="135"/>
+      <c r="AI28" s="135"/>
+      <c r="AJ28" s="135"/>
+      <c r="AK28" s="135"/>
+      <c r="AL28" s="135"/>
+      <c r="AM28" s="135"/>
+      <c r="AN28" s="135"/>
+      <c r="AO28" s="135"/>
+      <c r="AP28" s="135"/>
+      <c r="AQ28" s="135"/>
+      <c r="AR28" s="135"/>
+      <c r="AS28" s="135"/>
+      <c r="AT28" s="135"/>
+      <c r="AU28" s="135"/>
+      <c r="AV28" s="135"/>
+      <c r="AW28" s="135"/>
+      <c r="AX28" s="135"/>
+      <c r="AY28" s="135"/>
+      <c r="AZ28" s="135"/>
+      <c r="BA28" s="135"/>
+      <c r="BB28" s="135"/>
+      <c r="BC28" s="135"/>
+      <c r="BD28" s="135"/>
+      <c r="BE28" s="135"/>
+      <c r="BF28" s="135"/>
+      <c r="BG28" s="135"/>
+      <c r="BH28" s="135"/>
+      <c r="BI28" s="135"/>
+      <c r="BJ28" s="135"/>
+      <c r="BK28" s="135"/>
+      <c r="BL28" s="135"/>
+      <c r="BM28" s="135"/>
+      <c r="BN28" s="135"/>
+      <c r="BO28" s="135"/>
+      <c r="BP28" s="135"/>
+      <c r="BQ28" s="135"/>
+      <c r="BR28" s="135"/>
+      <c r="BS28" s="135"/>
+      <c r="BT28" s="135"/>
+      <c r="BU28" s="135"/>
+      <c r="BV28" s="135"/>
+      <c r="BW28" s="135"/>
+      <c r="BX28" s="135"/>
+      <c r="BY28" s="135"/>
+      <c r="BZ28" s="135"/>
+      <c r="CA28" s="135"/>
+      <c r="CB28" s="135"/>
+      <c r="CC28" s="135"/>
+      <c r="CD28" s="135"/>
+      <c r="CE28" s="135"/>
+      <c r="CF28" s="135"/>
+      <c r="CG28" s="135"/>
+      <c r="CH28" s="135"/>
+      <c r="CI28" s="135"/>
+      <c r="CJ28" s="135"/>
+      <c r="CK28" s="135"/>
+      <c r="CL28" s="135"/>
+      <c r="CM28" s="135"/>
+      <c r="CN28" s="135"/>
+      <c r="CO28" s="135"/>
+      <c r="CP28" s="135"/>
+      <c r="CQ28" s="135"/>
+      <c r="CR28" s="135"/>
+      <c r="CS28" s="135"/>
+      <c r="CT28" s="135"/>
+      <c r="CU28" s="135"/>
+      <c r="CV28" s="135"/>
+      <c r="CW28" s="135"/>
+      <c r="CX28" s="135"/>
+      <c r="CY28" s="135"/>
+      <c r="CZ28" s="135"/>
+      <c r="DA28" s="135"/>
+      <c r="DB28" s="135"/>
+      <c r="DC28" s="135"/>
+      <c r="DD28" s="135"/>
+      <c r="DE28" s="135"/>
+      <c r="DF28" s="135"/>
+      <c r="DG28" s="135"/>
+      <c r="DH28" s="135"/>
+      <c r="DI28" s="135"/>
+      <c r="DJ28" s="135"/>
+      <c r="DK28" s="135"/>
+      <c r="DL28" s="135"/>
+      <c r="DM28" s="135"/>
+      <c r="DN28" s="135"/>
+      <c r="DO28" s="135"/>
+      <c r="DP28" s="135"/>
+      <c r="DQ28" s="135"/>
+      <c r="DR28" s="135"/>
+      <c r="DS28" s="135"/>
+      <c r="DT28" s="135"/>
+      <c r="DU28" s="135"/>
+      <c r="DV28" s="135"/>
+      <c r="DW28" s="135"/>
+      <c r="DX28" s="135"/>
+      <c r="DY28" s="135"/>
+      <c r="DZ28" s="135"/>
+      <c r="EA28" s="135"/>
+      <c r="EB28" s="135"/>
+      <c r="EC28" s="135"/>
+      <c r="ED28" s="135"/>
+      <c r="EE28" s="135"/>
+      <c r="EF28" s="135"/>
+      <c r="EG28" s="135"/>
+      <c r="EH28" s="135"/>
+      <c r="EI28" s="135"/>
+      <c r="EJ28" s="135"/>
+      <c r="EK28" s="135"/>
+      <c r="EL28" s="135"/>
+      <c r="EM28" s="135"/>
+      <c r="EN28" s="135"/>
+      <c r="EO28" s="135"/>
+      <c r="EP28" s="135"/>
+      <c r="EQ28" s="135"/>
+      <c r="ER28" s="135"/>
+      <c r="ES28" s="135"/>
+      <c r="ET28" s="135"/>
+      <c r="EU28" s="135"/>
+      <c r="EV28" s="135"/>
+      <c r="EW28" s="135"/>
+      <c r="EX28" s="135"/>
+      <c r="EY28" s="135"/>
+      <c r="EZ28" s="135"/>
+      <c r="FA28" s="135"/>
+      <c r="FB28" s="135"/>
+      <c r="FC28" s="135"/>
+      <c r="FD28" s="135"/>
+      <c r="FE28" s="135"/>
+      <c r="FF28" s="135"/>
+      <c r="FG28" s="135"/>
+      <c r="FH28" s="135"/>
+      <c r="FI28" s="135"/>
+      <c r="FJ28" s="135"/>
+      <c r="FK28" s="135"/>
+      <c r="FL28" s="135"/>
+      <c r="FM28" s="135"/>
+      <c r="FN28" s="135"/>
+      <c r="FO28" s="135"/>
+      <c r="FP28" s="135"/>
+      <c r="FQ28" s="135"/>
+      <c r="FR28" s="135"/>
+      <c r="FS28" s="135"/>
+      <c r="FT28" s="135"/>
+      <c r="FU28" s="135"/>
+      <c r="FV28" s="135"/>
+      <c r="FW28" s="135"/>
+      <c r="FX28" s="135"/>
+      <c r="FY28" s="135"/>
+      <c r="FZ28" s="135"/>
+      <c r="GA28" s="135"/>
+      <c r="GB28" s="135"/>
+      <c r="GC28" s="135"/>
+      <c r="GD28" s="135"/>
+      <c r="GE28" s="135"/>
+      <c r="GF28" s="135"/>
+      <c r="GG28" s="135"/>
+      <c r="GH28" s="135"/>
+      <c r="GI28" s="135"/>
+      <c r="GJ28" s="135"/>
+      <c r="GK28" s="135"/>
+      <c r="GL28" s="135"/>
       <c r="GM28" s="122"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="152"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="152"/>
-      <c r="I29" s="152"/>
-      <c r="J29" s="152"/>
-      <c r="K29" s="152"/>
-      <c r="L29" s="152"/>
-      <c r="M29" s="152"/>
-      <c r="N29" s="152"/>
-      <c r="O29" s="152"/>
-      <c r="P29" s="152"/>
-      <c r="Q29" s="152"/>
-      <c r="R29" s="152"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="136"/>
+      <c r="N29" s="136"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="136"/>
+      <c r="Q29" s="136"/>
+      <c r="R29" s="136"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="155"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="155"/>
-      <c r="J30" s="155"/>
+      <c r="A30" s="134"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="134"/>
       <c r="K30" s="123"/>
       <c r="L30" s="123"/>
       <c r="M30" s="123"/>
@@ -4696,16 +4699,16 @@
       <c r="R30" s="123"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="155"/>
-      <c r="B31" s="155"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="155"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="155"/>
+      <c r="A31" s="134"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="134"/>
+      <c r="J31" s="134"/>
       <c r="K31" s="123"/>
       <c r="L31" s="123"/>
       <c r="M31" s="123"/>
@@ -4717,28 +4720,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4752,6 +4733,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5306,10 +5309,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="162"/>
+      <c r="B1" s="163"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5320,7 +5323,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -5336,8 +5339,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="162"/>
-      <c r="B2" s="162"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5379,14 +5382,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="163" t="s">
+      <c r="E4" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
       <c r="A5" s="40">
@@ -5401,14 +5404,14 @@
       <c r="D5" s="102" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="164" t="s">
-        <v>210</v>
-      </c>
-      <c r="F5" s="165"/>
-      <c r="G5" s="165"/>
-      <c r="H5" s="165"/>
-      <c r="I5" s="165"/>
-      <c r="J5" s="165"/>
+      <c r="E5" s="165" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="92">
@@ -5435,12 +5438,12 @@
       </c>
       <c r="C7" s="80"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="158"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="159"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="94">
@@ -5451,12 +5454,12 @@
       </c>
       <c r="C8" s="80"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="160"/>
-      <c r="J8" s="161"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="162"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="95">
@@ -5467,12 +5470,12 @@
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="158"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="159"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="96">
@@ -5483,12 +5486,12 @@
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="158"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="159"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="97">
@@ -5499,12 +5502,12 @@
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="158"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="159"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="98">
@@ -5515,12 +5518,12 @@
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="158"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="159"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="99">
@@ -5531,12 +5534,12 @@
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="158"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="159"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="100">
@@ -5547,12 +5550,12 @@
       </c>
       <c r="C14" s="80"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="158"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="159"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5563,12 +5566,12 @@
       </c>
       <c r="C15" s="80"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="165"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="165"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="92">
@@ -5579,12 +5582,12 @@
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="165"/>
-      <c r="G16" s="165"/>
-      <c r="H16" s="165"/>
-      <c r="I16" s="165"/>
-      <c r="J16" s="165"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="156"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="93">
@@ -5595,12 +5598,12 @@
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="165"/>
-      <c r="G17" s="165"/>
-      <c r="H17" s="165"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="165"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="156"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="94">
@@ -5611,12 +5614,12 @@
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="165"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="156"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="95">
@@ -5627,12 +5630,12 @@
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="165"/>
-      <c r="F19" s="165"/>
-      <c r="G19" s="165"/>
-      <c r="H19" s="165"/>
-      <c r="I19" s="165"/>
-      <c r="J19" s="165"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="156"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="96">
@@ -5643,12 +5646,12 @@
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="165"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="156"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="97">
@@ -5659,12 +5662,12 @@
       </c>
       <c r="C21" s="80"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="165"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="156"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="98">
@@ -5675,12 +5678,12 @@
       </c>
       <c r="C22" s="80"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="165"/>
-      <c r="G22" s="165"/>
-      <c r="H22" s="165"/>
-      <c r="I22" s="165"/>
-      <c r="J22" s="165"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="156"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="99">
@@ -5691,12 +5694,12 @@
       </c>
       <c r="C23" s="80"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="165"/>
-      <c r="F23" s="165"/>
-      <c r="G23" s="165"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="165"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="156"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="100">
@@ -5707,12 +5710,12 @@
       </c>
       <c r="C24" s="80"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="165"/>
-      <c r="F24" s="165"/>
-      <c r="G24" s="165"/>
-      <c r="H24" s="165"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="165"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="156"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5723,12 +5726,12 @@
       </c>
       <c r="C25" s="80"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="165"/>
-      <c r="G25" s="165"/>
-      <c r="H25" s="165"/>
-      <c r="I25" s="165"/>
-      <c r="J25" s="165"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5739,12 +5742,12 @@
       </c>
       <c r="C26" s="80"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="165"/>
-      <c r="F26" s="165"/>
-      <c r="G26" s="165"/>
-      <c r="H26" s="165"/>
-      <c r="I26" s="165"/>
-      <c r="J26" s="165"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="156"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="92">
@@ -5755,12 +5758,12 @@
       </c>
       <c r="C27" s="80"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="165"/>
-      <c r="H27" s="165"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="165"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="156"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="93">
@@ -5771,12 +5774,12 @@
       </c>
       <c r="C28" s="80"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="165"/>
-      <c r="F28" s="165"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="165"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="165"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="94">
@@ -5787,12 +5790,12 @@
       </c>
       <c r="C29" s="80"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="165"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="165"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="156"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="95">
@@ -5803,12 +5806,12 @@
       </c>
       <c r="C30" s="80"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="165"/>
-      <c r="F30" s="165"/>
-      <c r="G30" s="165"/>
-      <c r="H30" s="165"/>
-      <c r="I30" s="165"/>
-      <c r="J30" s="165"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="156"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="96">
@@ -5819,12 +5822,12 @@
       </c>
       <c r="C31" s="80"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="165"/>
-      <c r="G31" s="165"/>
-      <c r="H31" s="165"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="165"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="156"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="97">
@@ -5835,12 +5838,12 @@
       </c>
       <c r="C32" s="80"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="165"/>
-      <c r="G32" s="165"/>
-      <c r="H32" s="165"/>
-      <c r="I32" s="165"/>
-      <c r="J32" s="165"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="156"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="98">
@@ -5851,12 +5854,12 @@
       </c>
       <c r="C33" s="80"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="165"/>
-      <c r="G33" s="165"/>
-      <c r="H33" s="165"/>
-      <c r="I33" s="165"/>
-      <c r="J33" s="165"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="156"/>
+      <c r="H33" s="156"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="156"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="99">
@@ -5867,12 +5870,12 @@
       </c>
       <c r="C34" s="80"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="165"/>
-      <c r="F34" s="165"/>
-      <c r="G34" s="165"/>
-      <c r="H34" s="165"/>
-      <c r="I34" s="165"/>
-      <c r="J34" s="165"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="156"/>
+      <c r="I34" s="156"/>
+      <c r="J34" s="156"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="100">
@@ -5883,12 +5886,12 @@
       </c>
       <c r="C35" s="80"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="165"/>
-      <c r="F35" s="165"/>
-      <c r="G35" s="165"/>
-      <c r="H35" s="165"/>
-      <c r="I35" s="165"/>
-      <c r="J35" s="165"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="156"/>
+      <c r="H35" s="156"/>
+      <c r="I35" s="156"/>
+      <c r="J35" s="156"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -5899,12 +5902,12 @@
       </c>
       <c r="C36" s="80"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="165"/>
-      <c r="F36" s="165"/>
-      <c r="G36" s="165"/>
-      <c r="H36" s="165"/>
-      <c r="I36" s="165"/>
-      <c r="J36" s="165"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="156"/>
+      <c r="G36" s="156"/>
+      <c r="H36" s="156"/>
+      <c r="I36" s="156"/>
+      <c r="J36" s="156"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="92">
@@ -5915,12 +5918,12 @@
       </c>
       <c r="C37" s="80"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="165"/>
-      <c r="F37" s="165"/>
-      <c r="G37" s="165"/>
-      <c r="H37" s="165"/>
-      <c r="I37" s="165"/>
-      <c r="J37" s="165"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="156"/>
+      <c r="I37" s="156"/>
+      <c r="J37" s="156"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="93">
@@ -5931,12 +5934,12 @@
       </c>
       <c r="C38" s="80"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="165"/>
-      <c r="F38" s="165"/>
-      <c r="G38" s="165"/>
-      <c r="H38" s="165"/>
-      <c r="I38" s="165"/>
-      <c r="J38" s="165"/>
+      <c r="E38" s="156"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="156"/>
+      <c r="H38" s="156"/>
+      <c r="I38" s="156"/>
+      <c r="J38" s="156"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="94">
@@ -5947,12 +5950,12 @@
       </c>
       <c r="C39" s="80"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="165"/>
-      <c r="F39" s="165"/>
-      <c r="G39" s="165"/>
-      <c r="H39" s="165"/>
-      <c r="I39" s="165"/>
-      <c r="J39" s="165"/>
+      <c r="E39" s="156"/>
+      <c r="F39" s="156"/>
+      <c r="G39" s="156"/>
+      <c r="H39" s="156"/>
+      <c r="I39" s="156"/>
+      <c r="J39" s="156"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="95">
@@ -5963,12 +5966,12 @@
       </c>
       <c r="C40" s="80"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="165"/>
-      <c r="F40" s="165"/>
-      <c r="G40" s="165"/>
-      <c r="H40" s="165"/>
-      <c r="I40" s="165"/>
-      <c r="J40" s="165"/>
+      <c r="E40" s="156"/>
+      <c r="F40" s="156"/>
+      <c r="G40" s="156"/>
+      <c r="H40" s="156"/>
+      <c r="I40" s="156"/>
+      <c r="J40" s="156"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="96">
@@ -5979,12 +5982,12 @@
       </c>
       <c r="C41" s="80"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="165"/>
-      <c r="F41" s="165"/>
-      <c r="G41" s="165"/>
-      <c r="H41" s="165"/>
-      <c r="I41" s="165"/>
-      <c r="J41" s="165"/>
+      <c r="E41" s="156"/>
+      <c r="F41" s="156"/>
+      <c r="G41" s="156"/>
+      <c r="H41" s="156"/>
+      <c r="I41" s="156"/>
+      <c r="J41" s="156"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="97">
@@ -5995,32 +5998,23 @@
       </c>
       <c r="C42" s="80"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="165"/>
-      <c r="F42" s="165"/>
-      <c r="G42" s="165"/>
-      <c r="H42" s="165"/>
-      <c r="I42" s="165"/>
-      <c r="J42" s="165"/>
+      <c r="E42" s="156"/>
+      <c r="F42" s="156"/>
+      <c r="G42" s="156"/>
+      <c r="H42" s="156"/>
+      <c r="I42" s="156"/>
+      <c r="J42" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6036,14 +6030,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6068,8 +6071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6088,10 +6091,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="162"/>
+      <c r="B1" s="163"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6121,8 +6124,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="162"/>
-      <c r="B2" s="162"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6265,7 +6268,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
       <c r="I12" s="172" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="J12" s="173"/>
     </row>
@@ -6725,13 +6728,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6763,11 +6766,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="162"/>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6804,7 +6807,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>163</v>
@@ -9114,7 +9117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5:G5"/>
     </sheetView>
   </sheetViews>
@@ -9139,7 +9142,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="195" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="126"/>
@@ -9174,7 +9177,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="199"/>
+      <c r="A2" s="196"/>
       <c r="B2" s="127"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -9222,15 +9225,15 @@
       <c r="E4" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="162" t="s">
+      <c r="F4" s="163" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162" t="s">
+      <c r="G4" s="163"/>
+      <c r="H4" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="25.5" customHeight="1">
       <c r="A5" s="33">
@@ -9244,15 +9247,15 @@
         <v>134</v>
       </c>
       <c r="E5" s="32"/>
-      <c r="F5" s="196" t="s">
+      <c r="F5" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="G5" s="194"/>
+      <c r="H5" s="197" t="s">
         <v>212</v>
       </c>
-      <c r="G5" s="197"/>
-      <c r="H5" s="193" t="s">
-        <v>213</v>
-      </c>
-      <c r="I5" s="194"/>
-      <c r="J5" s="195"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="199"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -9262,11 +9265,11 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="197"/>
-      <c r="H6" s="193"/>
-      <c r="I6" s="194"/>
-      <c r="J6" s="195"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="198"/>
+      <c r="J6" s="199"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9276,11 +9279,11 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="197"/>
-      <c r="H7" s="193"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="195"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="197"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="199"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9290,11 +9293,11 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="197"/>
-      <c r="H8" s="193"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="195"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="198"/>
+      <c r="J8" s="199"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9304,11 +9307,11 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="196"/>
-      <c r="G9" s="197"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="194"/>
-      <c r="J9" s="195"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="198"/>
+      <c r="J9" s="199"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9318,11 +9321,11 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="197"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="194"/>
-      <c r="J10" s="195"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="198"/>
+      <c r="J10" s="199"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9332,11 +9335,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="197"/>
-      <c r="H11" s="193"/>
-      <c r="I11" s="194"/>
-      <c r="J11" s="195"/>
+      <c r="F11" s="193"/>
+      <c r="G11" s="194"/>
+      <c r="H11" s="197"/>
+      <c r="I11" s="198"/>
+      <c r="J11" s="199"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9346,11 +9349,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="196"/>
-      <c r="G12" s="197"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="194"/>
-      <c r="J12" s="195"/>
+      <c r="F12" s="193"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="197"/>
+      <c r="I12" s="198"/>
+      <c r="J12" s="199"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9360,11 +9363,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="196"/>
-      <c r="G13" s="197"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="194"/>
-      <c r="J13" s="195"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="198"/>
+      <c r="J13" s="199"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9374,11 +9377,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="196"/>
-      <c r="G14" s="197"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="194"/>
-      <c r="J14" s="195"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="197"/>
+      <c r="I14" s="198"/>
+      <c r="J14" s="199"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9388,11 +9391,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="196"/>
-      <c r="G15" s="197"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="194"/>
-      <c r="J15" s="195"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="198"/>
+      <c r="J15" s="199"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9402,11 +9405,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="196"/>
-      <c r="G16" s="197"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="195"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="199"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9416,11 +9419,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="196"/>
-      <c r="G17" s="197"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="194"/>
-      <c r="J17" s="195"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="199"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9430,11 +9433,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="196"/>
-      <c r="G18" s="197"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="194"/>
-      <c r="J18" s="195"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="198"/>
+      <c r="J18" s="199"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9444,11 +9447,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="196"/>
-      <c r="G19" s="197"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="194"/>
-      <c r="J19" s="195"/>
+      <c r="F19" s="193"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="198"/>
+      <c r="J19" s="199"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9458,11 +9461,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="196"/>
-      <c r="G20" s="197"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="194"/>
-      <c r="J20" s="195"/>
+      <c r="F20" s="193"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="198"/>
+      <c r="J20" s="199"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9472,11 +9475,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="196"/>
-      <c r="G21" s="197"/>
-      <c r="H21" s="193"/>
-      <c r="I21" s="194"/>
-      <c r="J21" s="195"/>
+      <c r="F21" s="193"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="198"/>
+      <c r="J21" s="199"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9486,11 +9489,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="193"/>
-      <c r="I22" s="194"/>
-      <c r="J22" s="195"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="197"/>
+      <c r="I22" s="198"/>
+      <c r="J22" s="199"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9500,11 +9503,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="193"/>
-      <c r="I23" s="194"/>
-      <c r="J23" s="195"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="197"/>
+      <c r="I23" s="198"/>
+      <c r="J23" s="199"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9514,11 +9517,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="193"/>
-      <c r="I24" s="194"/>
-      <c r="J24" s="195"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="197"/>
+      <c r="I24" s="198"/>
+      <c r="J24" s="199"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9528,11 +9531,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="194"/>
-      <c r="J25" s="195"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="197"/>
+      <c r="I25" s="198"/>
+      <c r="J25" s="199"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9542,11 +9545,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="193"/>
-      <c r="I26" s="194"/>
-      <c r="J26" s="195"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="197"/>
+      <c r="I26" s="198"/>
+      <c r="J26" s="199"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9556,11 +9559,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="193"/>
-      <c r="I27" s="194"/>
-      <c r="J27" s="195"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="197"/>
+      <c r="I27" s="198"/>
+      <c r="J27" s="199"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9570,11 +9573,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="193"/>
-      <c r="I28" s="194"/>
-      <c r="J28" s="195"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="197"/>
+      <c r="I28" s="198"/>
+      <c r="J28" s="199"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9584,11 +9587,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="193"/>
-      <c r="I29" s="194"/>
-      <c r="J29" s="195"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="197"/>
+      <c r="I29" s="198"/>
+      <c r="J29" s="199"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9598,11 +9601,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="193"/>
-      <c r="I30" s="194"/>
-      <c r="J30" s="195"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="197"/>
+      <c r="I30" s="198"/>
+      <c r="J30" s="199"/>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9612,11 +9615,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="193"/>
-      <c r="I31" s="194"/>
-      <c r="J31" s="195"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="197"/>
+      <c r="I31" s="198"/>
+      <c r="J31" s="199"/>
     </row>
     <row r="32" spans="1:18" ht="11.25">
       <c r="A32" s="33">
@@ -9626,11 +9629,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="193"/>
-      <c r="I32" s="194"/>
-      <c r="J32" s="195"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="197"/>
+      <c r="I32" s="198"/>
+      <c r="J32" s="199"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -9647,11 +9650,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="193"/>
-      <c r="I33" s="194"/>
-      <c r="J33" s="195"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="159"/>
+      <c r="H33" s="197"/>
+      <c r="I33" s="198"/>
+      <c r="J33" s="199"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -9668,11 +9671,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="193"/>
-      <c r="I34" s="194"/>
-      <c r="J34" s="195"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="197"/>
+      <c r="I34" s="198"/>
+      <c r="J34" s="199"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -9689,11 +9692,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="193"/>
-      <c r="I35" s="194"/>
-      <c r="J35" s="195"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="197"/>
+      <c r="I35" s="198"/>
+      <c r="J35" s="199"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -9710,11 +9713,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="193"/>
-      <c r="I36" s="194"/>
-      <c r="J36" s="195"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="197"/>
+      <c r="I36" s="198"/>
+      <c r="J36" s="199"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -9731,11 +9734,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="156"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="193"/>
-      <c r="I37" s="194"/>
-      <c r="J37" s="195"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="197"/>
+      <c r="I37" s="198"/>
+      <c r="J37" s="199"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -9752,11 +9755,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="193"/>
-      <c r="I38" s="194"/>
-      <c r="J38" s="195"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="159"/>
+      <c r="H38" s="197"/>
+      <c r="I38" s="198"/>
+      <c r="J38" s="199"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -9773,11 +9776,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="156"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="193"/>
-      <c r="I39" s="194"/>
-      <c r="J39" s="195"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="159"/>
+      <c r="H39" s="197"/>
+      <c r="I39" s="198"/>
+      <c r="J39" s="199"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -9794,11 +9797,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="156"/>
-      <c r="G40" s="158"/>
-      <c r="H40" s="193"/>
-      <c r="I40" s="194"/>
-      <c r="J40" s="195"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="159"/>
+      <c r="H40" s="197"/>
+      <c r="I40" s="198"/>
+      <c r="J40" s="199"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -9815,11 +9818,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="156"/>
-      <c r="G41" s="158"/>
-      <c r="H41" s="193"/>
-      <c r="I41" s="194"/>
-      <c r="J41" s="195"/>
+      <c r="F41" s="157"/>
+      <c r="G41" s="159"/>
+      <c r="H41" s="197"/>
+      <c r="I41" s="198"/>
+      <c r="J41" s="199"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -9836,11 +9839,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="156"/>
-      <c r="G42" s="158"/>
-      <c r="H42" s="193"/>
-      <c r="I42" s="194"/>
-      <c r="J42" s="195"/>
+      <c r="F42" s="157"/>
+      <c r="G42" s="159"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="198"/>
+      <c r="J42" s="199"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -9857,11 +9860,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="156"/>
-      <c r="G43" s="158"/>
-      <c r="H43" s="193"/>
-      <c r="I43" s="194"/>
-      <c r="J43" s="195"/>
+      <c r="F43" s="157"/>
+      <c r="G43" s="159"/>
+      <c r="H43" s="197"/>
+      <c r="I43" s="198"/>
+      <c r="J43" s="199"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -9878,11 +9881,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="158"/>
-      <c r="H44" s="193"/>
-      <c r="I44" s="194"/>
-      <c r="J44" s="195"/>
+      <c r="F44" s="157"/>
+      <c r="G44" s="159"/>
+      <c r="H44" s="197"/>
+      <c r="I44" s="198"/>
+      <c r="J44" s="199"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -9899,11 +9902,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="156"/>
-      <c r="G45" s="158"/>
-      <c r="H45" s="193"/>
-      <c r="I45" s="194"/>
-      <c r="J45" s="195"/>
+      <c r="F45" s="157"/>
+      <c r="G45" s="159"/>
+      <c r="H45" s="197"/>
+      <c r="I45" s="198"/>
+      <c r="J45" s="199"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -9920,11 +9923,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="156"/>
-      <c r="G46" s="158"/>
-      <c r="H46" s="193"/>
-      <c r="I46" s="194"/>
-      <c r="J46" s="195"/>
+      <c r="F46" s="157"/>
+      <c r="G46" s="159"/>
+      <c r="H46" s="197"/>
+      <c r="I46" s="198"/>
+      <c r="J46" s="199"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -9941,11 +9944,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="156"/>
-      <c r="G47" s="158"/>
-      <c r="H47" s="193"/>
-      <c r="I47" s="194"/>
-      <c r="J47" s="195"/>
+      <c r="F47" s="157"/>
+      <c r="G47" s="159"/>
+      <c r="H47" s="197"/>
+      <c r="I47" s="198"/>
+      <c r="J47" s="199"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -9962,11 +9965,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="156"/>
-      <c r="G48" s="158"/>
-      <c r="H48" s="193"/>
-      <c r="I48" s="194"/>
-      <c r="J48" s="195"/>
+      <c r="F48" s="157"/>
+      <c r="G48" s="159"/>
+      <c r="H48" s="197"/>
+      <c r="I48" s="198"/>
+      <c r="J48" s="199"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -9983,11 +9986,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="156"/>
-      <c r="G49" s="158"/>
-      <c r="H49" s="193"/>
-      <c r="I49" s="194"/>
-      <c r="J49" s="195"/>
+      <c r="F49" s="157"/>
+      <c r="G49" s="159"/>
+      <c r="H49" s="197"/>
+      <c r="I49" s="198"/>
+      <c r="J49" s="199"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -10004,11 +10007,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="156"/>
-      <c r="G50" s="158"/>
-      <c r="H50" s="193"/>
-      <c r="I50" s="194"/>
-      <c r="J50" s="195"/>
+      <c r="F50" s="157"/>
+      <c r="G50" s="159"/>
+      <c r="H50" s="197"/>
+      <c r="I50" s="198"/>
+      <c r="J50" s="199"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -10025,11 +10028,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="156"/>
-      <c r="G51" s="158"/>
-      <c r="H51" s="193"/>
-      <c r="I51" s="194"/>
-      <c r="J51" s="195"/>
+      <c r="F51" s="157"/>
+      <c r="G51" s="159"/>
+      <c r="H51" s="197"/>
+      <c r="I51" s="198"/>
+      <c r="J51" s="199"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -10046,11 +10049,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="156"/>
-      <c r="G52" s="158"/>
-      <c r="H52" s="193"/>
-      <c r="I52" s="194"/>
-      <c r="J52" s="195"/>
+      <c r="F52" s="157"/>
+      <c r="G52" s="159"/>
+      <c r="H52" s="197"/>
+      <c r="I52" s="198"/>
+      <c r="J52" s="199"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -10067,11 +10070,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="156"/>
-      <c r="G53" s="158"/>
-      <c r="H53" s="193"/>
-      <c r="I53" s="194"/>
-      <c r="J53" s="195"/>
+      <c r="F53" s="157"/>
+      <c r="G53" s="159"/>
+      <c r="H53" s="197"/>
+      <c r="I53" s="198"/>
+      <c r="J53" s="199"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -10088,11 +10091,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="156"/>
-      <c r="G54" s="158"/>
-      <c r="H54" s="193"/>
-      <c r="I54" s="194"/>
-      <c r="J54" s="195"/>
+      <c r="F54" s="157"/>
+      <c r="G54" s="159"/>
+      <c r="H54" s="197"/>
+      <c r="I54" s="198"/>
+      <c r="J54" s="199"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -10109,11 +10112,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="156"/>
-      <c r="G55" s="158"/>
-      <c r="H55" s="193"/>
-      <c r="I55" s="194"/>
-      <c r="J55" s="195"/>
+      <c r="F55" s="157"/>
+      <c r="G55" s="159"/>
+      <c r="H55" s="197"/>
+      <c r="I55" s="198"/>
+      <c r="J55" s="199"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -10130,11 +10133,11 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="32"/>
-      <c r="F56" s="156"/>
-      <c r="G56" s="158"/>
-      <c r="H56" s="193"/>
-      <c r="I56" s="194"/>
-      <c r="J56" s="195"/>
+      <c r="F56" s="157"/>
+      <c r="G56" s="159"/>
+      <c r="H56" s="197"/>
+      <c r="I56" s="198"/>
+      <c r="J56" s="199"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -10146,25 +10149,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
@@ -10179,80 +10237,25 @@
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E56">
@@ -10299,23 +10302,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
       <c r="H1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="203" t="str">
+      <c r="I1" s="206" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="J1" s="203"/>
+      <c r="J1" s="206"/>
       <c r="K1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10342,21 +10345,21 @@
       <c r="T1" s="52"/>
     </row>
     <row r="2" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="162"/>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
       <c r="H2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="203" t="str">
+      <c r="I2" s="206" t="str">
         <f>'Update History'!D2</f>
         <v>ASSOFT - CRM</v>
       </c>
-      <c r="J2" s="203"/>
+      <c r="J2" s="206"/>
       <c r="K2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10455,19 +10458,19 @@
         <v>199</v>
       </c>
       <c r="J5" s="200" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K5" s="201"/>
       <c r="L5" s="201"/>
       <c r="M5" s="202"/>
       <c r="N5" s="133" t="s">
+        <v>214</v>
+      </c>
+      <c r="O5" s="133" t="s">
         <v>215</v>
       </c>
-      <c r="O5" s="133" t="s">
+      <c r="P5" s="77" t="s">
         <v>216</v>
-      </c>
-      <c r="P5" s="77" t="s">
-        <v>217</v>
       </c>
       <c r="Q5" s="76" t="s">
         <v>200</v>
@@ -10522,7 +10525,7 @@
       <c r="O7" s="90"/>
       <c r="P7" s="77"/>
       <c r="Q7" s="76"/>
-      <c r="R7" s="204"/>
+      <c r="R7" s="203"/>
       <c r="S7" s="64"/>
       <c r="T7" s="64"/>
     </row>
@@ -10546,7 +10549,7 @@
       <c r="O8" s="90"/>
       <c r="P8" s="77"/>
       <c r="Q8" s="76"/>
-      <c r="R8" s="205"/>
+      <c r="R8" s="204"/>
       <c r="S8" s="64"/>
       <c r="T8" s="64"/>
     </row>
@@ -10570,7 +10573,7 @@
       <c r="O9" s="90"/>
       <c r="P9" s="77"/>
       <c r="Q9" s="76"/>
-      <c r="R9" s="206"/>
+      <c r="R9" s="205"/>
       <c r="S9" s="64"/>
       <c r="T9" s="64"/>
     </row>
@@ -10594,7 +10597,7 @@
       <c r="O10" s="90"/>
       <c r="P10" s="77"/>
       <c r="Q10" s="76"/>
-      <c r="R10" s="204"/>
+      <c r="R10" s="203"/>
       <c r="S10" s="64"/>
       <c r="T10" s="64"/>
     </row>
@@ -10618,7 +10621,7 @@
       <c r="O11" s="90"/>
       <c r="P11" s="77"/>
       <c r="Q11" s="76"/>
-      <c r="R11" s="205"/>
+      <c r="R11" s="204"/>
       <c r="S11" s="64"/>
       <c r="T11" s="64"/>
     </row>
@@ -10642,7 +10645,7 @@
       <c r="O12" s="86"/>
       <c r="P12" s="77"/>
       <c r="Q12" s="76"/>
-      <c r="R12" s="205"/>
+      <c r="R12" s="204"/>
       <c r="S12" s="64"/>
       <c r="T12" s="64"/>
     </row>
@@ -10666,7 +10669,7 @@
       <c r="O13" s="86"/>
       <c r="P13" s="77"/>
       <c r="Q13" s="76"/>
-      <c r="R13" s="206"/>
+      <c r="R13" s="205"/>
       <c r="S13" s="64"/>
       <c r="T13" s="64"/>
     </row>
@@ -12558,11 +12561,81 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="96">
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="J91:M91"/>
-    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="J93:M93"/>
+    <mergeCell ref="J94:M94"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="J80:M80"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="J82:M82"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="J85:M85"/>
+    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="J71:M71"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J76:M76"/>
     <mergeCell ref="J77:M77"/>
     <mergeCell ref="J60:M60"/>
     <mergeCell ref="R7:R9"/>
@@ -12579,81 +12652,11 @@
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="J52:M52"/>
     <mergeCell ref="J53:M53"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="J93:M93"/>
-    <mergeCell ref="J94:M94"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="J80:M80"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="J82:M82"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="J85:M85"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="J91:M91"/>
+    <mergeCell ref="J92:M92"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="P1048467:P1048576 P5:P94"/>
@@ -12699,10 +12702,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="162"/>
+      <c r="B1" s="163"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12732,8 +12735,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="162"/>
-      <c r="B2" s="162"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13025,7 +13028,7 @@
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="74"/>
       <c r="B26" s="81" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
@@ -13802,10 +13805,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="162"/>
+      <c r="B1" s="163"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13835,8 +13838,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="162"/>
-      <c r="B2" s="162"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMR30101_Bao cao KH moi theo nhan vien.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMR30101_Bao cao KH moi theo nhan vien.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="228">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2066,9 +2066,6 @@
     <t>Click In từ màn hình CRMF3010</t>
   </si>
   <si>
-    <t>Thực thi @SQL0001 để truyền @DivisionID mở tab để load  báo cáo Khách hàng mới theo nhân viên_CRMR30101</t>
-  </si>
-  <si>
     <t xml:space="preserve">@DivisionID @DivisionIDList  @FromDate @ToDate   @IsDate 
 @Period  
 @FromAccountID @ToAccountID 
@@ -2102,11 +2099,41 @@
   </si>
   <si>
     <t>Menu [Báo cáo]
- -&gt; MenuItem[Báo cáo biểu đồ_CRMF3000] 
+ -&gt; page[Báo cáo biểu đồ_CRMF3000] 
 -&gt; Click vào Link Báo cáo KH mới theo nhân viên 
 -&gt;Pop [Báo cáo khách hàng mới theo nhân viên_CRMF3010]
 -&gt; In
 -&gt; [Tab]Báo cáo khách hàng mới theo nhân viên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Từ ngày </t>
+  </si>
+  <si>
+    <t>Đến ngày</t>
+  </si>
+  <si>
+    <t>Theo kỳ</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>ToDate</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Danh sách lưới</t>
+  </si>
+  <si>
+    <t>Control này được truyền từ CRMF3010 nếu IsDate = 1</t>
+  </si>
+  <si>
+    <t>Control này được truyền từ CRMF3010 nếu IsDate = 0</t>
+  </si>
+  <si>
+    <t>Thực thi @SQL0001 để truyền các tham số từ CRMF3010 để mở tab để load  báo cáo Khách hàng mới theo nhân viên_CRMR30101</t>
   </si>
 </sst>
 </file>
@@ -2643,7 +2670,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2974,102 +3001,105 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3152,6 +3182,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3163,15 +3202,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3181,6 +3211,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3189,9 +3222,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3338,19 +3368,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1809750</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>1866900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3370,8 +3400,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="171450" y="876300"/>
-          <a:ext cx="8515350" cy="3857625"/>
+          <a:off x="219075" y="962025"/>
+          <a:ext cx="8524875" cy="4572000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4182,65 +4212,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="145"/>
-      <c r="B1" s="145"/>
-      <c r="C1" s="147" t="s">
+      <c r="A1" s="140"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="146" t="s">
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146" t="s">
+      <c r="H1" s="141"/>
+      <c r="I1" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="146"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="145"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="146" t="s">
+      <c r="A2" s="140"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="145"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="142" t="s">
+      <c r="A3" s="140"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="143"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="143"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="138"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="119"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="144"/>
-      <c r="B13" s="144"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
+      <c r="A13" s="139"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
       <c r="K13" s="120"/>
       <c r="L13" s="120"/>
       <c r="M13" s="120"/>
@@ -4251,56 +4281,56 @@
       <c r="R13" s="120"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="138"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="138"/>
-      <c r="M14" s="138"/>
-      <c r="N14" s="138"/>
-      <c r="O14" s="138"/>
-      <c r="P14" s="138"/>
-      <c r="Q14" s="138"/>
-      <c r="R14" s="138"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="135"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="135"/>
+      <c r="P14" s="135"/>
+      <c r="Q14" s="135"/>
+      <c r="R14" s="135"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="138"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="138"/>
-      <c r="K15" s="138"/>
-      <c r="L15" s="138"/>
-      <c r="M15" s="138"/>
-      <c r="N15" s="138"/>
-      <c r="O15" s="138"/>
-      <c r="P15" s="138"/>
-      <c r="Q15" s="138"/>
-      <c r="R15" s="138"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="135"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="135"/>
+      <c r="O15" s="135"/>
+      <c r="P15" s="135"/>
+      <c r="Q15" s="135"/>
+      <c r="R15" s="135"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="141" t="s">
+      <c r="A16" s="136" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="141"/>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="136"/>
       <c r="K16" s="121"/>
       <c r="L16" s="121"/>
       <c r="M16" s="121"/>
@@ -4311,384 +4341,384 @@
       <c r="R16" s="121"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="138"/>
-      <c r="K17" s="138"/>
-      <c r="L17" s="138"/>
-      <c r="M17" s="138"/>
-      <c r="N17" s="138"/>
-      <c r="O17" s="138"/>
-      <c r="P17" s="138"/>
-      <c r="Q17" s="138"/>
-      <c r="R17" s="138"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="135"/>
+      <c r="O17" s="135"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="135"/>
+      <c r="R17" s="135"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="138"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="138"/>
-      <c r="L18" s="138"/>
-      <c r="M18" s="138"/>
-      <c r="N18" s="138"/>
-      <c r="O18" s="138"/>
-      <c r="P18" s="138"/>
-      <c r="Q18" s="138"/>
-      <c r="R18" s="138"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="135"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="135"/>
+      <c r="R18" s="135"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="140"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="140"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="140"/>
-      <c r="N19" s="140"/>
-      <c r="O19" s="140"/>
-      <c r="P19" s="140"/>
-      <c r="Q19" s="140"/>
-      <c r="R19" s="140"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="152"/>
+      <c r="N19" s="152"/>
+      <c r="O19" s="152"/>
+      <c r="P19" s="152"/>
+      <c r="Q19" s="152"/>
+      <c r="R19" s="152"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="138"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="138"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="138"/>
-      <c r="L20" s="138"/>
-      <c r="M20" s="138"/>
-      <c r="N20" s="138"/>
-      <c r="O20" s="138"/>
-      <c r="P20" s="138"/>
-      <c r="Q20" s="138"/>
-      <c r="R20" s="138"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="135"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="135"/>
+      <c r="N20" s="135"/>
+      <c r="O20" s="135"/>
+      <c r="P20" s="135"/>
+      <c r="Q20" s="135"/>
+      <c r="R20" s="135"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="138"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="138"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="138"/>
-      <c r="N21" s="138"/>
-      <c r="O21" s="138"/>
-      <c r="P21" s="138"/>
-      <c r="Q21" s="138"/>
-      <c r="R21" s="138"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="135"/>
+      <c r="O21" s="135"/>
+      <c r="P21" s="135"/>
+      <c r="Q21" s="135"/>
+      <c r="R21" s="135"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="139"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="139"/>
-      <c r="K22" s="139"/>
-      <c r="L22" s="139"/>
-      <c r="M22" s="139"/>
-      <c r="N22" s="139"/>
-      <c r="O22" s="139"/>
-      <c r="P22" s="139"/>
-      <c r="Q22" s="139"/>
-      <c r="R22" s="139"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="151"/>
+      <c r="N22" s="151"/>
+      <c r="O22" s="151"/>
+      <c r="P22" s="151"/>
+      <c r="Q22" s="151"/>
+      <c r="R22" s="151"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="139"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="139"/>
-      <c r="K23" s="139"/>
-      <c r="L23" s="139"/>
-      <c r="M23" s="139"/>
-      <c r="N23" s="139"/>
-      <c r="O23" s="139"/>
-      <c r="P23" s="139"/>
-      <c r="Q23" s="139"/>
-      <c r="R23" s="139"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="151"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="151"/>
+      <c r="N23" s="151"/>
+      <c r="O23" s="151"/>
+      <c r="P23" s="151"/>
+      <c r="Q23" s="151"/>
+      <c r="R23" s="151"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="136"/>
-      <c r="C26" s="136"/>
-      <c r="D26" s="136"/>
-      <c r="E26" s="136"/>
-      <c r="F26" s="136"/>
-      <c r="G26" s="136"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="136"/>
-      <c r="J26" s="136"/>
-      <c r="K26" s="136"/>
-      <c r="L26" s="136"/>
-      <c r="M26" s="136"/>
-      <c r="N26" s="136"/>
-      <c r="O26" s="136"/>
-      <c r="P26" s="136"/>
-      <c r="Q26" s="136"/>
-      <c r="R26" s="136"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="153"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="153"/>
+      <c r="N26" s="153"/>
+      <c r="O26" s="153"/>
+      <c r="P26" s="153"/>
+      <c r="Q26" s="153"/>
+      <c r="R26" s="153"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="137"/>
-      <c r="C28" s="137"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="137"/>
-      <c r="J28" s="137"/>
-      <c r="K28" s="137"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="137"/>
-      <c r="N28" s="137"/>
-      <c r="O28" s="137"/>
-      <c r="P28" s="137"/>
-      <c r="Q28" s="137"/>
-      <c r="R28" s="137"/>
-      <c r="S28" s="135"/>
-      <c r="T28" s="135"/>
-      <c r="U28" s="135"/>
-      <c r="V28" s="135"/>
-      <c r="W28" s="135"/>
-      <c r="X28" s="135"/>
-      <c r="Y28" s="135"/>
-      <c r="Z28" s="135"/>
-      <c r="AA28" s="135"/>
-      <c r="AB28" s="135"/>
-      <c r="AC28" s="135"/>
-      <c r="AD28" s="135"/>
-      <c r="AE28" s="135"/>
-      <c r="AF28" s="135"/>
-      <c r="AG28" s="135"/>
-      <c r="AH28" s="135"/>
-      <c r="AI28" s="135"/>
-      <c r="AJ28" s="135"/>
-      <c r="AK28" s="135"/>
-      <c r="AL28" s="135"/>
-      <c r="AM28" s="135"/>
-      <c r="AN28" s="135"/>
-      <c r="AO28" s="135"/>
-      <c r="AP28" s="135"/>
-      <c r="AQ28" s="135"/>
-      <c r="AR28" s="135"/>
-      <c r="AS28" s="135"/>
-      <c r="AT28" s="135"/>
-      <c r="AU28" s="135"/>
-      <c r="AV28" s="135"/>
-      <c r="AW28" s="135"/>
-      <c r="AX28" s="135"/>
-      <c r="AY28" s="135"/>
-      <c r="AZ28" s="135"/>
-      <c r="BA28" s="135"/>
-      <c r="BB28" s="135"/>
-      <c r="BC28" s="135"/>
-      <c r="BD28" s="135"/>
-      <c r="BE28" s="135"/>
-      <c r="BF28" s="135"/>
-      <c r="BG28" s="135"/>
-      <c r="BH28" s="135"/>
-      <c r="BI28" s="135"/>
-      <c r="BJ28" s="135"/>
-      <c r="BK28" s="135"/>
-      <c r="BL28" s="135"/>
-      <c r="BM28" s="135"/>
-      <c r="BN28" s="135"/>
-      <c r="BO28" s="135"/>
-      <c r="BP28" s="135"/>
-      <c r="BQ28" s="135"/>
-      <c r="BR28" s="135"/>
-      <c r="BS28" s="135"/>
-      <c r="BT28" s="135"/>
-      <c r="BU28" s="135"/>
-      <c r="BV28" s="135"/>
-      <c r="BW28" s="135"/>
-      <c r="BX28" s="135"/>
-      <c r="BY28" s="135"/>
-      <c r="BZ28" s="135"/>
-      <c r="CA28" s="135"/>
-      <c r="CB28" s="135"/>
-      <c r="CC28" s="135"/>
-      <c r="CD28" s="135"/>
-      <c r="CE28" s="135"/>
-      <c r="CF28" s="135"/>
-      <c r="CG28" s="135"/>
-      <c r="CH28" s="135"/>
-      <c r="CI28" s="135"/>
-      <c r="CJ28" s="135"/>
-      <c r="CK28" s="135"/>
-      <c r="CL28" s="135"/>
-      <c r="CM28" s="135"/>
-      <c r="CN28" s="135"/>
-      <c r="CO28" s="135"/>
-      <c r="CP28" s="135"/>
-      <c r="CQ28" s="135"/>
-      <c r="CR28" s="135"/>
-      <c r="CS28" s="135"/>
-      <c r="CT28" s="135"/>
-      <c r="CU28" s="135"/>
-      <c r="CV28" s="135"/>
-      <c r="CW28" s="135"/>
-      <c r="CX28" s="135"/>
-      <c r="CY28" s="135"/>
-      <c r="CZ28" s="135"/>
-      <c r="DA28" s="135"/>
-      <c r="DB28" s="135"/>
-      <c r="DC28" s="135"/>
-      <c r="DD28" s="135"/>
-      <c r="DE28" s="135"/>
-      <c r="DF28" s="135"/>
-      <c r="DG28" s="135"/>
-      <c r="DH28" s="135"/>
-      <c r="DI28" s="135"/>
-      <c r="DJ28" s="135"/>
-      <c r="DK28" s="135"/>
-      <c r="DL28" s="135"/>
-      <c r="DM28" s="135"/>
-      <c r="DN28" s="135"/>
-      <c r="DO28" s="135"/>
-      <c r="DP28" s="135"/>
-      <c r="DQ28" s="135"/>
-      <c r="DR28" s="135"/>
-      <c r="DS28" s="135"/>
-      <c r="DT28" s="135"/>
-      <c r="DU28" s="135"/>
-      <c r="DV28" s="135"/>
-      <c r="DW28" s="135"/>
-      <c r="DX28" s="135"/>
-      <c r="DY28" s="135"/>
-      <c r="DZ28" s="135"/>
-      <c r="EA28" s="135"/>
-      <c r="EB28" s="135"/>
-      <c r="EC28" s="135"/>
-      <c r="ED28" s="135"/>
-      <c r="EE28" s="135"/>
-      <c r="EF28" s="135"/>
-      <c r="EG28" s="135"/>
-      <c r="EH28" s="135"/>
-      <c r="EI28" s="135"/>
-      <c r="EJ28" s="135"/>
-      <c r="EK28" s="135"/>
-      <c r="EL28" s="135"/>
-      <c r="EM28" s="135"/>
-      <c r="EN28" s="135"/>
-      <c r="EO28" s="135"/>
-      <c r="EP28" s="135"/>
-      <c r="EQ28" s="135"/>
-      <c r="ER28" s="135"/>
-      <c r="ES28" s="135"/>
-      <c r="ET28" s="135"/>
-      <c r="EU28" s="135"/>
-      <c r="EV28" s="135"/>
-      <c r="EW28" s="135"/>
-      <c r="EX28" s="135"/>
-      <c r="EY28" s="135"/>
-      <c r="EZ28" s="135"/>
-      <c r="FA28" s="135"/>
-      <c r="FB28" s="135"/>
-      <c r="FC28" s="135"/>
-      <c r="FD28" s="135"/>
-      <c r="FE28" s="135"/>
-      <c r="FF28" s="135"/>
-      <c r="FG28" s="135"/>
-      <c r="FH28" s="135"/>
-      <c r="FI28" s="135"/>
-      <c r="FJ28" s="135"/>
-      <c r="FK28" s="135"/>
-      <c r="FL28" s="135"/>
-      <c r="FM28" s="135"/>
-      <c r="FN28" s="135"/>
-      <c r="FO28" s="135"/>
-      <c r="FP28" s="135"/>
-      <c r="FQ28" s="135"/>
-      <c r="FR28" s="135"/>
-      <c r="FS28" s="135"/>
-      <c r="FT28" s="135"/>
-      <c r="FU28" s="135"/>
-      <c r="FV28" s="135"/>
-      <c r="FW28" s="135"/>
-      <c r="FX28" s="135"/>
-      <c r="FY28" s="135"/>
-      <c r="FZ28" s="135"/>
-      <c r="GA28" s="135"/>
-      <c r="GB28" s="135"/>
-      <c r="GC28" s="135"/>
-      <c r="GD28" s="135"/>
-      <c r="GE28" s="135"/>
-      <c r="GF28" s="135"/>
-      <c r="GG28" s="135"/>
-      <c r="GH28" s="135"/>
-      <c r="GI28" s="135"/>
-      <c r="GJ28" s="135"/>
-      <c r="GK28" s="135"/>
-      <c r="GL28" s="135"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="155"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="155"/>
+      <c r="N28" s="155"/>
+      <c r="O28" s="155"/>
+      <c r="P28" s="155"/>
+      <c r="Q28" s="155"/>
+      <c r="R28" s="155"/>
+      <c r="S28" s="154"/>
+      <c r="T28" s="154"/>
+      <c r="U28" s="154"/>
+      <c r="V28" s="154"/>
+      <c r="W28" s="154"/>
+      <c r="X28" s="154"/>
+      <c r="Y28" s="154"/>
+      <c r="Z28" s="154"/>
+      <c r="AA28" s="154"/>
+      <c r="AB28" s="154"/>
+      <c r="AC28" s="154"/>
+      <c r="AD28" s="154"/>
+      <c r="AE28" s="154"/>
+      <c r="AF28" s="154"/>
+      <c r="AG28" s="154"/>
+      <c r="AH28" s="154"/>
+      <c r="AI28" s="154"/>
+      <c r="AJ28" s="154"/>
+      <c r="AK28" s="154"/>
+      <c r="AL28" s="154"/>
+      <c r="AM28" s="154"/>
+      <c r="AN28" s="154"/>
+      <c r="AO28" s="154"/>
+      <c r="AP28" s="154"/>
+      <c r="AQ28" s="154"/>
+      <c r="AR28" s="154"/>
+      <c r="AS28" s="154"/>
+      <c r="AT28" s="154"/>
+      <c r="AU28" s="154"/>
+      <c r="AV28" s="154"/>
+      <c r="AW28" s="154"/>
+      <c r="AX28" s="154"/>
+      <c r="AY28" s="154"/>
+      <c r="AZ28" s="154"/>
+      <c r="BA28" s="154"/>
+      <c r="BB28" s="154"/>
+      <c r="BC28" s="154"/>
+      <c r="BD28" s="154"/>
+      <c r="BE28" s="154"/>
+      <c r="BF28" s="154"/>
+      <c r="BG28" s="154"/>
+      <c r="BH28" s="154"/>
+      <c r="BI28" s="154"/>
+      <c r="BJ28" s="154"/>
+      <c r="BK28" s="154"/>
+      <c r="BL28" s="154"/>
+      <c r="BM28" s="154"/>
+      <c r="BN28" s="154"/>
+      <c r="BO28" s="154"/>
+      <c r="BP28" s="154"/>
+      <c r="BQ28" s="154"/>
+      <c r="BR28" s="154"/>
+      <c r="BS28" s="154"/>
+      <c r="BT28" s="154"/>
+      <c r="BU28" s="154"/>
+      <c r="BV28" s="154"/>
+      <c r="BW28" s="154"/>
+      <c r="BX28" s="154"/>
+      <c r="BY28" s="154"/>
+      <c r="BZ28" s="154"/>
+      <c r="CA28" s="154"/>
+      <c r="CB28" s="154"/>
+      <c r="CC28" s="154"/>
+      <c r="CD28" s="154"/>
+      <c r="CE28" s="154"/>
+      <c r="CF28" s="154"/>
+      <c r="CG28" s="154"/>
+      <c r="CH28" s="154"/>
+      <c r="CI28" s="154"/>
+      <c r="CJ28" s="154"/>
+      <c r="CK28" s="154"/>
+      <c r="CL28" s="154"/>
+      <c r="CM28" s="154"/>
+      <c r="CN28" s="154"/>
+      <c r="CO28" s="154"/>
+      <c r="CP28" s="154"/>
+      <c r="CQ28" s="154"/>
+      <c r="CR28" s="154"/>
+      <c r="CS28" s="154"/>
+      <c r="CT28" s="154"/>
+      <c r="CU28" s="154"/>
+      <c r="CV28" s="154"/>
+      <c r="CW28" s="154"/>
+      <c r="CX28" s="154"/>
+      <c r="CY28" s="154"/>
+      <c r="CZ28" s="154"/>
+      <c r="DA28" s="154"/>
+      <c r="DB28" s="154"/>
+      <c r="DC28" s="154"/>
+      <c r="DD28" s="154"/>
+      <c r="DE28" s="154"/>
+      <c r="DF28" s="154"/>
+      <c r="DG28" s="154"/>
+      <c r="DH28" s="154"/>
+      <c r="DI28" s="154"/>
+      <c r="DJ28" s="154"/>
+      <c r="DK28" s="154"/>
+      <c r="DL28" s="154"/>
+      <c r="DM28" s="154"/>
+      <c r="DN28" s="154"/>
+      <c r="DO28" s="154"/>
+      <c r="DP28" s="154"/>
+      <c r="DQ28" s="154"/>
+      <c r="DR28" s="154"/>
+      <c r="DS28" s="154"/>
+      <c r="DT28" s="154"/>
+      <c r="DU28" s="154"/>
+      <c r="DV28" s="154"/>
+      <c r="DW28" s="154"/>
+      <c r="DX28" s="154"/>
+      <c r="DY28" s="154"/>
+      <c r="DZ28" s="154"/>
+      <c r="EA28" s="154"/>
+      <c r="EB28" s="154"/>
+      <c r="EC28" s="154"/>
+      <c r="ED28" s="154"/>
+      <c r="EE28" s="154"/>
+      <c r="EF28" s="154"/>
+      <c r="EG28" s="154"/>
+      <c r="EH28" s="154"/>
+      <c r="EI28" s="154"/>
+      <c r="EJ28" s="154"/>
+      <c r="EK28" s="154"/>
+      <c r="EL28" s="154"/>
+      <c r="EM28" s="154"/>
+      <c r="EN28" s="154"/>
+      <c r="EO28" s="154"/>
+      <c r="EP28" s="154"/>
+      <c r="EQ28" s="154"/>
+      <c r="ER28" s="154"/>
+      <c r="ES28" s="154"/>
+      <c r="ET28" s="154"/>
+      <c r="EU28" s="154"/>
+      <c r="EV28" s="154"/>
+      <c r="EW28" s="154"/>
+      <c r="EX28" s="154"/>
+      <c r="EY28" s="154"/>
+      <c r="EZ28" s="154"/>
+      <c r="FA28" s="154"/>
+      <c r="FB28" s="154"/>
+      <c r="FC28" s="154"/>
+      <c r="FD28" s="154"/>
+      <c r="FE28" s="154"/>
+      <c r="FF28" s="154"/>
+      <c r="FG28" s="154"/>
+      <c r="FH28" s="154"/>
+      <c r="FI28" s="154"/>
+      <c r="FJ28" s="154"/>
+      <c r="FK28" s="154"/>
+      <c r="FL28" s="154"/>
+      <c r="FM28" s="154"/>
+      <c r="FN28" s="154"/>
+      <c r="FO28" s="154"/>
+      <c r="FP28" s="154"/>
+      <c r="FQ28" s="154"/>
+      <c r="FR28" s="154"/>
+      <c r="FS28" s="154"/>
+      <c r="FT28" s="154"/>
+      <c r="FU28" s="154"/>
+      <c r="FV28" s="154"/>
+      <c r="FW28" s="154"/>
+      <c r="FX28" s="154"/>
+      <c r="FY28" s="154"/>
+      <c r="FZ28" s="154"/>
+      <c r="GA28" s="154"/>
+      <c r="GB28" s="154"/>
+      <c r="GC28" s="154"/>
+      <c r="GD28" s="154"/>
+      <c r="GE28" s="154"/>
+      <c r="GF28" s="154"/>
+      <c r="GG28" s="154"/>
+      <c r="GH28" s="154"/>
+      <c r="GI28" s="154"/>
+      <c r="GJ28" s="154"/>
+      <c r="GK28" s="154"/>
+      <c r="GL28" s="154"/>
       <c r="GM28" s="122"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="136"/>
-      <c r="C29" s="136"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="136"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="136"/>
-      <c r="N29" s="136"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="136"/>
-      <c r="Q29" s="136"/>
-      <c r="R29" s="136"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="153"/>
+      <c r="L29" s="153"/>
+      <c r="M29" s="153"/>
+      <c r="N29" s="153"/>
+      <c r="O29" s="153"/>
+      <c r="P29" s="153"/>
+      <c r="Q29" s="153"/>
+      <c r="R29" s="153"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="134"/>
-      <c r="B30" s="134"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="134"/>
-      <c r="J30" s="134"/>
+      <c r="A30" s="156"/>
+      <c r="B30" s="156"/>
+      <c r="C30" s="156"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="156"/>
       <c r="K30" s="123"/>
       <c r="L30" s="123"/>
       <c r="M30" s="123"/>
@@ -4699,16 +4729,16 @@
       <c r="R30" s="123"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="134"/>
-      <c r="B31" s="134"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="134"/>
-      <c r="J31" s="134"/>
+      <c r="A31" s="156"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="156"/>
       <c r="K31" s="123"/>
       <c r="L31" s="123"/>
       <c r="M31" s="123"/>
@@ -4720,6 +4750,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4733,28 +4785,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -4781,14 +4811,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="208" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -4981,11 +5011,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="208" t="s">
+      <c r="E27" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="209"/>
-      <c r="G27" s="210"/>
+      <c r="F27" s="210"/>
+      <c r="G27" s="211"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5407,11 +5437,11 @@
       <c r="E5" s="165" t="s">
         <v>209</v>
       </c>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="92">
@@ -5422,12 +5452,12 @@
       </c>
       <c r="C6" s="79"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="168"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="169"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="93">
@@ -5566,12 +5596,12 @@
       </c>
       <c r="C15" s="80"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="156"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="166"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="92">
@@ -5582,12 +5612,12 @@
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="156"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="166"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="93">
@@ -5598,12 +5628,12 @@
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="156"/>
-      <c r="I17" s="156"/>
-      <c r="J17" s="156"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="166"/>
+      <c r="G17" s="166"/>
+      <c r="H17" s="166"/>
+      <c r="I17" s="166"/>
+      <c r="J17" s="166"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="94">
@@ -5614,12 +5644,12 @@
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="156"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="95">
@@ -5630,12 +5660,12 @@
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="156"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="96">
@@ -5646,12 +5676,12 @@
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="97">
@@ -5662,12 +5692,12 @@
       </c>
       <c r="C21" s="80"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="156"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="98">
@@ -5678,12 +5708,12 @@
       </c>
       <c r="C22" s="80"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="166"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="99">
@@ -5694,12 +5724,12 @@
       </c>
       <c r="C23" s="80"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="156"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="166"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="166"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="100">
@@ -5710,12 +5740,12 @@
       </c>
       <c r="C24" s="80"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="156"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="166"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="166"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5726,12 +5756,12 @@
       </c>
       <c r="C25" s="80"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="156"/>
+      <c r="E25" s="166"/>
+      <c r="F25" s="166"/>
+      <c r="G25" s="166"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="166"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5742,12 +5772,12 @@
       </c>
       <c r="C26" s="80"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="166"/>
+      <c r="I26" s="166"/>
+      <c r="J26" s="166"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="92">
@@ -5758,12 +5788,12 @@
       </c>
       <c r="C27" s="80"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="156"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="166"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="93">
@@ -5774,12 +5804,12 @@
       </c>
       <c r="C28" s="80"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="166"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="94">
@@ -5790,12 +5820,12 @@
       </c>
       <c r="C29" s="80"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="156"/>
+      <c r="E29" s="166"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="166"/>
+      <c r="H29" s="166"/>
+      <c r="I29" s="166"/>
+      <c r="J29" s="166"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="95">
@@ -5806,12 +5836,12 @@
       </c>
       <c r="C30" s="80"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="166"/>
+      <c r="H30" s="166"/>
+      <c r="I30" s="166"/>
+      <c r="J30" s="166"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="96">
@@ -5822,12 +5852,12 @@
       </c>
       <c r="C31" s="80"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
+      <c r="E31" s="166"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="166"/>
+      <c r="H31" s="166"/>
+      <c r="I31" s="166"/>
+      <c r="J31" s="166"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="97">
@@ -5838,12 +5868,12 @@
       </c>
       <c r="C32" s="80"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="156"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="166"/>
+      <c r="I32" s="166"/>
+      <c r="J32" s="166"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="98">
@@ -5854,12 +5884,12 @@
       </c>
       <c r="C33" s="80"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="156"/>
-      <c r="I33" s="156"/>
-      <c r="J33" s="156"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="166"/>
+      <c r="H33" s="166"/>
+      <c r="I33" s="166"/>
+      <c r="J33" s="166"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="99">
@@ -5870,12 +5900,12 @@
       </c>
       <c r="C34" s="80"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="156"/>
-      <c r="H34" s="156"/>
-      <c r="I34" s="156"/>
-      <c r="J34" s="156"/>
+      <c r="E34" s="166"/>
+      <c r="F34" s="166"/>
+      <c r="G34" s="166"/>
+      <c r="H34" s="166"/>
+      <c r="I34" s="166"/>
+      <c r="J34" s="166"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="100">
@@ -5886,12 +5916,12 @@
       </c>
       <c r="C35" s="80"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="156"/>
-      <c r="H35" s="156"/>
-      <c r="I35" s="156"/>
-      <c r="J35" s="156"/>
+      <c r="E35" s="166"/>
+      <c r="F35" s="166"/>
+      <c r="G35" s="166"/>
+      <c r="H35" s="166"/>
+      <c r="I35" s="166"/>
+      <c r="J35" s="166"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -5902,12 +5932,12 @@
       </c>
       <c r="C36" s="80"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="156"/>
-      <c r="H36" s="156"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="156"/>
+      <c r="E36" s="166"/>
+      <c r="F36" s="166"/>
+      <c r="G36" s="166"/>
+      <c r="H36" s="166"/>
+      <c r="I36" s="166"/>
+      <c r="J36" s="166"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="92">
@@ -5918,12 +5948,12 @@
       </c>
       <c r="C37" s="80"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="156"/>
-      <c r="G37" s="156"/>
-      <c r="H37" s="156"/>
-      <c r="I37" s="156"/>
-      <c r="J37" s="156"/>
+      <c r="E37" s="166"/>
+      <c r="F37" s="166"/>
+      <c r="G37" s="166"/>
+      <c r="H37" s="166"/>
+      <c r="I37" s="166"/>
+      <c r="J37" s="166"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="93">
@@ -5934,12 +5964,12 @@
       </c>
       <c r="C38" s="80"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="156"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="156"/>
+      <c r="E38" s="166"/>
+      <c r="F38" s="166"/>
+      <c r="G38" s="166"/>
+      <c r="H38" s="166"/>
+      <c r="I38" s="166"/>
+      <c r="J38" s="166"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="94">
@@ -5950,12 +5980,12 @@
       </c>
       <c r="C39" s="80"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="156"/>
-      <c r="F39" s="156"/>
-      <c r="G39" s="156"/>
-      <c r="H39" s="156"/>
-      <c r="I39" s="156"/>
-      <c r="J39" s="156"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="166"/>
+      <c r="G39" s="166"/>
+      <c r="H39" s="166"/>
+      <c r="I39" s="166"/>
+      <c r="J39" s="166"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="95">
@@ -5966,12 +5996,12 @@
       </c>
       <c r="C40" s="80"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="156"/>
-      <c r="G40" s="156"/>
-      <c r="H40" s="156"/>
-      <c r="I40" s="156"/>
-      <c r="J40" s="156"/>
+      <c r="E40" s="166"/>
+      <c r="F40" s="166"/>
+      <c r="G40" s="166"/>
+      <c r="H40" s="166"/>
+      <c r="I40" s="166"/>
+      <c r="J40" s="166"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="96">
@@ -5982,12 +6012,12 @@
       </c>
       <c r="C41" s="80"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="156"/>
-      <c r="F41" s="156"/>
-      <c r="G41" s="156"/>
-      <c r="H41" s="156"/>
-      <c r="I41" s="156"/>
-      <c r="J41" s="156"/>
+      <c r="E41" s="166"/>
+      <c r="F41" s="166"/>
+      <c r="G41" s="166"/>
+      <c r="H41" s="166"/>
+      <c r="I41" s="166"/>
+      <c r="J41" s="166"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="97">
@@ -5998,23 +6028,32 @@
       </c>
       <c r="C42" s="80"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="156"/>
-      <c r="F42" s="156"/>
-      <c r="G42" s="156"/>
-      <c r="H42" s="156"/>
-      <c r="I42" s="156"/>
-      <c r="J42" s="156"/>
+      <c r="E42" s="166"/>
+      <c r="F42" s="166"/>
+      <c r="G42" s="166"/>
+      <c r="H42" s="166"/>
+      <c r="I42" s="166"/>
+      <c r="J42" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6030,23 +6069,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6071,7 +6101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I12" sqref="I12:J43"/>
     </sheetView>
   </sheetViews>
@@ -6155,20 +6185,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="169" t="s">
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="170"/>
+      <c r="J4" s="171"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -6179,10 +6209,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="178" t="s">
+      <c r="I5" s="179" t="s">
         <v>162</v>
       </c>
-      <c r="J5" s="179"/>
+      <c r="J5" s="180"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -6193,8 +6223,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="180"/>
-      <c r="J6" s="181"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="182"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -6205,8 +6235,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="181"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="182"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -6217,8 +6247,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="181"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="182"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -6229,8 +6259,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="182"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -6241,8 +6271,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="182"/>
-      <c r="J10" s="183"/>
+      <c r="I10" s="183"/>
+      <c r="J10" s="184"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -6253,10 +6283,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="169" t="s">
+      <c r="I11" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="170"/>
+      <c r="J11" s="171"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -6267,10 +6297,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="172" t="s">
-        <v>218</v>
-      </c>
-      <c r="J12" s="173"/>
+      <c r="I12" s="173" t="s">
+        <v>217</v>
+      </c>
+      <c r="J12" s="174"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -6281,8 +6311,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="176"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -6293,8 +6323,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="174"/>
-      <c r="J14" s="175"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="176"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -6305,8 +6335,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="176"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -6317,8 +6347,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="174"/>
-      <c r="J16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="176"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -6329,8 +6359,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="175"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="176"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -6341,8 +6371,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="175"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="176"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -6353,8 +6383,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="175"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="176"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -6365,8 +6395,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="175"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="176"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -6377,8 +6407,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="174"/>
-      <c r="J21" s="175"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="176"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -6389,8 +6419,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="175"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="176"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -6401,8 +6431,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="175"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="176"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -6413,8 +6443,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="175"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="176"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -6425,8 +6455,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="175"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="176"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -6437,8 +6467,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="175"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="176"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -6449,8 +6479,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="175"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="176"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -6461,8 +6491,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="175"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="176"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -6473,8 +6503,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="175"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="176"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -6485,8 +6515,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="175"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="176"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -6497,8 +6527,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="175"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="176"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -6509,8 +6539,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="175"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="176"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -6521,8 +6551,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="174"/>
-      <c r="J33" s="175"/>
+      <c r="I33" s="175"/>
+      <c r="J33" s="176"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -6533,8 +6563,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="174"/>
-      <c r="J34" s="175"/>
+      <c r="I34" s="175"/>
+      <c r="J34" s="176"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -6545,8 +6575,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="175"/>
+      <c r="I35" s="175"/>
+      <c r="J35" s="176"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -6557,8 +6587,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="174"/>
-      <c r="J36" s="175"/>
+      <c r="I36" s="175"/>
+      <c r="J36" s="176"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -6569,8 +6599,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="174"/>
-      <c r="J37" s="175"/>
+      <c r="I37" s="175"/>
+      <c r="J37" s="176"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -6581,8 +6611,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="174"/>
-      <c r="J38" s="175"/>
+      <c r="I38" s="175"/>
+      <c r="J38" s="176"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -6593,8 +6623,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="174"/>
-      <c r="J39" s="175"/>
+      <c r="I39" s="175"/>
+      <c r="J39" s="176"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -6605,8 +6635,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="174"/>
-      <c r="J40" s="175"/>
+      <c r="I40" s="175"/>
+      <c r="J40" s="176"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -6617,8 +6647,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="174"/>
-      <c r="J41" s="175"/>
+      <c r="I41" s="175"/>
+      <c r="J41" s="176"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -6629,8 +6659,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="174"/>
-      <c r="J42" s="175"/>
+      <c r="I42" s="175"/>
+      <c r="J42" s="176"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -6641,8 +6671,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="176"/>
-      <c r="J43" s="177"/>
+      <c r="I43" s="177"/>
+      <c r="J43" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6700,10 +6730,10 @@
   <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6723,7 +6753,7 @@
     <col min="13" max="13" width="11.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" style="23" customWidth="1"/>
     <col min="15" max="15" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.5703125" style="22" customWidth="1"/>
+    <col min="16" max="16" width="45" style="22" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
@@ -6742,15 +6772,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="184" t="s">
+      <c r="H1" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="185"/>
-      <c r="J1" s="186" t="s">
+      <c r="I1" s="186"/>
+      <c r="J1" s="187" t="s">
         <v>207</v>
       </c>
-      <c r="K1" s="187"/>
-      <c r="L1" s="188"/>
+      <c r="K1" s="188"/>
+      <c r="L1" s="189"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -6778,16 +6808,16 @@
         <f>'Update History'!D2</f>
         <v>ASSOFT - CRM</v>
       </c>
-      <c r="H2" s="184" t="s">
+      <c r="H2" s="185" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="186" t="str">
+      <c r="I2" s="186"/>
+      <c r="J2" s="187" t="str">
         <f>'Update History'!F2</f>
         <v>Báo cáo khách hàng theo nhân viên</v>
       </c>
-      <c r="K2" s="187"/>
-      <c r="L2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="189"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -6887,19 +6917,19 @@
       <c r="P5" s="70"/>
     </row>
     <row r="6" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A6" s="189">
+      <c r="A6" s="190">
         <v>2</v>
       </c>
-      <c r="B6" s="189">
+      <c r="B6" s="190">
         <v>51</v>
       </c>
-      <c r="C6" s="189" t="s">
+      <c r="C6" s="190" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="189">
+      <c r="D6" s="190">
         <v>2</v>
       </c>
-      <c r="E6" s="191" t="s">
+      <c r="E6" s="192" t="s">
         <v>195</v>
       </c>
       <c r="F6" s="89" t="s">
@@ -6925,11 +6955,11 @@
       </c>
     </row>
     <row r="7" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A7" s="190"/>
-      <c r="B7" s="190"/>
-      <c r="C7" s="190"/>
-      <c r="D7" s="190"/>
-      <c r="E7" s="192"/>
+      <c r="A7" s="191"/>
+      <c r="B7" s="191"/>
+      <c r="C7" s="191"/>
+      <c r="D7" s="191"/>
+      <c r="E7" s="193"/>
       <c r="F7" s="128" t="s">
         <v>177</v>
       </c>
@@ -6965,7 +6995,9 @@
       <c r="D8" s="33">
         <v>3</v>
       </c>
-      <c r="E8" s="59"/>
+      <c r="E8" s="59" t="s">
+        <v>224</v>
+      </c>
       <c r="F8" s="89"/>
       <c r="G8" s="128"/>
       <c r="H8" s="40" t="s">
@@ -6996,6 +7028,9 @@
       <c r="E9" s="59" t="s">
         <v>166</v>
       </c>
+      <c r="F9" s="34" t="s">
+        <v>166</v>
+      </c>
       <c r="G9" s="32"/>
       <c r="H9" s="40" t="s">
         <v>186</v>
@@ -7399,11 +7434,21 @@
       <c r="A20" s="33">
         <v>15</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="89"/>
+      <c r="B20" s="33">
+        <v>51</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="33">
+        <v>5</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="F20" s="89" t="s">
+        <v>221</v>
+      </c>
       <c r="G20" s="85"/>
       <c r="H20" s="40"/>
       <c r="I20" s="40"/>
@@ -7413,17 +7458,29 @@
       <c r="M20" s="40"/>
       <c r="N20" s="40"/>
       <c r="O20" s="84"/>
-      <c r="P20" s="89"/>
+      <c r="P20" s="89" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="21" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="33">
         <v>16</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="89"/>
+      <c r="B21" s="33">
+        <v>51</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="33">
+        <v>6</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="F21" s="89" t="s">
+        <v>222</v>
+      </c>
       <c r="G21" s="89"/>
       <c r="H21" s="40"/>
       <c r="I21" s="40"/>
@@ -7433,17 +7490,29 @@
       <c r="M21" s="40"/>
       <c r="N21" s="40"/>
       <c r="O21" s="70"/>
-      <c r="P21" s="89"/>
+      <c r="P21" s="134" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="22" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
         <v>17</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="89"/>
+      <c r="B22" s="33">
+        <v>51</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="33">
+        <v>7</v>
+      </c>
+      <c r="E22" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="F22" s="89" t="s">
+        <v>223</v>
+      </c>
       <c r="G22" s="89"/>
       <c r="H22" s="40"/>
       <c r="I22" s="40"/>
@@ -7453,7 +7522,9 @@
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
       <c r="O22" s="70"/>
-      <c r="P22" s="89"/>
+      <c r="P22" s="134" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="23" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9142,7 +9213,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="199" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="126"/>
@@ -9177,7 +9248,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="196"/>
+      <c r="A2" s="200"/>
       <c r="B2" s="127"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -9247,15 +9318,15 @@
         <v>134</v>
       </c>
       <c r="E5" s="32"/>
-      <c r="F5" s="193" t="s">
+      <c r="F5" s="197" t="s">
         <v>211</v>
       </c>
-      <c r="G5" s="194"/>
-      <c r="H5" s="197" t="s">
+      <c r="G5" s="198"/>
+      <c r="H5" s="194" t="s">
         <v>212</v>
       </c>
-      <c r="I5" s="198"/>
-      <c r="J5" s="199"/>
+      <c r="I5" s="195"/>
+      <c r="J5" s="196"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -9265,11 +9336,11 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="197"/>
-      <c r="I6" s="198"/>
-      <c r="J6" s="199"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="198"/>
+      <c r="H6" s="194"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="196"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9279,11 +9350,11 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="194"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="198"/>
-      <c r="J7" s="199"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="198"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="196"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9293,11 +9364,11 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="199"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="196"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9307,11 +9378,11 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="194"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="198"/>
-      <c r="J9" s="199"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="198"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="196"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9321,11 +9392,11 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="194"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="199"/>
+      <c r="F10" s="197"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="195"/>
+      <c r="J10" s="196"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9335,11 +9406,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="194"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="199"/>
+      <c r="F11" s="197"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="195"/>
+      <c r="J11" s="196"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9349,11 +9420,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="193"/>
-      <c r="G12" s="194"/>
-      <c r="H12" s="197"/>
-      <c r="I12" s="198"/>
-      <c r="J12" s="199"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="198"/>
+      <c r="H12" s="194"/>
+      <c r="I12" s="195"/>
+      <c r="J12" s="196"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9363,11 +9434,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="194"/>
-      <c r="H13" s="197"/>
-      <c r="I13" s="198"/>
-      <c r="J13" s="199"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="198"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="195"/>
+      <c r="J13" s="196"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9377,11 +9448,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="197"/>
-      <c r="I14" s="198"/>
-      <c r="J14" s="199"/>
+      <c r="F14" s="197"/>
+      <c r="G14" s="198"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="195"/>
+      <c r="J14" s="196"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9391,11 +9462,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="198"/>
-      <c r="J15" s="199"/>
+      <c r="F15" s="197"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="195"/>
+      <c r="J15" s="196"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9405,11 +9476,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="199"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="198"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="196"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9419,11 +9490,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="194"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="199"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="196"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9433,11 +9504,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="198"/>
-      <c r="J18" s="199"/>
+      <c r="F18" s="197"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="195"/>
+      <c r="J18" s="196"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9447,11 +9518,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="194"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="198"/>
-      <c r="J19" s="199"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="196"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9461,11 +9532,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="194"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="198"/>
-      <c r="J20" s="199"/>
+      <c r="F20" s="197"/>
+      <c r="G20" s="198"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="195"/>
+      <c r="J20" s="196"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9475,11 +9546,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="194"/>
-      <c r="H21" s="197"/>
-      <c r="I21" s="198"/>
-      <c r="J21" s="199"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="198"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="195"/>
+      <c r="J21" s="196"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9491,9 +9562,9 @@
       <c r="E22" s="32"/>
       <c r="F22" s="157"/>
       <c r="G22" s="159"/>
-      <c r="H22" s="197"/>
-      <c r="I22" s="198"/>
-      <c r="J22" s="199"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="195"/>
+      <c r="J22" s="196"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9505,9 +9576,9 @@
       <c r="E23" s="32"/>
       <c r="F23" s="157"/>
       <c r="G23" s="159"/>
-      <c r="H23" s="197"/>
-      <c r="I23" s="198"/>
-      <c r="J23" s="199"/>
+      <c r="H23" s="194"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="196"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9519,9 +9590,9 @@
       <c r="E24" s="32"/>
       <c r="F24" s="157"/>
       <c r="G24" s="159"/>
-      <c r="H24" s="197"/>
-      <c r="I24" s="198"/>
-      <c r="J24" s="199"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="195"/>
+      <c r="J24" s="196"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9533,9 +9604,9 @@
       <c r="E25" s="32"/>
       <c r="F25" s="157"/>
       <c r="G25" s="159"/>
-      <c r="H25" s="197"/>
-      <c r="I25" s="198"/>
-      <c r="J25" s="199"/>
+      <c r="H25" s="194"/>
+      <c r="I25" s="195"/>
+      <c r="J25" s="196"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9547,9 +9618,9 @@
       <c r="E26" s="32"/>
       <c r="F26" s="157"/>
       <c r="G26" s="159"/>
-      <c r="H26" s="197"/>
-      <c r="I26" s="198"/>
-      <c r="J26" s="199"/>
+      <c r="H26" s="194"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="196"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9561,9 +9632,9 @@
       <c r="E27" s="32"/>
       <c r="F27" s="157"/>
       <c r="G27" s="159"/>
-      <c r="H27" s="197"/>
-      <c r="I27" s="198"/>
-      <c r="J27" s="199"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="196"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9575,9 +9646,9 @@
       <c r="E28" s="32"/>
       <c r="F28" s="157"/>
       <c r="G28" s="159"/>
-      <c r="H28" s="197"/>
-      <c r="I28" s="198"/>
-      <c r="J28" s="199"/>
+      <c r="H28" s="194"/>
+      <c r="I28" s="195"/>
+      <c r="J28" s="196"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9589,9 +9660,9 @@
       <c r="E29" s="32"/>
       <c r="F29" s="157"/>
       <c r="G29" s="159"/>
-      <c r="H29" s="197"/>
-      <c r="I29" s="198"/>
-      <c r="J29" s="199"/>
+      <c r="H29" s="194"/>
+      <c r="I29" s="195"/>
+      <c r="J29" s="196"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9603,9 +9674,9 @@
       <c r="E30" s="32"/>
       <c r="F30" s="157"/>
       <c r="G30" s="159"/>
-      <c r="H30" s="197"/>
-      <c r="I30" s="198"/>
-      <c r="J30" s="199"/>
+      <c r="H30" s="194"/>
+      <c r="I30" s="195"/>
+      <c r="J30" s="196"/>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9617,9 +9688,9 @@
       <c r="E31" s="32"/>
       <c r="F31" s="157"/>
       <c r="G31" s="159"/>
-      <c r="H31" s="197"/>
-      <c r="I31" s="198"/>
-      <c r="J31" s="199"/>
+      <c r="H31" s="194"/>
+      <c r="I31" s="195"/>
+      <c r="J31" s="196"/>
     </row>
     <row r="32" spans="1:18" ht="11.25">
       <c r="A32" s="33">
@@ -9631,9 +9702,9 @@
       <c r="E32" s="32"/>
       <c r="F32" s="157"/>
       <c r="G32" s="159"/>
-      <c r="H32" s="197"/>
-      <c r="I32" s="198"/>
-      <c r="J32" s="199"/>
+      <c r="H32" s="194"/>
+      <c r="I32" s="195"/>
+      <c r="J32" s="196"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -9652,9 +9723,9 @@
       <c r="E33" s="32"/>
       <c r="F33" s="157"/>
       <c r="G33" s="159"/>
-      <c r="H33" s="197"/>
-      <c r="I33" s="198"/>
-      <c r="J33" s="199"/>
+      <c r="H33" s="194"/>
+      <c r="I33" s="195"/>
+      <c r="J33" s="196"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -9673,9 +9744,9 @@
       <c r="E34" s="32"/>
       <c r="F34" s="157"/>
       <c r="G34" s="159"/>
-      <c r="H34" s="197"/>
-      <c r="I34" s="198"/>
-      <c r="J34" s="199"/>
+      <c r="H34" s="194"/>
+      <c r="I34" s="195"/>
+      <c r="J34" s="196"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -9694,9 +9765,9 @@
       <c r="E35" s="32"/>
       <c r="F35" s="157"/>
       <c r="G35" s="159"/>
-      <c r="H35" s="197"/>
-      <c r="I35" s="198"/>
-      <c r="J35" s="199"/>
+      <c r="H35" s="194"/>
+      <c r="I35" s="195"/>
+      <c r="J35" s="196"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -9715,9 +9786,9 @@
       <c r="E36" s="32"/>
       <c r="F36" s="157"/>
       <c r="G36" s="159"/>
-      <c r="H36" s="197"/>
-      <c r="I36" s="198"/>
-      <c r="J36" s="199"/>
+      <c r="H36" s="194"/>
+      <c r="I36" s="195"/>
+      <c r="J36" s="196"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -9736,9 +9807,9 @@
       <c r="E37" s="32"/>
       <c r="F37" s="157"/>
       <c r="G37" s="159"/>
-      <c r="H37" s="197"/>
-      <c r="I37" s="198"/>
-      <c r="J37" s="199"/>
+      <c r="H37" s="194"/>
+      <c r="I37" s="195"/>
+      <c r="J37" s="196"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -9757,9 +9828,9 @@
       <c r="E38" s="32"/>
       <c r="F38" s="157"/>
       <c r="G38" s="159"/>
-      <c r="H38" s="197"/>
-      <c r="I38" s="198"/>
-      <c r="J38" s="199"/>
+      <c r="H38" s="194"/>
+      <c r="I38" s="195"/>
+      <c r="J38" s="196"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -9778,9 +9849,9 @@
       <c r="E39" s="32"/>
       <c r="F39" s="157"/>
       <c r="G39" s="159"/>
-      <c r="H39" s="197"/>
-      <c r="I39" s="198"/>
-      <c r="J39" s="199"/>
+      <c r="H39" s="194"/>
+      <c r="I39" s="195"/>
+      <c r="J39" s="196"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -9799,9 +9870,9 @@
       <c r="E40" s="32"/>
       <c r="F40" s="157"/>
       <c r="G40" s="159"/>
-      <c r="H40" s="197"/>
-      <c r="I40" s="198"/>
-      <c r="J40" s="199"/>
+      <c r="H40" s="194"/>
+      <c r="I40" s="195"/>
+      <c r="J40" s="196"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -9820,9 +9891,9 @@
       <c r="E41" s="32"/>
       <c r="F41" s="157"/>
       <c r="G41" s="159"/>
-      <c r="H41" s="197"/>
-      <c r="I41" s="198"/>
-      <c r="J41" s="199"/>
+      <c r="H41" s="194"/>
+      <c r="I41" s="195"/>
+      <c r="J41" s="196"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -9841,9 +9912,9 @@
       <c r="E42" s="32"/>
       <c r="F42" s="157"/>
       <c r="G42" s="159"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="198"/>
-      <c r="J42" s="199"/>
+      <c r="H42" s="194"/>
+      <c r="I42" s="195"/>
+      <c r="J42" s="196"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -9862,9 +9933,9 @@
       <c r="E43" s="32"/>
       <c r="F43" s="157"/>
       <c r="G43" s="159"/>
-      <c r="H43" s="197"/>
-      <c r="I43" s="198"/>
-      <c r="J43" s="199"/>
+      <c r="H43" s="194"/>
+      <c r="I43" s="195"/>
+      <c r="J43" s="196"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -9883,9 +9954,9 @@
       <c r="E44" s="32"/>
       <c r="F44" s="157"/>
       <c r="G44" s="159"/>
-      <c r="H44" s="197"/>
-      <c r="I44" s="198"/>
-      <c r="J44" s="199"/>
+      <c r="H44" s="194"/>
+      <c r="I44" s="195"/>
+      <c r="J44" s="196"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -9904,9 +9975,9 @@
       <c r="E45" s="32"/>
       <c r="F45" s="157"/>
       <c r="G45" s="159"/>
-      <c r="H45" s="197"/>
-      <c r="I45" s="198"/>
-      <c r="J45" s="199"/>
+      <c r="H45" s="194"/>
+      <c r="I45" s="195"/>
+      <c r="J45" s="196"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -9925,9 +9996,9 @@
       <c r="E46" s="32"/>
       <c r="F46" s="157"/>
       <c r="G46" s="159"/>
-      <c r="H46" s="197"/>
-      <c r="I46" s="198"/>
-      <c r="J46" s="199"/>
+      <c r="H46" s="194"/>
+      <c r="I46" s="195"/>
+      <c r="J46" s="196"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -9946,9 +10017,9 @@
       <c r="E47" s="32"/>
       <c r="F47" s="157"/>
       <c r="G47" s="159"/>
-      <c r="H47" s="197"/>
-      <c r="I47" s="198"/>
-      <c r="J47" s="199"/>
+      <c r="H47" s="194"/>
+      <c r="I47" s="195"/>
+      <c r="J47" s="196"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -9967,9 +10038,9 @@
       <c r="E48" s="32"/>
       <c r="F48" s="157"/>
       <c r="G48" s="159"/>
-      <c r="H48" s="197"/>
-      <c r="I48" s="198"/>
-      <c r="J48" s="199"/>
+      <c r="H48" s="194"/>
+      <c r="I48" s="195"/>
+      <c r="J48" s="196"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -9988,9 +10059,9 @@
       <c r="E49" s="32"/>
       <c r="F49" s="157"/>
       <c r="G49" s="159"/>
-      <c r="H49" s="197"/>
-      <c r="I49" s="198"/>
-      <c r="J49" s="199"/>
+      <c r="H49" s="194"/>
+      <c r="I49" s="195"/>
+      <c r="J49" s="196"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -10009,9 +10080,9 @@
       <c r="E50" s="32"/>
       <c r="F50" s="157"/>
       <c r="G50" s="159"/>
-      <c r="H50" s="197"/>
-      <c r="I50" s="198"/>
-      <c r="J50" s="199"/>
+      <c r="H50" s="194"/>
+      <c r="I50" s="195"/>
+      <c r="J50" s="196"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -10030,9 +10101,9 @@
       <c r="E51" s="32"/>
       <c r="F51" s="157"/>
       <c r="G51" s="159"/>
-      <c r="H51" s="197"/>
-      <c r="I51" s="198"/>
-      <c r="J51" s="199"/>
+      <c r="H51" s="194"/>
+      <c r="I51" s="195"/>
+      <c r="J51" s="196"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -10051,9 +10122,9 @@
       <c r="E52" s="32"/>
       <c r="F52" s="157"/>
       <c r="G52" s="159"/>
-      <c r="H52" s="197"/>
-      <c r="I52" s="198"/>
-      <c r="J52" s="199"/>
+      <c r="H52" s="194"/>
+      <c r="I52" s="195"/>
+      <c r="J52" s="196"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -10072,9 +10143,9 @@
       <c r="E53" s="32"/>
       <c r="F53" s="157"/>
       <c r="G53" s="159"/>
-      <c r="H53" s="197"/>
-      <c r="I53" s="198"/>
-      <c r="J53" s="199"/>
+      <c r="H53" s="194"/>
+      <c r="I53" s="195"/>
+      <c r="J53" s="196"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -10093,9 +10164,9 @@
       <c r="E54" s="32"/>
       <c r="F54" s="157"/>
       <c r="G54" s="159"/>
-      <c r="H54" s="197"/>
-      <c r="I54" s="198"/>
-      <c r="J54" s="199"/>
+      <c r="H54" s="194"/>
+      <c r="I54" s="195"/>
+      <c r="J54" s="196"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -10114,9 +10185,9 @@
       <c r="E55" s="32"/>
       <c r="F55" s="157"/>
       <c r="G55" s="159"/>
-      <c r="H55" s="197"/>
-      <c r="I55" s="198"/>
-      <c r="J55" s="199"/>
+      <c r="H55" s="194"/>
+      <c r="I55" s="195"/>
+      <c r="J55" s="196"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -10135,9 +10206,9 @@
       <c r="E56" s="32"/>
       <c r="F56" s="157"/>
       <c r="G56" s="159"/>
-      <c r="H56" s="197"/>
-      <c r="I56" s="198"/>
-      <c r="J56" s="199"/>
+      <c r="H56" s="194"/>
+      <c r="I56" s="195"/>
+      <c r="J56" s="196"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -10149,6 +10220,99 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="F54:G54"/>
@@ -10163,99 +10327,6 @@
     <mergeCell ref="H54:J54"/>
     <mergeCell ref="H55:J55"/>
     <mergeCell ref="H56:J56"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E56">
@@ -10274,7 +10345,7 @@
   <dimension ref="A1:T1048467"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="G1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:M5"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10314,11 +10385,11 @@
       <c r="H1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="206" t="str">
+      <c r="I1" s="204" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="J1" s="206"/>
+      <c r="J1" s="204"/>
       <c r="K1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10355,11 +10426,11 @@
       <c r="H2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="206" t="str">
+      <c r="I2" s="204" t="str">
         <f>'Update History'!D2</f>
         <v>ASSOFT - CRM</v>
       </c>
-      <c r="J2" s="206"/>
+      <c r="J2" s="204"/>
       <c r="K2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10413,12 +10484,12 @@
       <c r="I4" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="169" t="s">
+      <c r="J4" s="170" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="171"/>
-      <c r="L4" s="171"/>
-      <c r="M4" s="170"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="172"/>
+      <c r="M4" s="171"/>
       <c r="N4" s="39" t="s">
         <v>56</v>
       </c>
@@ -10457,20 +10528,20 @@
       <c r="I5" s="131" t="s">
         <v>199</v>
       </c>
-      <c r="J5" s="200" t="s">
-        <v>217</v>
-      </c>
-      <c r="K5" s="201"/>
-      <c r="L5" s="201"/>
-      <c r="M5" s="202"/>
+      <c r="J5" s="201" t="s">
+        <v>216</v>
+      </c>
+      <c r="K5" s="202"/>
+      <c r="L5" s="202"/>
+      <c r="M5" s="203"/>
       <c r="N5" s="133" t="s">
+        <v>213</v>
+      </c>
+      <c r="O5" s="133" t="s">
         <v>214</v>
       </c>
-      <c r="O5" s="133" t="s">
+      <c r="P5" s="77" t="s">
         <v>215</v>
-      </c>
-      <c r="P5" s="77" t="s">
-        <v>216</v>
       </c>
       <c r="Q5" s="76" t="s">
         <v>200</v>
@@ -10493,10 +10564,10 @@
       <c r="G6" s="63"/>
       <c r="H6" s="63"/>
       <c r="I6" s="83"/>
-      <c r="J6" s="200"/>
-      <c r="K6" s="201"/>
-      <c r="L6" s="201"/>
-      <c r="M6" s="202"/>
+      <c r="J6" s="201"/>
+      <c r="K6" s="202"/>
+      <c r="L6" s="202"/>
+      <c r="M6" s="203"/>
       <c r="N6" s="89"/>
       <c r="O6" s="90"/>
       <c r="P6" s="77"/>
@@ -10517,15 +10588,15 @@
       <c r="G7" s="63"/>
       <c r="H7" s="63"/>
       <c r="I7" s="83"/>
-      <c r="J7" s="200"/>
-      <c r="K7" s="201"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="202"/>
+      <c r="J7" s="201"/>
+      <c r="K7" s="202"/>
+      <c r="L7" s="202"/>
+      <c r="M7" s="203"/>
       <c r="N7" s="90"/>
       <c r="O7" s="90"/>
       <c r="P7" s="77"/>
       <c r="Q7" s="76"/>
-      <c r="R7" s="203"/>
+      <c r="R7" s="205"/>
       <c r="S7" s="64"/>
       <c r="T7" s="64"/>
     </row>
@@ -10541,15 +10612,15 @@
       <c r="G8" s="63"/>
       <c r="H8" s="63"/>
       <c r="I8" s="83"/>
-      <c r="J8" s="200"/>
-      <c r="K8" s="201"/>
-      <c r="L8" s="201"/>
-      <c r="M8" s="202"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="202"/>
+      <c r="M8" s="203"/>
       <c r="N8" s="90"/>
       <c r="O8" s="90"/>
       <c r="P8" s="77"/>
       <c r="Q8" s="76"/>
-      <c r="R8" s="204"/>
+      <c r="R8" s="206"/>
       <c r="S8" s="64"/>
       <c r="T8" s="64"/>
     </row>
@@ -10565,15 +10636,15 @@
       <c r="G9" s="63"/>
       <c r="H9" s="63"/>
       <c r="I9" s="83"/>
-      <c r="J9" s="200"/>
-      <c r="K9" s="201"/>
-      <c r="L9" s="201"/>
-      <c r="M9" s="202"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="202"/>
+      <c r="L9" s="202"/>
+      <c r="M9" s="203"/>
       <c r="N9" s="90"/>
       <c r="O9" s="90"/>
       <c r="P9" s="77"/>
       <c r="Q9" s="76"/>
-      <c r="R9" s="205"/>
+      <c r="R9" s="207"/>
       <c r="S9" s="64"/>
       <c r="T9" s="64"/>
     </row>
@@ -10589,15 +10660,15 @@
       <c r="G10" s="63"/>
       <c r="H10" s="63"/>
       <c r="I10" s="83"/>
-      <c r="J10" s="200"/>
-      <c r="K10" s="201"/>
-      <c r="L10" s="201"/>
-      <c r="M10" s="202"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="202"/>
+      <c r="L10" s="202"/>
+      <c r="M10" s="203"/>
       <c r="N10" s="90"/>
       <c r="O10" s="90"/>
       <c r="P10" s="77"/>
       <c r="Q10" s="76"/>
-      <c r="R10" s="203"/>
+      <c r="R10" s="205"/>
       <c r="S10" s="64"/>
       <c r="T10" s="64"/>
     </row>
@@ -10613,15 +10684,15 @@
       <c r="G11" s="63"/>
       <c r="H11" s="63"/>
       <c r="I11" s="83"/>
-      <c r="J11" s="200"/>
-      <c r="K11" s="201"/>
-      <c r="L11" s="201"/>
-      <c r="M11" s="202"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="202"/>
+      <c r="L11" s="202"/>
+      <c r="M11" s="203"/>
       <c r="N11" s="90"/>
       <c r="O11" s="90"/>
       <c r="P11" s="77"/>
       <c r="Q11" s="76"/>
-      <c r="R11" s="204"/>
+      <c r="R11" s="206"/>
       <c r="S11" s="64"/>
       <c r="T11" s="64"/>
     </row>
@@ -10637,15 +10708,15 @@
       <c r="G12" s="63"/>
       <c r="H12" s="63"/>
       <c r="I12" s="83"/>
-      <c r="J12" s="200"/>
-      <c r="K12" s="201"/>
-      <c r="L12" s="201"/>
-      <c r="M12" s="202"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="202"/>
+      <c r="L12" s="202"/>
+      <c r="M12" s="203"/>
       <c r="N12" s="86"/>
       <c r="O12" s="86"/>
       <c r="P12" s="77"/>
       <c r="Q12" s="76"/>
-      <c r="R12" s="204"/>
+      <c r="R12" s="206"/>
       <c r="S12" s="64"/>
       <c r="T12" s="64"/>
     </row>
@@ -10661,15 +10732,15 @@
       <c r="G13" s="63"/>
       <c r="H13" s="63"/>
       <c r="I13" s="83"/>
-      <c r="J13" s="200"/>
-      <c r="K13" s="201"/>
-      <c r="L13" s="201"/>
-      <c r="M13" s="202"/>
+      <c r="J13" s="201"/>
+      <c r="K13" s="202"/>
+      <c r="L13" s="202"/>
+      <c r="M13" s="203"/>
       <c r="N13" s="86"/>
       <c r="O13" s="86"/>
       <c r="P13" s="77"/>
       <c r="Q13" s="76"/>
-      <c r="R13" s="205"/>
+      <c r="R13" s="207"/>
       <c r="S13" s="64"/>
       <c r="T13" s="64"/>
     </row>
@@ -10685,10 +10756,10 @@
       <c r="G14" s="63"/>
       <c r="H14" s="63"/>
       <c r="I14" s="83"/>
-      <c r="J14" s="200"/>
-      <c r="K14" s="201"/>
-      <c r="L14" s="201"/>
-      <c r="M14" s="202"/>
+      <c r="J14" s="201"/>
+      <c r="K14" s="202"/>
+      <c r="L14" s="202"/>
+      <c r="M14" s="203"/>
       <c r="N14" s="82"/>
       <c r="O14" s="82"/>
       <c r="P14" s="77"/>
@@ -10709,10 +10780,10 @@
       <c r="G15" s="63"/>
       <c r="H15" s="63"/>
       <c r="I15" s="83"/>
-      <c r="J15" s="200"/>
-      <c r="K15" s="201"/>
-      <c r="L15" s="201"/>
-      <c r="M15" s="202"/>
+      <c r="J15" s="201"/>
+      <c r="K15" s="202"/>
+      <c r="L15" s="202"/>
+      <c r="M15" s="203"/>
       <c r="N15" s="82"/>
       <c r="O15" s="82"/>
       <c r="P15" s="77"/>
@@ -10733,10 +10804,10 @@
       <c r="G16" s="63"/>
       <c r="H16" s="63"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="200"/>
-      <c r="K16" s="201"/>
-      <c r="L16" s="201"/>
-      <c r="M16" s="202"/>
+      <c r="J16" s="201"/>
+      <c r="K16" s="202"/>
+      <c r="L16" s="202"/>
+      <c r="M16" s="203"/>
       <c r="N16" s="73"/>
       <c r="O16" s="60"/>
       <c r="P16" s="77"/>
@@ -10757,10 +10828,10 @@
       <c r="G17" s="63"/>
       <c r="H17" s="63"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="200"/>
-      <c r="K17" s="201"/>
-      <c r="L17" s="201"/>
-      <c r="M17" s="202"/>
+      <c r="J17" s="201"/>
+      <c r="K17" s="202"/>
+      <c r="L17" s="202"/>
+      <c r="M17" s="203"/>
       <c r="N17" s="60"/>
       <c r="O17" s="60"/>
       <c r="P17" s="77"/>
@@ -10781,10 +10852,10 @@
       <c r="G18" s="63"/>
       <c r="H18" s="63"/>
       <c r="I18" s="40"/>
-      <c r="J18" s="200"/>
-      <c r="K18" s="201"/>
-      <c r="L18" s="201"/>
-      <c r="M18" s="202"/>
+      <c r="J18" s="201"/>
+      <c r="K18" s="202"/>
+      <c r="L18" s="202"/>
+      <c r="M18" s="203"/>
       <c r="N18" s="60"/>
       <c r="O18" s="60"/>
       <c r="P18" s="77"/>
@@ -10805,10 +10876,10 @@
       <c r="G19" s="63"/>
       <c r="H19" s="63"/>
       <c r="I19" s="40"/>
-      <c r="J19" s="200"/>
-      <c r="K19" s="201"/>
-      <c r="L19" s="201"/>
-      <c r="M19" s="202"/>
+      <c r="J19" s="201"/>
+      <c r="K19" s="202"/>
+      <c r="L19" s="202"/>
+      <c r="M19" s="203"/>
       <c r="N19" s="60"/>
       <c r="O19" s="60"/>
       <c r="P19" s="77"/>
@@ -10829,10 +10900,10 @@
       <c r="G20" s="63"/>
       <c r="H20" s="63"/>
       <c r="I20" s="40"/>
-      <c r="J20" s="200"/>
-      <c r="K20" s="201"/>
-      <c r="L20" s="201"/>
-      <c r="M20" s="202"/>
+      <c r="J20" s="201"/>
+      <c r="K20" s="202"/>
+      <c r="L20" s="202"/>
+      <c r="M20" s="203"/>
       <c r="N20" s="60"/>
       <c r="O20" s="60"/>
       <c r="P20" s="77"/>
@@ -10853,10 +10924,10 @@
       <c r="G21" s="63"/>
       <c r="H21" s="63"/>
       <c r="I21" s="40"/>
-      <c r="J21" s="200"/>
-      <c r="K21" s="201"/>
-      <c r="L21" s="201"/>
-      <c r="M21" s="202"/>
+      <c r="J21" s="201"/>
+      <c r="K21" s="202"/>
+      <c r="L21" s="202"/>
+      <c r="M21" s="203"/>
       <c r="N21" s="60"/>
       <c r="O21" s="60"/>
       <c r="P21" s="77"/>
@@ -10877,10 +10948,10 @@
       <c r="G22" s="63"/>
       <c r="H22" s="63"/>
       <c r="I22" s="40"/>
-      <c r="J22" s="200"/>
-      <c r="K22" s="201"/>
-      <c r="L22" s="201"/>
-      <c r="M22" s="202"/>
+      <c r="J22" s="201"/>
+      <c r="K22" s="202"/>
+      <c r="L22" s="202"/>
+      <c r="M22" s="203"/>
       <c r="N22" s="60"/>
       <c r="O22" s="60"/>
       <c r="P22" s="77"/>
@@ -10901,10 +10972,10 @@
       <c r="G23" s="63"/>
       <c r="H23" s="63"/>
       <c r="I23" s="40"/>
-      <c r="J23" s="200"/>
-      <c r="K23" s="201"/>
-      <c r="L23" s="201"/>
-      <c r="M23" s="202"/>
+      <c r="J23" s="201"/>
+      <c r="K23" s="202"/>
+      <c r="L23" s="202"/>
+      <c r="M23" s="203"/>
       <c r="N23" s="60"/>
       <c r="O23" s="60"/>
       <c r="P23" s="77"/>
@@ -10925,10 +10996,10 @@
       <c r="G24" s="63"/>
       <c r="H24" s="63"/>
       <c r="I24" s="40"/>
-      <c r="J24" s="200"/>
-      <c r="K24" s="201"/>
-      <c r="L24" s="201"/>
-      <c r="M24" s="202"/>
+      <c r="J24" s="201"/>
+      <c r="K24" s="202"/>
+      <c r="L24" s="202"/>
+      <c r="M24" s="203"/>
       <c r="N24" s="60"/>
       <c r="O24" s="60"/>
       <c r="P24" s="77"/>
@@ -10949,10 +11020,10 @@
       <c r="G25" s="63"/>
       <c r="H25" s="63"/>
       <c r="I25" s="40"/>
-      <c r="J25" s="200"/>
-      <c r="K25" s="201"/>
-      <c r="L25" s="201"/>
-      <c r="M25" s="202"/>
+      <c r="J25" s="201"/>
+      <c r="K25" s="202"/>
+      <c r="L25" s="202"/>
+      <c r="M25" s="203"/>
       <c r="N25" s="60"/>
       <c r="O25" s="60"/>
       <c r="P25" s="77"/>
@@ -10973,10 +11044,10 @@
       <c r="G26" s="63"/>
       <c r="H26" s="63"/>
       <c r="I26" s="40"/>
-      <c r="J26" s="200"/>
-      <c r="K26" s="201"/>
-      <c r="L26" s="201"/>
-      <c r="M26" s="202"/>
+      <c r="J26" s="201"/>
+      <c r="K26" s="202"/>
+      <c r="L26" s="202"/>
+      <c r="M26" s="203"/>
       <c r="N26" s="60"/>
       <c r="O26" s="60"/>
       <c r="P26" s="77"/>
@@ -10997,10 +11068,10 @@
       <c r="G27" s="63"/>
       <c r="H27" s="63"/>
       <c r="I27" s="40"/>
-      <c r="J27" s="200"/>
-      <c r="K27" s="201"/>
-      <c r="L27" s="201"/>
-      <c r="M27" s="202"/>
+      <c r="J27" s="201"/>
+      <c r="K27" s="202"/>
+      <c r="L27" s="202"/>
+      <c r="M27" s="203"/>
       <c r="N27" s="60"/>
       <c r="O27" s="60"/>
       <c r="P27" s="77"/>
@@ -11021,10 +11092,10 @@
       <c r="G28" s="63"/>
       <c r="H28" s="63"/>
       <c r="I28" s="40"/>
-      <c r="J28" s="200"/>
-      <c r="K28" s="201"/>
-      <c r="L28" s="201"/>
-      <c r="M28" s="202"/>
+      <c r="J28" s="201"/>
+      <c r="K28" s="202"/>
+      <c r="L28" s="202"/>
+      <c r="M28" s="203"/>
       <c r="N28" s="60"/>
       <c r="O28" s="60"/>
       <c r="P28" s="77"/>
@@ -11045,10 +11116,10 @@
       <c r="G29" s="63"/>
       <c r="H29" s="63"/>
       <c r="I29" s="40"/>
-      <c r="J29" s="200"/>
-      <c r="K29" s="201"/>
-      <c r="L29" s="201"/>
-      <c r="M29" s="202"/>
+      <c r="J29" s="201"/>
+      <c r="K29" s="202"/>
+      <c r="L29" s="202"/>
+      <c r="M29" s="203"/>
       <c r="N29" s="60"/>
       <c r="O29" s="60"/>
       <c r="P29" s="77"/>
@@ -11069,10 +11140,10 @@
       <c r="G30" s="63"/>
       <c r="H30" s="63"/>
       <c r="I30" s="40"/>
-      <c r="J30" s="200"/>
-      <c r="K30" s="201"/>
-      <c r="L30" s="201"/>
-      <c r="M30" s="202"/>
+      <c r="J30" s="201"/>
+      <c r="K30" s="202"/>
+      <c r="L30" s="202"/>
+      <c r="M30" s="203"/>
       <c r="N30" s="60"/>
       <c r="O30" s="60"/>
       <c r="P30" s="77"/>
@@ -11093,10 +11164,10 @@
       <c r="G31" s="63"/>
       <c r="H31" s="63"/>
       <c r="I31" s="40"/>
-      <c r="J31" s="200"/>
-      <c r="K31" s="201"/>
-      <c r="L31" s="201"/>
-      <c r="M31" s="202"/>
+      <c r="J31" s="201"/>
+      <c r="K31" s="202"/>
+      <c r="L31" s="202"/>
+      <c r="M31" s="203"/>
       <c r="N31" s="60"/>
       <c r="O31" s="60"/>
       <c r="P31" s="77"/>
@@ -11117,10 +11188,10 @@
       <c r="G32" s="63"/>
       <c r="H32" s="63"/>
       <c r="I32" s="40"/>
-      <c r="J32" s="200"/>
-      <c r="K32" s="201"/>
-      <c r="L32" s="201"/>
-      <c r="M32" s="202"/>
+      <c r="J32" s="201"/>
+      <c r="K32" s="202"/>
+      <c r="L32" s="202"/>
+      <c r="M32" s="203"/>
       <c r="N32" s="60"/>
       <c r="O32" s="60"/>
       <c r="P32" s="77"/>
@@ -11141,10 +11212,10 @@
       <c r="G33" s="63"/>
       <c r="H33" s="63"/>
       <c r="I33" s="40"/>
-      <c r="J33" s="200"/>
-      <c r="K33" s="201"/>
-      <c r="L33" s="201"/>
-      <c r="M33" s="202"/>
+      <c r="J33" s="201"/>
+      <c r="K33" s="202"/>
+      <c r="L33" s="202"/>
+      <c r="M33" s="203"/>
       <c r="N33" s="60"/>
       <c r="O33" s="60"/>
       <c r="P33" s="77"/>
@@ -11165,10 +11236,10 @@
       <c r="G34" s="63"/>
       <c r="H34" s="63"/>
       <c r="I34" s="83"/>
-      <c r="J34" s="200"/>
-      <c r="K34" s="201"/>
-      <c r="L34" s="201"/>
-      <c r="M34" s="202"/>
+      <c r="J34" s="201"/>
+      <c r="K34" s="202"/>
+      <c r="L34" s="202"/>
+      <c r="M34" s="203"/>
       <c r="N34" s="86"/>
       <c r="O34" s="86"/>
       <c r="P34" s="77"/>
@@ -11189,10 +11260,10 @@
       <c r="G35" s="63"/>
       <c r="H35" s="63"/>
       <c r="I35" s="40"/>
-      <c r="J35" s="200"/>
-      <c r="K35" s="201"/>
-      <c r="L35" s="201"/>
-      <c r="M35" s="202"/>
+      <c r="J35" s="201"/>
+      <c r="K35" s="202"/>
+      <c r="L35" s="202"/>
+      <c r="M35" s="203"/>
       <c r="N35" s="60"/>
       <c r="O35" s="60"/>
       <c r="P35" s="77"/>
@@ -11213,10 +11284,10 @@
       <c r="G36" s="63"/>
       <c r="H36" s="63"/>
       <c r="I36" s="40"/>
-      <c r="J36" s="200"/>
-      <c r="K36" s="201"/>
-      <c r="L36" s="201"/>
-      <c r="M36" s="202"/>
+      <c r="J36" s="201"/>
+      <c r="K36" s="202"/>
+      <c r="L36" s="202"/>
+      <c r="M36" s="203"/>
       <c r="N36" s="60"/>
       <c r="O36" s="60"/>
       <c r="P36" s="77"/>
@@ -11237,10 +11308,10 @@
       <c r="G37" s="63"/>
       <c r="H37" s="63"/>
       <c r="I37" s="40"/>
-      <c r="J37" s="200"/>
-      <c r="K37" s="201"/>
-      <c r="L37" s="201"/>
-      <c r="M37" s="202"/>
+      <c r="J37" s="201"/>
+      <c r="K37" s="202"/>
+      <c r="L37" s="202"/>
+      <c r="M37" s="203"/>
       <c r="N37" s="60"/>
       <c r="O37" s="60"/>
       <c r="P37" s="77"/>
@@ -11261,10 +11332,10 @@
       <c r="G38" s="63"/>
       <c r="H38" s="63"/>
       <c r="I38" s="40"/>
-      <c r="J38" s="200"/>
-      <c r="K38" s="201"/>
-      <c r="L38" s="201"/>
-      <c r="M38" s="202"/>
+      <c r="J38" s="201"/>
+      <c r="K38" s="202"/>
+      <c r="L38" s="202"/>
+      <c r="M38" s="203"/>
       <c r="N38" s="60"/>
       <c r="O38" s="60"/>
       <c r="P38" s="77"/>
@@ -11285,10 +11356,10 @@
       <c r="G39" s="63"/>
       <c r="H39" s="63"/>
       <c r="I39" s="40"/>
-      <c r="J39" s="200"/>
-      <c r="K39" s="201"/>
-      <c r="L39" s="201"/>
-      <c r="M39" s="202"/>
+      <c r="J39" s="201"/>
+      <c r="K39" s="202"/>
+      <c r="L39" s="202"/>
+      <c r="M39" s="203"/>
       <c r="N39" s="60"/>
       <c r="O39" s="60"/>
       <c r="P39" s="77"/>
@@ -11309,10 +11380,10 @@
       <c r="G40" s="63"/>
       <c r="H40" s="63"/>
       <c r="I40" s="40"/>
-      <c r="J40" s="200"/>
-      <c r="K40" s="201"/>
-      <c r="L40" s="201"/>
-      <c r="M40" s="202"/>
+      <c r="J40" s="201"/>
+      <c r="K40" s="202"/>
+      <c r="L40" s="202"/>
+      <c r="M40" s="203"/>
       <c r="N40" s="75"/>
       <c r="O40" s="75"/>
       <c r="P40" s="77"/>
@@ -11333,10 +11404,10 @@
       <c r="G41" s="63"/>
       <c r="H41" s="63"/>
       <c r="I41" s="40"/>
-      <c r="J41" s="200"/>
-      <c r="K41" s="201"/>
-      <c r="L41" s="201"/>
-      <c r="M41" s="202"/>
+      <c r="J41" s="201"/>
+      <c r="K41" s="202"/>
+      <c r="L41" s="202"/>
+      <c r="M41" s="203"/>
       <c r="N41" s="75"/>
       <c r="O41" s="75"/>
       <c r="P41" s="77"/>
@@ -11357,10 +11428,10 @@
       <c r="G42" s="63"/>
       <c r="H42" s="63"/>
       <c r="I42" s="40"/>
-      <c r="J42" s="200"/>
-      <c r="K42" s="201"/>
-      <c r="L42" s="201"/>
-      <c r="M42" s="202"/>
+      <c r="J42" s="201"/>
+      <c r="K42" s="202"/>
+      <c r="L42" s="202"/>
+      <c r="M42" s="203"/>
       <c r="N42" s="75"/>
       <c r="O42" s="75"/>
       <c r="P42" s="77"/>
@@ -11381,10 +11452,10 @@
       <c r="G43" s="63"/>
       <c r="H43" s="63"/>
       <c r="I43" s="40"/>
-      <c r="J43" s="200"/>
-      <c r="K43" s="201"/>
-      <c r="L43" s="201"/>
-      <c r="M43" s="202"/>
+      <c r="J43" s="201"/>
+      <c r="K43" s="202"/>
+      <c r="L43" s="202"/>
+      <c r="M43" s="203"/>
       <c r="N43" s="75"/>
       <c r="O43" s="75"/>
       <c r="P43" s="77"/>
@@ -11405,10 +11476,10 @@
       <c r="G44" s="63"/>
       <c r="H44" s="63"/>
       <c r="I44" s="40"/>
-      <c r="J44" s="200"/>
-      <c r="K44" s="201"/>
-      <c r="L44" s="201"/>
-      <c r="M44" s="202"/>
+      <c r="J44" s="201"/>
+      <c r="K44" s="202"/>
+      <c r="L44" s="202"/>
+      <c r="M44" s="203"/>
       <c r="N44" s="75"/>
       <c r="O44" s="75"/>
       <c r="P44" s="77"/>
@@ -11429,10 +11500,10 @@
       <c r="G45" s="63"/>
       <c r="H45" s="63"/>
       <c r="I45" s="40"/>
-      <c r="J45" s="200"/>
-      <c r="K45" s="201"/>
-      <c r="L45" s="201"/>
-      <c r="M45" s="202"/>
+      <c r="J45" s="201"/>
+      <c r="K45" s="202"/>
+      <c r="L45" s="202"/>
+      <c r="M45" s="203"/>
       <c r="N45" s="75"/>
       <c r="O45" s="75"/>
       <c r="P45" s="77"/>
@@ -11453,10 +11524,10 @@
       <c r="G46" s="63"/>
       <c r="H46" s="63"/>
       <c r="I46" s="40"/>
-      <c r="J46" s="200"/>
-      <c r="K46" s="201"/>
-      <c r="L46" s="201"/>
-      <c r="M46" s="202"/>
+      <c r="J46" s="201"/>
+      <c r="K46" s="202"/>
+      <c r="L46" s="202"/>
+      <c r="M46" s="203"/>
       <c r="N46" s="75"/>
       <c r="O46" s="75"/>
       <c r="P46" s="77"/>
@@ -11477,10 +11548,10 @@
       <c r="G47" s="63"/>
       <c r="H47" s="63"/>
       <c r="I47" s="40"/>
-      <c r="J47" s="200"/>
-      <c r="K47" s="201"/>
-      <c r="L47" s="201"/>
-      <c r="M47" s="202"/>
+      <c r="J47" s="201"/>
+      <c r="K47" s="202"/>
+      <c r="L47" s="202"/>
+      <c r="M47" s="203"/>
       <c r="N47" s="75"/>
       <c r="O47" s="75"/>
       <c r="P47" s="77"/>
@@ -11501,10 +11572,10 @@
       <c r="G48" s="63"/>
       <c r="H48" s="63"/>
       <c r="I48" s="40"/>
-      <c r="J48" s="200"/>
-      <c r="K48" s="201"/>
-      <c r="L48" s="201"/>
-      <c r="M48" s="202"/>
+      <c r="J48" s="201"/>
+      <c r="K48" s="202"/>
+      <c r="L48" s="202"/>
+      <c r="M48" s="203"/>
       <c r="N48" s="75"/>
       <c r="O48" s="75"/>
       <c r="P48" s="77"/>
@@ -11525,10 +11596,10 @@
       <c r="G49" s="63"/>
       <c r="H49" s="63"/>
       <c r="I49" s="40"/>
-      <c r="J49" s="200"/>
-      <c r="K49" s="201"/>
-      <c r="L49" s="201"/>
-      <c r="M49" s="202"/>
+      <c r="J49" s="201"/>
+      <c r="K49" s="202"/>
+      <c r="L49" s="202"/>
+      <c r="M49" s="203"/>
       <c r="N49" s="75"/>
       <c r="O49" s="75"/>
       <c r="P49" s="77"/>
@@ -11549,10 +11620,10 @@
       <c r="G50" s="63"/>
       <c r="H50" s="63"/>
       <c r="I50" s="40"/>
-      <c r="J50" s="200"/>
-      <c r="K50" s="201"/>
-      <c r="L50" s="201"/>
-      <c r="M50" s="202"/>
+      <c r="J50" s="201"/>
+      <c r="K50" s="202"/>
+      <c r="L50" s="202"/>
+      <c r="M50" s="203"/>
       <c r="N50" s="75"/>
       <c r="O50" s="75"/>
       <c r="P50" s="77"/>
@@ -11573,10 +11644,10 @@
       <c r="G51" s="63"/>
       <c r="H51" s="63"/>
       <c r="I51" s="40"/>
-      <c r="J51" s="200"/>
-      <c r="K51" s="201"/>
-      <c r="L51" s="201"/>
-      <c r="M51" s="202"/>
+      <c r="J51" s="201"/>
+      <c r="K51" s="202"/>
+      <c r="L51" s="202"/>
+      <c r="M51" s="203"/>
       <c r="N51" s="75"/>
       <c r="O51" s="75"/>
       <c r="P51" s="77"/>
@@ -11597,10 +11668,10 @@
       <c r="G52" s="63"/>
       <c r="H52" s="63"/>
       <c r="I52" s="40"/>
-      <c r="J52" s="200"/>
-      <c r="K52" s="201"/>
-      <c r="L52" s="201"/>
-      <c r="M52" s="202"/>
+      <c r="J52" s="201"/>
+      <c r="K52" s="202"/>
+      <c r="L52" s="202"/>
+      <c r="M52" s="203"/>
       <c r="N52" s="75"/>
       <c r="O52" s="75"/>
       <c r="P52" s="77"/>
@@ -11621,10 +11692,10 @@
       <c r="G53" s="63"/>
       <c r="H53" s="63"/>
       <c r="I53" s="40"/>
-      <c r="J53" s="200"/>
-      <c r="K53" s="201"/>
-      <c r="L53" s="201"/>
-      <c r="M53" s="202"/>
+      <c r="J53" s="201"/>
+      <c r="K53" s="202"/>
+      <c r="L53" s="202"/>
+      <c r="M53" s="203"/>
       <c r="N53" s="75"/>
       <c r="O53" s="75"/>
       <c r="P53" s="77"/>
@@ -11645,10 +11716,10 @@
       <c r="G54" s="63"/>
       <c r="H54" s="63"/>
       <c r="I54" s="40"/>
-      <c r="J54" s="200"/>
-      <c r="K54" s="201"/>
-      <c r="L54" s="201"/>
-      <c r="M54" s="202"/>
+      <c r="J54" s="201"/>
+      <c r="K54" s="202"/>
+      <c r="L54" s="202"/>
+      <c r="M54" s="203"/>
       <c r="N54" s="75"/>
       <c r="O54" s="75"/>
       <c r="P54" s="77"/>
@@ -11669,10 +11740,10 @@
       <c r="G55" s="63"/>
       <c r="H55" s="63"/>
       <c r="I55" s="40"/>
-      <c r="J55" s="200"/>
-      <c r="K55" s="201"/>
-      <c r="L55" s="201"/>
-      <c r="M55" s="202"/>
+      <c r="J55" s="201"/>
+      <c r="K55" s="202"/>
+      <c r="L55" s="202"/>
+      <c r="M55" s="203"/>
       <c r="N55" s="75"/>
       <c r="O55" s="75"/>
       <c r="P55" s="77"/>
@@ -11693,10 +11764,10 @@
       <c r="G56" s="63"/>
       <c r="H56" s="63"/>
       <c r="I56" s="40"/>
-      <c r="J56" s="200"/>
-      <c r="K56" s="201"/>
-      <c r="L56" s="201"/>
-      <c r="M56" s="202"/>
+      <c r="J56" s="201"/>
+      <c r="K56" s="202"/>
+      <c r="L56" s="202"/>
+      <c r="M56" s="203"/>
       <c r="N56" s="75"/>
       <c r="O56" s="75"/>
       <c r="P56" s="77"/>
@@ -11717,10 +11788,10 @@
       <c r="G57" s="63"/>
       <c r="H57" s="63"/>
       <c r="I57" s="40"/>
-      <c r="J57" s="200"/>
-      <c r="K57" s="201"/>
-      <c r="L57" s="201"/>
-      <c r="M57" s="202"/>
+      <c r="J57" s="201"/>
+      <c r="K57" s="202"/>
+      <c r="L57" s="202"/>
+      <c r="M57" s="203"/>
       <c r="N57" s="75"/>
       <c r="O57" s="75"/>
       <c r="P57" s="77"/>
@@ -11741,10 +11812,10 @@
       <c r="G58" s="63"/>
       <c r="H58" s="63"/>
       <c r="I58" s="40"/>
-      <c r="J58" s="200"/>
-      <c r="K58" s="201"/>
-      <c r="L58" s="201"/>
-      <c r="M58" s="202"/>
+      <c r="J58" s="201"/>
+      <c r="K58" s="202"/>
+      <c r="L58" s="202"/>
+      <c r="M58" s="203"/>
       <c r="N58" s="75"/>
       <c r="O58" s="75"/>
       <c r="P58" s="77"/>
@@ -11765,10 +11836,10 @@
       <c r="G59" s="63"/>
       <c r="H59" s="63"/>
       <c r="I59" s="40"/>
-      <c r="J59" s="200"/>
-      <c r="K59" s="201"/>
-      <c r="L59" s="201"/>
-      <c r="M59" s="202"/>
+      <c r="J59" s="201"/>
+      <c r="K59" s="202"/>
+      <c r="L59" s="202"/>
+      <c r="M59" s="203"/>
       <c r="N59" s="75"/>
       <c r="O59" s="75"/>
       <c r="P59" s="77"/>
@@ -11789,10 +11860,10 @@
       <c r="G60" s="63"/>
       <c r="H60" s="63"/>
       <c r="I60" s="40"/>
-      <c r="J60" s="200"/>
-      <c r="K60" s="201"/>
-      <c r="L60" s="201"/>
-      <c r="M60" s="202"/>
+      <c r="J60" s="201"/>
+      <c r="K60" s="202"/>
+      <c r="L60" s="202"/>
+      <c r="M60" s="203"/>
       <c r="N60" s="75"/>
       <c r="O60" s="75"/>
       <c r="P60" s="77"/>
@@ -11813,10 +11884,10 @@
       <c r="G61" s="63"/>
       <c r="H61" s="63"/>
       <c r="I61" s="40"/>
-      <c r="J61" s="200"/>
-      <c r="K61" s="201"/>
-      <c r="L61" s="201"/>
-      <c r="M61" s="202"/>
+      <c r="J61" s="201"/>
+      <c r="K61" s="202"/>
+      <c r="L61" s="202"/>
+      <c r="M61" s="203"/>
       <c r="N61" s="75"/>
       <c r="O61" s="75"/>
       <c r="P61" s="77"/>
@@ -11837,10 +11908,10 @@
       <c r="G62" s="63"/>
       <c r="H62" s="63"/>
       <c r="I62" s="40"/>
-      <c r="J62" s="200"/>
-      <c r="K62" s="201"/>
-      <c r="L62" s="201"/>
-      <c r="M62" s="202"/>
+      <c r="J62" s="201"/>
+      <c r="K62" s="202"/>
+      <c r="L62" s="202"/>
+      <c r="M62" s="203"/>
       <c r="N62" s="85"/>
       <c r="O62" s="85"/>
       <c r="P62" s="77"/>
@@ -11861,10 +11932,10 @@
       <c r="G63" s="63"/>
       <c r="H63" s="63"/>
       <c r="I63" s="40"/>
-      <c r="J63" s="200"/>
-      <c r="K63" s="201"/>
-      <c r="L63" s="201"/>
-      <c r="M63" s="202"/>
+      <c r="J63" s="201"/>
+      <c r="K63" s="202"/>
+      <c r="L63" s="202"/>
+      <c r="M63" s="203"/>
       <c r="N63" s="85"/>
       <c r="O63" s="85"/>
       <c r="P63" s="77"/>
@@ -11885,10 +11956,10 @@
       <c r="G64" s="63"/>
       <c r="H64" s="63"/>
       <c r="I64" s="40"/>
-      <c r="J64" s="200"/>
-      <c r="K64" s="201"/>
-      <c r="L64" s="201"/>
-      <c r="M64" s="202"/>
+      <c r="J64" s="201"/>
+      <c r="K64" s="202"/>
+      <c r="L64" s="202"/>
+      <c r="M64" s="203"/>
       <c r="N64" s="85"/>
       <c r="O64" s="85"/>
       <c r="P64" s="77"/>
@@ -11907,10 +11978,10 @@
       <c r="G65" s="63"/>
       <c r="H65" s="63"/>
       <c r="I65" s="40"/>
-      <c r="J65" s="200"/>
-      <c r="K65" s="201"/>
-      <c r="L65" s="201"/>
-      <c r="M65" s="202"/>
+      <c r="J65" s="201"/>
+      <c r="K65" s="202"/>
+      <c r="L65" s="202"/>
+      <c r="M65" s="203"/>
       <c r="N65" s="85"/>
       <c r="O65" s="85"/>
       <c r="P65" s="77"/>
@@ -11929,10 +12000,10 @@
       <c r="G66" s="63"/>
       <c r="H66" s="63"/>
       <c r="I66" s="40"/>
-      <c r="J66" s="200"/>
-      <c r="K66" s="201"/>
-      <c r="L66" s="201"/>
-      <c r="M66" s="202"/>
+      <c r="J66" s="201"/>
+      <c r="K66" s="202"/>
+      <c r="L66" s="202"/>
+      <c r="M66" s="203"/>
       <c r="N66" s="85"/>
       <c r="O66" s="85"/>
       <c r="P66" s="77"/>
@@ -11951,10 +12022,10 @@
       <c r="G67" s="63"/>
       <c r="H67" s="63"/>
       <c r="I67" s="40"/>
-      <c r="J67" s="200"/>
-      <c r="K67" s="201"/>
-      <c r="L67" s="201"/>
-      <c r="M67" s="202"/>
+      <c r="J67" s="201"/>
+      <c r="K67" s="202"/>
+      <c r="L67" s="202"/>
+      <c r="M67" s="203"/>
       <c r="N67" s="85"/>
       <c r="O67" s="85"/>
       <c r="P67" s="77"/>
@@ -11973,10 +12044,10 @@
       <c r="G68" s="63"/>
       <c r="H68" s="63"/>
       <c r="I68" s="40"/>
-      <c r="J68" s="200"/>
-      <c r="K68" s="201"/>
-      <c r="L68" s="201"/>
-      <c r="M68" s="202"/>
+      <c r="J68" s="201"/>
+      <c r="K68" s="202"/>
+      <c r="L68" s="202"/>
+      <c r="M68" s="203"/>
       <c r="N68" s="85"/>
       <c r="O68" s="85"/>
       <c r="P68" s="77"/>
@@ -11995,10 +12066,10 @@
       <c r="G69" s="63"/>
       <c r="H69" s="63"/>
       <c r="I69" s="40"/>
-      <c r="J69" s="200"/>
-      <c r="K69" s="201"/>
-      <c r="L69" s="201"/>
-      <c r="M69" s="202"/>
+      <c r="J69" s="201"/>
+      <c r="K69" s="202"/>
+      <c r="L69" s="202"/>
+      <c r="M69" s="203"/>
       <c r="N69" s="85"/>
       <c r="O69" s="85"/>
       <c r="P69" s="77"/>
@@ -12017,10 +12088,10 @@
       <c r="G70" s="63"/>
       <c r="H70" s="63"/>
       <c r="I70" s="40"/>
-      <c r="J70" s="200"/>
-      <c r="K70" s="201"/>
-      <c r="L70" s="201"/>
-      <c r="M70" s="202"/>
+      <c r="J70" s="201"/>
+      <c r="K70" s="202"/>
+      <c r="L70" s="202"/>
+      <c r="M70" s="203"/>
       <c r="N70" s="85"/>
       <c r="O70" s="85"/>
       <c r="P70" s="77"/>
@@ -12039,10 +12110,10 @@
       <c r="G71" s="63"/>
       <c r="H71" s="63"/>
       <c r="I71" s="40"/>
-      <c r="J71" s="200"/>
-      <c r="K71" s="201"/>
-      <c r="L71" s="201"/>
-      <c r="M71" s="202"/>
+      <c r="J71" s="201"/>
+      <c r="K71" s="202"/>
+      <c r="L71" s="202"/>
+      <c r="M71" s="203"/>
       <c r="N71" s="85"/>
       <c r="O71" s="85"/>
       <c r="P71" s="77"/>
@@ -12061,10 +12132,10 @@
       <c r="G72" s="63"/>
       <c r="H72" s="63"/>
       <c r="I72" s="40"/>
-      <c r="J72" s="200"/>
-      <c r="K72" s="201"/>
-      <c r="L72" s="201"/>
-      <c r="M72" s="202"/>
+      <c r="J72" s="201"/>
+      <c r="K72" s="202"/>
+      <c r="L72" s="202"/>
+      <c r="M72" s="203"/>
       <c r="N72" s="85"/>
       <c r="O72" s="85"/>
       <c r="P72" s="77"/>
@@ -12083,10 +12154,10 @@
       <c r="G73" s="63"/>
       <c r="H73" s="63"/>
       <c r="I73" s="40"/>
-      <c r="J73" s="200"/>
-      <c r="K73" s="201"/>
-      <c r="L73" s="201"/>
-      <c r="M73" s="202"/>
+      <c r="J73" s="201"/>
+      <c r="K73" s="202"/>
+      <c r="L73" s="202"/>
+      <c r="M73" s="203"/>
       <c r="N73" s="85"/>
       <c r="O73" s="85"/>
       <c r="P73" s="77"/>
@@ -12105,10 +12176,10 @@
       <c r="G74" s="63"/>
       <c r="H74" s="63"/>
       <c r="I74" s="40"/>
-      <c r="J74" s="200"/>
-      <c r="K74" s="201"/>
-      <c r="L74" s="201"/>
-      <c r="M74" s="202"/>
+      <c r="J74" s="201"/>
+      <c r="K74" s="202"/>
+      <c r="L74" s="202"/>
+      <c r="M74" s="203"/>
       <c r="N74" s="85"/>
       <c r="O74" s="85"/>
       <c r="P74" s="77"/>
@@ -12127,10 +12198,10 @@
       <c r="G75" s="63"/>
       <c r="H75" s="63"/>
       <c r="I75" s="40"/>
-      <c r="J75" s="200"/>
-      <c r="K75" s="201"/>
-      <c r="L75" s="201"/>
-      <c r="M75" s="202"/>
+      <c r="J75" s="201"/>
+      <c r="K75" s="202"/>
+      <c r="L75" s="202"/>
+      <c r="M75" s="203"/>
       <c r="N75" s="85"/>
       <c r="O75" s="85"/>
       <c r="P75" s="77"/>
@@ -12149,10 +12220,10 @@
       <c r="G76" s="63"/>
       <c r="H76" s="63"/>
       <c r="I76" s="40"/>
-      <c r="J76" s="200"/>
-      <c r="K76" s="201"/>
-      <c r="L76" s="201"/>
-      <c r="M76" s="202"/>
+      <c r="J76" s="201"/>
+      <c r="K76" s="202"/>
+      <c r="L76" s="202"/>
+      <c r="M76" s="203"/>
       <c r="N76" s="85"/>
       <c r="O76" s="85"/>
       <c r="P76" s="77"/>
@@ -12171,10 +12242,10 @@
       <c r="G77" s="63"/>
       <c r="H77" s="63"/>
       <c r="I77" s="40"/>
-      <c r="J77" s="200"/>
-      <c r="K77" s="201"/>
-      <c r="L77" s="201"/>
-      <c r="M77" s="202"/>
+      <c r="J77" s="201"/>
+      <c r="K77" s="202"/>
+      <c r="L77" s="202"/>
+      <c r="M77" s="203"/>
       <c r="N77" s="85"/>
       <c r="O77" s="85"/>
       <c r="P77" s="77"/>
@@ -12193,10 +12264,10 @@
       <c r="G78" s="63"/>
       <c r="H78" s="63"/>
       <c r="I78" s="40"/>
-      <c r="J78" s="200"/>
-      <c r="K78" s="201"/>
-      <c r="L78" s="201"/>
-      <c r="M78" s="202"/>
+      <c r="J78" s="201"/>
+      <c r="K78" s="202"/>
+      <c r="L78" s="202"/>
+      <c r="M78" s="203"/>
       <c r="N78" s="85"/>
       <c r="O78" s="85"/>
       <c r="P78" s="77"/>
@@ -12215,10 +12286,10 @@
       <c r="G79" s="63"/>
       <c r="H79" s="63"/>
       <c r="I79" s="40"/>
-      <c r="J79" s="200"/>
-      <c r="K79" s="201"/>
-      <c r="L79" s="201"/>
-      <c r="M79" s="202"/>
+      <c r="J79" s="201"/>
+      <c r="K79" s="202"/>
+      <c r="L79" s="202"/>
+      <c r="M79" s="203"/>
       <c r="N79" s="85"/>
       <c r="O79" s="85"/>
       <c r="P79" s="77"/>
@@ -12237,10 +12308,10 @@
       <c r="G80" s="63"/>
       <c r="H80" s="63"/>
       <c r="I80" s="40"/>
-      <c r="J80" s="200"/>
-      <c r="K80" s="201"/>
-      <c r="L80" s="201"/>
-      <c r="M80" s="202"/>
+      <c r="J80" s="201"/>
+      <c r="K80" s="202"/>
+      <c r="L80" s="202"/>
+      <c r="M80" s="203"/>
       <c r="N80" s="85"/>
       <c r="O80" s="85"/>
       <c r="P80" s="77"/>
@@ -12259,10 +12330,10 @@
       <c r="G81" s="63"/>
       <c r="H81" s="63"/>
       <c r="I81" s="40"/>
-      <c r="J81" s="200"/>
-      <c r="K81" s="201"/>
-      <c r="L81" s="201"/>
-      <c r="M81" s="202"/>
+      <c r="J81" s="201"/>
+      <c r="K81" s="202"/>
+      <c r="L81" s="202"/>
+      <c r="M81" s="203"/>
       <c r="N81" s="85"/>
       <c r="O81" s="85"/>
       <c r="P81" s="77"/>
@@ -12281,10 +12352,10 @@
       <c r="G82" s="63"/>
       <c r="H82" s="63"/>
       <c r="I82" s="40"/>
-      <c r="J82" s="200"/>
-      <c r="K82" s="201"/>
-      <c r="L82" s="201"/>
-      <c r="M82" s="202"/>
+      <c r="J82" s="201"/>
+      <c r="K82" s="202"/>
+      <c r="L82" s="202"/>
+      <c r="M82" s="203"/>
       <c r="N82" s="85"/>
       <c r="O82" s="85"/>
       <c r="P82" s="77"/>
@@ -12303,10 +12374,10 @@
       <c r="G83" s="63"/>
       <c r="H83" s="63"/>
       <c r="I83" s="40"/>
-      <c r="J83" s="200"/>
-      <c r="K83" s="201"/>
-      <c r="L83" s="201"/>
-      <c r="M83" s="202"/>
+      <c r="J83" s="201"/>
+      <c r="K83" s="202"/>
+      <c r="L83" s="202"/>
+      <c r="M83" s="203"/>
       <c r="N83" s="85"/>
       <c r="O83" s="85"/>
       <c r="P83" s="77"/>
@@ -12325,10 +12396,10 @@
       <c r="G84" s="63"/>
       <c r="H84" s="63"/>
       <c r="I84" s="40"/>
-      <c r="J84" s="200"/>
-      <c r="K84" s="201"/>
-      <c r="L84" s="201"/>
-      <c r="M84" s="202"/>
+      <c r="J84" s="201"/>
+      <c r="K84" s="202"/>
+      <c r="L84" s="202"/>
+      <c r="M84" s="203"/>
       <c r="N84" s="85"/>
       <c r="O84" s="85"/>
       <c r="P84" s="77"/>
@@ -12347,10 +12418,10 @@
       <c r="G85" s="63"/>
       <c r="H85" s="63"/>
       <c r="I85" s="40"/>
-      <c r="J85" s="200"/>
-      <c r="K85" s="201"/>
-      <c r="L85" s="201"/>
-      <c r="M85" s="202"/>
+      <c r="J85" s="201"/>
+      <c r="K85" s="202"/>
+      <c r="L85" s="202"/>
+      <c r="M85" s="203"/>
       <c r="N85" s="85"/>
       <c r="O85" s="85"/>
       <c r="P85" s="77"/>
@@ -12369,10 +12440,10 @@
       <c r="G86" s="63"/>
       <c r="H86" s="63"/>
       <c r="I86" s="40"/>
-      <c r="J86" s="200"/>
-      <c r="K86" s="201"/>
-      <c r="L86" s="201"/>
-      <c r="M86" s="202"/>
+      <c r="J86" s="201"/>
+      <c r="K86" s="202"/>
+      <c r="L86" s="202"/>
+      <c r="M86" s="203"/>
       <c r="N86" s="85"/>
       <c r="O86" s="85"/>
       <c r="P86" s="77"/>
@@ -12391,10 +12462,10 @@
       <c r="G87" s="63"/>
       <c r="H87" s="63"/>
       <c r="I87" s="40"/>
-      <c r="J87" s="200"/>
-      <c r="K87" s="201"/>
-      <c r="L87" s="201"/>
-      <c r="M87" s="202"/>
+      <c r="J87" s="201"/>
+      <c r="K87" s="202"/>
+      <c r="L87" s="202"/>
+      <c r="M87" s="203"/>
       <c r="N87" s="85"/>
       <c r="O87" s="85"/>
       <c r="P87" s="77"/>
@@ -12413,10 +12484,10 @@
       <c r="G88" s="63"/>
       <c r="H88" s="63"/>
       <c r="I88" s="40"/>
-      <c r="J88" s="200"/>
-      <c r="K88" s="201"/>
-      <c r="L88" s="201"/>
-      <c r="M88" s="202"/>
+      <c r="J88" s="201"/>
+      <c r="K88" s="202"/>
+      <c r="L88" s="202"/>
+      <c r="M88" s="203"/>
       <c r="N88" s="85"/>
       <c r="O88" s="85"/>
       <c r="P88" s="77"/>
@@ -12435,10 +12506,10 @@
       <c r="G89" s="63"/>
       <c r="H89" s="63"/>
       <c r="I89" s="40"/>
-      <c r="J89" s="200"/>
-      <c r="K89" s="201"/>
-      <c r="L89" s="201"/>
-      <c r="M89" s="202"/>
+      <c r="J89" s="201"/>
+      <c r="K89" s="202"/>
+      <c r="L89" s="202"/>
+      <c r="M89" s="203"/>
       <c r="N89" s="85"/>
       <c r="O89" s="85"/>
       <c r="P89" s="77"/>
@@ -12457,10 +12528,10 @@
       <c r="G90" s="63"/>
       <c r="H90" s="63"/>
       <c r="I90" s="40"/>
-      <c r="J90" s="200"/>
-      <c r="K90" s="201"/>
-      <c r="L90" s="201"/>
-      <c r="M90" s="202"/>
+      <c r="J90" s="201"/>
+      <c r="K90" s="202"/>
+      <c r="L90" s="202"/>
+      <c r="M90" s="203"/>
       <c r="N90" s="85"/>
       <c r="O90" s="85"/>
       <c r="P90" s="77"/>
@@ -12479,10 +12550,10 @@
       <c r="G91" s="63"/>
       <c r="H91" s="63"/>
       <c r="I91" s="40"/>
-      <c r="J91" s="200"/>
-      <c r="K91" s="201"/>
-      <c r="L91" s="201"/>
-      <c r="M91" s="202"/>
+      <c r="J91" s="201"/>
+      <c r="K91" s="202"/>
+      <c r="L91" s="202"/>
+      <c r="M91" s="203"/>
       <c r="N91" s="85"/>
       <c r="O91" s="85"/>
       <c r="P91" s="77"/>
@@ -12501,10 +12572,10 @@
       <c r="G92" s="63"/>
       <c r="H92" s="63"/>
       <c r="I92" s="40"/>
-      <c r="J92" s="200"/>
-      <c r="K92" s="201"/>
-      <c r="L92" s="201"/>
-      <c r="M92" s="202"/>
+      <c r="J92" s="201"/>
+      <c r="K92" s="202"/>
+      <c r="L92" s="202"/>
+      <c r="M92" s="203"/>
       <c r="N92" s="85"/>
       <c r="O92" s="85"/>
       <c r="P92" s="77"/>
@@ -12523,10 +12594,10 @@
       <c r="G93" s="63"/>
       <c r="H93" s="63"/>
       <c r="I93" s="40"/>
-      <c r="J93" s="200"/>
-      <c r="K93" s="201"/>
-      <c r="L93" s="201"/>
-      <c r="M93" s="202"/>
+      <c r="J93" s="201"/>
+      <c r="K93" s="202"/>
+      <c r="L93" s="202"/>
+      <c r="M93" s="203"/>
       <c r="N93" s="85"/>
       <c r="O93" s="85"/>
       <c r="P93" s="77"/>
@@ -12545,10 +12616,10 @@
       <c r="G94" s="63"/>
       <c r="H94" s="63"/>
       <c r="I94" s="40"/>
-      <c r="J94" s="200"/>
-      <c r="K94" s="201"/>
-      <c r="L94" s="201"/>
-      <c r="M94" s="202"/>
+      <c r="J94" s="201"/>
+      <c r="K94" s="202"/>
+      <c r="L94" s="202"/>
+      <c r="M94" s="203"/>
       <c r="N94" s="85"/>
       <c r="O94" s="85"/>
       <c r="P94" s="77"/>
@@ -12561,60 +12632,32 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="96">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="J91:M91"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="R10:R13"/>
+    <mergeCell ref="J87:M87"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J76:M76"/>
     <mergeCell ref="J93:M93"/>
     <mergeCell ref="J94:M94"/>
     <mergeCell ref="J5:M5"/>
@@ -12631,32 +12674,60 @@
     <mergeCell ref="J69:M69"/>
     <mergeCell ref="J70:M70"/>
     <mergeCell ref="J71:M71"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="R10:R13"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="J91:M91"/>
-    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J11:M11"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="P1048467:P1048576 P5:P94"/>
@@ -12685,8 +12756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -13028,7 +13099,7 @@
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="74"/>
       <c r="B26" s="81" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMR30101_Bao cao KH moi theo nhan vien.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMR30101_Bao cao KH moi theo nhan vien.xlsx
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="229">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2134,6 +2134,9 @@
   </si>
   <si>
     <t>Thực thi @SQL0001 để truyền các tham số từ CRMF3010 để mở tab để load  báo cáo Khách hàng mới theo nhân viên_CRMR30101</t>
+  </si>
+  <si>
+    <t>ID Store</t>
   </si>
 </sst>
 </file>
@@ -3004,9 +3007,27 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3052,23 +3073,8 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3097,9 +3103,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3182,6 +3185,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3190,18 +3205,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3211,17 +3214,17 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4212,65 +4215,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="140"/>
-      <c r="B1" s="140"/>
-      <c r="C1" s="142" t="s">
+      <c r="A1" s="146"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="148" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="141" t="s">
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="147" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141" t="s">
+      <c r="H1" s="147"/>
+      <c r="I1" s="147" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="141"/>
+      <c r="J1" s="147"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="140"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="141" t="s">
+      <c r="A2" s="146"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="147" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="140"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="137" t="s">
+      <c r="A3" s="146"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="143" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="138"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="138"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="144"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="119"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="139"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
+      <c r="A13" s="145"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="145"/>
       <c r="K13" s="120"/>
       <c r="L13" s="120"/>
       <c r="M13" s="120"/>
@@ -4281,56 +4284,56 @@
       <c r="R13" s="120"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="135"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="135"/>
-      <c r="N14" s="135"/>
-      <c r="O14" s="135"/>
-      <c r="P14" s="135"/>
-      <c r="Q14" s="135"/>
-      <c r="R14" s="135"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="139"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="139"/>
+      <c r="N14" s="139"/>
+      <c r="O14" s="139"/>
+      <c r="P14" s="139"/>
+      <c r="Q14" s="139"/>
+      <c r="R14" s="139"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="135"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="135"/>
-      <c r="P15" s="135"/>
-      <c r="Q15" s="135"/>
-      <c r="R15" s="135"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="139"/>
+      <c r="N15" s="139"/>
+      <c r="O15" s="139"/>
+      <c r="P15" s="139"/>
+      <c r="Q15" s="139"/>
+      <c r="R15" s="139"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="136" t="s">
+      <c r="A16" s="142" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="136"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="136"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
       <c r="K16" s="121"/>
       <c r="L16" s="121"/>
       <c r="M16" s="121"/>
@@ -4341,384 +4344,384 @@
       <c r="R16" s="121"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="135"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="135"/>
-      <c r="O17" s="135"/>
-      <c r="P17" s="135"/>
-      <c r="Q17" s="135"/>
-      <c r="R17" s="135"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="139"/>
+      <c r="M17" s="139"/>
+      <c r="N17" s="139"/>
+      <c r="O17" s="139"/>
+      <c r="P17" s="139"/>
+      <c r="Q17" s="139"/>
+      <c r="R17" s="139"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="135"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="135"/>
-      <c r="O18" s="135"/>
-      <c r="P18" s="135"/>
-      <c r="Q18" s="135"/>
-      <c r="R18" s="135"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="139"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="139"/>
+      <c r="O18" s="139"/>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="139"/>
+      <c r="R18" s="139"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="152"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="152"/>
-      <c r="K19" s="152"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="152"/>
-      <c r="N19" s="152"/>
-      <c r="O19" s="152"/>
-      <c r="P19" s="152"/>
-      <c r="Q19" s="152"/>
-      <c r="R19" s="152"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="141"/>
+      <c r="N19" s="141"/>
+      <c r="O19" s="141"/>
+      <c r="P19" s="141"/>
+      <c r="Q19" s="141"/>
+      <c r="R19" s="141"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="135"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="135"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="135"/>
-      <c r="N20" s="135"/>
-      <c r="O20" s="135"/>
-      <c r="P20" s="135"/>
-      <c r="Q20" s="135"/>
-      <c r="R20" s="135"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="139"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="139"/>
+      <c r="N20" s="139"/>
+      <c r="O20" s="139"/>
+      <c r="P20" s="139"/>
+      <c r="Q20" s="139"/>
+      <c r="R20" s="139"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="135"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="135"/>
-      <c r="O21" s="135"/>
-      <c r="P21" s="135"/>
-      <c r="Q21" s="135"/>
-      <c r="R21" s="135"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="139"/>
+      <c r="O21" s="139"/>
+      <c r="P21" s="139"/>
+      <c r="Q21" s="139"/>
+      <c r="R21" s="139"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="151"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="151"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="151"/>
-      <c r="P22" s="151"/>
-      <c r="Q22" s="151"/>
-      <c r="R22" s="151"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="140"/>
+      <c r="J22" s="140"/>
+      <c r="K22" s="140"/>
+      <c r="L22" s="140"/>
+      <c r="M22" s="140"/>
+      <c r="N22" s="140"/>
+      <c r="O22" s="140"/>
+      <c r="P22" s="140"/>
+      <c r="Q22" s="140"/>
+      <c r="R22" s="140"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="151"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="151"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="151"/>
-      <c r="O23" s="151"/>
-      <c r="P23" s="151"/>
-      <c r="Q23" s="151"/>
-      <c r="R23" s="151"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="140"/>
+      <c r="K23" s="140"/>
+      <c r="L23" s="140"/>
+      <c r="M23" s="140"/>
+      <c r="N23" s="140"/>
+      <c r="O23" s="140"/>
+      <c r="P23" s="140"/>
+      <c r="Q23" s="140"/>
+      <c r="R23" s="140"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="153"/>
-      <c r="C26" s="153"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="153"/>
-      <c r="K26" s="153"/>
-      <c r="L26" s="153"/>
-      <c r="M26" s="153"/>
-      <c r="N26" s="153"/>
-      <c r="O26" s="153"/>
-      <c r="P26" s="153"/>
-      <c r="Q26" s="153"/>
-      <c r="R26" s="153"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="137"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="137"/>
+      <c r="O26" s="137"/>
+      <c r="P26" s="137"/>
+      <c r="Q26" s="137"/>
+      <c r="R26" s="137"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="155"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="155"/>
-      <c r="M28" s="155"/>
-      <c r="N28" s="155"/>
-      <c r="O28" s="155"/>
-      <c r="P28" s="155"/>
-      <c r="Q28" s="155"/>
-      <c r="R28" s="155"/>
-      <c r="S28" s="154"/>
-      <c r="T28" s="154"/>
-      <c r="U28" s="154"/>
-      <c r="V28" s="154"/>
-      <c r="W28" s="154"/>
-      <c r="X28" s="154"/>
-      <c r="Y28" s="154"/>
-      <c r="Z28" s="154"/>
-      <c r="AA28" s="154"/>
-      <c r="AB28" s="154"/>
-      <c r="AC28" s="154"/>
-      <c r="AD28" s="154"/>
-      <c r="AE28" s="154"/>
-      <c r="AF28" s="154"/>
-      <c r="AG28" s="154"/>
-      <c r="AH28" s="154"/>
-      <c r="AI28" s="154"/>
-      <c r="AJ28" s="154"/>
-      <c r="AK28" s="154"/>
-      <c r="AL28" s="154"/>
-      <c r="AM28" s="154"/>
-      <c r="AN28" s="154"/>
-      <c r="AO28" s="154"/>
-      <c r="AP28" s="154"/>
-      <c r="AQ28" s="154"/>
-      <c r="AR28" s="154"/>
-      <c r="AS28" s="154"/>
-      <c r="AT28" s="154"/>
-      <c r="AU28" s="154"/>
-      <c r="AV28" s="154"/>
-      <c r="AW28" s="154"/>
-      <c r="AX28" s="154"/>
-      <c r="AY28" s="154"/>
-      <c r="AZ28" s="154"/>
-      <c r="BA28" s="154"/>
-      <c r="BB28" s="154"/>
-      <c r="BC28" s="154"/>
-      <c r="BD28" s="154"/>
-      <c r="BE28" s="154"/>
-      <c r="BF28" s="154"/>
-      <c r="BG28" s="154"/>
-      <c r="BH28" s="154"/>
-      <c r="BI28" s="154"/>
-      <c r="BJ28" s="154"/>
-      <c r="BK28" s="154"/>
-      <c r="BL28" s="154"/>
-      <c r="BM28" s="154"/>
-      <c r="BN28" s="154"/>
-      <c r="BO28" s="154"/>
-      <c r="BP28" s="154"/>
-      <c r="BQ28" s="154"/>
-      <c r="BR28" s="154"/>
-      <c r="BS28" s="154"/>
-      <c r="BT28" s="154"/>
-      <c r="BU28" s="154"/>
-      <c r="BV28" s="154"/>
-      <c r="BW28" s="154"/>
-      <c r="BX28" s="154"/>
-      <c r="BY28" s="154"/>
-      <c r="BZ28" s="154"/>
-      <c r="CA28" s="154"/>
-      <c r="CB28" s="154"/>
-      <c r="CC28" s="154"/>
-      <c r="CD28" s="154"/>
-      <c r="CE28" s="154"/>
-      <c r="CF28" s="154"/>
-      <c r="CG28" s="154"/>
-      <c r="CH28" s="154"/>
-      <c r="CI28" s="154"/>
-      <c r="CJ28" s="154"/>
-      <c r="CK28" s="154"/>
-      <c r="CL28" s="154"/>
-      <c r="CM28" s="154"/>
-      <c r="CN28" s="154"/>
-      <c r="CO28" s="154"/>
-      <c r="CP28" s="154"/>
-      <c r="CQ28" s="154"/>
-      <c r="CR28" s="154"/>
-      <c r="CS28" s="154"/>
-      <c r="CT28" s="154"/>
-      <c r="CU28" s="154"/>
-      <c r="CV28" s="154"/>
-      <c r="CW28" s="154"/>
-      <c r="CX28" s="154"/>
-      <c r="CY28" s="154"/>
-      <c r="CZ28" s="154"/>
-      <c r="DA28" s="154"/>
-      <c r="DB28" s="154"/>
-      <c r="DC28" s="154"/>
-      <c r="DD28" s="154"/>
-      <c r="DE28" s="154"/>
-      <c r="DF28" s="154"/>
-      <c r="DG28" s="154"/>
-      <c r="DH28" s="154"/>
-      <c r="DI28" s="154"/>
-      <c r="DJ28" s="154"/>
-      <c r="DK28" s="154"/>
-      <c r="DL28" s="154"/>
-      <c r="DM28" s="154"/>
-      <c r="DN28" s="154"/>
-      <c r="DO28" s="154"/>
-      <c r="DP28" s="154"/>
-      <c r="DQ28" s="154"/>
-      <c r="DR28" s="154"/>
-      <c r="DS28" s="154"/>
-      <c r="DT28" s="154"/>
-      <c r="DU28" s="154"/>
-      <c r="DV28" s="154"/>
-      <c r="DW28" s="154"/>
-      <c r="DX28" s="154"/>
-      <c r="DY28" s="154"/>
-      <c r="DZ28" s="154"/>
-      <c r="EA28" s="154"/>
-      <c r="EB28" s="154"/>
-      <c r="EC28" s="154"/>
-      <c r="ED28" s="154"/>
-      <c r="EE28" s="154"/>
-      <c r="EF28" s="154"/>
-      <c r="EG28" s="154"/>
-      <c r="EH28" s="154"/>
-      <c r="EI28" s="154"/>
-      <c r="EJ28" s="154"/>
-      <c r="EK28" s="154"/>
-      <c r="EL28" s="154"/>
-      <c r="EM28" s="154"/>
-      <c r="EN28" s="154"/>
-      <c r="EO28" s="154"/>
-      <c r="EP28" s="154"/>
-      <c r="EQ28" s="154"/>
-      <c r="ER28" s="154"/>
-      <c r="ES28" s="154"/>
-      <c r="ET28" s="154"/>
-      <c r="EU28" s="154"/>
-      <c r="EV28" s="154"/>
-      <c r="EW28" s="154"/>
-      <c r="EX28" s="154"/>
-      <c r="EY28" s="154"/>
-      <c r="EZ28" s="154"/>
-      <c r="FA28" s="154"/>
-      <c r="FB28" s="154"/>
-      <c r="FC28" s="154"/>
-      <c r="FD28" s="154"/>
-      <c r="FE28" s="154"/>
-      <c r="FF28" s="154"/>
-      <c r="FG28" s="154"/>
-      <c r="FH28" s="154"/>
-      <c r="FI28" s="154"/>
-      <c r="FJ28" s="154"/>
-      <c r="FK28" s="154"/>
-      <c r="FL28" s="154"/>
-      <c r="FM28" s="154"/>
-      <c r="FN28" s="154"/>
-      <c r="FO28" s="154"/>
-      <c r="FP28" s="154"/>
-      <c r="FQ28" s="154"/>
-      <c r="FR28" s="154"/>
-      <c r="FS28" s="154"/>
-      <c r="FT28" s="154"/>
-      <c r="FU28" s="154"/>
-      <c r="FV28" s="154"/>
-      <c r="FW28" s="154"/>
-      <c r="FX28" s="154"/>
-      <c r="FY28" s="154"/>
-      <c r="FZ28" s="154"/>
-      <c r="GA28" s="154"/>
-      <c r="GB28" s="154"/>
-      <c r="GC28" s="154"/>
-      <c r="GD28" s="154"/>
-      <c r="GE28" s="154"/>
-      <c r="GF28" s="154"/>
-      <c r="GG28" s="154"/>
-      <c r="GH28" s="154"/>
-      <c r="GI28" s="154"/>
-      <c r="GJ28" s="154"/>
-      <c r="GK28" s="154"/>
-      <c r="GL28" s="154"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="138"/>
+      <c r="P28" s="138"/>
+      <c r="Q28" s="138"/>
+      <c r="R28" s="138"/>
+      <c r="S28" s="136"/>
+      <c r="T28" s="136"/>
+      <c r="U28" s="136"/>
+      <c r="V28" s="136"/>
+      <c r="W28" s="136"/>
+      <c r="X28" s="136"/>
+      <c r="Y28" s="136"/>
+      <c r="Z28" s="136"/>
+      <c r="AA28" s="136"/>
+      <c r="AB28" s="136"/>
+      <c r="AC28" s="136"/>
+      <c r="AD28" s="136"/>
+      <c r="AE28" s="136"/>
+      <c r="AF28" s="136"/>
+      <c r="AG28" s="136"/>
+      <c r="AH28" s="136"/>
+      <c r="AI28" s="136"/>
+      <c r="AJ28" s="136"/>
+      <c r="AK28" s="136"/>
+      <c r="AL28" s="136"/>
+      <c r="AM28" s="136"/>
+      <c r="AN28" s="136"/>
+      <c r="AO28" s="136"/>
+      <c r="AP28" s="136"/>
+      <c r="AQ28" s="136"/>
+      <c r="AR28" s="136"/>
+      <c r="AS28" s="136"/>
+      <c r="AT28" s="136"/>
+      <c r="AU28" s="136"/>
+      <c r="AV28" s="136"/>
+      <c r="AW28" s="136"/>
+      <c r="AX28" s="136"/>
+      <c r="AY28" s="136"/>
+      <c r="AZ28" s="136"/>
+      <c r="BA28" s="136"/>
+      <c r="BB28" s="136"/>
+      <c r="BC28" s="136"/>
+      <c r="BD28" s="136"/>
+      <c r="BE28" s="136"/>
+      <c r="BF28" s="136"/>
+      <c r="BG28" s="136"/>
+      <c r="BH28" s="136"/>
+      <c r="BI28" s="136"/>
+      <c r="BJ28" s="136"/>
+      <c r="BK28" s="136"/>
+      <c r="BL28" s="136"/>
+      <c r="BM28" s="136"/>
+      <c r="BN28" s="136"/>
+      <c r="BO28" s="136"/>
+      <c r="BP28" s="136"/>
+      <c r="BQ28" s="136"/>
+      <c r="BR28" s="136"/>
+      <c r="BS28" s="136"/>
+      <c r="BT28" s="136"/>
+      <c r="BU28" s="136"/>
+      <c r="BV28" s="136"/>
+      <c r="BW28" s="136"/>
+      <c r="BX28" s="136"/>
+      <c r="BY28" s="136"/>
+      <c r="BZ28" s="136"/>
+      <c r="CA28" s="136"/>
+      <c r="CB28" s="136"/>
+      <c r="CC28" s="136"/>
+      <c r="CD28" s="136"/>
+      <c r="CE28" s="136"/>
+      <c r="CF28" s="136"/>
+      <c r="CG28" s="136"/>
+      <c r="CH28" s="136"/>
+      <c r="CI28" s="136"/>
+      <c r="CJ28" s="136"/>
+      <c r="CK28" s="136"/>
+      <c r="CL28" s="136"/>
+      <c r="CM28" s="136"/>
+      <c r="CN28" s="136"/>
+      <c r="CO28" s="136"/>
+      <c r="CP28" s="136"/>
+      <c r="CQ28" s="136"/>
+      <c r="CR28" s="136"/>
+      <c r="CS28" s="136"/>
+      <c r="CT28" s="136"/>
+      <c r="CU28" s="136"/>
+      <c r="CV28" s="136"/>
+      <c r="CW28" s="136"/>
+      <c r="CX28" s="136"/>
+      <c r="CY28" s="136"/>
+      <c r="CZ28" s="136"/>
+      <c r="DA28" s="136"/>
+      <c r="DB28" s="136"/>
+      <c r="DC28" s="136"/>
+      <c r="DD28" s="136"/>
+      <c r="DE28" s="136"/>
+      <c r="DF28" s="136"/>
+      <c r="DG28" s="136"/>
+      <c r="DH28" s="136"/>
+      <c r="DI28" s="136"/>
+      <c r="DJ28" s="136"/>
+      <c r="DK28" s="136"/>
+      <c r="DL28" s="136"/>
+      <c r="DM28" s="136"/>
+      <c r="DN28" s="136"/>
+      <c r="DO28" s="136"/>
+      <c r="DP28" s="136"/>
+      <c r="DQ28" s="136"/>
+      <c r="DR28" s="136"/>
+      <c r="DS28" s="136"/>
+      <c r="DT28" s="136"/>
+      <c r="DU28" s="136"/>
+      <c r="DV28" s="136"/>
+      <c r="DW28" s="136"/>
+      <c r="DX28" s="136"/>
+      <c r="DY28" s="136"/>
+      <c r="DZ28" s="136"/>
+      <c r="EA28" s="136"/>
+      <c r="EB28" s="136"/>
+      <c r="EC28" s="136"/>
+      <c r="ED28" s="136"/>
+      <c r="EE28" s="136"/>
+      <c r="EF28" s="136"/>
+      <c r="EG28" s="136"/>
+      <c r="EH28" s="136"/>
+      <c r="EI28" s="136"/>
+      <c r="EJ28" s="136"/>
+      <c r="EK28" s="136"/>
+      <c r="EL28" s="136"/>
+      <c r="EM28" s="136"/>
+      <c r="EN28" s="136"/>
+      <c r="EO28" s="136"/>
+      <c r="EP28" s="136"/>
+      <c r="EQ28" s="136"/>
+      <c r="ER28" s="136"/>
+      <c r="ES28" s="136"/>
+      <c r="ET28" s="136"/>
+      <c r="EU28" s="136"/>
+      <c r="EV28" s="136"/>
+      <c r="EW28" s="136"/>
+      <c r="EX28" s="136"/>
+      <c r="EY28" s="136"/>
+      <c r="EZ28" s="136"/>
+      <c r="FA28" s="136"/>
+      <c r="FB28" s="136"/>
+      <c r="FC28" s="136"/>
+      <c r="FD28" s="136"/>
+      <c r="FE28" s="136"/>
+      <c r="FF28" s="136"/>
+      <c r="FG28" s="136"/>
+      <c r="FH28" s="136"/>
+      <c r="FI28" s="136"/>
+      <c r="FJ28" s="136"/>
+      <c r="FK28" s="136"/>
+      <c r="FL28" s="136"/>
+      <c r="FM28" s="136"/>
+      <c r="FN28" s="136"/>
+      <c r="FO28" s="136"/>
+      <c r="FP28" s="136"/>
+      <c r="FQ28" s="136"/>
+      <c r="FR28" s="136"/>
+      <c r="FS28" s="136"/>
+      <c r="FT28" s="136"/>
+      <c r="FU28" s="136"/>
+      <c r="FV28" s="136"/>
+      <c r="FW28" s="136"/>
+      <c r="FX28" s="136"/>
+      <c r="FY28" s="136"/>
+      <c r="FZ28" s="136"/>
+      <c r="GA28" s="136"/>
+      <c r="GB28" s="136"/>
+      <c r="GC28" s="136"/>
+      <c r="GD28" s="136"/>
+      <c r="GE28" s="136"/>
+      <c r="GF28" s="136"/>
+      <c r="GG28" s="136"/>
+      <c r="GH28" s="136"/>
+      <c r="GI28" s="136"/>
+      <c r="GJ28" s="136"/>
+      <c r="GK28" s="136"/>
+      <c r="GL28" s="136"/>
       <c r="GM28" s="122"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="153"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="153"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="153"/>
-      <c r="K29" s="153"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="153"/>
-      <c r="N29" s="153"/>
-      <c r="O29" s="153"/>
-      <c r="P29" s="153"/>
-      <c r="Q29" s="153"/>
-      <c r="R29" s="153"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="137"/>
+      <c r="M29" s="137"/>
+      <c r="N29" s="137"/>
+      <c r="O29" s="137"/>
+      <c r="P29" s="137"/>
+      <c r="Q29" s="137"/>
+      <c r="R29" s="137"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="156"/>
-      <c r="B30" s="156"/>
-      <c r="C30" s="156"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
+      <c r="A30" s="135"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="135"/>
+      <c r="F30" s="135"/>
+      <c r="G30" s="135"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="135"/>
+      <c r="J30" s="135"/>
       <c r="K30" s="123"/>
       <c r="L30" s="123"/>
       <c r="M30" s="123"/>
@@ -4729,16 +4732,16 @@
       <c r="R30" s="123"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="156"/>
-      <c r="B31" s="156"/>
-      <c r="C31" s="156"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="135"/>
+      <c r="J31" s="135"/>
       <c r="K31" s="123"/>
       <c r="L31" s="123"/>
       <c r="M31" s="123"/>
@@ -4750,28 +4753,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4785,6 +4766,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5339,10 +5342,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5369,8 +5372,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5412,14 +5415,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="164" t="s">
+      <c r="E4" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
       <c r="A5" s="40">
@@ -5434,14 +5437,14 @@
       <c r="D5" s="102" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="165" t="s">
+      <c r="E5" s="166" t="s">
         <v>209</v>
       </c>
-      <c r="F5" s="166"/>
-      <c r="G5" s="166"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="166"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="157"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="92">
@@ -5468,12 +5471,12 @@
       </c>
       <c r="C7" s="80"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="159"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="160"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="94">
@@ -5484,12 +5487,12 @@
       </c>
       <c r="C8" s="80"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="162"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="163"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="95">
@@ -5500,12 +5503,12 @@
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="159"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="160"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="96">
@@ -5516,12 +5519,12 @@
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="159"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="160"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="97">
@@ -5532,12 +5535,12 @@
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="159"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="160"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="98">
@@ -5548,12 +5551,12 @@
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="159"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="160"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="99">
@@ -5564,12 +5567,12 @@
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="159"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="160"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="100">
@@ -5580,12 +5583,12 @@
       </c>
       <c r="C14" s="80"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="159"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="160"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5596,12 +5599,12 @@
       </c>
       <c r="C15" s="80"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="166"/>
-      <c r="I15" s="166"/>
-      <c r="J15" s="166"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="157"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="92">
@@ -5612,12 +5615,12 @@
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="166"/>
-      <c r="H16" s="166"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="166"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="93">
@@ -5628,12 +5631,12 @@
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="166"/>
-      <c r="G17" s="166"/>
-      <c r="H17" s="166"/>
-      <c r="I17" s="166"/>
-      <c r="J17" s="166"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="157"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="94">
@@ -5644,12 +5647,12 @@
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="157"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="95">
@@ -5660,12 +5663,12 @@
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="166"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="166"/>
-      <c r="H19" s="166"/>
-      <c r="I19" s="166"/>
-      <c r="J19" s="166"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="157"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="96">
@@ -5676,12 +5679,12 @@
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="166"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="166"/>
-      <c r="J20" s="166"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="157"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="97">
@@ -5692,12 +5695,12 @@
       </c>
       <c r="C21" s="80"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="166"/>
-      <c r="G21" s="166"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="166"/>
-      <c r="J21" s="166"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="157"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="98">
@@ -5708,12 +5711,12 @@
       </c>
       <c r="C22" s="80"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="166"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="166"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="166"/>
-      <c r="J22" s="166"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="99">
@@ -5724,12 +5727,12 @@
       </c>
       <c r="C23" s="80"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="166"/>
-      <c r="H23" s="166"/>
-      <c r="I23" s="166"/>
-      <c r="J23" s="166"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="157"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="100">
@@ -5740,12 +5743,12 @@
       </c>
       <c r="C24" s="80"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="166"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="166"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="166"/>
-      <c r="J24" s="166"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="157"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5756,12 +5759,12 @@
       </c>
       <c r="C25" s="80"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="166"/>
-      <c r="F25" s="166"/>
-      <c r="G25" s="166"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="166"/>
-      <c r="J25" s="166"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="157"/>
+      <c r="I25" s="157"/>
+      <c r="J25" s="157"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5772,12 +5775,12 @@
       </c>
       <c r="C26" s="80"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="166"/>
-      <c r="H26" s="166"/>
-      <c r="I26" s="166"/>
-      <c r="J26" s="166"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="157"/>
+      <c r="I26" s="157"/>
+      <c r="J26" s="157"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="92">
@@ -5788,12 +5791,12 @@
       </c>
       <c r="C27" s="80"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="166"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="166"/>
-      <c r="H27" s="166"/>
-      <c r="I27" s="166"/>
-      <c r="J27" s="166"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="157"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="157"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="93">
@@ -5804,12 +5807,12 @@
       </c>
       <c r="C28" s="80"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="166"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="157"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="94">
@@ -5820,12 +5823,12 @@
       </c>
       <c r="C29" s="80"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="166"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="166"/>
-      <c r="H29" s="166"/>
-      <c r="I29" s="166"/>
-      <c r="J29" s="166"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="157"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="95">
@@ -5836,12 +5839,12 @@
       </c>
       <c r="C30" s="80"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="166"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="166"/>
-      <c r="H30" s="166"/>
-      <c r="I30" s="166"/>
-      <c r="J30" s="166"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="157"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="96">
@@ -5852,12 +5855,12 @@
       </c>
       <c r="C31" s="80"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="166"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="166"/>
-      <c r="H31" s="166"/>
-      <c r="I31" s="166"/>
-      <c r="J31" s="166"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="157"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="97">
@@ -5868,12 +5871,12 @@
       </c>
       <c r="C32" s="80"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
-      <c r="H32" s="166"/>
-      <c r="I32" s="166"/>
-      <c r="J32" s="166"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="157"/>
+      <c r="I32" s="157"/>
+      <c r="J32" s="157"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="98">
@@ -5884,12 +5887,12 @@
       </c>
       <c r="C33" s="80"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="166"/>
-      <c r="H33" s="166"/>
-      <c r="I33" s="166"/>
-      <c r="J33" s="166"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="157"/>
+      <c r="H33" s="157"/>
+      <c r="I33" s="157"/>
+      <c r="J33" s="157"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="99">
@@ -5900,12 +5903,12 @@
       </c>
       <c r="C34" s="80"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="166"/>
-      <c r="F34" s="166"/>
-      <c r="G34" s="166"/>
-      <c r="H34" s="166"/>
-      <c r="I34" s="166"/>
-      <c r="J34" s="166"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="157"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="100">
@@ -5916,12 +5919,12 @@
       </c>
       <c r="C35" s="80"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="166"/>
-      <c r="F35" s="166"/>
-      <c r="G35" s="166"/>
-      <c r="H35" s="166"/>
-      <c r="I35" s="166"/>
-      <c r="J35" s="166"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="157"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -5932,12 +5935,12 @@
       </c>
       <c r="C36" s="80"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="166"/>
-      <c r="F36" s="166"/>
-      <c r="G36" s="166"/>
-      <c r="H36" s="166"/>
-      <c r="I36" s="166"/>
-      <c r="J36" s="166"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="157"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="92">
@@ -5948,12 +5951,12 @@
       </c>
       <c r="C37" s="80"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="166"/>
-      <c r="F37" s="166"/>
-      <c r="G37" s="166"/>
-      <c r="H37" s="166"/>
-      <c r="I37" s="166"/>
-      <c r="J37" s="166"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="157"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="157"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="93">
@@ -5964,12 +5967,12 @@
       </c>
       <c r="C38" s="80"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="166"/>
-      <c r="F38" s="166"/>
-      <c r="G38" s="166"/>
-      <c r="H38" s="166"/>
-      <c r="I38" s="166"/>
-      <c r="J38" s="166"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="157"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="157"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="94">
@@ -5980,12 +5983,12 @@
       </c>
       <c r="C39" s="80"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="166"/>
-      <c r="F39" s="166"/>
-      <c r="G39" s="166"/>
-      <c r="H39" s="166"/>
-      <c r="I39" s="166"/>
-      <c r="J39" s="166"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="157"/>
+      <c r="H39" s="157"/>
+      <c r="I39" s="157"/>
+      <c r="J39" s="157"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="95">
@@ -5996,12 +5999,12 @@
       </c>
       <c r="C40" s="80"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="166"/>
-      <c r="F40" s="166"/>
-      <c r="G40" s="166"/>
-      <c r="H40" s="166"/>
-      <c r="I40" s="166"/>
-      <c r="J40" s="166"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="157"/>
+      <c r="H40" s="157"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="157"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="96">
@@ -6012,12 +6015,12 @@
       </c>
       <c r="C41" s="80"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="166"/>
-      <c r="F41" s="166"/>
-      <c r="G41" s="166"/>
-      <c r="H41" s="166"/>
-      <c r="I41" s="166"/>
-      <c r="J41" s="166"/>
+      <c r="E41" s="157"/>
+      <c r="F41" s="157"/>
+      <c r="G41" s="157"/>
+      <c r="H41" s="157"/>
+      <c r="I41" s="157"/>
+      <c r="J41" s="157"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="97">
@@ -6028,32 +6031,23 @@
       </c>
       <c r="C42" s="80"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="166"/>
-      <c r="F42" s="166"/>
-      <c r="G42" s="166"/>
-      <c r="H42" s="166"/>
-      <c r="I42" s="166"/>
-      <c r="J42" s="166"/>
+      <c r="E42" s="157"/>
+      <c r="F42" s="157"/>
+      <c r="G42" s="157"/>
+      <c r="H42" s="157"/>
+      <c r="I42" s="157"/>
+      <c r="J42" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6069,14 +6063,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6121,10 +6124,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6154,8 +6157,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6758,13 +6761,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6796,11 +6799,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -9213,7 +9216,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="196" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="126"/>
@@ -9248,7 +9251,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="200"/>
+      <c r="A2" s="197"/>
       <c r="B2" s="127"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -9296,15 +9299,15 @@
       <c r="E4" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="163" t="s">
+      <c r="F4" s="164" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163" t="s">
+      <c r="G4" s="164"/>
+      <c r="H4" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="25.5" customHeight="1">
       <c r="A5" s="33">
@@ -9318,15 +9321,15 @@
         <v>134</v>
       </c>
       <c r="E5" s="32"/>
-      <c r="F5" s="197" t="s">
+      <c r="F5" s="194" t="s">
         <v>211</v>
       </c>
-      <c r="G5" s="198"/>
-      <c r="H5" s="194" t="s">
+      <c r="G5" s="195"/>
+      <c r="H5" s="198" t="s">
         <v>212</v>
       </c>
-      <c r="I5" s="195"/>
-      <c r="J5" s="196"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="200"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -9336,11 +9339,11 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="197"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="194"/>
-      <c r="I6" s="195"/>
-      <c r="J6" s="196"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="195"/>
+      <c r="H6" s="198"/>
+      <c r="I6" s="199"/>
+      <c r="J6" s="200"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9350,11 +9353,11 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="194"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="196"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="195"/>
+      <c r="H7" s="198"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="200"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9364,11 +9367,11 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="195"/>
-      <c r="J8" s="196"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="195"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="200"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9378,11 +9381,11 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="197"/>
-      <c r="G9" s="198"/>
-      <c r="H9" s="194"/>
-      <c r="I9" s="195"/>
-      <c r="J9" s="196"/>
+      <c r="F9" s="194"/>
+      <c r="G9" s="195"/>
+      <c r="H9" s="198"/>
+      <c r="I9" s="199"/>
+      <c r="J9" s="200"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9392,11 +9395,11 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="197"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="194"/>
-      <c r="I10" s="195"/>
-      <c r="J10" s="196"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="198"/>
+      <c r="I10" s="199"/>
+      <c r="J10" s="200"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9406,11 +9409,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="197"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="194"/>
-      <c r="I11" s="195"/>
-      <c r="J11" s="196"/>
+      <c r="F11" s="194"/>
+      <c r="G11" s="195"/>
+      <c r="H11" s="198"/>
+      <c r="I11" s="199"/>
+      <c r="J11" s="200"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9420,11 +9423,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="197"/>
-      <c r="G12" s="198"/>
-      <c r="H12" s="194"/>
-      <c r="I12" s="195"/>
-      <c r="J12" s="196"/>
+      <c r="F12" s="194"/>
+      <c r="G12" s="195"/>
+      <c r="H12" s="198"/>
+      <c r="I12" s="199"/>
+      <c r="J12" s="200"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9434,11 +9437,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="197"/>
-      <c r="G13" s="198"/>
-      <c r="H13" s="194"/>
-      <c r="I13" s="195"/>
-      <c r="J13" s="196"/>
+      <c r="F13" s="194"/>
+      <c r="G13" s="195"/>
+      <c r="H13" s="198"/>
+      <c r="I13" s="199"/>
+      <c r="J13" s="200"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9448,11 +9451,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="197"/>
-      <c r="G14" s="198"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="195"/>
-      <c r="J14" s="196"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="198"/>
+      <c r="I14" s="199"/>
+      <c r="J14" s="200"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9462,11 +9465,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="197"/>
-      <c r="G15" s="198"/>
-      <c r="H15" s="194"/>
-      <c r="I15" s="195"/>
-      <c r="J15" s="196"/>
+      <c r="F15" s="194"/>
+      <c r="G15" s="195"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="199"/>
+      <c r="J15" s="200"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9476,11 +9479,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="197"/>
-      <c r="G16" s="198"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="195"/>
-      <c r="J16" s="196"/>
+      <c r="F16" s="194"/>
+      <c r="G16" s="195"/>
+      <c r="H16" s="198"/>
+      <c r="I16" s="199"/>
+      <c r="J16" s="200"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9490,11 +9493,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="197"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="194"/>
-      <c r="I17" s="195"/>
-      <c r="J17" s="196"/>
+      <c r="F17" s="194"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="198"/>
+      <c r="I17" s="199"/>
+      <c r="J17" s="200"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9504,11 +9507,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="197"/>
-      <c r="G18" s="198"/>
-      <c r="H18" s="194"/>
-      <c r="I18" s="195"/>
-      <c r="J18" s="196"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="195"/>
+      <c r="H18" s="198"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="200"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9518,11 +9521,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="197"/>
-      <c r="G19" s="198"/>
-      <c r="H19" s="194"/>
-      <c r="I19" s="195"/>
-      <c r="J19" s="196"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="195"/>
+      <c r="H19" s="198"/>
+      <c r="I19" s="199"/>
+      <c r="J19" s="200"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9532,11 +9535,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="197"/>
-      <c r="G20" s="198"/>
-      <c r="H20" s="194"/>
-      <c r="I20" s="195"/>
-      <c r="J20" s="196"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="198"/>
+      <c r="I20" s="199"/>
+      <c r="J20" s="200"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9546,11 +9549,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="197"/>
-      <c r="G21" s="198"/>
-      <c r="H21" s="194"/>
-      <c r="I21" s="195"/>
-      <c r="J21" s="196"/>
+      <c r="F21" s="194"/>
+      <c r="G21" s="195"/>
+      <c r="H21" s="198"/>
+      <c r="I21" s="199"/>
+      <c r="J21" s="200"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9560,11 +9563,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="194"/>
-      <c r="I22" s="195"/>
-      <c r="J22" s="196"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="198"/>
+      <c r="I22" s="199"/>
+      <c r="J22" s="200"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9574,11 +9577,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="194"/>
-      <c r="I23" s="195"/>
-      <c r="J23" s="196"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="198"/>
+      <c r="I23" s="199"/>
+      <c r="J23" s="200"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9588,11 +9591,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="194"/>
-      <c r="I24" s="195"/>
-      <c r="J24" s="196"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="198"/>
+      <c r="I24" s="199"/>
+      <c r="J24" s="200"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9602,11 +9605,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="194"/>
-      <c r="I25" s="195"/>
-      <c r="J25" s="196"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="198"/>
+      <c r="I25" s="199"/>
+      <c r="J25" s="200"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9616,11 +9619,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="194"/>
-      <c r="I26" s="195"/>
-      <c r="J26" s="196"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="198"/>
+      <c r="I26" s="199"/>
+      <c r="J26" s="200"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9630,11 +9633,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="194"/>
-      <c r="I27" s="195"/>
-      <c r="J27" s="196"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="198"/>
+      <c r="I27" s="199"/>
+      <c r="J27" s="200"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9644,11 +9647,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="194"/>
-      <c r="I28" s="195"/>
-      <c r="J28" s="196"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="198"/>
+      <c r="I28" s="199"/>
+      <c r="J28" s="200"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9658,11 +9661,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="194"/>
-      <c r="I29" s="195"/>
-      <c r="J29" s="196"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="198"/>
+      <c r="I29" s="199"/>
+      <c r="J29" s="200"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9672,11 +9675,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="194"/>
-      <c r="I30" s="195"/>
-      <c r="J30" s="196"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="198"/>
+      <c r="I30" s="199"/>
+      <c r="J30" s="200"/>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9686,11 +9689,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="159"/>
-      <c r="H31" s="194"/>
-      <c r="I31" s="195"/>
-      <c r="J31" s="196"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="198"/>
+      <c r="I31" s="199"/>
+      <c r="J31" s="200"/>
     </row>
     <row r="32" spans="1:18" ht="11.25">
       <c r="A32" s="33">
@@ -9700,11 +9703,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="194"/>
-      <c r="I32" s="195"/>
-      <c r="J32" s="196"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="198"/>
+      <c r="I32" s="199"/>
+      <c r="J32" s="200"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -9721,11 +9724,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="194"/>
-      <c r="I33" s="195"/>
-      <c r="J33" s="196"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="198"/>
+      <c r="I33" s="199"/>
+      <c r="J33" s="200"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -9742,11 +9745,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="194"/>
-      <c r="I34" s="195"/>
-      <c r="J34" s="196"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="198"/>
+      <c r="I34" s="199"/>
+      <c r="J34" s="200"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -9763,11 +9766,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="194"/>
-      <c r="I35" s="195"/>
-      <c r="J35" s="196"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="198"/>
+      <c r="I35" s="199"/>
+      <c r="J35" s="200"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -9784,11 +9787,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="194"/>
-      <c r="I36" s="195"/>
-      <c r="J36" s="196"/>
+      <c r="F36" s="158"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="198"/>
+      <c r="I36" s="199"/>
+      <c r="J36" s="200"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -9805,11 +9808,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="157"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="194"/>
-      <c r="I37" s="195"/>
-      <c r="J37" s="196"/>
+      <c r="F37" s="158"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="198"/>
+      <c r="I37" s="199"/>
+      <c r="J37" s="200"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -9826,11 +9829,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="159"/>
-      <c r="H38" s="194"/>
-      <c r="I38" s="195"/>
-      <c r="J38" s="196"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="198"/>
+      <c r="I38" s="199"/>
+      <c r="J38" s="200"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -9847,11 +9850,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="159"/>
-      <c r="H39" s="194"/>
-      <c r="I39" s="195"/>
-      <c r="J39" s="196"/>
+      <c r="F39" s="158"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="198"/>
+      <c r="I39" s="199"/>
+      <c r="J39" s="200"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -9868,11 +9871,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="157"/>
-      <c r="G40" s="159"/>
-      <c r="H40" s="194"/>
-      <c r="I40" s="195"/>
-      <c r="J40" s="196"/>
+      <c r="F40" s="158"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="198"/>
+      <c r="I40" s="199"/>
+      <c r="J40" s="200"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -9889,11 +9892,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="157"/>
-      <c r="G41" s="159"/>
-      <c r="H41" s="194"/>
-      <c r="I41" s="195"/>
-      <c r="J41" s="196"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="198"/>
+      <c r="I41" s="199"/>
+      <c r="J41" s="200"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -9910,11 +9913,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="157"/>
-      <c r="G42" s="159"/>
-      <c r="H42" s="194"/>
-      <c r="I42" s="195"/>
-      <c r="J42" s="196"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="198"/>
+      <c r="I42" s="199"/>
+      <c r="J42" s="200"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -9931,11 +9934,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="157"/>
-      <c r="G43" s="159"/>
-      <c r="H43" s="194"/>
-      <c r="I43" s="195"/>
-      <c r="J43" s="196"/>
+      <c r="F43" s="158"/>
+      <c r="G43" s="160"/>
+      <c r="H43" s="198"/>
+      <c r="I43" s="199"/>
+      <c r="J43" s="200"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -9952,11 +9955,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="157"/>
-      <c r="G44" s="159"/>
-      <c r="H44" s="194"/>
-      <c r="I44" s="195"/>
-      <c r="J44" s="196"/>
+      <c r="F44" s="158"/>
+      <c r="G44" s="160"/>
+      <c r="H44" s="198"/>
+      <c r="I44" s="199"/>
+      <c r="J44" s="200"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -9973,11 +9976,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="157"/>
-      <c r="G45" s="159"/>
-      <c r="H45" s="194"/>
-      <c r="I45" s="195"/>
-      <c r="J45" s="196"/>
+      <c r="F45" s="158"/>
+      <c r="G45" s="160"/>
+      <c r="H45" s="198"/>
+      <c r="I45" s="199"/>
+      <c r="J45" s="200"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -9994,11 +9997,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="157"/>
-      <c r="G46" s="159"/>
-      <c r="H46" s="194"/>
-      <c r="I46" s="195"/>
-      <c r="J46" s="196"/>
+      <c r="F46" s="158"/>
+      <c r="G46" s="160"/>
+      <c r="H46" s="198"/>
+      <c r="I46" s="199"/>
+      <c r="J46" s="200"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -10015,11 +10018,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="157"/>
-      <c r="G47" s="159"/>
-      <c r="H47" s="194"/>
-      <c r="I47" s="195"/>
-      <c r="J47" s="196"/>
+      <c r="F47" s="158"/>
+      <c r="G47" s="160"/>
+      <c r="H47" s="198"/>
+      <c r="I47" s="199"/>
+      <c r="J47" s="200"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -10036,11 +10039,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="157"/>
-      <c r="G48" s="159"/>
-      <c r="H48" s="194"/>
-      <c r="I48" s="195"/>
-      <c r="J48" s="196"/>
+      <c r="F48" s="158"/>
+      <c r="G48" s="160"/>
+      <c r="H48" s="198"/>
+      <c r="I48" s="199"/>
+      <c r="J48" s="200"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -10057,11 +10060,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="157"/>
-      <c r="G49" s="159"/>
-      <c r="H49" s="194"/>
-      <c r="I49" s="195"/>
-      <c r="J49" s="196"/>
+      <c r="F49" s="158"/>
+      <c r="G49" s="160"/>
+      <c r="H49" s="198"/>
+      <c r="I49" s="199"/>
+      <c r="J49" s="200"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -10078,11 +10081,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="157"/>
-      <c r="G50" s="159"/>
-      <c r="H50" s="194"/>
-      <c r="I50" s="195"/>
-      <c r="J50" s="196"/>
+      <c r="F50" s="158"/>
+      <c r="G50" s="160"/>
+      <c r="H50" s="198"/>
+      <c r="I50" s="199"/>
+      <c r="J50" s="200"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -10099,11 +10102,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="157"/>
-      <c r="G51" s="159"/>
-      <c r="H51" s="194"/>
-      <c r="I51" s="195"/>
-      <c r="J51" s="196"/>
+      <c r="F51" s="158"/>
+      <c r="G51" s="160"/>
+      <c r="H51" s="198"/>
+      <c r="I51" s="199"/>
+      <c r="J51" s="200"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -10120,11 +10123,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="157"/>
-      <c r="G52" s="159"/>
-      <c r="H52" s="194"/>
-      <c r="I52" s="195"/>
-      <c r="J52" s="196"/>
+      <c r="F52" s="158"/>
+      <c r="G52" s="160"/>
+      <c r="H52" s="198"/>
+      <c r="I52" s="199"/>
+      <c r="J52" s="200"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -10141,11 +10144,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="157"/>
-      <c r="G53" s="159"/>
-      <c r="H53" s="194"/>
-      <c r="I53" s="195"/>
-      <c r="J53" s="196"/>
+      <c r="F53" s="158"/>
+      <c r="G53" s="160"/>
+      <c r="H53" s="198"/>
+      <c r="I53" s="199"/>
+      <c r="J53" s="200"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -10162,11 +10165,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="157"/>
-      <c r="G54" s="159"/>
-      <c r="H54" s="194"/>
-      <c r="I54" s="195"/>
-      <c r="J54" s="196"/>
+      <c r="F54" s="158"/>
+      <c r="G54" s="160"/>
+      <c r="H54" s="198"/>
+      <c r="I54" s="199"/>
+      <c r="J54" s="200"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -10183,11 +10186,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="157"/>
-      <c r="G55" s="159"/>
-      <c r="H55" s="194"/>
-      <c r="I55" s="195"/>
-      <c r="J55" s="196"/>
+      <c r="F55" s="158"/>
+      <c r="G55" s="160"/>
+      <c r="H55" s="198"/>
+      <c r="I55" s="199"/>
+      <c r="J55" s="200"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -10204,11 +10207,11 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="32"/>
-      <c r="F56" s="157"/>
-      <c r="G56" s="159"/>
-      <c r="H56" s="194"/>
-      <c r="I56" s="195"/>
-      <c r="J56" s="196"/>
+      <c r="F56" s="158"/>
+      <c r="G56" s="160"/>
+      <c r="H56" s="198"/>
+      <c r="I56" s="199"/>
+      <c r="J56" s="200"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -10220,25 +10223,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
@@ -10253,80 +10311,25 @@
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E56">
@@ -10345,7 +10348,7 @@
   <dimension ref="A1:T1048467"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="G1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="J5" sqref="J5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10373,23 +10376,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
       <c r="H1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="204" t="str">
+      <c r="I1" s="207" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="J1" s="204"/>
+      <c r="J1" s="207"/>
       <c r="K1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10416,21 +10419,21 @@
       <c r="T1" s="52"/>
     </row>
     <row r="2" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
       <c r="H2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="204" t="str">
+      <c r="I2" s="207" t="str">
         <f>'Update History'!D2</f>
         <v>ASSOFT - CRM</v>
       </c>
-      <c r="J2" s="204"/>
+      <c r="J2" s="207"/>
       <c r="K2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10506,7 +10509,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="34" customFormat="1" ht="181.5" customHeight="1">
+    <row r="5" spans="1:20" s="34" customFormat="1" ht="146.25">
       <c r="A5" s="33">
         <v>1</v>
       </c>
@@ -10523,7 +10526,7 @@
         <v>198</v>
       </c>
       <c r="H5" s="63" t="s">
-        <v>55</v>
+        <v>228</v>
       </c>
       <c r="I5" s="131" t="s">
         <v>199</v>
@@ -10596,7 +10599,7 @@
       <c r="O7" s="90"/>
       <c r="P7" s="77"/>
       <c r="Q7" s="76"/>
-      <c r="R7" s="205"/>
+      <c r="R7" s="204"/>
       <c r="S7" s="64"/>
       <c r="T7" s="64"/>
     </row>
@@ -10620,7 +10623,7 @@
       <c r="O8" s="90"/>
       <c r="P8" s="77"/>
       <c r="Q8" s="76"/>
-      <c r="R8" s="206"/>
+      <c r="R8" s="205"/>
       <c r="S8" s="64"/>
       <c r="T8" s="64"/>
     </row>
@@ -10644,7 +10647,7 @@
       <c r="O9" s="90"/>
       <c r="P9" s="77"/>
       <c r="Q9" s="76"/>
-      <c r="R9" s="207"/>
+      <c r="R9" s="206"/>
       <c r="S9" s="64"/>
       <c r="T9" s="64"/>
     </row>
@@ -10668,7 +10671,7 @@
       <c r="O10" s="90"/>
       <c r="P10" s="77"/>
       <c r="Q10" s="76"/>
-      <c r="R10" s="205"/>
+      <c r="R10" s="204"/>
       <c r="S10" s="64"/>
       <c r="T10" s="64"/>
     </row>
@@ -10692,7 +10695,7 @@
       <c r="O11" s="90"/>
       <c r="P11" s="77"/>
       <c r="Q11" s="76"/>
-      <c r="R11" s="206"/>
+      <c r="R11" s="205"/>
       <c r="S11" s="64"/>
       <c r="T11" s="64"/>
     </row>
@@ -10716,7 +10719,7 @@
       <c r="O12" s="86"/>
       <c r="P12" s="77"/>
       <c r="Q12" s="76"/>
-      <c r="R12" s="206"/>
+      <c r="R12" s="205"/>
       <c r="S12" s="64"/>
       <c r="T12" s="64"/>
     </row>
@@ -10740,7 +10743,7 @@
       <c r="O13" s="86"/>
       <c r="P13" s="77"/>
       <c r="Q13" s="76"/>
-      <c r="R13" s="207"/>
+      <c r="R13" s="206"/>
       <c r="S13" s="64"/>
       <c r="T13" s="64"/>
     </row>
@@ -12632,11 +12635,81 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="96">
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="J91:M91"/>
-    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="J93:M93"/>
+    <mergeCell ref="J94:M94"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="J80:M80"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="J82:M82"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="J85:M85"/>
+    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="J71:M71"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J76:M76"/>
     <mergeCell ref="J77:M77"/>
     <mergeCell ref="J60:M60"/>
     <mergeCell ref="R7:R9"/>
@@ -12653,81 +12726,11 @@
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="J52:M52"/>
     <mergeCell ref="J53:M53"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="J93:M93"/>
-    <mergeCell ref="J94:M94"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="J80:M80"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="J82:M82"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="J85:M85"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="J91:M91"/>
+    <mergeCell ref="J92:M92"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="P1048467:P1048576 P5:P94"/>
@@ -12757,7 +12760,7 @@
   <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -12773,10 +12776,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12806,8 +12809,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13876,10 +13879,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13909,8 +13912,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMR30101_Bao cao KH moi theo nhan vien.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMR30101_Bao cao KH moi theo nhan vien.xlsx
@@ -44,7 +44,7 @@
     <definedName name="OLE_LINK1" localSheetId="10">'Code Standar'!$B$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Coverpage!$A$1:$J$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Definition'!$A$1:$P$58</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$R$94</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$S$94</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$J$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
@@ -892,7 +892,7 @@
     <author>Le Thi Thu Hien</author>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -909,7 +909,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -924,7 +924,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -942,7 +942,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -956,7 +956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" shapeId="0">
+    <comment ref="O4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -970,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="0" shapeId="0">
+    <comment ref="P4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -984,7 +984,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="1" shapeId="0">
+    <comment ref="R4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="228">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2060,12 +2060,6 @@
     <t>CustomizeIndex</t>
   </si>
   <si>
-    <t>Nhận tham số @DivisionID từ màn hình CRMF3010 để mở báo cáo CRMR30101</t>
-  </si>
-  <si>
-    <t>Click In từ màn hình CRMF3010</t>
-  </si>
-  <si>
     <t xml:space="preserve">@DivisionID @DivisionIDList  @FromDate @ToDate   @IsDate 
 @Period  
 @FromAccountID @ToAccountID 
@@ -2133,10 +2127,13 @@
     <t>Control này được truyền từ CRMF3010 nếu IsDate = 0</t>
   </si>
   <si>
-    <t>Thực thi @SQL0001 để truyền các tham số từ CRMF3010 để mở tab để load  báo cáo Khách hàng mới theo nhân viên_CRMR30101</t>
-  </si>
-  <si>
     <t>ID Store</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách khách hàng mới theo nhân viên để người dùng xem trước khi In</t>
+  </si>
+  <si>
+    <t>Thực thi @SQL0001 để để mở tab để load  báo cáo Khách hàng mới theo nhân viên_CRMR30101</t>
   </si>
 </sst>
 </file>
@@ -2673,7 +2670,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3007,102 +3004,105 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3185,6 +3185,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3196,15 +3205,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3214,6 +3214,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3222,9 +3225,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4215,65 +4215,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="146"/>
-      <c r="B1" s="146"/>
-      <c r="C1" s="148" t="s">
+      <c r="A1" s="141"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="143" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="147" t="s">
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="142" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147" t="s">
+      <c r="H1" s="142"/>
+      <c r="I1" s="142" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="147"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="147" t="s">
+      <c r="A2" s="141"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="142" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="146"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="143" t="s">
+      <c r="A3" s="141"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="144"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="144"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="139"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="119"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="145"/>
-      <c r="B13" s="145"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="145"/>
+      <c r="A13" s="140"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
       <c r="K13" s="120"/>
       <c r="L13" s="120"/>
       <c r="M13" s="120"/>
@@ -4284,56 +4284,56 @@
       <c r="R13" s="120"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="139"/>
-      <c r="K14" s="139"/>
-      <c r="L14" s="139"/>
-      <c r="M14" s="139"/>
-      <c r="N14" s="139"/>
-      <c r="O14" s="139"/>
-      <c r="P14" s="139"/>
-      <c r="Q14" s="139"/>
-      <c r="R14" s="139"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="136"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="139"/>
-      <c r="O15" s="139"/>
-      <c r="P15" s="139"/>
-      <c r="Q15" s="139"/>
-      <c r="R15" s="139"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="136"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
       <c r="K16" s="121"/>
       <c r="L16" s="121"/>
       <c r="M16" s="121"/>
@@ -4344,384 +4344,384 @@
       <c r="R16" s="121"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="139"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
-      <c r="K17" s="139"/>
-      <c r="L17" s="139"/>
-      <c r="M17" s="139"/>
-      <c r="N17" s="139"/>
-      <c r="O17" s="139"/>
-      <c r="P17" s="139"/>
-      <c r="Q17" s="139"/>
-      <c r="R17" s="139"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="136"/>
+      <c r="Q17" s="136"/>
+      <c r="R17" s="136"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="139"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="139"/>
-      <c r="K18" s="139"/>
-      <c r="L18" s="139"/>
-      <c r="M18" s="139"/>
-      <c r="N18" s="139"/>
-      <c r="O18" s="139"/>
-      <c r="P18" s="139"/>
-      <c r="Q18" s="139"/>
-      <c r="R18" s="139"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="136"/>
+      <c r="Q18" s="136"/>
+      <c r="R18" s="136"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="141"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="141"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="141"/>
-      <c r="N19" s="141"/>
-      <c r="O19" s="141"/>
-      <c r="P19" s="141"/>
-      <c r="Q19" s="141"/>
-      <c r="R19" s="141"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="153"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="139"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="139"/>
-      <c r="K20" s="139"/>
-      <c r="L20" s="139"/>
-      <c r="M20" s="139"/>
-      <c r="N20" s="139"/>
-      <c r="O20" s="139"/>
-      <c r="P20" s="139"/>
-      <c r="Q20" s="139"/>
-      <c r="R20" s="139"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="136"/>
+      <c r="Q20" s="136"/>
+      <c r="R20" s="136"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="139"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="139"/>
-      <c r="L21" s="139"/>
-      <c r="M21" s="139"/>
-      <c r="N21" s="139"/>
-      <c r="O21" s="139"/>
-      <c r="P21" s="139"/>
-      <c r="Q21" s="139"/>
-      <c r="R21" s="139"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="136"/>
+      <c r="Q21" s="136"/>
+      <c r="R21" s="136"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="140"/>
-      <c r="C22" s="140"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="140"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="140"/>
-      <c r="K22" s="140"/>
-      <c r="L22" s="140"/>
-      <c r="M22" s="140"/>
-      <c r="N22" s="140"/>
-      <c r="O22" s="140"/>
-      <c r="P22" s="140"/>
-      <c r="Q22" s="140"/>
-      <c r="R22" s="140"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="152"/>
+      <c r="M22" s="152"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="152"/>
+      <c r="R22" s="152"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="140"/>
-      <c r="C23" s="140"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="140"/>
-      <c r="K23" s="140"/>
-      <c r="L23" s="140"/>
-      <c r="M23" s="140"/>
-      <c r="N23" s="140"/>
-      <c r="O23" s="140"/>
-      <c r="P23" s="140"/>
-      <c r="Q23" s="140"/>
-      <c r="R23" s="140"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="152"/>
+      <c r="Q23" s="152"/>
+      <c r="R23" s="152"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="137"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="137"/>
-      <c r="K26" s="137"/>
-      <c r="L26" s="137"/>
-      <c r="M26" s="137"/>
-      <c r="N26" s="137"/>
-      <c r="O26" s="137"/>
-      <c r="P26" s="137"/>
-      <c r="Q26" s="137"/>
-      <c r="R26" s="137"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="154"/>
+      <c r="N26" s="154"/>
+      <c r="O26" s="154"/>
+      <c r="P26" s="154"/>
+      <c r="Q26" s="154"/>
+      <c r="R26" s="154"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="138"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="138"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="138"/>
-      <c r="M28" s="138"/>
-      <c r="N28" s="138"/>
-      <c r="O28" s="138"/>
-      <c r="P28" s="138"/>
-      <c r="Q28" s="138"/>
-      <c r="R28" s="138"/>
-      <c r="S28" s="136"/>
-      <c r="T28" s="136"/>
-      <c r="U28" s="136"/>
-      <c r="V28" s="136"/>
-      <c r="W28" s="136"/>
-      <c r="X28" s="136"/>
-      <c r="Y28" s="136"/>
-      <c r="Z28" s="136"/>
-      <c r="AA28" s="136"/>
-      <c r="AB28" s="136"/>
-      <c r="AC28" s="136"/>
-      <c r="AD28" s="136"/>
-      <c r="AE28" s="136"/>
-      <c r="AF28" s="136"/>
-      <c r="AG28" s="136"/>
-      <c r="AH28" s="136"/>
-      <c r="AI28" s="136"/>
-      <c r="AJ28" s="136"/>
-      <c r="AK28" s="136"/>
-      <c r="AL28" s="136"/>
-      <c r="AM28" s="136"/>
-      <c r="AN28" s="136"/>
-      <c r="AO28" s="136"/>
-      <c r="AP28" s="136"/>
-      <c r="AQ28" s="136"/>
-      <c r="AR28" s="136"/>
-      <c r="AS28" s="136"/>
-      <c r="AT28" s="136"/>
-      <c r="AU28" s="136"/>
-      <c r="AV28" s="136"/>
-      <c r="AW28" s="136"/>
-      <c r="AX28" s="136"/>
-      <c r="AY28" s="136"/>
-      <c r="AZ28" s="136"/>
-      <c r="BA28" s="136"/>
-      <c r="BB28" s="136"/>
-      <c r="BC28" s="136"/>
-      <c r="BD28" s="136"/>
-      <c r="BE28" s="136"/>
-      <c r="BF28" s="136"/>
-      <c r="BG28" s="136"/>
-      <c r="BH28" s="136"/>
-      <c r="BI28" s="136"/>
-      <c r="BJ28" s="136"/>
-      <c r="BK28" s="136"/>
-      <c r="BL28" s="136"/>
-      <c r="BM28" s="136"/>
-      <c r="BN28" s="136"/>
-      <c r="BO28" s="136"/>
-      <c r="BP28" s="136"/>
-      <c r="BQ28" s="136"/>
-      <c r="BR28" s="136"/>
-      <c r="BS28" s="136"/>
-      <c r="BT28" s="136"/>
-      <c r="BU28" s="136"/>
-      <c r="BV28" s="136"/>
-      <c r="BW28" s="136"/>
-      <c r="BX28" s="136"/>
-      <c r="BY28" s="136"/>
-      <c r="BZ28" s="136"/>
-      <c r="CA28" s="136"/>
-      <c r="CB28" s="136"/>
-      <c r="CC28" s="136"/>
-      <c r="CD28" s="136"/>
-      <c r="CE28" s="136"/>
-      <c r="CF28" s="136"/>
-      <c r="CG28" s="136"/>
-      <c r="CH28" s="136"/>
-      <c r="CI28" s="136"/>
-      <c r="CJ28" s="136"/>
-      <c r="CK28" s="136"/>
-      <c r="CL28" s="136"/>
-      <c r="CM28" s="136"/>
-      <c r="CN28" s="136"/>
-      <c r="CO28" s="136"/>
-      <c r="CP28" s="136"/>
-      <c r="CQ28" s="136"/>
-      <c r="CR28" s="136"/>
-      <c r="CS28" s="136"/>
-      <c r="CT28" s="136"/>
-      <c r="CU28" s="136"/>
-      <c r="CV28" s="136"/>
-      <c r="CW28" s="136"/>
-      <c r="CX28" s="136"/>
-      <c r="CY28" s="136"/>
-      <c r="CZ28" s="136"/>
-      <c r="DA28" s="136"/>
-      <c r="DB28" s="136"/>
-      <c r="DC28" s="136"/>
-      <c r="DD28" s="136"/>
-      <c r="DE28" s="136"/>
-      <c r="DF28" s="136"/>
-      <c r="DG28" s="136"/>
-      <c r="DH28" s="136"/>
-      <c r="DI28" s="136"/>
-      <c r="DJ28" s="136"/>
-      <c r="DK28" s="136"/>
-      <c r="DL28" s="136"/>
-      <c r="DM28" s="136"/>
-      <c r="DN28" s="136"/>
-      <c r="DO28" s="136"/>
-      <c r="DP28" s="136"/>
-      <c r="DQ28" s="136"/>
-      <c r="DR28" s="136"/>
-      <c r="DS28" s="136"/>
-      <c r="DT28" s="136"/>
-      <c r="DU28" s="136"/>
-      <c r="DV28" s="136"/>
-      <c r="DW28" s="136"/>
-      <c r="DX28" s="136"/>
-      <c r="DY28" s="136"/>
-      <c r="DZ28" s="136"/>
-      <c r="EA28" s="136"/>
-      <c r="EB28" s="136"/>
-      <c r="EC28" s="136"/>
-      <c r="ED28" s="136"/>
-      <c r="EE28" s="136"/>
-      <c r="EF28" s="136"/>
-      <c r="EG28" s="136"/>
-      <c r="EH28" s="136"/>
-      <c r="EI28" s="136"/>
-      <c r="EJ28" s="136"/>
-      <c r="EK28" s="136"/>
-      <c r="EL28" s="136"/>
-      <c r="EM28" s="136"/>
-      <c r="EN28" s="136"/>
-      <c r="EO28" s="136"/>
-      <c r="EP28" s="136"/>
-      <c r="EQ28" s="136"/>
-      <c r="ER28" s="136"/>
-      <c r="ES28" s="136"/>
-      <c r="ET28" s="136"/>
-      <c r="EU28" s="136"/>
-      <c r="EV28" s="136"/>
-      <c r="EW28" s="136"/>
-      <c r="EX28" s="136"/>
-      <c r="EY28" s="136"/>
-      <c r="EZ28" s="136"/>
-      <c r="FA28" s="136"/>
-      <c r="FB28" s="136"/>
-      <c r="FC28" s="136"/>
-      <c r="FD28" s="136"/>
-      <c r="FE28" s="136"/>
-      <c r="FF28" s="136"/>
-      <c r="FG28" s="136"/>
-      <c r="FH28" s="136"/>
-      <c r="FI28" s="136"/>
-      <c r="FJ28" s="136"/>
-      <c r="FK28" s="136"/>
-      <c r="FL28" s="136"/>
-      <c r="FM28" s="136"/>
-      <c r="FN28" s="136"/>
-      <c r="FO28" s="136"/>
-      <c r="FP28" s="136"/>
-      <c r="FQ28" s="136"/>
-      <c r="FR28" s="136"/>
-      <c r="FS28" s="136"/>
-      <c r="FT28" s="136"/>
-      <c r="FU28" s="136"/>
-      <c r="FV28" s="136"/>
-      <c r="FW28" s="136"/>
-      <c r="FX28" s="136"/>
-      <c r="FY28" s="136"/>
-      <c r="FZ28" s="136"/>
-      <c r="GA28" s="136"/>
-      <c r="GB28" s="136"/>
-      <c r="GC28" s="136"/>
-      <c r="GD28" s="136"/>
-      <c r="GE28" s="136"/>
-      <c r="GF28" s="136"/>
-      <c r="GG28" s="136"/>
-      <c r="GH28" s="136"/>
-      <c r="GI28" s="136"/>
-      <c r="GJ28" s="136"/>
-      <c r="GK28" s="136"/>
-      <c r="GL28" s="136"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="156"/>
+      <c r="O28" s="156"/>
+      <c r="P28" s="156"/>
+      <c r="Q28" s="156"/>
+      <c r="R28" s="156"/>
+      <c r="S28" s="155"/>
+      <c r="T28" s="155"/>
+      <c r="U28" s="155"/>
+      <c r="V28" s="155"/>
+      <c r="W28" s="155"/>
+      <c r="X28" s="155"/>
+      <c r="Y28" s="155"/>
+      <c r="Z28" s="155"/>
+      <c r="AA28" s="155"/>
+      <c r="AB28" s="155"/>
+      <c r="AC28" s="155"/>
+      <c r="AD28" s="155"/>
+      <c r="AE28" s="155"/>
+      <c r="AF28" s="155"/>
+      <c r="AG28" s="155"/>
+      <c r="AH28" s="155"/>
+      <c r="AI28" s="155"/>
+      <c r="AJ28" s="155"/>
+      <c r="AK28" s="155"/>
+      <c r="AL28" s="155"/>
+      <c r="AM28" s="155"/>
+      <c r="AN28" s="155"/>
+      <c r="AO28" s="155"/>
+      <c r="AP28" s="155"/>
+      <c r="AQ28" s="155"/>
+      <c r="AR28" s="155"/>
+      <c r="AS28" s="155"/>
+      <c r="AT28" s="155"/>
+      <c r="AU28" s="155"/>
+      <c r="AV28" s="155"/>
+      <c r="AW28" s="155"/>
+      <c r="AX28" s="155"/>
+      <c r="AY28" s="155"/>
+      <c r="AZ28" s="155"/>
+      <c r="BA28" s="155"/>
+      <c r="BB28" s="155"/>
+      <c r="BC28" s="155"/>
+      <c r="BD28" s="155"/>
+      <c r="BE28" s="155"/>
+      <c r="BF28" s="155"/>
+      <c r="BG28" s="155"/>
+      <c r="BH28" s="155"/>
+      <c r="BI28" s="155"/>
+      <c r="BJ28" s="155"/>
+      <c r="BK28" s="155"/>
+      <c r="BL28" s="155"/>
+      <c r="BM28" s="155"/>
+      <c r="BN28" s="155"/>
+      <c r="BO28" s="155"/>
+      <c r="BP28" s="155"/>
+      <c r="BQ28" s="155"/>
+      <c r="BR28" s="155"/>
+      <c r="BS28" s="155"/>
+      <c r="BT28" s="155"/>
+      <c r="BU28" s="155"/>
+      <c r="BV28" s="155"/>
+      <c r="BW28" s="155"/>
+      <c r="BX28" s="155"/>
+      <c r="BY28" s="155"/>
+      <c r="BZ28" s="155"/>
+      <c r="CA28" s="155"/>
+      <c r="CB28" s="155"/>
+      <c r="CC28" s="155"/>
+      <c r="CD28" s="155"/>
+      <c r="CE28" s="155"/>
+      <c r="CF28" s="155"/>
+      <c r="CG28" s="155"/>
+      <c r="CH28" s="155"/>
+      <c r="CI28" s="155"/>
+      <c r="CJ28" s="155"/>
+      <c r="CK28" s="155"/>
+      <c r="CL28" s="155"/>
+      <c r="CM28" s="155"/>
+      <c r="CN28" s="155"/>
+      <c r="CO28" s="155"/>
+      <c r="CP28" s="155"/>
+      <c r="CQ28" s="155"/>
+      <c r="CR28" s="155"/>
+      <c r="CS28" s="155"/>
+      <c r="CT28" s="155"/>
+      <c r="CU28" s="155"/>
+      <c r="CV28" s="155"/>
+      <c r="CW28" s="155"/>
+      <c r="CX28" s="155"/>
+      <c r="CY28" s="155"/>
+      <c r="CZ28" s="155"/>
+      <c r="DA28" s="155"/>
+      <c r="DB28" s="155"/>
+      <c r="DC28" s="155"/>
+      <c r="DD28" s="155"/>
+      <c r="DE28" s="155"/>
+      <c r="DF28" s="155"/>
+      <c r="DG28" s="155"/>
+      <c r="DH28" s="155"/>
+      <c r="DI28" s="155"/>
+      <c r="DJ28" s="155"/>
+      <c r="DK28" s="155"/>
+      <c r="DL28" s="155"/>
+      <c r="DM28" s="155"/>
+      <c r="DN28" s="155"/>
+      <c r="DO28" s="155"/>
+      <c r="DP28" s="155"/>
+      <c r="DQ28" s="155"/>
+      <c r="DR28" s="155"/>
+      <c r="DS28" s="155"/>
+      <c r="DT28" s="155"/>
+      <c r="DU28" s="155"/>
+      <c r="DV28" s="155"/>
+      <c r="DW28" s="155"/>
+      <c r="DX28" s="155"/>
+      <c r="DY28" s="155"/>
+      <c r="DZ28" s="155"/>
+      <c r="EA28" s="155"/>
+      <c r="EB28" s="155"/>
+      <c r="EC28" s="155"/>
+      <c r="ED28" s="155"/>
+      <c r="EE28" s="155"/>
+      <c r="EF28" s="155"/>
+      <c r="EG28" s="155"/>
+      <c r="EH28" s="155"/>
+      <c r="EI28" s="155"/>
+      <c r="EJ28" s="155"/>
+      <c r="EK28" s="155"/>
+      <c r="EL28" s="155"/>
+      <c r="EM28" s="155"/>
+      <c r="EN28" s="155"/>
+      <c r="EO28" s="155"/>
+      <c r="EP28" s="155"/>
+      <c r="EQ28" s="155"/>
+      <c r="ER28" s="155"/>
+      <c r="ES28" s="155"/>
+      <c r="ET28" s="155"/>
+      <c r="EU28" s="155"/>
+      <c r="EV28" s="155"/>
+      <c r="EW28" s="155"/>
+      <c r="EX28" s="155"/>
+      <c r="EY28" s="155"/>
+      <c r="EZ28" s="155"/>
+      <c r="FA28" s="155"/>
+      <c r="FB28" s="155"/>
+      <c r="FC28" s="155"/>
+      <c r="FD28" s="155"/>
+      <c r="FE28" s="155"/>
+      <c r="FF28" s="155"/>
+      <c r="FG28" s="155"/>
+      <c r="FH28" s="155"/>
+      <c r="FI28" s="155"/>
+      <c r="FJ28" s="155"/>
+      <c r="FK28" s="155"/>
+      <c r="FL28" s="155"/>
+      <c r="FM28" s="155"/>
+      <c r="FN28" s="155"/>
+      <c r="FO28" s="155"/>
+      <c r="FP28" s="155"/>
+      <c r="FQ28" s="155"/>
+      <c r="FR28" s="155"/>
+      <c r="FS28" s="155"/>
+      <c r="FT28" s="155"/>
+      <c r="FU28" s="155"/>
+      <c r="FV28" s="155"/>
+      <c r="FW28" s="155"/>
+      <c r="FX28" s="155"/>
+      <c r="FY28" s="155"/>
+      <c r="FZ28" s="155"/>
+      <c r="GA28" s="155"/>
+      <c r="GB28" s="155"/>
+      <c r="GC28" s="155"/>
+      <c r="GD28" s="155"/>
+      <c r="GE28" s="155"/>
+      <c r="GF28" s="155"/>
+      <c r="GG28" s="155"/>
+      <c r="GH28" s="155"/>
+      <c r="GI28" s="155"/>
+      <c r="GJ28" s="155"/>
+      <c r="GK28" s="155"/>
+      <c r="GL28" s="155"/>
       <c r="GM28" s="122"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="137"/>
-      <c r="C29" s="137"/>
-      <c r="D29" s="137"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="137"/>
-      <c r="K29" s="137"/>
-      <c r="L29" s="137"/>
-      <c r="M29" s="137"/>
-      <c r="N29" s="137"/>
-      <c r="O29" s="137"/>
-      <c r="P29" s="137"/>
-      <c r="Q29" s="137"/>
-      <c r="R29" s="137"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="154"/>
+      <c r="O29" s="154"/>
+      <c r="P29" s="154"/>
+      <c r="Q29" s="154"/>
+      <c r="R29" s="154"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="135"/>
-      <c r="B30" s="135"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="135"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="135"/>
-      <c r="H30" s="135"/>
-      <c r="I30" s="135"/>
-      <c r="J30" s="135"/>
+      <c r="A30" s="157"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="157"/>
       <c r="K30" s="123"/>
       <c r="L30" s="123"/>
       <c r="M30" s="123"/>
@@ -4732,16 +4732,16 @@
       <c r="R30" s="123"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="135"/>
-      <c r="B31" s="135"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="135"/>
+      <c r="A31" s="157"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="157"/>
       <c r="K31" s="123"/>
       <c r="L31" s="123"/>
       <c r="M31" s="123"/>
@@ -4753,6 +4753,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4766,28 +4788,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -4814,14 +4814,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="208" t="s">
+      <c r="B1" s="209" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5014,11 +5014,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="209" t="s">
+      <c r="E27" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="210"/>
-      <c r="G27" s="211"/>
+      <c r="F27" s="211"/>
+      <c r="G27" s="212"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5440,11 +5440,11 @@
       <c r="E5" s="166" t="s">
         <v>209</v>
       </c>
-      <c r="F5" s="157"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="157"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="157"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="92">
@@ -5455,12 +5455,12 @@
       </c>
       <c r="C6" s="79"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="169"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="170"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="93">
@@ -5599,12 +5599,12 @@
       </c>
       <c r="C15" s="80"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="157"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="167"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="92">
@@ -5615,12 +5615,12 @@
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="167"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="93">
@@ -5631,12 +5631,12 @@
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="157"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="167"/>
+      <c r="I17" s="167"/>
+      <c r="J17" s="167"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="94">
@@ -5647,12 +5647,12 @@
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="157"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="167"/>
+      <c r="I18" s="167"/>
+      <c r="J18" s="167"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="95">
@@ -5663,12 +5663,12 @@
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="167"/>
+      <c r="H19" s="167"/>
+      <c r="I19" s="167"/>
+      <c r="J19" s="167"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="96">
@@ -5679,12 +5679,12 @@
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="157"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="167"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="167"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="97">
@@ -5695,12 +5695,12 @@
       </c>
       <c r="C21" s="80"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="157"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="167"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="98">
@@ -5711,12 +5711,12 @@
       </c>
       <c r="C22" s="80"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="167"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="99">
@@ -5727,12 +5727,12 @@
       </c>
       <c r="C23" s="80"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="157"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="167"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="100">
@@ -5743,12 +5743,12 @@
       </c>
       <c r="C24" s="80"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="157"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="167"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5759,12 +5759,12 @@
       </c>
       <c r="C25" s="80"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="157"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="157"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="167"/>
+      <c r="H25" s="167"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="167"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5775,12 +5775,12 @@
       </c>
       <c r="C26" s="80"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="157"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="167"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="92">
@@ -5791,12 +5791,12 @@
       </c>
       <c r="C27" s="80"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="157"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="167"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="93">
@@ -5807,12 +5807,12 @@
       </c>
       <c r="C28" s="80"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="167"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="94">
@@ -5823,12 +5823,12 @@
       </c>
       <c r="C29" s="80"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="157"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="167"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="95">
@@ -5839,12 +5839,12 @@
       </c>
       <c r="C30" s="80"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="157"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="167"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="96">
@@ -5855,12 +5855,12 @@
       </c>
       <c r="C31" s="80"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="157"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="167"/>
+      <c r="H31" s="167"/>
+      <c r="I31" s="167"/>
+      <c r="J31" s="167"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="97">
@@ -5871,12 +5871,12 @@
       </c>
       <c r="C32" s="80"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="157"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="157"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="167"/>
+      <c r="J32" s="167"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="98">
@@ -5887,12 +5887,12 @@
       </c>
       <c r="C33" s="80"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="157"/>
-      <c r="H33" s="157"/>
-      <c r="I33" s="157"/>
-      <c r="J33" s="157"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="167"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="167"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="99">
@@ -5903,12 +5903,12 @@
       </c>
       <c r="C34" s="80"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="157"/>
-      <c r="H34" s="157"/>
-      <c r="I34" s="157"/>
-      <c r="J34" s="157"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="167"/>
+      <c r="G34" s="167"/>
+      <c r="H34" s="167"/>
+      <c r="I34" s="167"/>
+      <c r="J34" s="167"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="100">
@@ -5919,12 +5919,12 @@
       </c>
       <c r="C35" s="80"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
-      <c r="H35" s="157"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="157"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="167"/>
+      <c r="H35" s="167"/>
+      <c r="I35" s="167"/>
+      <c r="J35" s="167"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -5935,12 +5935,12 @@
       </c>
       <c r="C36" s="80"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="157"/>
-      <c r="H36" s="157"/>
-      <c r="I36" s="157"/>
-      <c r="J36" s="157"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="167"/>
+      <c r="H36" s="167"/>
+      <c r="I36" s="167"/>
+      <c r="J36" s="167"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="92">
@@ -5951,12 +5951,12 @@
       </c>
       <c r="C37" s="80"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="157"/>
-      <c r="F37" s="157"/>
-      <c r="G37" s="157"/>
-      <c r="H37" s="157"/>
-      <c r="I37" s="157"/>
-      <c r="J37" s="157"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="167"/>
+      <c r="G37" s="167"/>
+      <c r="H37" s="167"/>
+      <c r="I37" s="167"/>
+      <c r="J37" s="167"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="93">
@@ -5967,12 +5967,12 @@
       </c>
       <c r="C38" s="80"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="157"/>
-      <c r="H38" s="157"/>
-      <c r="I38" s="157"/>
-      <c r="J38" s="157"/>
+      <c r="E38" s="167"/>
+      <c r="F38" s="167"/>
+      <c r="G38" s="167"/>
+      <c r="H38" s="167"/>
+      <c r="I38" s="167"/>
+      <c r="J38" s="167"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="94">
@@ -5983,12 +5983,12 @@
       </c>
       <c r="C39" s="80"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="157"/>
-      <c r="H39" s="157"/>
-      <c r="I39" s="157"/>
-      <c r="J39" s="157"/>
+      <c r="E39" s="167"/>
+      <c r="F39" s="167"/>
+      <c r="G39" s="167"/>
+      <c r="H39" s="167"/>
+      <c r="I39" s="167"/>
+      <c r="J39" s="167"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="95">
@@ -5999,12 +5999,12 @@
       </c>
       <c r="C40" s="80"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="157"/>
-      <c r="F40" s="157"/>
-      <c r="G40" s="157"/>
-      <c r="H40" s="157"/>
-      <c r="I40" s="157"/>
-      <c r="J40" s="157"/>
+      <c r="E40" s="167"/>
+      <c r="F40" s="167"/>
+      <c r="G40" s="167"/>
+      <c r="H40" s="167"/>
+      <c r="I40" s="167"/>
+      <c r="J40" s="167"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="96">
@@ -6015,12 +6015,12 @@
       </c>
       <c r="C41" s="80"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="157"/>
-      <c r="F41" s="157"/>
-      <c r="G41" s="157"/>
-      <c r="H41" s="157"/>
-      <c r="I41" s="157"/>
-      <c r="J41" s="157"/>
+      <c r="E41" s="167"/>
+      <c r="F41" s="167"/>
+      <c r="G41" s="167"/>
+      <c r="H41" s="167"/>
+      <c r="I41" s="167"/>
+      <c r="J41" s="167"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="97">
@@ -6031,23 +6031,32 @@
       </c>
       <c r="C42" s="80"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="157"/>
-      <c r="F42" s="157"/>
-      <c r="G42" s="157"/>
-      <c r="H42" s="157"/>
-      <c r="I42" s="157"/>
-      <c r="J42" s="157"/>
+      <c r="E42" s="167"/>
+      <c r="F42" s="167"/>
+      <c r="G42" s="167"/>
+      <c r="H42" s="167"/>
+      <c r="I42" s="167"/>
+      <c r="J42" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6063,23 +6072,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6188,20 +6188,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="172"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="170" t="s">
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="171" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="171"/>
+      <c r="J4" s="172"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -6212,10 +6212,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="179" t="s">
+      <c r="I5" s="180" t="s">
         <v>162</v>
       </c>
-      <c r="J5" s="180"/>
+      <c r="J5" s="181"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -6226,8 +6226,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="181"/>
-      <c r="J6" s="182"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="183"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -6238,8 +6238,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="181"/>
-      <c r="J7" s="182"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="183"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -6250,8 +6250,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="181"/>
-      <c r="J8" s="182"/>
+      <c r="I8" s="182"/>
+      <c r="J8" s="183"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -6262,8 +6262,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="181"/>
-      <c r="J9" s="182"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="183"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -6274,8 +6274,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="183"/>
-      <c r="J10" s="184"/>
+      <c r="I10" s="184"/>
+      <c r="J10" s="185"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -6286,10 +6286,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="170" t="s">
+      <c r="I11" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="171"/>
+      <c r="J11" s="172"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -6300,10 +6300,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="173" t="s">
-        <v>217</v>
-      </c>
-      <c r="J12" s="174"/>
+      <c r="I12" s="174" t="s">
+        <v>215</v>
+      </c>
+      <c r="J12" s="175"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -6314,8 +6314,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="176"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="177"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -6326,8 +6326,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="175"/>
-      <c r="J14" s="176"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="177"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -6338,8 +6338,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="176"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="177"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -6350,8 +6350,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="176"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="177"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -6362,8 +6362,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="175"/>
-      <c r="J17" s="176"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="177"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -6374,8 +6374,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="175"/>
-      <c r="J18" s="176"/>
+      <c r="I18" s="176"/>
+      <c r="J18" s="177"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -6386,8 +6386,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="175"/>
-      <c r="J19" s="176"/>
+      <c r="I19" s="176"/>
+      <c r="J19" s="177"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -6398,8 +6398,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="175"/>
-      <c r="J20" s="176"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="177"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -6410,8 +6410,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="175"/>
-      <c r="J21" s="176"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="177"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -6422,8 +6422,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="175"/>
-      <c r="J22" s="176"/>
+      <c r="I22" s="176"/>
+      <c r="J22" s="177"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -6434,8 +6434,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="175"/>
-      <c r="J23" s="176"/>
+      <c r="I23" s="176"/>
+      <c r="J23" s="177"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -6446,8 +6446,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="175"/>
-      <c r="J24" s="176"/>
+      <c r="I24" s="176"/>
+      <c r="J24" s="177"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -6458,8 +6458,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="175"/>
-      <c r="J25" s="176"/>
+      <c r="I25" s="176"/>
+      <c r="J25" s="177"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -6470,8 +6470,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="176"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="177"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -6482,8 +6482,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="175"/>
-      <c r="J27" s="176"/>
+      <c r="I27" s="176"/>
+      <c r="J27" s="177"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -6494,8 +6494,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="176"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="177"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -6506,8 +6506,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="176"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="177"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -6518,8 +6518,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="175"/>
-      <c r="J30" s="176"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="177"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -6530,8 +6530,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="176"/>
+      <c r="I31" s="176"/>
+      <c r="J31" s="177"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -6542,8 +6542,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="175"/>
-      <c r="J32" s="176"/>
+      <c r="I32" s="176"/>
+      <c r="J32" s="177"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -6554,8 +6554,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="175"/>
-      <c r="J33" s="176"/>
+      <c r="I33" s="176"/>
+      <c r="J33" s="177"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -6566,8 +6566,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="175"/>
-      <c r="J34" s="176"/>
+      <c r="I34" s="176"/>
+      <c r="J34" s="177"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -6578,8 +6578,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="176"/>
+      <c r="I35" s="176"/>
+      <c r="J35" s="177"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -6590,8 +6590,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="175"/>
-      <c r="J36" s="176"/>
+      <c r="I36" s="176"/>
+      <c r="J36" s="177"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -6602,8 +6602,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="175"/>
-      <c r="J37" s="176"/>
+      <c r="I37" s="176"/>
+      <c r="J37" s="177"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -6614,8 +6614,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="175"/>
-      <c r="J38" s="176"/>
+      <c r="I38" s="176"/>
+      <c r="J38" s="177"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -6626,8 +6626,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="175"/>
-      <c r="J39" s="176"/>
+      <c r="I39" s="176"/>
+      <c r="J39" s="177"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -6638,8 +6638,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="175"/>
-      <c r="J40" s="176"/>
+      <c r="I40" s="176"/>
+      <c r="J40" s="177"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -6650,8 +6650,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="175"/>
-      <c r="J41" s="176"/>
+      <c r="I41" s="176"/>
+      <c r="J41" s="177"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -6662,8 +6662,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="175"/>
-      <c r="J42" s="176"/>
+      <c r="I42" s="176"/>
+      <c r="J42" s="177"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -6674,8 +6674,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="177"/>
-      <c r="J43" s="178"/>
+      <c r="I43" s="178"/>
+      <c r="J43" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6733,10 +6733,10 @@
   <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20:P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6775,15 +6775,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="185" t="s">
+      <c r="H1" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="186"/>
-      <c r="J1" s="187" t="s">
+      <c r="I1" s="187"/>
+      <c r="J1" s="188" t="s">
         <v>207</v>
       </c>
-      <c r="K1" s="188"/>
-      <c r="L1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="190"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -6811,16 +6811,16 @@
         <f>'Update History'!D2</f>
         <v>ASSOFT - CRM</v>
       </c>
-      <c r="H2" s="185" t="s">
+      <c r="H2" s="186" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="186"/>
-      <c r="J2" s="187" t="str">
+      <c r="I2" s="187"/>
+      <c r="J2" s="188" t="str">
         <f>'Update History'!F2</f>
         <v>Báo cáo khách hàng theo nhân viên</v>
       </c>
-      <c r="K2" s="188"/>
-      <c r="L2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="190"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -6920,19 +6920,19 @@
       <c r="P5" s="70"/>
     </row>
     <row r="6" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A6" s="190">
+      <c r="A6" s="191">
         <v>2</v>
       </c>
-      <c r="B6" s="190">
+      <c r="B6" s="191">
         <v>51</v>
       </c>
-      <c r="C6" s="190" t="s">
+      <c r="C6" s="191" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="190">
+      <c r="D6" s="191">
         <v>2</v>
       </c>
-      <c r="E6" s="192" t="s">
+      <c r="E6" s="193" t="s">
         <v>195</v>
       </c>
       <c r="F6" s="89" t="s">
@@ -6958,11 +6958,11 @@
       </c>
     </row>
     <row r="7" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A7" s="191"/>
-      <c r="B7" s="191"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="191"/>
-      <c r="E7" s="193"/>
+      <c r="A7" s="192"/>
+      <c r="B7" s="192"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="194"/>
       <c r="F7" s="128" t="s">
         <v>177</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F8" s="89"/>
       <c r="G8" s="128"/>
@@ -7447,10 +7447,10 @@
         <v>5</v>
       </c>
       <c r="E20" s="59" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F20" s="89" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G20" s="85"/>
       <c r="H20" s="40"/>
@@ -7462,7 +7462,7 @@
       <c r="N20" s="40"/>
       <c r="O20" s="84"/>
       <c r="P20" s="89" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -7479,10 +7479,10 @@
         <v>6</v>
       </c>
       <c r="E21" s="59" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F21" s="89" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G21" s="89"/>
       <c r="H21" s="40"/>
@@ -7494,7 +7494,7 @@
       <c r="N21" s="40"/>
       <c r="O21" s="70"/>
       <c r="P21" s="134" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -7511,10 +7511,10 @@
         <v>7</v>
       </c>
       <c r="E22" s="59" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F22" s="89" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G22" s="89"/>
       <c r="H22" s="40"/>
@@ -7526,7 +7526,7 @@
       <c r="N22" s="40"/>
       <c r="O22" s="70"/>
       <c r="P22" s="134" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -9192,7 +9192,7 @@
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:G5"/>
+      <selection activeCell="H14" sqref="H14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9216,7 +9216,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="200" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="126"/>
@@ -9251,7 +9251,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="197"/>
+      <c r="A2" s="201"/>
       <c r="B2" s="127"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -9313,23 +9313,15 @@
       <c r="A5" s="33">
         <v>1</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>164</v>
-      </c>
+      <c r="B5" s="33"/>
       <c r="C5" s="33"/>
-      <c r="D5" s="130" t="s">
-        <v>134</v>
-      </c>
+      <c r="D5" s="130"/>
       <c r="E5" s="32"/>
-      <c r="F5" s="194" t="s">
-        <v>211</v>
-      </c>
-      <c r="G5" s="195"/>
-      <c r="H5" s="198" t="s">
-        <v>212</v>
-      </c>
-      <c r="I5" s="199"/>
-      <c r="J5" s="200"/>
+      <c r="F5" s="198"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="195"/>
+      <c r="I5" s="196"/>
+      <c r="J5" s="197"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -9339,11 +9331,11 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="195"/>
-      <c r="H6" s="198"/>
-      <c r="I6" s="199"/>
-      <c r="J6" s="200"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="199"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="197"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9353,11 +9345,11 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="195"/>
-      <c r="H7" s="198"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="200"/>
+      <c r="F7" s="198"/>
+      <c r="G7" s="199"/>
+      <c r="H7" s="195"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="197"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9367,11 +9359,11 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="195"/>
-      <c r="H8" s="198"/>
-      <c r="I8" s="199"/>
-      <c r="J8" s="200"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="199"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="197"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9381,11 +9373,11 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="194"/>
-      <c r="G9" s="195"/>
-      <c r="H9" s="198"/>
-      <c r="I9" s="199"/>
-      <c r="J9" s="200"/>
+      <c r="F9" s="198"/>
+      <c r="G9" s="199"/>
+      <c r="H9" s="195"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="197"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9395,11 +9387,11 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="194"/>
-      <c r="G10" s="195"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="199"/>
-      <c r="J10" s="200"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="199"/>
+      <c r="H10" s="195"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="197"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9409,11 +9401,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="194"/>
-      <c r="G11" s="195"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="199"/>
-      <c r="J11" s="200"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="199"/>
+      <c r="H11" s="195"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="197"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9423,11 +9415,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="194"/>
-      <c r="G12" s="195"/>
-      <c r="H12" s="198"/>
-      <c r="I12" s="199"/>
-      <c r="J12" s="200"/>
+      <c r="F12" s="198"/>
+      <c r="G12" s="199"/>
+      <c r="H12" s="195"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="197"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9437,11 +9429,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="194"/>
-      <c r="G13" s="195"/>
-      <c r="H13" s="198"/>
-      <c r="I13" s="199"/>
-      <c r="J13" s="200"/>
+      <c r="F13" s="198"/>
+      <c r="G13" s="199"/>
+      <c r="H13" s="195"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="197"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9451,11 +9443,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="195"/>
-      <c r="H14" s="198"/>
-      <c r="I14" s="199"/>
-      <c r="J14" s="200"/>
+      <c r="F14" s="198"/>
+      <c r="G14" s="199"/>
+      <c r="H14" s="195"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="197"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9465,11 +9457,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="195"/>
-      <c r="H15" s="198"/>
-      <c r="I15" s="199"/>
-      <c r="J15" s="200"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="199"/>
+      <c r="H15" s="195"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="197"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9479,11 +9471,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="195"/>
-      <c r="H16" s="198"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="200"/>
+      <c r="F16" s="198"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="197"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9493,11 +9485,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="194"/>
-      <c r="G17" s="195"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="199"/>
-      <c r="J17" s="200"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="195"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="197"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9507,11 +9499,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="195"/>
-      <c r="H18" s="198"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="200"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="195"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="197"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9521,11 +9513,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="194"/>
-      <c r="G19" s="195"/>
-      <c r="H19" s="198"/>
-      <c r="I19" s="199"/>
-      <c r="J19" s="200"/>
+      <c r="F19" s="198"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="195"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="197"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9535,11 +9527,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="194"/>
-      <c r="G20" s="195"/>
-      <c r="H20" s="198"/>
-      <c r="I20" s="199"/>
-      <c r="J20" s="200"/>
+      <c r="F20" s="198"/>
+      <c r="G20" s="199"/>
+      <c r="H20" s="195"/>
+      <c r="I20" s="196"/>
+      <c r="J20" s="197"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9549,11 +9541,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="194"/>
-      <c r="G21" s="195"/>
-      <c r="H21" s="198"/>
-      <c r="I21" s="199"/>
-      <c r="J21" s="200"/>
+      <c r="F21" s="198"/>
+      <c r="G21" s="199"/>
+      <c r="H21" s="195"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="197"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9565,9 +9557,9 @@
       <c r="E22" s="32"/>
       <c r="F22" s="158"/>
       <c r="G22" s="160"/>
-      <c r="H22" s="198"/>
-      <c r="I22" s="199"/>
-      <c r="J22" s="200"/>
+      <c r="H22" s="195"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="197"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9579,9 +9571,9 @@
       <c r="E23" s="32"/>
       <c r="F23" s="158"/>
       <c r="G23" s="160"/>
-      <c r="H23" s="198"/>
-      <c r="I23" s="199"/>
-      <c r="J23" s="200"/>
+      <c r="H23" s="195"/>
+      <c r="I23" s="196"/>
+      <c r="J23" s="197"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9593,9 +9585,9 @@
       <c r="E24" s="32"/>
       <c r="F24" s="158"/>
       <c r="G24" s="160"/>
-      <c r="H24" s="198"/>
-      <c r="I24" s="199"/>
-      <c r="J24" s="200"/>
+      <c r="H24" s="195"/>
+      <c r="I24" s="196"/>
+      <c r="J24" s="197"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9607,9 +9599,9 @@
       <c r="E25" s="32"/>
       <c r="F25" s="158"/>
       <c r="G25" s="160"/>
-      <c r="H25" s="198"/>
-      <c r="I25" s="199"/>
-      <c r="J25" s="200"/>
+      <c r="H25" s="195"/>
+      <c r="I25" s="196"/>
+      <c r="J25" s="197"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9621,9 +9613,9 @@
       <c r="E26" s="32"/>
       <c r="F26" s="158"/>
       <c r="G26" s="160"/>
-      <c r="H26" s="198"/>
-      <c r="I26" s="199"/>
-      <c r="J26" s="200"/>
+      <c r="H26" s="195"/>
+      <c r="I26" s="196"/>
+      <c r="J26" s="197"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9635,9 +9627,9 @@
       <c r="E27" s="32"/>
       <c r="F27" s="158"/>
       <c r="G27" s="160"/>
-      <c r="H27" s="198"/>
-      <c r="I27" s="199"/>
-      <c r="J27" s="200"/>
+      <c r="H27" s="195"/>
+      <c r="I27" s="196"/>
+      <c r="J27" s="197"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9649,9 +9641,9 @@
       <c r="E28" s="32"/>
       <c r="F28" s="158"/>
       <c r="G28" s="160"/>
-      <c r="H28" s="198"/>
-      <c r="I28" s="199"/>
-      <c r="J28" s="200"/>
+      <c r="H28" s="195"/>
+      <c r="I28" s="196"/>
+      <c r="J28" s="197"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9663,9 +9655,9 @@
       <c r="E29" s="32"/>
       <c r="F29" s="158"/>
       <c r="G29" s="160"/>
-      <c r="H29" s="198"/>
-      <c r="I29" s="199"/>
-      <c r="J29" s="200"/>
+      <c r="H29" s="195"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="197"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9677,9 +9669,9 @@
       <c r="E30" s="32"/>
       <c r="F30" s="158"/>
       <c r="G30" s="160"/>
-      <c r="H30" s="198"/>
-      <c r="I30" s="199"/>
-      <c r="J30" s="200"/>
+      <c r="H30" s="195"/>
+      <c r="I30" s="196"/>
+      <c r="J30" s="197"/>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9691,9 +9683,9 @@
       <c r="E31" s="32"/>
       <c r="F31" s="158"/>
       <c r="G31" s="160"/>
-      <c r="H31" s="198"/>
-      <c r="I31" s="199"/>
-      <c r="J31" s="200"/>
+      <c r="H31" s="195"/>
+      <c r="I31" s="196"/>
+      <c r="J31" s="197"/>
     </row>
     <row r="32" spans="1:18" ht="11.25">
       <c r="A32" s="33">
@@ -9705,9 +9697,9 @@
       <c r="E32" s="32"/>
       <c r="F32" s="158"/>
       <c r="G32" s="160"/>
-      <c r="H32" s="198"/>
-      <c r="I32" s="199"/>
-      <c r="J32" s="200"/>
+      <c r="H32" s="195"/>
+      <c r="I32" s="196"/>
+      <c r="J32" s="197"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -9726,9 +9718,9 @@
       <c r="E33" s="32"/>
       <c r="F33" s="158"/>
       <c r="G33" s="160"/>
-      <c r="H33" s="198"/>
-      <c r="I33" s="199"/>
-      <c r="J33" s="200"/>
+      <c r="H33" s="195"/>
+      <c r="I33" s="196"/>
+      <c r="J33" s="197"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -9747,9 +9739,9 @@
       <c r="E34" s="32"/>
       <c r="F34" s="158"/>
       <c r="G34" s="160"/>
-      <c r="H34" s="198"/>
-      <c r="I34" s="199"/>
-      <c r="J34" s="200"/>
+      <c r="H34" s="195"/>
+      <c r="I34" s="196"/>
+      <c r="J34" s="197"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -9768,9 +9760,9 @@
       <c r="E35" s="32"/>
       <c r="F35" s="158"/>
       <c r="G35" s="160"/>
-      <c r="H35" s="198"/>
-      <c r="I35" s="199"/>
-      <c r="J35" s="200"/>
+      <c r="H35" s="195"/>
+      <c r="I35" s="196"/>
+      <c r="J35" s="197"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -9789,9 +9781,9 @@
       <c r="E36" s="32"/>
       <c r="F36" s="158"/>
       <c r="G36" s="160"/>
-      <c r="H36" s="198"/>
-      <c r="I36" s="199"/>
-      <c r="J36" s="200"/>
+      <c r="H36" s="195"/>
+      <c r="I36" s="196"/>
+      <c r="J36" s="197"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -9810,9 +9802,9 @@
       <c r="E37" s="32"/>
       <c r="F37" s="158"/>
       <c r="G37" s="160"/>
-      <c r="H37" s="198"/>
-      <c r="I37" s="199"/>
-      <c r="J37" s="200"/>
+      <c r="H37" s="195"/>
+      <c r="I37" s="196"/>
+      <c r="J37" s="197"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -9831,9 +9823,9 @@
       <c r="E38" s="32"/>
       <c r="F38" s="158"/>
       <c r="G38" s="160"/>
-      <c r="H38" s="198"/>
-      <c r="I38" s="199"/>
-      <c r="J38" s="200"/>
+      <c r="H38" s="195"/>
+      <c r="I38" s="196"/>
+      <c r="J38" s="197"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -9852,9 +9844,9 @@
       <c r="E39" s="32"/>
       <c r="F39" s="158"/>
       <c r="G39" s="160"/>
-      <c r="H39" s="198"/>
-      <c r="I39" s="199"/>
-      <c r="J39" s="200"/>
+      <c r="H39" s="195"/>
+      <c r="I39" s="196"/>
+      <c r="J39" s="197"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -9873,9 +9865,9 @@
       <c r="E40" s="32"/>
       <c r="F40" s="158"/>
       <c r="G40" s="160"/>
-      <c r="H40" s="198"/>
-      <c r="I40" s="199"/>
-      <c r="J40" s="200"/>
+      <c r="H40" s="195"/>
+      <c r="I40" s="196"/>
+      <c r="J40" s="197"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -9894,9 +9886,9 @@
       <c r="E41" s="32"/>
       <c r="F41" s="158"/>
       <c r="G41" s="160"/>
-      <c r="H41" s="198"/>
-      <c r="I41" s="199"/>
-      <c r="J41" s="200"/>
+      <c r="H41" s="195"/>
+      <c r="I41" s="196"/>
+      <c r="J41" s="197"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -9915,9 +9907,9 @@
       <c r="E42" s="32"/>
       <c r="F42" s="158"/>
       <c r="G42" s="160"/>
-      <c r="H42" s="198"/>
-      <c r="I42" s="199"/>
-      <c r="J42" s="200"/>
+      <c r="H42" s="195"/>
+      <c r="I42" s="196"/>
+      <c r="J42" s="197"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -9936,9 +9928,9 @@
       <c r="E43" s="32"/>
       <c r="F43" s="158"/>
       <c r="G43" s="160"/>
-      <c r="H43" s="198"/>
-      <c r="I43" s="199"/>
-      <c r="J43" s="200"/>
+      <c r="H43" s="195"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="197"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -9957,9 +9949,9 @@
       <c r="E44" s="32"/>
       <c r="F44" s="158"/>
       <c r="G44" s="160"/>
-      <c r="H44" s="198"/>
-      <c r="I44" s="199"/>
-      <c r="J44" s="200"/>
+      <c r="H44" s="195"/>
+      <c r="I44" s="196"/>
+      <c r="J44" s="197"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -9978,9 +9970,9 @@
       <c r="E45" s="32"/>
       <c r="F45" s="158"/>
       <c r="G45" s="160"/>
-      <c r="H45" s="198"/>
-      <c r="I45" s="199"/>
-      <c r="J45" s="200"/>
+      <c r="H45" s="195"/>
+      <c r="I45" s="196"/>
+      <c r="J45" s="197"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -9999,9 +9991,9 @@
       <c r="E46" s="32"/>
       <c r="F46" s="158"/>
       <c r="G46" s="160"/>
-      <c r="H46" s="198"/>
-      <c r="I46" s="199"/>
-      <c r="J46" s="200"/>
+      <c r="H46" s="195"/>
+      <c r="I46" s="196"/>
+      <c r="J46" s="197"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -10020,9 +10012,9 @@
       <c r="E47" s="32"/>
       <c r="F47" s="158"/>
       <c r="G47" s="160"/>
-      <c r="H47" s="198"/>
-      <c r="I47" s="199"/>
-      <c r="J47" s="200"/>
+      <c r="H47" s="195"/>
+      <c r="I47" s="196"/>
+      <c r="J47" s="197"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -10041,9 +10033,9 @@
       <c r="E48" s="32"/>
       <c r="F48" s="158"/>
       <c r="G48" s="160"/>
-      <c r="H48" s="198"/>
-      <c r="I48" s="199"/>
-      <c r="J48" s="200"/>
+      <c r="H48" s="195"/>
+      <c r="I48" s="196"/>
+      <c r="J48" s="197"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -10062,9 +10054,9 @@
       <c r="E49" s="32"/>
       <c r="F49" s="158"/>
       <c r="G49" s="160"/>
-      <c r="H49" s="198"/>
-      <c r="I49" s="199"/>
-      <c r="J49" s="200"/>
+      <c r="H49" s="195"/>
+      <c r="I49" s="196"/>
+      <c r="J49" s="197"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -10083,9 +10075,9 @@
       <c r="E50" s="32"/>
       <c r="F50" s="158"/>
       <c r="G50" s="160"/>
-      <c r="H50" s="198"/>
-      <c r="I50" s="199"/>
-      <c r="J50" s="200"/>
+      <c r="H50" s="195"/>
+      <c r="I50" s="196"/>
+      <c r="J50" s="197"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -10104,9 +10096,9 @@
       <c r="E51" s="32"/>
       <c r="F51" s="158"/>
       <c r="G51" s="160"/>
-      <c r="H51" s="198"/>
-      <c r="I51" s="199"/>
-      <c r="J51" s="200"/>
+      <c r="H51" s="195"/>
+      <c r="I51" s="196"/>
+      <c r="J51" s="197"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -10125,9 +10117,9 @@
       <c r="E52" s="32"/>
       <c r="F52" s="158"/>
       <c r="G52" s="160"/>
-      <c r="H52" s="198"/>
-      <c r="I52" s="199"/>
-      <c r="J52" s="200"/>
+      <c r="H52" s="195"/>
+      <c r="I52" s="196"/>
+      <c r="J52" s="197"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -10146,9 +10138,9 @@
       <c r="E53" s="32"/>
       <c r="F53" s="158"/>
       <c r="G53" s="160"/>
-      <c r="H53" s="198"/>
-      <c r="I53" s="199"/>
-      <c r="J53" s="200"/>
+      <c r="H53" s="195"/>
+      <c r="I53" s="196"/>
+      <c r="J53" s="197"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -10167,9 +10159,9 @@
       <c r="E54" s="32"/>
       <c r="F54" s="158"/>
       <c r="G54" s="160"/>
-      <c r="H54" s="198"/>
-      <c r="I54" s="199"/>
-      <c r="J54" s="200"/>
+      <c r="H54" s="195"/>
+      <c r="I54" s="196"/>
+      <c r="J54" s="197"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -10188,9 +10180,9 @@
       <c r="E55" s="32"/>
       <c r="F55" s="158"/>
       <c r="G55" s="160"/>
-      <c r="H55" s="198"/>
-      <c r="I55" s="199"/>
-      <c r="J55" s="200"/>
+      <c r="H55" s="195"/>
+      <c r="I55" s="196"/>
+      <c r="J55" s="197"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -10209,9 +10201,9 @@
       <c r="E56" s="32"/>
       <c r="F56" s="158"/>
       <c r="G56" s="160"/>
-      <c r="H56" s="198"/>
-      <c r="I56" s="199"/>
-      <c r="J56" s="200"/>
+      <c r="H56" s="195"/>
+      <c r="I56" s="196"/>
+      <c r="J56" s="197"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -10223,6 +10215,99 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="F54:G54"/>
@@ -10237,99 +10322,6 @@
     <mergeCell ref="H54:J54"/>
     <mergeCell ref="H55:J55"/>
     <mergeCell ref="H56:J56"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E56">
@@ -10345,37 +10337,38 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1048467"/>
+  <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="G1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:M5"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="22" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="22" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="23" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="23" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="23" customWidth="1"/>
-    <col min="15" max="15" width="17" style="23" customWidth="1"/>
-    <col min="16" max="17" width="14.140625" style="23" customWidth="1"/>
-    <col min="18" max="18" width="36.7109375" style="23" customWidth="1"/>
-    <col min="19" max="20" width="12.7109375" style="23" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="22" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="22"/>
+    <col min="3" max="3" width="13.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="22" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="22" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="23" customWidth="1"/>
+    <col min="16" max="16" width="17" style="23" customWidth="1"/>
+    <col min="17" max="18" width="14.140625" style="23" customWidth="1"/>
+    <col min="19" max="19" width="36.7109375" style="23" customWidth="1"/>
+    <col min="20" max="21" width="12.7109375" style="23" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="22" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
@@ -10385,40 +10378,41 @@
       <c r="E1" s="164"/>
       <c r="F1" s="164"/>
       <c r="G1" s="164"/>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="164"/>
+      <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="207" t="str">
+      <c r="J1" s="205" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="J1" s="207"/>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="205"/>
+      <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="53" t="str">
+      <c r="M1" s="53" t="str">
         <f>'Update History'!F1</f>
         <v>CRMR30101</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="50" t="str">
+      <c r="O1" s="50" t="str">
         <f>'Update History'!H1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="Q1" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="52"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="35"/>
       <c r="T1" s="52"/>
-    </row>
-    <row r="2" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="U1" s="52"/>
+    </row>
+    <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="164"/>
       <c r="B2" s="164"/>
       <c r="C2" s="164"/>
@@ -10426,400 +10420,418 @@
       <c r="E2" s="164"/>
       <c r="F2" s="164"/>
       <c r="G2" s="164"/>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="164"/>
+      <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="207" t="str">
+      <c r="J2" s="205" t="str">
         <f>'Update History'!D2</f>
         <v>ASSOFT - CRM</v>
       </c>
-      <c r="J2" s="207"/>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="205"/>
+      <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="53" t="str">
+      <c r="M2" s="53" t="str">
         <f>'Update History'!F2</f>
         <v>Báo cáo khách hàng theo nhân viên</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="N2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="51">
+      <c r="O2" s="51">
         <f>'Update History'!H2</f>
         <v>42395</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="P2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="29">
+      <c r="Q2" s="29">
         <v>42417</v>
       </c>
-      <c r="Q2" s="51"/>
       <c r="R2" s="51"/>
-      <c r="S2" s="52"/>
+      <c r="S2" s="51"/>
       <c r="T2" s="52"/>
-    </row>
-    <row r="4" spans="1:20" s="23" customFormat="1" ht="12" customHeight="1">
+      <c r="U2" s="52"/>
+    </row>
+    <row r="4" spans="1:21" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="39" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="125" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="135" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="E4" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="F4" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="G4" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="78" t="s">
+      <c r="H4" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="I4" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="J4" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="170" t="s">
+      <c r="K4" s="171" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="172"/>
-      <c r="L4" s="172"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="39" t="s">
+      <c r="L4" s="173"/>
+      <c r="M4" s="173"/>
+      <c r="N4" s="172"/>
+      <c r="O4" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="P4" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="Q4" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="R4" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="S4" s="39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="34" customFormat="1" ht="146.25">
+    <row r="5" spans="1:21" s="34" customFormat="1" ht="146.25">
       <c r="A5" s="33">
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="33">
+        <v>51</v>
+      </c>
       <c r="D5" s="33"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="89" t="s">
+      <c r="E5" s="33"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="H5" s="63" t="s">
         <v>198</v>
       </c>
-      <c r="H5" s="63" t="s">
-        <v>228</v>
-      </c>
-      <c r="I5" s="131" t="s">
+      <c r="I5" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="J5" s="131" t="s">
         <v>199</v>
       </c>
-      <c r="J5" s="201" t="s">
-        <v>216</v>
-      </c>
-      <c r="K5" s="202"/>
-      <c r="L5" s="202"/>
+      <c r="K5" s="202" t="s">
+        <v>214</v>
+      </c>
+      <c r="L5" s="203"/>
       <c r="M5" s="203"/>
-      <c r="N5" s="133" t="s">
+      <c r="N5" s="204"/>
+      <c r="O5" s="133" t="s">
+        <v>211</v>
+      </c>
+      <c r="P5" s="133" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q5" s="77" t="s">
         <v>213</v>
       </c>
-      <c r="O5" s="133" t="s">
-        <v>214</v>
-      </c>
-      <c r="P5" s="77" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q5" s="76" t="s">
+      <c r="R5" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="R5" s="132" t="s">
+      <c r="S5" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="S5" s="64"/>
       <c r="T5" s="64"/>
-    </row>
-    <row r="6" spans="1:20" s="34" customFormat="1" ht="11.25">
+      <c r="U5" s="64"/>
+    </row>
+    <row r="6" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
         <v>2</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="63"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="89"/>
       <c r="H6" s="63"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="201"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="83"/>
       <c r="K6" s="202"/>
-      <c r="L6" s="202"/>
+      <c r="L6" s="203"/>
       <c r="M6" s="203"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="64"/>
+      <c r="N6" s="204"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="89"/>
       <c r="T6" s="64"/>
-    </row>
-    <row r="7" spans="1:20" s="34" customFormat="1" ht="11.25" customHeight="1">
+      <c r="U6" s="64"/>
+    </row>
+    <row r="7" spans="1:21" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
         <v>3</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="63"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="89"/>
       <c r="H7" s="63"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="201"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="83"/>
       <c r="K7" s="202"/>
-      <c r="L7" s="202"/>
+      <c r="L7" s="203"/>
       <c r="M7" s="203"/>
-      <c r="N7" s="90"/>
+      <c r="N7" s="204"/>
       <c r="O7" s="90"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="204"/>
-      <c r="S7" s="64"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="206"/>
       <c r="T7" s="64"/>
-    </row>
-    <row r="8" spans="1:20" s="34" customFormat="1" ht="11.25">
+      <c r="U7" s="64"/>
+    </row>
+    <row r="8" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A8" s="33">
         <v>4</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="63"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="89"/>
       <c r="H8" s="63"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="201"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="83"/>
       <c r="K8" s="202"/>
-      <c r="L8" s="202"/>
+      <c r="L8" s="203"/>
       <c r="M8" s="203"/>
-      <c r="N8" s="90"/>
+      <c r="N8" s="204"/>
       <c r="O8" s="90"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="205"/>
-      <c r="S8" s="64"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="207"/>
       <c r="T8" s="64"/>
-    </row>
-    <row r="9" spans="1:20" s="34" customFormat="1" ht="11.25">
+      <c r="U8" s="64"/>
+    </row>
+    <row r="9" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A9" s="33">
         <v>5</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="63"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="89"/>
       <c r="H9" s="63"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="201"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="83"/>
       <c r="K9" s="202"/>
-      <c r="L9" s="202"/>
+      <c r="L9" s="203"/>
       <c r="M9" s="203"/>
-      <c r="N9" s="90"/>
+      <c r="N9" s="204"/>
       <c r="O9" s="90"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="206"/>
-      <c r="S9" s="64"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="208"/>
       <c r="T9" s="64"/>
-    </row>
-    <row r="10" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U9" s="64"/>
+    </row>
+    <row r="10" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
         <v>6</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="63"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="89"/>
       <c r="H10" s="63"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="201"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="83"/>
       <c r="K10" s="202"/>
-      <c r="L10" s="202"/>
+      <c r="L10" s="203"/>
       <c r="M10" s="203"/>
-      <c r="N10" s="90"/>
+      <c r="N10" s="204"/>
       <c r="O10" s="90"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="204"/>
-      <c r="S10" s="64"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="206"/>
       <c r="T10" s="64"/>
-    </row>
-    <row r="11" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U10" s="64"/>
+    </row>
+    <row r="11" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
         <v>7</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="63"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="63"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="201"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="83"/>
       <c r="K11" s="202"/>
-      <c r="L11" s="202"/>
+      <c r="L11" s="203"/>
       <c r="M11" s="203"/>
-      <c r="N11" s="90"/>
+      <c r="N11" s="204"/>
       <c r="O11" s="90"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="205"/>
-      <c r="S11" s="64"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="76"/>
+      <c r="S11" s="207"/>
       <c r="T11" s="64"/>
-    </row>
-    <row r="12" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U11" s="64"/>
+    </row>
+    <row r="12" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
         <v>8</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="63"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="89"/>
       <c r="H12" s="63"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="201"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="83"/>
       <c r="K12" s="202"/>
-      <c r="L12" s="202"/>
+      <c r="L12" s="203"/>
       <c r="M12" s="203"/>
-      <c r="N12" s="86"/>
+      <c r="N12" s="204"/>
       <c r="O12" s="86"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="205"/>
-      <c r="S12" s="64"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="207"/>
       <c r="T12" s="64"/>
-    </row>
-    <row r="13" spans="1:20" s="34" customFormat="1" ht="11.25">
+      <c r="U12" s="64"/>
+    </row>
+    <row r="13" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A13" s="33">
         <v>9</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="63"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="89"/>
       <c r="H13" s="63"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="201"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="83"/>
       <c r="K13" s="202"/>
-      <c r="L13" s="202"/>
+      <c r="L13" s="203"/>
       <c r="M13" s="203"/>
-      <c r="N13" s="86"/>
+      <c r="N13" s="204"/>
       <c r="O13" s="86"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="206"/>
-      <c r="S13" s="64"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="208"/>
       <c r="T13" s="64"/>
-    </row>
-    <row r="14" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U13" s="64"/>
+    </row>
+    <row r="14" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
         <v>10</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="63"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="85"/>
       <c r="H14" s="63"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="201"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="83"/>
       <c r="K14" s="202"/>
-      <c r="L14" s="202"/>
+      <c r="L14" s="203"/>
       <c r="M14" s="203"/>
-      <c r="N14" s="82"/>
+      <c r="N14" s="204"/>
       <c r="O14" s="82"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="64"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="89"/>
       <c r="T14" s="64"/>
-    </row>
-    <row r="15" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U14" s="64"/>
+    </row>
+    <row r="15" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
         <v>11</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="63"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="85"/>
       <c r="H15" s="63"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="201"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="83"/>
       <c r="K15" s="202"/>
-      <c r="L15" s="202"/>
+      <c r="L15" s="203"/>
       <c r="M15" s="203"/>
-      <c r="N15" s="82"/>
+      <c r="N15" s="204"/>
       <c r="O15" s="82"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="64"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="89"/>
       <c r="T15" s="64"/>
-    </row>
-    <row r="16" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U15" s="64"/>
+    </row>
+    <row r="16" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
         <v>12</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="63"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="85"/>
       <c r="H16" s="63"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="201"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="40"/>
       <c r="K16" s="202"/>
-      <c r="L16" s="202"/>
+      <c r="L16" s="203"/>
       <c r="M16" s="203"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="64"/>
+      <c r="N16" s="204"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="89"/>
       <c r="T16" s="64"/>
-    </row>
-    <row r="17" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U16" s="64"/>
+    </row>
+    <row r="17" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="33">
         <v>13</v>
       </c>
@@ -10827,23 +10839,24 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="63"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="85"/>
       <c r="H17" s="63"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="201"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="202"/>
-      <c r="L17" s="202"/>
+      <c r="L17" s="203"/>
       <c r="M17" s="203"/>
-      <c r="N17" s="60"/>
+      <c r="N17" s="204"/>
       <c r="O17" s="60"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="64"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="89"/>
       <c r="T17" s="64"/>
-    </row>
-    <row r="18" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U17" s="64"/>
+    </row>
+    <row r="18" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
         <v>14</v>
       </c>
@@ -10851,23 +10864,24 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="63"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="85"/>
       <c r="H18" s="63"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="201"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="40"/>
       <c r="K18" s="202"/>
-      <c r="L18" s="202"/>
+      <c r="L18" s="203"/>
       <c r="M18" s="203"/>
-      <c r="N18" s="60"/>
+      <c r="N18" s="204"/>
       <c r="O18" s="60"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="64"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="89"/>
       <c r="T18" s="64"/>
-    </row>
-    <row r="19" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U18" s="64"/>
+    </row>
+    <row r="19" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
         <v>15</v>
       </c>
@@ -10875,23 +10889,24 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="63"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="85"/>
       <c r="H19" s="63"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="201"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="40"/>
       <c r="K19" s="202"/>
-      <c r="L19" s="202"/>
+      <c r="L19" s="203"/>
       <c r="M19" s="203"/>
-      <c r="N19" s="60"/>
+      <c r="N19" s="204"/>
       <c r="O19" s="60"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="64"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="89"/>
       <c r="T19" s="64"/>
-    </row>
-    <row r="20" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U19" s="64"/>
+    </row>
+    <row r="20" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
         <v>16</v>
       </c>
@@ -10899,23 +10914,24 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="63"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="85"/>
       <c r="H20" s="63"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="201"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="40"/>
       <c r="K20" s="202"/>
-      <c r="L20" s="202"/>
+      <c r="L20" s="203"/>
       <c r="M20" s="203"/>
-      <c r="N20" s="60"/>
+      <c r="N20" s="204"/>
       <c r="O20" s="60"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="89"/>
-      <c r="S20" s="64"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="89"/>
       <c r="T20" s="64"/>
-    </row>
-    <row r="21" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U20" s="64"/>
+    </row>
+    <row r="21" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="33">
         <v>17</v>
       </c>
@@ -10923,23 +10939,24 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="63"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="85"/>
       <c r="H21" s="63"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="201"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="40"/>
       <c r="K21" s="202"/>
-      <c r="L21" s="202"/>
+      <c r="L21" s="203"/>
       <c r="M21" s="203"/>
-      <c r="N21" s="60"/>
+      <c r="N21" s="204"/>
       <c r="O21" s="60"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="89"/>
-      <c r="S21" s="64"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="89"/>
       <c r="T21" s="64"/>
-    </row>
-    <row r="22" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U21" s="64"/>
+    </row>
+    <row r="22" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
         <v>18</v>
       </c>
@@ -10947,23 +10964,24 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="63"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="85"/>
       <c r="H22" s="63"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="201"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="40"/>
       <c r="K22" s="202"/>
-      <c r="L22" s="202"/>
+      <c r="L22" s="203"/>
       <c r="M22" s="203"/>
-      <c r="N22" s="60"/>
+      <c r="N22" s="204"/>
       <c r="O22" s="60"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="64"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="76"/>
+      <c r="S22" s="89"/>
       <c r="T22" s="64"/>
-    </row>
-    <row r="23" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U22" s="64"/>
+    </row>
+    <row r="23" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
         <v>19</v>
       </c>
@@ -10971,23 +10989,24 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="63"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="85"/>
       <c r="H23" s="63"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="201"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="40"/>
       <c r="K23" s="202"/>
-      <c r="L23" s="202"/>
+      <c r="L23" s="203"/>
       <c r="M23" s="203"/>
-      <c r="N23" s="60"/>
+      <c r="N23" s="204"/>
       <c r="O23" s="60"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="89"/>
-      <c r="S23" s="64"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="89"/>
       <c r="T23" s="64"/>
-    </row>
-    <row r="24" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U23" s="64"/>
+    </row>
+    <row r="24" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
         <v>20</v>
       </c>
@@ -10995,23 +11014,24 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="63"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="85"/>
       <c r="H24" s="63"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="201"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="40"/>
       <c r="K24" s="202"/>
-      <c r="L24" s="202"/>
+      <c r="L24" s="203"/>
       <c r="M24" s="203"/>
-      <c r="N24" s="60"/>
+      <c r="N24" s="204"/>
       <c r="O24" s="60"/>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="76"/>
-      <c r="R24" s="89"/>
-      <c r="S24" s="64"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="76"/>
+      <c r="S24" s="89"/>
       <c r="T24" s="64"/>
-    </row>
-    <row r="25" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U24" s="64"/>
+    </row>
+    <row r="25" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
         <v>21</v>
       </c>
@@ -11019,23 +11039,24 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="63"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="85"/>
       <c r="H25" s="63"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="201"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="40"/>
       <c r="K25" s="202"/>
-      <c r="L25" s="202"/>
+      <c r="L25" s="203"/>
       <c r="M25" s="203"/>
-      <c r="N25" s="60"/>
+      <c r="N25" s="204"/>
       <c r="O25" s="60"/>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="76"/>
-      <c r="R25" s="89"/>
-      <c r="S25" s="64"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="76"/>
+      <c r="S25" s="89"/>
       <c r="T25" s="64"/>
-    </row>
-    <row r="26" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U25" s="64"/>
+    </row>
+    <row r="26" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
         <v>22</v>
       </c>
@@ -11043,23 +11064,24 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="63"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="85"/>
       <c r="H26" s="63"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="201"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="40"/>
       <c r="K26" s="202"/>
-      <c r="L26" s="202"/>
+      <c r="L26" s="203"/>
       <c r="M26" s="203"/>
-      <c r="N26" s="60"/>
+      <c r="N26" s="204"/>
       <c r="O26" s="60"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="89"/>
-      <c r="S26" s="64"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="76"/>
+      <c r="S26" s="89"/>
       <c r="T26" s="64"/>
-    </row>
-    <row r="27" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U26" s="64"/>
+    </row>
+    <row r="27" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
         <v>23</v>
       </c>
@@ -11067,23 +11089,24 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="63"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="85"/>
       <c r="H27" s="63"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="201"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="40"/>
       <c r="K27" s="202"/>
-      <c r="L27" s="202"/>
+      <c r="L27" s="203"/>
       <c r="M27" s="203"/>
-      <c r="N27" s="60"/>
+      <c r="N27" s="204"/>
       <c r="O27" s="60"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="76"/>
-      <c r="R27" s="89"/>
-      <c r="S27" s="64"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="76"/>
+      <c r="S27" s="89"/>
       <c r="T27" s="64"/>
-    </row>
-    <row r="28" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U27" s="64"/>
+    </row>
+    <row r="28" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
         <v>24</v>
       </c>
@@ -11091,23 +11114,24 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="63"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="85"/>
       <c r="H28" s="63"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="201"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="40"/>
       <c r="K28" s="202"/>
-      <c r="L28" s="202"/>
+      <c r="L28" s="203"/>
       <c r="M28" s="203"/>
-      <c r="N28" s="60"/>
+      <c r="N28" s="204"/>
       <c r="O28" s="60"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="76"/>
-      <c r="R28" s="89"/>
-      <c r="S28" s="64"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="77"/>
+      <c r="R28" s="76"/>
+      <c r="S28" s="89"/>
       <c r="T28" s="64"/>
-    </row>
-    <row r="29" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U28" s="64"/>
+    </row>
+    <row r="29" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
         <v>25</v>
       </c>
@@ -11115,23 +11139,24 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="63"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="85"/>
       <c r="H29" s="63"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="201"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="40"/>
       <c r="K29" s="202"/>
-      <c r="L29" s="202"/>
+      <c r="L29" s="203"/>
       <c r="M29" s="203"/>
-      <c r="N29" s="60"/>
+      <c r="N29" s="204"/>
       <c r="O29" s="60"/>
-      <c r="P29" s="77"/>
-      <c r="Q29" s="76"/>
-      <c r="R29" s="89"/>
-      <c r="S29" s="64"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="77"/>
+      <c r="R29" s="76"/>
+      <c r="S29" s="89"/>
       <c r="T29" s="64"/>
-    </row>
-    <row r="30" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U29" s="64"/>
+    </row>
+    <row r="30" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="33">
         <v>26</v>
       </c>
@@ -11139,23 +11164,24 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="63"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="85"/>
       <c r="H30" s="63"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="201"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="40"/>
       <c r="K30" s="202"/>
-      <c r="L30" s="202"/>
+      <c r="L30" s="203"/>
       <c r="M30" s="203"/>
-      <c r="N30" s="60"/>
+      <c r="N30" s="204"/>
       <c r="O30" s="60"/>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="89"/>
-      <c r="S30" s="64"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="76"/>
+      <c r="S30" s="89"/>
       <c r="T30" s="64"/>
-    </row>
-    <row r="31" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U30" s="64"/>
+    </row>
+    <row r="31" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="33">
         <v>27</v>
       </c>
@@ -11163,23 +11189,24 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="63"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="85"/>
       <c r="H31" s="63"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="201"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="40"/>
       <c r="K31" s="202"/>
-      <c r="L31" s="202"/>
+      <c r="L31" s="203"/>
       <c r="M31" s="203"/>
-      <c r="N31" s="60"/>
+      <c r="N31" s="204"/>
       <c r="O31" s="60"/>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="76"/>
-      <c r="R31" s="89"/>
-      <c r="S31" s="64"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="77"/>
+      <c r="R31" s="76"/>
+      <c r="S31" s="89"/>
       <c r="T31" s="64"/>
-    </row>
-    <row r="32" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U31" s="64"/>
+    </row>
+    <row r="32" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="33">
         <v>28</v>
       </c>
@@ -11187,23 +11214,24 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="63"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="85"/>
       <c r="H32" s="63"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="201"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="40"/>
       <c r="K32" s="202"/>
-      <c r="L32" s="202"/>
+      <c r="L32" s="203"/>
       <c r="M32" s="203"/>
-      <c r="N32" s="60"/>
+      <c r="N32" s="204"/>
       <c r="O32" s="60"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="89"/>
-      <c r="S32" s="64"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="77"/>
+      <c r="R32" s="76"/>
+      <c r="S32" s="89"/>
       <c r="T32" s="64"/>
-    </row>
-    <row r="33" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U32" s="64"/>
+    </row>
+    <row r="33" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="33">
         <v>29</v>
       </c>
@@ -11211,47 +11239,49 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="63"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="85"/>
       <c r="H33" s="63"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="201"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="40"/>
       <c r="K33" s="202"/>
-      <c r="L33" s="202"/>
+      <c r="L33" s="203"/>
       <c r="M33" s="203"/>
-      <c r="N33" s="60"/>
+      <c r="N33" s="204"/>
       <c r="O33" s="60"/>
-      <c r="P33" s="77"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="89"/>
-      <c r="S33" s="64"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="77"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="89"/>
       <c r="T33" s="64"/>
-    </row>
-    <row r="34" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U33" s="64"/>
+    </row>
+    <row r="34" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="33">
         <v>30</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="63"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="85"/>
       <c r="H34" s="63"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="201"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="83"/>
       <c r="K34" s="202"/>
-      <c r="L34" s="202"/>
+      <c r="L34" s="203"/>
       <c r="M34" s="203"/>
-      <c r="N34" s="86"/>
+      <c r="N34" s="204"/>
       <c r="O34" s="86"/>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="76"/>
-      <c r="R34" s="89"/>
-      <c r="S34" s="64"/>
+      <c r="P34" s="86"/>
+      <c r="Q34" s="77"/>
+      <c r="R34" s="76"/>
+      <c r="S34" s="89"/>
       <c r="T34" s="64"/>
-    </row>
-    <row r="35" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U34" s="64"/>
+    </row>
+    <row r="35" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="33">
         <v>31</v>
       </c>
@@ -11259,23 +11289,24 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="63"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="85"/>
       <c r="H35" s="63"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="201"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="40"/>
       <c r="K35" s="202"/>
-      <c r="L35" s="202"/>
+      <c r="L35" s="203"/>
       <c r="M35" s="203"/>
-      <c r="N35" s="60"/>
+      <c r="N35" s="204"/>
       <c r="O35" s="60"/>
-      <c r="P35" s="77"/>
-      <c r="Q35" s="76"/>
-      <c r="R35" s="89"/>
-      <c r="S35" s="64"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="77"/>
+      <c r="R35" s="76"/>
+      <c r="S35" s="89"/>
       <c r="T35" s="64"/>
-    </row>
-    <row r="36" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U35" s="64"/>
+    </row>
+    <row r="36" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="33">
         <v>32</v>
       </c>
@@ -11283,23 +11314,24 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="63"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="85"/>
       <c r="H36" s="63"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="201"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="40"/>
       <c r="K36" s="202"/>
-      <c r="L36" s="202"/>
+      <c r="L36" s="203"/>
       <c r="M36" s="203"/>
-      <c r="N36" s="60"/>
+      <c r="N36" s="204"/>
       <c r="O36" s="60"/>
-      <c r="P36" s="77"/>
-      <c r="Q36" s="76"/>
-      <c r="R36" s="89"/>
-      <c r="S36" s="64"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="77"/>
+      <c r="R36" s="76"/>
+      <c r="S36" s="89"/>
       <c r="T36" s="64"/>
-    </row>
-    <row r="37" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U36" s="64"/>
+    </row>
+    <row r="37" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="33">
         <v>33</v>
       </c>
@@ -11307,23 +11339,24 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="63"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="85"/>
       <c r="H37" s="63"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="201"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="40"/>
       <c r="K37" s="202"/>
-      <c r="L37" s="202"/>
+      <c r="L37" s="203"/>
       <c r="M37" s="203"/>
-      <c r="N37" s="60"/>
+      <c r="N37" s="204"/>
       <c r="O37" s="60"/>
-      <c r="P37" s="77"/>
-      <c r="Q37" s="76"/>
-      <c r="R37" s="89"/>
-      <c r="S37" s="64"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="77"/>
+      <c r="R37" s="76"/>
+      <c r="S37" s="89"/>
       <c r="T37" s="64"/>
-    </row>
-    <row r="38" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U37" s="64"/>
+    </row>
+    <row r="38" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="33">
         <v>34</v>
       </c>
@@ -11331,23 +11364,24 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="63"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="85"/>
       <c r="H38" s="63"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="201"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="40"/>
       <c r="K38" s="202"/>
-      <c r="L38" s="202"/>
+      <c r="L38" s="203"/>
       <c r="M38" s="203"/>
-      <c r="N38" s="60"/>
+      <c r="N38" s="204"/>
       <c r="O38" s="60"/>
-      <c r="P38" s="77"/>
-      <c r="Q38" s="76"/>
-      <c r="R38" s="89"/>
-      <c r="S38" s="64"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="77"/>
+      <c r="R38" s="76"/>
+      <c r="S38" s="89"/>
       <c r="T38" s="64"/>
-    </row>
-    <row r="39" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U38" s="64"/>
+    </row>
+    <row r="39" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="33">
         <v>35</v>
       </c>
@@ -11355,23 +11389,24 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="63"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="85"/>
       <c r="H39" s="63"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="201"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="40"/>
       <c r="K39" s="202"/>
-      <c r="L39" s="202"/>
+      <c r="L39" s="203"/>
       <c r="M39" s="203"/>
-      <c r="N39" s="60"/>
+      <c r="N39" s="204"/>
       <c r="O39" s="60"/>
-      <c r="P39" s="77"/>
-      <c r="Q39" s="76"/>
-      <c r="R39" s="89"/>
-      <c r="S39" s="64"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="77"/>
+      <c r="R39" s="76"/>
+      <c r="S39" s="89"/>
       <c r="T39" s="64"/>
-    </row>
-    <row r="40" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U39" s="64"/>
+    </row>
+    <row r="40" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A40" s="33">
         <v>36</v>
       </c>
@@ -11379,23 +11414,24 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="63"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="85"/>
       <c r="H40" s="63"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="201"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="40"/>
       <c r="K40" s="202"/>
-      <c r="L40" s="202"/>
+      <c r="L40" s="203"/>
       <c r="M40" s="203"/>
-      <c r="N40" s="75"/>
+      <c r="N40" s="204"/>
       <c r="O40" s="75"/>
-      <c r="P40" s="77"/>
-      <c r="Q40" s="76"/>
-      <c r="R40" s="89"/>
-      <c r="S40" s="64"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="77"/>
+      <c r="R40" s="76"/>
+      <c r="S40" s="89"/>
       <c r="T40" s="64"/>
-    </row>
-    <row r="41" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U40" s="64"/>
+    </row>
+    <row r="41" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A41" s="33">
         <v>37</v>
       </c>
@@ -11403,23 +11439,24 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="63"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="85"/>
       <c r="H41" s="63"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="201"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="40"/>
       <c r="K41" s="202"/>
-      <c r="L41" s="202"/>
+      <c r="L41" s="203"/>
       <c r="M41" s="203"/>
-      <c r="N41" s="75"/>
+      <c r="N41" s="204"/>
       <c r="O41" s="75"/>
-      <c r="P41" s="77"/>
-      <c r="Q41" s="76"/>
-      <c r="R41" s="89"/>
-      <c r="S41" s="64"/>
+      <c r="P41" s="75"/>
+      <c r="Q41" s="77"/>
+      <c r="R41" s="76"/>
+      <c r="S41" s="89"/>
       <c r="T41" s="64"/>
-    </row>
-    <row r="42" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U41" s="64"/>
+    </row>
+    <row r="42" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="33">
         <v>38</v>
       </c>
@@ -11427,23 +11464,24 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="63"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="85"/>
       <c r="H42" s="63"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="201"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="40"/>
       <c r="K42" s="202"/>
-      <c r="L42" s="202"/>
+      <c r="L42" s="203"/>
       <c r="M42" s="203"/>
-      <c r="N42" s="75"/>
+      <c r="N42" s="204"/>
       <c r="O42" s="75"/>
-      <c r="P42" s="77"/>
-      <c r="Q42" s="76"/>
-      <c r="R42" s="89"/>
-      <c r="S42" s="64"/>
+      <c r="P42" s="75"/>
+      <c r="Q42" s="77"/>
+      <c r="R42" s="76"/>
+      <c r="S42" s="89"/>
       <c r="T42" s="64"/>
-    </row>
-    <row r="43" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U42" s="64"/>
+    </row>
+    <row r="43" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A43" s="33">
         <v>39</v>
       </c>
@@ -11451,23 +11489,24 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="63"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="85"/>
       <c r="H43" s="63"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="201"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="40"/>
       <c r="K43" s="202"/>
-      <c r="L43" s="202"/>
+      <c r="L43" s="203"/>
       <c r="M43" s="203"/>
-      <c r="N43" s="75"/>
+      <c r="N43" s="204"/>
       <c r="O43" s="75"/>
-      <c r="P43" s="77"/>
-      <c r="Q43" s="76"/>
-      <c r="R43" s="89"/>
-      <c r="S43" s="64"/>
+      <c r="P43" s="75"/>
+      <c r="Q43" s="77"/>
+      <c r="R43" s="76"/>
+      <c r="S43" s="89"/>
       <c r="T43" s="64"/>
-    </row>
-    <row r="44" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U43" s="64"/>
+    </row>
+    <row r="44" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A44" s="33">
         <v>40</v>
       </c>
@@ -11475,23 +11514,24 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="63"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="85"/>
       <c r="H44" s="63"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="201"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="40"/>
       <c r="K44" s="202"/>
-      <c r="L44" s="202"/>
+      <c r="L44" s="203"/>
       <c r="M44" s="203"/>
-      <c r="N44" s="75"/>
+      <c r="N44" s="204"/>
       <c r="O44" s="75"/>
-      <c r="P44" s="77"/>
-      <c r="Q44" s="76"/>
-      <c r="R44" s="89"/>
-      <c r="S44" s="64"/>
+      <c r="P44" s="75"/>
+      <c r="Q44" s="77"/>
+      <c r="R44" s="76"/>
+      <c r="S44" s="89"/>
       <c r="T44" s="64"/>
-    </row>
-    <row r="45" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U44" s="64"/>
+    </row>
+    <row r="45" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="33">
         <v>41</v>
       </c>
@@ -11499,23 +11539,24 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="63"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="85"/>
       <c r="H45" s="63"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="201"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="40"/>
       <c r="K45" s="202"/>
-      <c r="L45" s="202"/>
+      <c r="L45" s="203"/>
       <c r="M45" s="203"/>
-      <c r="N45" s="75"/>
+      <c r="N45" s="204"/>
       <c r="O45" s="75"/>
-      <c r="P45" s="77"/>
-      <c r="Q45" s="76"/>
-      <c r="R45" s="89"/>
-      <c r="S45" s="64"/>
+      <c r="P45" s="75"/>
+      <c r="Q45" s="77"/>
+      <c r="R45" s="76"/>
+      <c r="S45" s="89"/>
       <c r="T45" s="64"/>
-    </row>
-    <row r="46" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U45" s="64"/>
+    </row>
+    <row r="46" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A46" s="33">
         <v>42</v>
       </c>
@@ -11523,23 +11564,24 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="63"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="85"/>
       <c r="H46" s="63"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="201"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="40"/>
       <c r="K46" s="202"/>
-      <c r="L46" s="202"/>
+      <c r="L46" s="203"/>
       <c r="M46" s="203"/>
-      <c r="N46" s="75"/>
+      <c r="N46" s="204"/>
       <c r="O46" s="75"/>
-      <c r="P46" s="77"/>
-      <c r="Q46" s="76"/>
-      <c r="R46" s="89"/>
-      <c r="S46" s="64"/>
+      <c r="P46" s="75"/>
+      <c r="Q46" s="77"/>
+      <c r="R46" s="76"/>
+      <c r="S46" s="89"/>
       <c r="T46" s="64"/>
-    </row>
-    <row r="47" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U46" s="64"/>
+    </row>
+    <row r="47" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A47" s="33">
         <v>43</v>
       </c>
@@ -11547,23 +11589,24 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="63"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="85"/>
       <c r="H47" s="63"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="201"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="40"/>
       <c r="K47" s="202"/>
-      <c r="L47" s="202"/>
+      <c r="L47" s="203"/>
       <c r="M47" s="203"/>
-      <c r="N47" s="75"/>
+      <c r="N47" s="204"/>
       <c r="O47" s="75"/>
-      <c r="P47" s="77"/>
-      <c r="Q47" s="76"/>
-      <c r="R47" s="89"/>
-      <c r="S47" s="64"/>
+      <c r="P47" s="75"/>
+      <c r="Q47" s="77"/>
+      <c r="R47" s="76"/>
+      <c r="S47" s="89"/>
       <c r="T47" s="64"/>
-    </row>
-    <row r="48" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U47" s="64"/>
+    </row>
+    <row r="48" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A48" s="33">
         <v>44</v>
       </c>
@@ -11571,23 +11614,24 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="63"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="85"/>
       <c r="H48" s="63"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="201"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="40"/>
       <c r="K48" s="202"/>
-      <c r="L48" s="202"/>
+      <c r="L48" s="203"/>
       <c r="M48" s="203"/>
-      <c r="N48" s="75"/>
+      <c r="N48" s="204"/>
       <c r="O48" s="75"/>
-      <c r="P48" s="77"/>
-      <c r="Q48" s="76"/>
-      <c r="R48" s="89"/>
-      <c r="S48" s="64"/>
+      <c r="P48" s="75"/>
+      <c r="Q48" s="77"/>
+      <c r="R48" s="76"/>
+      <c r="S48" s="89"/>
       <c r="T48" s="64"/>
-    </row>
-    <row r="49" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U48" s="64"/>
+    </row>
+    <row r="49" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A49" s="33">
         <v>45</v>
       </c>
@@ -11595,23 +11639,24 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="63"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="85"/>
       <c r="H49" s="63"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="201"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="40"/>
       <c r="K49" s="202"/>
-      <c r="L49" s="202"/>
+      <c r="L49" s="203"/>
       <c r="M49" s="203"/>
-      <c r="N49" s="75"/>
+      <c r="N49" s="204"/>
       <c r="O49" s="75"/>
-      <c r="P49" s="77"/>
-      <c r="Q49" s="76"/>
-      <c r="R49" s="89"/>
-      <c r="S49" s="64"/>
+      <c r="P49" s="75"/>
+      <c r="Q49" s="77"/>
+      <c r="R49" s="76"/>
+      <c r="S49" s="89"/>
       <c r="T49" s="64"/>
-    </row>
-    <row r="50" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U49" s="64"/>
+    </row>
+    <row r="50" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A50" s="33">
         <v>46</v>
       </c>
@@ -11619,23 +11664,24 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="63"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="85"/>
       <c r="H50" s="63"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="201"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="40"/>
       <c r="K50" s="202"/>
-      <c r="L50" s="202"/>
+      <c r="L50" s="203"/>
       <c r="M50" s="203"/>
-      <c r="N50" s="75"/>
+      <c r="N50" s="204"/>
       <c r="O50" s="75"/>
-      <c r="P50" s="77"/>
-      <c r="Q50" s="76"/>
-      <c r="R50" s="89"/>
-      <c r="S50" s="64"/>
+      <c r="P50" s="75"/>
+      <c r="Q50" s="77"/>
+      <c r="R50" s="76"/>
+      <c r="S50" s="89"/>
       <c r="T50" s="64"/>
-    </row>
-    <row r="51" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U50" s="64"/>
+    </row>
+    <row r="51" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A51" s="33">
         <v>47</v>
       </c>
@@ -11643,23 +11689,24 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="63"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="85"/>
       <c r="H51" s="63"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="201"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="40"/>
       <c r="K51" s="202"/>
-      <c r="L51" s="202"/>
+      <c r="L51" s="203"/>
       <c r="M51" s="203"/>
-      <c r="N51" s="75"/>
+      <c r="N51" s="204"/>
       <c r="O51" s="75"/>
-      <c r="P51" s="77"/>
-      <c r="Q51" s="76"/>
-      <c r="R51" s="89"/>
-      <c r="S51" s="64"/>
+      <c r="P51" s="75"/>
+      <c r="Q51" s="77"/>
+      <c r="R51" s="76"/>
+      <c r="S51" s="89"/>
       <c r="T51" s="64"/>
-    </row>
-    <row r="52" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U51" s="64"/>
+    </row>
+    <row r="52" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A52" s="33">
         <v>48</v>
       </c>
@@ -11667,23 +11714,24 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="63"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="85"/>
       <c r="H52" s="63"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="201"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="40"/>
       <c r="K52" s="202"/>
-      <c r="L52" s="202"/>
+      <c r="L52" s="203"/>
       <c r="M52" s="203"/>
-      <c r="N52" s="75"/>
+      <c r="N52" s="204"/>
       <c r="O52" s="75"/>
-      <c r="P52" s="77"/>
-      <c r="Q52" s="76"/>
-      <c r="R52" s="89"/>
-      <c r="S52" s="64"/>
+      <c r="P52" s="75"/>
+      <c r="Q52" s="77"/>
+      <c r="R52" s="76"/>
+      <c r="S52" s="89"/>
       <c r="T52" s="64"/>
-    </row>
-    <row r="53" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U52" s="64"/>
+    </row>
+    <row r="53" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A53" s="33">
         <v>49</v>
       </c>
@@ -11691,23 +11739,24 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="63"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="85"/>
       <c r="H53" s="63"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="201"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="40"/>
       <c r="K53" s="202"/>
-      <c r="L53" s="202"/>
+      <c r="L53" s="203"/>
       <c r="M53" s="203"/>
-      <c r="N53" s="75"/>
+      <c r="N53" s="204"/>
       <c r="O53" s="75"/>
-      <c r="P53" s="77"/>
-      <c r="Q53" s="76"/>
-      <c r="R53" s="89"/>
-      <c r="S53" s="64"/>
+      <c r="P53" s="75"/>
+      <c r="Q53" s="77"/>
+      <c r="R53" s="76"/>
+      <c r="S53" s="89"/>
       <c r="T53" s="64"/>
-    </row>
-    <row r="54" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U53" s="64"/>
+    </row>
+    <row r="54" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A54" s="33">
         <v>50</v>
       </c>
@@ -11715,23 +11764,24 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="63"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="85"/>
       <c r="H54" s="63"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="201"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="40"/>
       <c r="K54" s="202"/>
-      <c r="L54" s="202"/>
+      <c r="L54" s="203"/>
       <c r="M54" s="203"/>
-      <c r="N54" s="75"/>
+      <c r="N54" s="204"/>
       <c r="O54" s="75"/>
-      <c r="P54" s="77"/>
-      <c r="Q54" s="76"/>
-      <c r="R54" s="89"/>
-      <c r="S54" s="64"/>
+      <c r="P54" s="75"/>
+      <c r="Q54" s="77"/>
+      <c r="R54" s="76"/>
+      <c r="S54" s="89"/>
       <c r="T54" s="64"/>
-    </row>
-    <row r="55" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U54" s="64"/>
+    </row>
+    <row r="55" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A55" s="33">
         <v>51</v>
       </c>
@@ -11739,23 +11789,24 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="63"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="85"/>
       <c r="H55" s="63"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="201"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="40"/>
       <c r="K55" s="202"/>
-      <c r="L55" s="202"/>
+      <c r="L55" s="203"/>
       <c r="M55" s="203"/>
-      <c r="N55" s="75"/>
+      <c r="N55" s="204"/>
       <c r="O55" s="75"/>
-      <c r="P55" s="77"/>
-      <c r="Q55" s="76"/>
-      <c r="R55" s="89"/>
-      <c r="S55" s="64"/>
+      <c r="P55" s="75"/>
+      <c r="Q55" s="77"/>
+      <c r="R55" s="76"/>
+      <c r="S55" s="89"/>
       <c r="T55" s="64"/>
-    </row>
-    <row r="56" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U55" s="64"/>
+    </row>
+    <row r="56" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A56" s="33">
         <v>52</v>
       </c>
@@ -11763,23 +11814,24 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="63"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="85"/>
       <c r="H56" s="63"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="201"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="40"/>
       <c r="K56" s="202"/>
-      <c r="L56" s="202"/>
+      <c r="L56" s="203"/>
       <c r="M56" s="203"/>
-      <c r="N56" s="75"/>
+      <c r="N56" s="204"/>
       <c r="O56" s="75"/>
-      <c r="P56" s="77"/>
-      <c r="Q56" s="76"/>
-      <c r="R56" s="89"/>
-      <c r="S56" s="64"/>
+      <c r="P56" s="75"/>
+      <c r="Q56" s="77"/>
+      <c r="R56" s="76"/>
+      <c r="S56" s="89"/>
       <c r="T56" s="64"/>
-    </row>
-    <row r="57" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U56" s="64"/>
+    </row>
+    <row r="57" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A57" s="33">
         <v>53</v>
       </c>
@@ -11787,23 +11839,24 @@
       <c r="C57" s="33"/>
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="63"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="85"/>
       <c r="H57" s="63"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="201"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="40"/>
       <c r="K57" s="202"/>
-      <c r="L57" s="202"/>
+      <c r="L57" s="203"/>
       <c r="M57" s="203"/>
-      <c r="N57" s="75"/>
+      <c r="N57" s="204"/>
       <c r="O57" s="75"/>
-      <c r="P57" s="77"/>
-      <c r="Q57" s="76"/>
-      <c r="R57" s="89"/>
-      <c r="S57" s="64"/>
+      <c r="P57" s="75"/>
+      <c r="Q57" s="77"/>
+      <c r="R57" s="76"/>
+      <c r="S57" s="89"/>
       <c r="T57" s="64"/>
-    </row>
-    <row r="58" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U57" s="64"/>
+    </row>
+    <row r="58" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A58" s="33">
         <v>54</v>
       </c>
@@ -11811,23 +11864,24 @@
       <c r="C58" s="33"/>
       <c r="D58" s="33"/>
       <c r="E58" s="33"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="63"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="85"/>
       <c r="H58" s="63"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="201"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="40"/>
       <c r="K58" s="202"/>
-      <c r="L58" s="202"/>
+      <c r="L58" s="203"/>
       <c r="M58" s="203"/>
-      <c r="N58" s="75"/>
+      <c r="N58" s="204"/>
       <c r="O58" s="75"/>
-      <c r="P58" s="77"/>
-      <c r="Q58" s="76"/>
-      <c r="R58" s="89"/>
-      <c r="S58" s="64"/>
+      <c r="P58" s="75"/>
+      <c r="Q58" s="77"/>
+      <c r="R58" s="76"/>
+      <c r="S58" s="89"/>
       <c r="T58" s="64"/>
-    </row>
-    <row r="59" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U58" s="64"/>
+    </row>
+    <row r="59" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A59" s="33">
         <v>55</v>
       </c>
@@ -11835,23 +11889,24 @@
       <c r="C59" s="33"/>
       <c r="D59" s="33"/>
       <c r="E59" s="33"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="63"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="85"/>
       <c r="H59" s="63"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="201"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="40"/>
       <c r="K59" s="202"/>
-      <c r="L59" s="202"/>
+      <c r="L59" s="203"/>
       <c r="M59" s="203"/>
-      <c r="N59" s="75"/>
+      <c r="N59" s="204"/>
       <c r="O59" s="75"/>
-      <c r="P59" s="77"/>
-      <c r="Q59" s="76"/>
-      <c r="R59" s="89"/>
-      <c r="S59" s="64"/>
+      <c r="P59" s="75"/>
+      <c r="Q59" s="77"/>
+      <c r="R59" s="76"/>
+      <c r="S59" s="89"/>
       <c r="T59" s="64"/>
-    </row>
-    <row r="60" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U59" s="64"/>
+    </row>
+    <row r="60" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A60" s="33">
         <v>56</v>
       </c>
@@ -11859,23 +11914,24 @@
       <c r="C60" s="33"/>
       <c r="D60" s="33"/>
       <c r="E60" s="33"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="63"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="85"/>
       <c r="H60" s="63"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="201"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="40"/>
       <c r="K60" s="202"/>
-      <c r="L60" s="202"/>
+      <c r="L60" s="203"/>
       <c r="M60" s="203"/>
-      <c r="N60" s="75"/>
+      <c r="N60" s="204"/>
       <c r="O60" s="75"/>
-      <c r="P60" s="77"/>
-      <c r="Q60" s="76"/>
-      <c r="R60" s="89"/>
-      <c r="S60" s="64"/>
+      <c r="P60" s="75"/>
+      <c r="Q60" s="77"/>
+      <c r="R60" s="76"/>
+      <c r="S60" s="89"/>
       <c r="T60" s="64"/>
-    </row>
-    <row r="61" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U60" s="64"/>
+    </row>
+    <row r="61" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A61" s="33">
         <v>57</v>
       </c>
@@ -11883,23 +11939,24 @@
       <c r="C61" s="33"/>
       <c r="D61" s="33"/>
       <c r="E61" s="33"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="63"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="85"/>
       <c r="H61" s="63"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="201"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="40"/>
       <c r="K61" s="202"/>
-      <c r="L61" s="202"/>
+      <c r="L61" s="203"/>
       <c r="M61" s="203"/>
-      <c r="N61" s="75"/>
+      <c r="N61" s="204"/>
       <c r="O61" s="75"/>
-      <c r="P61" s="77"/>
-      <c r="Q61" s="76"/>
-      <c r="R61" s="89"/>
-      <c r="S61" s="64"/>
+      <c r="P61" s="75"/>
+      <c r="Q61" s="77"/>
+      <c r="R61" s="76"/>
+      <c r="S61" s="89"/>
       <c r="T61" s="64"/>
-    </row>
-    <row r="62" spans="1:20" s="34" customFormat="1" ht="11.25">
+      <c r="U61" s="64"/>
+    </row>
+    <row r="62" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A62" s="33">
         <v>58</v>
       </c>
@@ -11907,23 +11964,24 @@
       <c r="C62" s="33"/>
       <c r="D62" s="33"/>
       <c r="E62" s="33"/>
-      <c r="F62" s="85"/>
-      <c r="G62" s="63"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="85"/>
       <c r="H62" s="63"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="201"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="40"/>
       <c r="K62" s="202"/>
-      <c r="L62" s="202"/>
+      <c r="L62" s="203"/>
       <c r="M62" s="203"/>
-      <c r="N62" s="85"/>
+      <c r="N62" s="204"/>
       <c r="O62" s="85"/>
-      <c r="P62" s="77"/>
-      <c r="Q62" s="76"/>
-      <c r="R62" s="89"/>
-      <c r="S62" s="64"/>
+      <c r="P62" s="85"/>
+      <c r="Q62" s="77"/>
+      <c r="R62" s="76"/>
+      <c r="S62" s="89"/>
       <c r="T62" s="64"/>
-    </row>
-    <row r="63" spans="1:20" s="34" customFormat="1" ht="11.25">
+      <c r="U62" s="64"/>
+    </row>
+    <row r="63" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A63" s="33">
         <v>59</v>
       </c>
@@ -11931,23 +11989,24 @@
       <c r="C63" s="33"/>
       <c r="D63" s="33"/>
       <c r="E63" s="33"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="63"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="85"/>
       <c r="H63" s="63"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="201"/>
+      <c r="I63" s="63"/>
+      <c r="J63" s="40"/>
       <c r="K63" s="202"/>
-      <c r="L63" s="202"/>
+      <c r="L63" s="203"/>
       <c r="M63" s="203"/>
-      <c r="N63" s="85"/>
+      <c r="N63" s="204"/>
       <c r="O63" s="85"/>
-      <c r="P63" s="77"/>
-      <c r="Q63" s="76"/>
-      <c r="R63" s="89"/>
-      <c r="S63" s="64"/>
+      <c r="P63" s="85"/>
+      <c r="Q63" s="77"/>
+      <c r="R63" s="76"/>
+      <c r="S63" s="89"/>
       <c r="T63" s="64"/>
-    </row>
-    <row r="64" spans="1:20" ht="11.25">
+      <c r="U63" s="64"/>
+    </row>
+    <row r="64" spans="1:21" ht="11.25">
       <c r="A64" s="33">
         <v>60</v>
       </c>
@@ -11955,21 +12014,22 @@
       <c r="C64" s="33"/>
       <c r="D64" s="33"/>
       <c r="E64" s="33"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="63"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="85"/>
       <c r="H64" s="63"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="201"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="40"/>
       <c r="K64" s="202"/>
-      <c r="L64" s="202"/>
+      <c r="L64" s="203"/>
       <c r="M64" s="203"/>
-      <c r="N64" s="85"/>
+      <c r="N64" s="204"/>
       <c r="O64" s="85"/>
-      <c r="P64" s="77"/>
-      <c r="Q64" s="76"/>
-      <c r="R64" s="89"/>
-    </row>
-    <row r="65" spans="1:18" ht="12" customHeight="1">
+      <c r="P64" s="85"/>
+      <c r="Q64" s="77"/>
+      <c r="R64" s="76"/>
+      <c r="S64" s="89"/>
+    </row>
+    <row r="65" spans="1:19" ht="12" customHeight="1">
       <c r="A65" s="33">
         <v>61</v>
       </c>
@@ -11977,21 +12037,22 @@
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
       <c r="E65" s="33"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="63"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="85"/>
       <c r="H65" s="63"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="201"/>
+      <c r="I65" s="63"/>
+      <c r="J65" s="40"/>
       <c r="K65" s="202"/>
-      <c r="L65" s="202"/>
+      <c r="L65" s="203"/>
       <c r="M65" s="203"/>
-      <c r="N65" s="85"/>
+      <c r="N65" s="204"/>
       <c r="O65" s="85"/>
-      <c r="P65" s="77"/>
-      <c r="Q65" s="76"/>
-      <c r="R65" s="89"/>
-    </row>
-    <row r="66" spans="1:18" ht="12" customHeight="1">
+      <c r="P65" s="85"/>
+      <c r="Q65" s="77"/>
+      <c r="R65" s="76"/>
+      <c r="S65" s="89"/>
+    </row>
+    <row r="66" spans="1:19" ht="12" customHeight="1">
       <c r="A66" s="33">
         <v>62</v>
       </c>
@@ -11999,21 +12060,22 @@
       <c r="C66" s="33"/>
       <c r="D66" s="33"/>
       <c r="E66" s="33"/>
-      <c r="F66" s="85"/>
-      <c r="G66" s="63"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="85"/>
       <c r="H66" s="63"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="201"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="40"/>
       <c r="K66" s="202"/>
-      <c r="L66" s="202"/>
+      <c r="L66" s="203"/>
       <c r="M66" s="203"/>
-      <c r="N66" s="85"/>
+      <c r="N66" s="204"/>
       <c r="O66" s="85"/>
-      <c r="P66" s="77"/>
-      <c r="Q66" s="76"/>
-      <c r="R66" s="89"/>
-    </row>
-    <row r="67" spans="1:18" ht="12" customHeight="1">
+      <c r="P66" s="85"/>
+      <c r="Q66" s="77"/>
+      <c r="R66" s="76"/>
+      <c r="S66" s="89"/>
+    </row>
+    <row r="67" spans="1:19" ht="12" customHeight="1">
       <c r="A67" s="33">
         <v>63</v>
       </c>
@@ -12021,21 +12083,22 @@
       <c r="C67" s="33"/>
       <c r="D67" s="33"/>
       <c r="E67" s="33"/>
-      <c r="F67" s="85"/>
-      <c r="G67" s="63"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="85"/>
       <c r="H67" s="63"/>
-      <c r="I67" s="40"/>
-      <c r="J67" s="201"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="40"/>
       <c r="K67" s="202"/>
-      <c r="L67" s="202"/>
+      <c r="L67" s="203"/>
       <c r="M67" s="203"/>
-      <c r="N67" s="85"/>
+      <c r="N67" s="204"/>
       <c r="O67" s="85"/>
-      <c r="P67" s="77"/>
-      <c r="Q67" s="76"/>
-      <c r="R67" s="89"/>
-    </row>
-    <row r="68" spans="1:18" ht="12" customHeight="1">
+      <c r="P67" s="85"/>
+      <c r="Q67" s="77"/>
+      <c r="R67" s="76"/>
+      <c r="S67" s="89"/>
+    </row>
+    <row r="68" spans="1:19" ht="12" customHeight="1">
       <c r="A68" s="33">
         <v>64</v>
       </c>
@@ -12043,21 +12106,22 @@
       <c r="C68" s="33"/>
       <c r="D68" s="33"/>
       <c r="E68" s="33"/>
-      <c r="F68" s="85"/>
-      <c r="G68" s="63"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="85"/>
       <c r="H68" s="63"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="201"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="40"/>
       <c r="K68" s="202"/>
-      <c r="L68" s="202"/>
+      <c r="L68" s="203"/>
       <c r="M68" s="203"/>
-      <c r="N68" s="85"/>
+      <c r="N68" s="204"/>
       <c r="O68" s="85"/>
-      <c r="P68" s="77"/>
-      <c r="Q68" s="76"/>
-      <c r="R68" s="89"/>
-    </row>
-    <row r="69" spans="1:18" ht="12" customHeight="1">
+      <c r="P68" s="85"/>
+      <c r="Q68" s="77"/>
+      <c r="R68" s="76"/>
+      <c r="S68" s="89"/>
+    </row>
+    <row r="69" spans="1:19" ht="12" customHeight="1">
       <c r="A69" s="33">
         <v>65</v>
       </c>
@@ -12065,21 +12129,22 @@
       <c r="C69" s="33"/>
       <c r="D69" s="33"/>
       <c r="E69" s="33"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="63"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="85"/>
       <c r="H69" s="63"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="201"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="40"/>
       <c r="K69" s="202"/>
-      <c r="L69" s="202"/>
+      <c r="L69" s="203"/>
       <c r="M69" s="203"/>
-      <c r="N69" s="85"/>
+      <c r="N69" s="204"/>
       <c r="O69" s="85"/>
-      <c r="P69" s="77"/>
-      <c r="Q69" s="76"/>
-      <c r="R69" s="89"/>
-    </row>
-    <row r="70" spans="1:18" ht="12" customHeight="1">
+      <c r="P69" s="85"/>
+      <c r="Q69" s="77"/>
+      <c r="R69" s="76"/>
+      <c r="S69" s="89"/>
+    </row>
+    <row r="70" spans="1:19" ht="12" customHeight="1">
       <c r="A70" s="33">
         <v>66</v>
       </c>
@@ -12087,21 +12152,22 @@
       <c r="C70" s="33"/>
       <c r="D70" s="33"/>
       <c r="E70" s="33"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="63"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="85"/>
       <c r="H70" s="63"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="201"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="40"/>
       <c r="K70" s="202"/>
-      <c r="L70" s="202"/>
+      <c r="L70" s="203"/>
       <c r="M70" s="203"/>
-      <c r="N70" s="85"/>
+      <c r="N70" s="204"/>
       <c r="O70" s="85"/>
-      <c r="P70" s="77"/>
-      <c r="Q70" s="76"/>
-      <c r="R70" s="89"/>
-    </row>
-    <row r="71" spans="1:18" ht="12" customHeight="1">
+      <c r="P70" s="85"/>
+      <c r="Q70" s="77"/>
+      <c r="R70" s="76"/>
+      <c r="S70" s="89"/>
+    </row>
+    <row r="71" spans="1:19" ht="12" customHeight="1">
       <c r="A71" s="33">
         <v>67</v>
       </c>
@@ -12109,21 +12175,22 @@
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
       <c r="E71" s="33"/>
-      <c r="F71" s="85"/>
-      <c r="G71" s="63"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="85"/>
       <c r="H71" s="63"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="201"/>
+      <c r="I71" s="63"/>
+      <c r="J71" s="40"/>
       <c r="K71" s="202"/>
-      <c r="L71" s="202"/>
+      <c r="L71" s="203"/>
       <c r="M71" s="203"/>
-      <c r="N71" s="85"/>
+      <c r="N71" s="204"/>
       <c r="O71" s="85"/>
-      <c r="P71" s="77"/>
-      <c r="Q71" s="76"/>
-      <c r="R71" s="89"/>
-    </row>
-    <row r="72" spans="1:18" ht="12" customHeight="1">
+      <c r="P71" s="85"/>
+      <c r="Q71" s="77"/>
+      <c r="R71" s="76"/>
+      <c r="S71" s="89"/>
+    </row>
+    <row r="72" spans="1:19" ht="12" customHeight="1">
       <c r="A72" s="33">
         <v>68</v>
       </c>
@@ -12131,21 +12198,22 @@
       <c r="C72" s="33"/>
       <c r="D72" s="33"/>
       <c r="E72" s="33"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="63"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="85"/>
       <c r="H72" s="63"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="201"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="40"/>
       <c r="K72" s="202"/>
-      <c r="L72" s="202"/>
+      <c r="L72" s="203"/>
       <c r="M72" s="203"/>
-      <c r="N72" s="85"/>
+      <c r="N72" s="204"/>
       <c r="O72" s="85"/>
-      <c r="P72" s="77"/>
-      <c r="Q72" s="76"/>
-      <c r="R72" s="89"/>
-    </row>
-    <row r="73" spans="1:18" ht="12" customHeight="1">
+      <c r="P72" s="85"/>
+      <c r="Q72" s="77"/>
+      <c r="R72" s="76"/>
+      <c r="S72" s="89"/>
+    </row>
+    <row r="73" spans="1:19" ht="12" customHeight="1">
       <c r="A73" s="33">
         <v>69</v>
       </c>
@@ -12153,21 +12221,22 @@
       <c r="C73" s="33"/>
       <c r="D73" s="33"/>
       <c r="E73" s="33"/>
-      <c r="F73" s="85"/>
-      <c r="G73" s="63"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="85"/>
       <c r="H73" s="63"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="201"/>
+      <c r="I73" s="63"/>
+      <c r="J73" s="40"/>
       <c r="K73" s="202"/>
-      <c r="L73" s="202"/>
+      <c r="L73" s="203"/>
       <c r="M73" s="203"/>
-      <c r="N73" s="85"/>
+      <c r="N73" s="204"/>
       <c r="O73" s="85"/>
-      <c r="P73" s="77"/>
-      <c r="Q73" s="76"/>
-      <c r="R73" s="89"/>
-    </row>
-    <row r="74" spans="1:18" ht="12" customHeight="1">
+      <c r="P73" s="85"/>
+      <c r="Q73" s="77"/>
+      <c r="R73" s="76"/>
+      <c r="S73" s="89"/>
+    </row>
+    <row r="74" spans="1:19" ht="12" customHeight="1">
       <c r="A74" s="33">
         <v>70</v>
       </c>
@@ -12175,21 +12244,22 @@
       <c r="C74" s="33"/>
       <c r="D74" s="33"/>
       <c r="E74" s="33"/>
-      <c r="F74" s="85"/>
-      <c r="G74" s="63"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="85"/>
       <c r="H74" s="63"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="201"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="40"/>
       <c r="K74" s="202"/>
-      <c r="L74" s="202"/>
+      <c r="L74" s="203"/>
       <c r="M74" s="203"/>
-      <c r="N74" s="85"/>
+      <c r="N74" s="204"/>
       <c r="O74" s="85"/>
-      <c r="P74" s="77"/>
-      <c r="Q74" s="76"/>
-      <c r="R74" s="89"/>
-    </row>
-    <row r="75" spans="1:18" ht="12" customHeight="1">
+      <c r="P74" s="85"/>
+      <c r="Q74" s="77"/>
+      <c r="R74" s="76"/>
+      <c r="S74" s="89"/>
+    </row>
+    <row r="75" spans="1:19" ht="12" customHeight="1">
       <c r="A75" s="33">
         <v>71</v>
       </c>
@@ -12197,21 +12267,22 @@
       <c r="C75" s="33"/>
       <c r="D75" s="33"/>
       <c r="E75" s="33"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="63"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="85"/>
       <c r="H75" s="63"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="201"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="40"/>
       <c r="K75" s="202"/>
-      <c r="L75" s="202"/>
+      <c r="L75" s="203"/>
       <c r="M75" s="203"/>
-      <c r="N75" s="85"/>
+      <c r="N75" s="204"/>
       <c r="O75" s="85"/>
-      <c r="P75" s="77"/>
-      <c r="Q75" s="76"/>
-      <c r="R75" s="89"/>
-    </row>
-    <row r="76" spans="1:18" ht="12" customHeight="1">
+      <c r="P75" s="85"/>
+      <c r="Q75" s="77"/>
+      <c r="R75" s="76"/>
+      <c r="S75" s="89"/>
+    </row>
+    <row r="76" spans="1:19" ht="12" customHeight="1">
       <c r="A76" s="33">
         <v>72</v>
       </c>
@@ -12219,21 +12290,22 @@
       <c r="C76" s="33"/>
       <c r="D76" s="33"/>
       <c r="E76" s="33"/>
-      <c r="F76" s="85"/>
-      <c r="G76" s="63"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="85"/>
       <c r="H76" s="63"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="201"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="40"/>
       <c r="K76" s="202"/>
-      <c r="L76" s="202"/>
+      <c r="L76" s="203"/>
       <c r="M76" s="203"/>
-      <c r="N76" s="85"/>
+      <c r="N76" s="204"/>
       <c r="O76" s="85"/>
-      <c r="P76" s="77"/>
-      <c r="Q76" s="76"/>
-      <c r="R76" s="89"/>
-    </row>
-    <row r="77" spans="1:18" ht="12" customHeight="1">
+      <c r="P76" s="85"/>
+      <c r="Q76" s="77"/>
+      <c r="R76" s="76"/>
+      <c r="S76" s="89"/>
+    </row>
+    <row r="77" spans="1:19" ht="12" customHeight="1">
       <c r="A77" s="33">
         <v>73</v>
       </c>
@@ -12241,21 +12313,22 @@
       <c r="C77" s="33"/>
       <c r="D77" s="33"/>
       <c r="E77" s="33"/>
-      <c r="F77" s="85"/>
-      <c r="G77" s="63"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="85"/>
       <c r="H77" s="63"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="201"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="40"/>
       <c r="K77" s="202"/>
-      <c r="L77" s="202"/>
+      <c r="L77" s="203"/>
       <c r="M77" s="203"/>
-      <c r="N77" s="85"/>
+      <c r="N77" s="204"/>
       <c r="O77" s="85"/>
-      <c r="P77" s="77"/>
-      <c r="Q77" s="76"/>
-      <c r="R77" s="89"/>
-    </row>
-    <row r="78" spans="1:18" ht="12" customHeight="1">
+      <c r="P77" s="85"/>
+      <c r="Q77" s="77"/>
+      <c r="R77" s="76"/>
+      <c r="S77" s="89"/>
+    </row>
+    <row r="78" spans="1:19" ht="12" customHeight="1">
       <c r="A78" s="33">
         <v>74</v>
       </c>
@@ -12263,21 +12336,22 @@
       <c r="C78" s="33"/>
       <c r="D78" s="33"/>
       <c r="E78" s="33"/>
-      <c r="F78" s="85"/>
-      <c r="G78" s="63"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="85"/>
       <c r="H78" s="63"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="201"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="40"/>
       <c r="K78" s="202"/>
-      <c r="L78" s="202"/>
+      <c r="L78" s="203"/>
       <c r="M78" s="203"/>
-      <c r="N78" s="85"/>
+      <c r="N78" s="204"/>
       <c r="O78" s="85"/>
-      <c r="P78" s="77"/>
-      <c r="Q78" s="76"/>
-      <c r="R78" s="89"/>
-    </row>
-    <row r="79" spans="1:18" ht="12" customHeight="1">
+      <c r="P78" s="85"/>
+      <c r="Q78" s="77"/>
+      <c r="R78" s="76"/>
+      <c r="S78" s="89"/>
+    </row>
+    <row r="79" spans="1:19" ht="12" customHeight="1">
       <c r="A79" s="33">
         <v>75</v>
       </c>
@@ -12285,21 +12359,22 @@
       <c r="C79" s="33"/>
       <c r="D79" s="33"/>
       <c r="E79" s="33"/>
-      <c r="F79" s="85"/>
-      <c r="G79" s="63"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="85"/>
       <c r="H79" s="63"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="201"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="40"/>
       <c r="K79" s="202"/>
-      <c r="L79" s="202"/>
+      <c r="L79" s="203"/>
       <c r="M79" s="203"/>
-      <c r="N79" s="85"/>
+      <c r="N79" s="204"/>
       <c r="O79" s="85"/>
-      <c r="P79" s="77"/>
-      <c r="Q79" s="76"/>
-      <c r="R79" s="89"/>
-    </row>
-    <row r="80" spans="1:18" ht="12" customHeight="1">
+      <c r="P79" s="85"/>
+      <c r="Q79" s="77"/>
+      <c r="R79" s="76"/>
+      <c r="S79" s="89"/>
+    </row>
+    <row r="80" spans="1:19" ht="12" customHeight="1">
       <c r="A80" s="33">
         <v>76</v>
       </c>
@@ -12307,21 +12382,22 @@
       <c r="C80" s="33"/>
       <c r="D80" s="33"/>
       <c r="E80" s="33"/>
-      <c r="F80" s="85"/>
-      <c r="G80" s="63"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="85"/>
       <c r="H80" s="63"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="201"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="40"/>
       <c r="K80" s="202"/>
-      <c r="L80" s="202"/>
+      <c r="L80" s="203"/>
       <c r="M80" s="203"/>
-      <c r="N80" s="85"/>
+      <c r="N80" s="204"/>
       <c r="O80" s="85"/>
-      <c r="P80" s="77"/>
-      <c r="Q80" s="76"/>
-      <c r="R80" s="89"/>
-    </row>
-    <row r="81" spans="1:18" ht="12" customHeight="1">
+      <c r="P80" s="85"/>
+      <c r="Q80" s="77"/>
+      <c r="R80" s="76"/>
+      <c r="S80" s="89"/>
+    </row>
+    <row r="81" spans="1:19" ht="12" customHeight="1">
       <c r="A81" s="33">
         <v>77</v>
       </c>
@@ -12329,21 +12405,22 @@
       <c r="C81" s="33"/>
       <c r="D81" s="33"/>
       <c r="E81" s="33"/>
-      <c r="F81" s="85"/>
-      <c r="G81" s="63"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="85"/>
       <c r="H81" s="63"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="201"/>
+      <c r="I81" s="63"/>
+      <c r="J81" s="40"/>
       <c r="K81" s="202"/>
-      <c r="L81" s="202"/>
+      <c r="L81" s="203"/>
       <c r="M81" s="203"/>
-      <c r="N81" s="85"/>
+      <c r="N81" s="204"/>
       <c r="O81" s="85"/>
-      <c r="P81" s="77"/>
-      <c r="Q81" s="76"/>
-      <c r="R81" s="89"/>
-    </row>
-    <row r="82" spans="1:18" ht="12" customHeight="1">
+      <c r="P81" s="85"/>
+      <c r="Q81" s="77"/>
+      <c r="R81" s="76"/>
+      <c r="S81" s="89"/>
+    </row>
+    <row r="82" spans="1:19" ht="12" customHeight="1">
       <c r="A82" s="33">
         <v>78</v>
       </c>
@@ -12351,21 +12428,22 @@
       <c r="C82" s="33"/>
       <c r="D82" s="33"/>
       <c r="E82" s="33"/>
-      <c r="F82" s="85"/>
-      <c r="G82" s="63"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="85"/>
       <c r="H82" s="63"/>
-      <c r="I82" s="40"/>
-      <c r="J82" s="201"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="40"/>
       <c r="K82" s="202"/>
-      <c r="L82" s="202"/>
+      <c r="L82" s="203"/>
       <c r="M82" s="203"/>
-      <c r="N82" s="85"/>
+      <c r="N82" s="204"/>
       <c r="O82" s="85"/>
-      <c r="P82" s="77"/>
-      <c r="Q82" s="76"/>
-      <c r="R82" s="89"/>
-    </row>
-    <row r="83" spans="1:18" ht="12" customHeight="1">
+      <c r="P82" s="85"/>
+      <c r="Q82" s="77"/>
+      <c r="R82" s="76"/>
+      <c r="S82" s="89"/>
+    </row>
+    <row r="83" spans="1:19" ht="12" customHeight="1">
       <c r="A83" s="33">
         <v>79</v>
       </c>
@@ -12373,21 +12451,22 @@
       <c r="C83" s="33"/>
       <c r="D83" s="33"/>
       <c r="E83" s="33"/>
-      <c r="F83" s="85"/>
-      <c r="G83" s="63"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="85"/>
       <c r="H83" s="63"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="201"/>
+      <c r="I83" s="63"/>
+      <c r="J83" s="40"/>
       <c r="K83" s="202"/>
-      <c r="L83" s="202"/>
+      <c r="L83" s="203"/>
       <c r="M83" s="203"/>
-      <c r="N83" s="85"/>
+      <c r="N83" s="204"/>
       <c r="O83" s="85"/>
-      <c r="P83" s="77"/>
-      <c r="Q83" s="76"/>
-      <c r="R83" s="89"/>
-    </row>
-    <row r="84" spans="1:18" ht="12" customHeight="1">
+      <c r="P83" s="85"/>
+      <c r="Q83" s="77"/>
+      <c r="R83" s="76"/>
+      <c r="S83" s="89"/>
+    </row>
+    <row r="84" spans="1:19" ht="12" customHeight="1">
       <c r="A84" s="33">
         <v>80</v>
       </c>
@@ -12395,21 +12474,22 @@
       <c r="C84" s="33"/>
       <c r="D84" s="33"/>
       <c r="E84" s="33"/>
-      <c r="F84" s="85"/>
-      <c r="G84" s="63"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="85"/>
       <c r="H84" s="63"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="201"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="40"/>
       <c r="K84" s="202"/>
-      <c r="L84" s="202"/>
+      <c r="L84" s="203"/>
       <c r="M84" s="203"/>
-      <c r="N84" s="85"/>
+      <c r="N84" s="204"/>
       <c r="O84" s="85"/>
-      <c r="P84" s="77"/>
-      <c r="Q84" s="76"/>
-      <c r="R84" s="89"/>
-    </row>
-    <row r="85" spans="1:18" ht="12" customHeight="1">
+      <c r="P84" s="85"/>
+      <c r="Q84" s="77"/>
+      <c r="R84" s="76"/>
+      <c r="S84" s="89"/>
+    </row>
+    <row r="85" spans="1:19" ht="12" customHeight="1">
       <c r="A85" s="33">
         <v>81</v>
       </c>
@@ -12417,21 +12497,22 @@
       <c r="C85" s="33"/>
       <c r="D85" s="33"/>
       <c r="E85" s="33"/>
-      <c r="F85" s="85"/>
-      <c r="G85" s="63"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="85"/>
       <c r="H85" s="63"/>
-      <c r="I85" s="40"/>
-      <c r="J85" s="201"/>
+      <c r="I85" s="63"/>
+      <c r="J85" s="40"/>
       <c r="K85" s="202"/>
-      <c r="L85" s="202"/>
+      <c r="L85" s="203"/>
       <c r="M85" s="203"/>
-      <c r="N85" s="85"/>
+      <c r="N85" s="204"/>
       <c r="O85" s="85"/>
-      <c r="P85" s="77"/>
-      <c r="Q85" s="76"/>
-      <c r="R85" s="89"/>
-    </row>
-    <row r="86" spans="1:18" ht="12" customHeight="1">
+      <c r="P85" s="85"/>
+      <c r="Q85" s="77"/>
+      <c r="R85" s="76"/>
+      <c r="S85" s="89"/>
+    </row>
+    <row r="86" spans="1:19" ht="12" customHeight="1">
       <c r="A86" s="33">
         <v>82</v>
       </c>
@@ -12439,21 +12520,22 @@
       <c r="C86" s="33"/>
       <c r="D86" s="33"/>
       <c r="E86" s="33"/>
-      <c r="F86" s="85"/>
-      <c r="G86" s="63"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="85"/>
       <c r="H86" s="63"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="201"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="40"/>
       <c r="K86" s="202"/>
-      <c r="L86" s="202"/>
+      <c r="L86" s="203"/>
       <c r="M86" s="203"/>
-      <c r="N86" s="85"/>
+      <c r="N86" s="204"/>
       <c r="O86" s="85"/>
-      <c r="P86" s="77"/>
-      <c r="Q86" s="76"/>
-      <c r="R86" s="89"/>
-    </row>
-    <row r="87" spans="1:18" ht="12" customHeight="1">
+      <c r="P86" s="85"/>
+      <c r="Q86" s="77"/>
+      <c r="R86" s="76"/>
+      <c r="S86" s="89"/>
+    </row>
+    <row r="87" spans="1:19" ht="12" customHeight="1">
       <c r="A87" s="33">
         <v>83</v>
       </c>
@@ -12461,21 +12543,22 @@
       <c r="C87" s="33"/>
       <c r="D87" s="33"/>
       <c r="E87" s="33"/>
-      <c r="F87" s="85"/>
-      <c r="G87" s="63"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="85"/>
       <c r="H87" s="63"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="201"/>
+      <c r="I87" s="63"/>
+      <c r="J87" s="40"/>
       <c r="K87" s="202"/>
-      <c r="L87" s="202"/>
+      <c r="L87" s="203"/>
       <c r="M87" s="203"/>
-      <c r="N87" s="85"/>
+      <c r="N87" s="204"/>
       <c r="O87" s="85"/>
-      <c r="P87" s="77"/>
-      <c r="Q87" s="76"/>
-      <c r="R87" s="89"/>
-    </row>
-    <row r="88" spans="1:18" ht="12" customHeight="1">
+      <c r="P87" s="85"/>
+      <c r="Q87" s="77"/>
+      <c r="R87" s="76"/>
+      <c r="S87" s="89"/>
+    </row>
+    <row r="88" spans="1:19" ht="12" customHeight="1">
       <c r="A88" s="33">
         <v>84</v>
       </c>
@@ -12483,21 +12566,22 @@
       <c r="C88" s="33"/>
       <c r="D88" s="33"/>
       <c r="E88" s="33"/>
-      <c r="F88" s="85"/>
-      <c r="G88" s="63"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="85"/>
       <c r="H88" s="63"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="201"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="40"/>
       <c r="K88" s="202"/>
-      <c r="L88" s="202"/>
+      <c r="L88" s="203"/>
       <c r="M88" s="203"/>
-      <c r="N88" s="85"/>
+      <c r="N88" s="204"/>
       <c r="O88" s="85"/>
-      <c r="P88" s="77"/>
-      <c r="Q88" s="76"/>
-      <c r="R88" s="89"/>
-    </row>
-    <row r="89" spans="1:18" ht="12" customHeight="1">
+      <c r="P88" s="85"/>
+      <c r="Q88" s="77"/>
+      <c r="R88" s="76"/>
+      <c r="S88" s="89"/>
+    </row>
+    <row r="89" spans="1:19" ht="12" customHeight="1">
       <c r="A89" s="33">
         <v>85</v>
       </c>
@@ -12505,21 +12589,22 @@
       <c r="C89" s="33"/>
       <c r="D89" s="33"/>
       <c r="E89" s="33"/>
-      <c r="F89" s="85"/>
-      <c r="G89" s="63"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="85"/>
       <c r="H89" s="63"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="201"/>
+      <c r="I89" s="63"/>
+      <c r="J89" s="40"/>
       <c r="K89" s="202"/>
-      <c r="L89" s="202"/>
+      <c r="L89" s="203"/>
       <c r="M89" s="203"/>
-      <c r="N89" s="85"/>
+      <c r="N89" s="204"/>
       <c r="O89" s="85"/>
-      <c r="P89" s="77"/>
-      <c r="Q89" s="76"/>
-      <c r="R89" s="89"/>
-    </row>
-    <row r="90" spans="1:18" ht="12" customHeight="1">
+      <c r="P89" s="85"/>
+      <c r="Q89" s="77"/>
+      <c r="R89" s="76"/>
+      <c r="S89" s="89"/>
+    </row>
+    <row r="90" spans="1:19" ht="12" customHeight="1">
       <c r="A90" s="33">
         <v>86</v>
       </c>
@@ -12527,21 +12612,22 @@
       <c r="C90" s="33"/>
       <c r="D90" s="33"/>
       <c r="E90" s="33"/>
-      <c r="F90" s="85"/>
-      <c r="G90" s="63"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="85"/>
       <c r="H90" s="63"/>
-      <c r="I90" s="40"/>
-      <c r="J90" s="201"/>
+      <c r="I90" s="63"/>
+      <c r="J90" s="40"/>
       <c r="K90" s="202"/>
-      <c r="L90" s="202"/>
+      <c r="L90" s="203"/>
       <c r="M90" s="203"/>
-      <c r="N90" s="85"/>
+      <c r="N90" s="204"/>
       <c r="O90" s="85"/>
-      <c r="P90" s="77"/>
-      <c r="Q90" s="76"/>
-      <c r="R90" s="89"/>
-    </row>
-    <row r="91" spans="1:18" ht="12" customHeight="1">
+      <c r="P90" s="85"/>
+      <c r="Q90" s="77"/>
+      <c r="R90" s="76"/>
+      <c r="S90" s="89"/>
+    </row>
+    <row r="91" spans="1:19" ht="12" customHeight="1">
       <c r="A91" s="33">
         <v>87</v>
       </c>
@@ -12549,21 +12635,22 @@
       <c r="C91" s="33"/>
       <c r="D91" s="33"/>
       <c r="E91" s="33"/>
-      <c r="F91" s="85"/>
-      <c r="G91" s="63"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="85"/>
       <c r="H91" s="63"/>
-      <c r="I91" s="40"/>
-      <c r="J91" s="201"/>
+      <c r="I91" s="63"/>
+      <c r="J91" s="40"/>
       <c r="K91" s="202"/>
-      <c r="L91" s="202"/>
+      <c r="L91" s="203"/>
       <c r="M91" s="203"/>
-      <c r="N91" s="85"/>
+      <c r="N91" s="204"/>
       <c r="O91" s="85"/>
-      <c r="P91" s="77"/>
-      <c r="Q91" s="76"/>
-      <c r="R91" s="89"/>
-    </row>
-    <row r="92" spans="1:18" ht="12" customHeight="1">
+      <c r="P91" s="85"/>
+      <c r="Q91" s="77"/>
+      <c r="R91" s="76"/>
+      <c r="S91" s="89"/>
+    </row>
+    <row r="92" spans="1:19" ht="12" customHeight="1">
       <c r="A92" s="33">
         <v>88</v>
       </c>
@@ -12571,21 +12658,22 @@
       <c r="C92" s="33"/>
       <c r="D92" s="33"/>
       <c r="E92" s="33"/>
-      <c r="F92" s="85"/>
-      <c r="G92" s="63"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="85"/>
       <c r="H92" s="63"/>
-      <c r="I92" s="40"/>
-      <c r="J92" s="201"/>
+      <c r="I92" s="63"/>
+      <c r="J92" s="40"/>
       <c r="K92" s="202"/>
-      <c r="L92" s="202"/>
+      <c r="L92" s="203"/>
       <c r="M92" s="203"/>
-      <c r="N92" s="85"/>
+      <c r="N92" s="204"/>
       <c r="O92" s="85"/>
-      <c r="P92" s="77"/>
-      <c r="Q92" s="76"/>
-      <c r="R92" s="89"/>
-    </row>
-    <row r="93" spans="1:18" ht="12" customHeight="1">
+      <c r="P92" s="85"/>
+      <c r="Q92" s="77"/>
+      <c r="R92" s="76"/>
+      <c r="S92" s="89"/>
+    </row>
+    <row r="93" spans="1:19" ht="12" customHeight="1">
       <c r="A93" s="33">
         <v>89</v>
       </c>
@@ -12593,21 +12681,22 @@
       <c r="C93" s="33"/>
       <c r="D93" s="33"/>
       <c r="E93" s="33"/>
-      <c r="F93" s="85"/>
-      <c r="G93" s="63"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="85"/>
       <c r="H93" s="63"/>
-      <c r="I93" s="40"/>
-      <c r="J93" s="201"/>
+      <c r="I93" s="63"/>
+      <c r="J93" s="40"/>
       <c r="K93" s="202"/>
-      <c r="L93" s="202"/>
+      <c r="L93" s="203"/>
       <c r="M93" s="203"/>
-      <c r="N93" s="85"/>
+      <c r="N93" s="204"/>
       <c r="O93" s="85"/>
-      <c r="P93" s="77"/>
-      <c r="Q93" s="76"/>
-      <c r="R93" s="89"/>
-    </row>
-    <row r="94" spans="1:18" ht="12" customHeight="1">
+      <c r="P93" s="85"/>
+      <c r="Q93" s="77"/>
+      <c r="R93" s="76"/>
+      <c r="S93" s="89"/>
+    </row>
+    <row r="94" spans="1:19" ht="12" customHeight="1">
       <c r="A94" s="33">
         <v>90</v>
       </c>
@@ -12615,132 +12704,133 @@
       <c r="C94" s="33"/>
       <c r="D94" s="33"/>
       <c r="E94" s="33"/>
-      <c r="F94" s="85"/>
-      <c r="G94" s="63"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="85"/>
       <c r="H94" s="63"/>
-      <c r="I94" s="40"/>
-      <c r="J94" s="201"/>
+      <c r="I94" s="63"/>
+      <c r="J94" s="40"/>
       <c r="K94" s="202"/>
-      <c r="L94" s="202"/>
+      <c r="L94" s="203"/>
       <c r="M94" s="203"/>
-      <c r="N94" s="85"/>
+      <c r="N94" s="204"/>
       <c r="O94" s="85"/>
-      <c r="P94" s="77"/>
-      <c r="Q94" s="76"/>
-      <c r="R94" s="89"/>
-    </row>
-    <row r="1048467" spans="16:16" ht="12" customHeight="1">
-      <c r="P1048467" s="77"/>
+      <c r="P94" s="85"/>
+      <c r="Q94" s="77"/>
+      <c r="R94" s="76"/>
+      <c r="S94" s="89"/>
+    </row>
+    <row r="1048467" spans="17:17" ht="12" customHeight="1">
+      <c r="Q1048467" s="77"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="96">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="J93:M93"/>
-    <mergeCell ref="J94:M94"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="J80:M80"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="J82:M82"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="J85:M85"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="R10:R13"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="J91:M91"/>
-    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="S10:S13"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="P1048467:P1048576 P5:P94"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G94">
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H94">
       <formula1>"Select,Insert,Update,Delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I94">
       <formula1>"SQL Script, ID SQL, ID Store, ID Function, ID Trigger"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:Q94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R94">
       <formula1>"Load,Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12759,8 +12849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -12867,7 +12957,9 @@
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
+      <c r="B6" s="43" t="s">
+        <v>226</v>
+      </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMR30101_Bao cao KH moi theo nhan vien.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMR30101_Bao cao KH moi theo nhan vien.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -2060,21 +2060,42 @@
     <t>CustomizeIndex</t>
   </si>
   <si>
-    <t xml:space="preserve">@DivisionID @DivisionIDList  @FromDate @ToDate   @IsDate 
-@Period  
-@FromAccountID @ToAccountID 
-@FromEmployeeID@ToEmployeeID @UserID
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biến môi trường @@DivisionIDList  @@FromDate @@ToDate   @@IsDate 
-@@Period 
-@@FromAccountID @@ToAccountID
-@@FromEmployeeID @@ToEmployeeID Biến môi trường
-</t>
-  </si>
-  <si>
     <t>Click BttnPrint</t>
+  </si>
+  <si>
+    <t>Menu [Báo cáo]
+ -&gt; page[Báo cáo biểu đồ_CRMF3000] 
+-&gt; Click vào Link Báo cáo KH mới theo nhân viên 
+-&gt;Pop [Báo cáo khách hàng mới theo nhân viên_CRMF3010]
+-&gt; In
+-&gt; [Tab]Báo cáo khách hàng mới theo nhân viên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Từ ngày </t>
+  </si>
+  <si>
+    <t>Đến ngày</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>ToDate</t>
+  </si>
+  <si>
+    <t>Danh sách lưới</t>
+  </si>
+  <si>
+    <t>ID Store</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách khách hàng mới theo nhân viên để người dùng xem trước khi In</t>
+  </si>
+  <si>
+    <t>Thực thi @SQL0001 để để mở tab để load  báo cáo Khách hàng mới theo nhân viên_CRMR30101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control này được truyền từ CRMF3010 </t>
   </si>
   <si>
     <t xml:space="preserve">EXEC CRMP30101(
@@ -2082,8 +2103,6 @@
   @DivisionIDList    NVARCHAR(2000), 
   @FromDate         DATETIME,
   @ToDate           DATETIME,
-  @IsDate           TINYINT, 
-@Period  NVarchar(Max),
 @FromAccountID       Varchar(50),
   @ToAccountID         Varchar(50),
   @FromEmployeeID           Varchar(50),
@@ -2092,39 +2111,16 @@
 </t>
   </si>
   <si>
-    <t>Menu [Báo cáo]
- -&gt; page[Báo cáo biểu đồ_CRMF3000] 
--&gt; Click vào Link Báo cáo KH mới theo nhân viên 
--&gt;Pop [Báo cáo khách hàng mới theo nhân viên_CRMF3010]
--&gt; In
--&gt; [Tab]Báo cáo khách hàng mới theo nhân viên</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Từ ngày </t>
-  </si>
-  <si>
-    <t>Đến ngày</t>
-  </si>
-  <si>
-    <t>FromDate</t>
-  </si>
-  <si>
-    <t>ToDate</t>
-  </si>
-  <si>
-    <t>Danh sách lưới</t>
-  </si>
-  <si>
-    <t>ID Store</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách khách hàng mới theo nhân viên để người dùng xem trước khi In</t>
-  </si>
-  <si>
-    <t>Thực thi @SQL0001 để để mở tab để load  báo cáo Khách hàng mới theo nhân viên_CRMR30101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control này được truyền từ CRMF3010 </t>
+    <t xml:space="preserve">@DivisionID @DivisionIDList  @FromDate @ToDate    
+@FromAccountID @ToAccountID 
+@FromEmployeeID@ToEmployeeID @UserID
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biến môi trường @@DivisionIDList  @@FromDate @@ToDate   
+@@FromAccountID @@ToAccountID
+@@FromEmployeeID @@ToEmployeeID Biến môi trường
+</t>
   </si>
 </sst>
 </file>
@@ -2989,111 +2985,111 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3176,6 +3172,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3187,15 +3192,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3205,6 +3201,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3213,9 +3212,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4206,65 +4202,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="147"/>
-      <c r="B1" s="147"/>
-      <c r="C1" s="149" t="s">
+      <c r="A1" s="141"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="143" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="148" t="s">
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="142" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148" t="s">
+      <c r="H1" s="142"/>
+      <c r="I1" s="142" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="148"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="148" t="s">
+      <c r="A2" s="141"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="142" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="147"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="144" t="s">
+      <c r="A3" s="141"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="145"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="145"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="139"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="119"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="146"/>
-      <c r="B13" s="146"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="146"/>
+      <c r="A13" s="140"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
       <c r="K13" s="120"/>
       <c r="L13" s="120"/>
       <c r="M13" s="120"/>
@@ -4275,56 +4271,56 @@
       <c r="R13" s="120"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="140"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="140"/>
-      <c r="L14" s="140"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="140"/>
-      <c r="O14" s="140"/>
-      <c r="P14" s="140"/>
-      <c r="Q14" s="140"/>
-      <c r="R14" s="140"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="136"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="140"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="140"/>
-      <c r="L15" s="140"/>
-      <c r="M15" s="140"/>
-      <c r="N15" s="140"/>
-      <c r="O15" s="140"/>
-      <c r="P15" s="140"/>
-      <c r="Q15" s="140"/>
-      <c r="R15" s="140"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="136"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="143" t="s">
+      <c r="A16" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="143"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="143"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
       <c r="K16" s="121"/>
       <c r="L16" s="121"/>
       <c r="M16" s="121"/>
@@ -4335,384 +4331,384 @@
       <c r="R16" s="121"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="140"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="140"/>
-      <c r="K17" s="140"/>
-      <c r="L17" s="140"/>
-      <c r="M17" s="140"/>
-      <c r="N17" s="140"/>
-      <c r="O17" s="140"/>
-      <c r="P17" s="140"/>
-      <c r="Q17" s="140"/>
-      <c r="R17" s="140"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="136"/>
+      <c r="Q17" s="136"/>
+      <c r="R17" s="136"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="140"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="140"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="140"/>
-      <c r="N18" s="140"/>
-      <c r="O18" s="140"/>
-      <c r="P18" s="140"/>
-      <c r="Q18" s="140"/>
-      <c r="R18" s="140"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="136"/>
+      <c r="Q18" s="136"/>
+      <c r="R18" s="136"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="142"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="142"/>
-      <c r="M19" s="142"/>
-      <c r="N19" s="142"/>
-      <c r="O19" s="142"/>
-      <c r="P19" s="142"/>
-      <c r="Q19" s="142"/>
-      <c r="R19" s="142"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="153"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="140"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="140"/>
-      <c r="L20" s="140"/>
-      <c r="M20" s="140"/>
-      <c r="N20" s="140"/>
-      <c r="O20" s="140"/>
-      <c r="P20" s="140"/>
-      <c r="Q20" s="140"/>
-      <c r="R20" s="140"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="136"/>
+      <c r="Q20" s="136"/>
+      <c r="R20" s="136"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="140"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="140"/>
-      <c r="L21" s="140"/>
-      <c r="M21" s="140"/>
-      <c r="N21" s="140"/>
-      <c r="O21" s="140"/>
-      <c r="P21" s="140"/>
-      <c r="Q21" s="140"/>
-      <c r="R21" s="140"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="136"/>
+      <c r="Q21" s="136"/>
+      <c r="R21" s="136"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="141"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="141"/>
-      <c r="N22" s="141"/>
-      <c r="O22" s="141"/>
-      <c r="P22" s="141"/>
-      <c r="Q22" s="141"/>
-      <c r="R22" s="141"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="152"/>
+      <c r="M22" s="152"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="152"/>
+      <c r="R22" s="152"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="141"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="141"/>
-      <c r="O23" s="141"/>
-      <c r="P23" s="141"/>
-      <c r="Q23" s="141"/>
-      <c r="R23" s="141"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="152"/>
+      <c r="Q23" s="152"/>
+      <c r="R23" s="152"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="138"/>
-      <c r="K26" s="138"/>
-      <c r="L26" s="138"/>
-      <c r="M26" s="138"/>
-      <c r="N26" s="138"/>
-      <c r="O26" s="138"/>
-      <c r="P26" s="138"/>
-      <c r="Q26" s="138"/>
-      <c r="R26" s="138"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="154"/>
+      <c r="N26" s="154"/>
+      <c r="O26" s="154"/>
+      <c r="P26" s="154"/>
+      <c r="Q26" s="154"/>
+      <c r="R26" s="154"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="139"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="139"/>
-      <c r="K28" s="139"/>
-      <c r="L28" s="139"/>
-      <c r="M28" s="139"/>
-      <c r="N28" s="139"/>
-      <c r="O28" s="139"/>
-      <c r="P28" s="139"/>
-      <c r="Q28" s="139"/>
-      <c r="R28" s="139"/>
-      <c r="S28" s="137"/>
-      <c r="T28" s="137"/>
-      <c r="U28" s="137"/>
-      <c r="V28" s="137"/>
-      <c r="W28" s="137"/>
-      <c r="X28" s="137"/>
-      <c r="Y28" s="137"/>
-      <c r="Z28" s="137"/>
-      <c r="AA28" s="137"/>
-      <c r="AB28" s="137"/>
-      <c r="AC28" s="137"/>
-      <c r="AD28" s="137"/>
-      <c r="AE28" s="137"/>
-      <c r="AF28" s="137"/>
-      <c r="AG28" s="137"/>
-      <c r="AH28" s="137"/>
-      <c r="AI28" s="137"/>
-      <c r="AJ28" s="137"/>
-      <c r="AK28" s="137"/>
-      <c r="AL28" s="137"/>
-      <c r="AM28" s="137"/>
-      <c r="AN28" s="137"/>
-      <c r="AO28" s="137"/>
-      <c r="AP28" s="137"/>
-      <c r="AQ28" s="137"/>
-      <c r="AR28" s="137"/>
-      <c r="AS28" s="137"/>
-      <c r="AT28" s="137"/>
-      <c r="AU28" s="137"/>
-      <c r="AV28" s="137"/>
-      <c r="AW28" s="137"/>
-      <c r="AX28" s="137"/>
-      <c r="AY28" s="137"/>
-      <c r="AZ28" s="137"/>
-      <c r="BA28" s="137"/>
-      <c r="BB28" s="137"/>
-      <c r="BC28" s="137"/>
-      <c r="BD28" s="137"/>
-      <c r="BE28" s="137"/>
-      <c r="BF28" s="137"/>
-      <c r="BG28" s="137"/>
-      <c r="BH28" s="137"/>
-      <c r="BI28" s="137"/>
-      <c r="BJ28" s="137"/>
-      <c r="BK28" s="137"/>
-      <c r="BL28" s="137"/>
-      <c r="BM28" s="137"/>
-      <c r="BN28" s="137"/>
-      <c r="BO28" s="137"/>
-      <c r="BP28" s="137"/>
-      <c r="BQ28" s="137"/>
-      <c r="BR28" s="137"/>
-      <c r="BS28" s="137"/>
-      <c r="BT28" s="137"/>
-      <c r="BU28" s="137"/>
-      <c r="BV28" s="137"/>
-      <c r="BW28" s="137"/>
-      <c r="BX28" s="137"/>
-      <c r="BY28" s="137"/>
-      <c r="BZ28" s="137"/>
-      <c r="CA28" s="137"/>
-      <c r="CB28" s="137"/>
-      <c r="CC28" s="137"/>
-      <c r="CD28" s="137"/>
-      <c r="CE28" s="137"/>
-      <c r="CF28" s="137"/>
-      <c r="CG28" s="137"/>
-      <c r="CH28" s="137"/>
-      <c r="CI28" s="137"/>
-      <c r="CJ28" s="137"/>
-      <c r="CK28" s="137"/>
-      <c r="CL28" s="137"/>
-      <c r="CM28" s="137"/>
-      <c r="CN28" s="137"/>
-      <c r="CO28" s="137"/>
-      <c r="CP28" s="137"/>
-      <c r="CQ28" s="137"/>
-      <c r="CR28" s="137"/>
-      <c r="CS28" s="137"/>
-      <c r="CT28" s="137"/>
-      <c r="CU28" s="137"/>
-      <c r="CV28" s="137"/>
-      <c r="CW28" s="137"/>
-      <c r="CX28" s="137"/>
-      <c r="CY28" s="137"/>
-      <c r="CZ28" s="137"/>
-      <c r="DA28" s="137"/>
-      <c r="DB28" s="137"/>
-      <c r="DC28" s="137"/>
-      <c r="DD28" s="137"/>
-      <c r="DE28" s="137"/>
-      <c r="DF28" s="137"/>
-      <c r="DG28" s="137"/>
-      <c r="DH28" s="137"/>
-      <c r="DI28" s="137"/>
-      <c r="DJ28" s="137"/>
-      <c r="DK28" s="137"/>
-      <c r="DL28" s="137"/>
-      <c r="DM28" s="137"/>
-      <c r="DN28" s="137"/>
-      <c r="DO28" s="137"/>
-      <c r="DP28" s="137"/>
-      <c r="DQ28" s="137"/>
-      <c r="DR28" s="137"/>
-      <c r="DS28" s="137"/>
-      <c r="DT28" s="137"/>
-      <c r="DU28" s="137"/>
-      <c r="DV28" s="137"/>
-      <c r="DW28" s="137"/>
-      <c r="DX28" s="137"/>
-      <c r="DY28" s="137"/>
-      <c r="DZ28" s="137"/>
-      <c r="EA28" s="137"/>
-      <c r="EB28" s="137"/>
-      <c r="EC28" s="137"/>
-      <c r="ED28" s="137"/>
-      <c r="EE28" s="137"/>
-      <c r="EF28" s="137"/>
-      <c r="EG28" s="137"/>
-      <c r="EH28" s="137"/>
-      <c r="EI28" s="137"/>
-      <c r="EJ28" s="137"/>
-      <c r="EK28" s="137"/>
-      <c r="EL28" s="137"/>
-      <c r="EM28" s="137"/>
-      <c r="EN28" s="137"/>
-      <c r="EO28" s="137"/>
-      <c r="EP28" s="137"/>
-      <c r="EQ28" s="137"/>
-      <c r="ER28" s="137"/>
-      <c r="ES28" s="137"/>
-      <c r="ET28" s="137"/>
-      <c r="EU28" s="137"/>
-      <c r="EV28" s="137"/>
-      <c r="EW28" s="137"/>
-      <c r="EX28" s="137"/>
-      <c r="EY28" s="137"/>
-      <c r="EZ28" s="137"/>
-      <c r="FA28" s="137"/>
-      <c r="FB28" s="137"/>
-      <c r="FC28" s="137"/>
-      <c r="FD28" s="137"/>
-      <c r="FE28" s="137"/>
-      <c r="FF28" s="137"/>
-      <c r="FG28" s="137"/>
-      <c r="FH28" s="137"/>
-      <c r="FI28" s="137"/>
-      <c r="FJ28" s="137"/>
-      <c r="FK28" s="137"/>
-      <c r="FL28" s="137"/>
-      <c r="FM28" s="137"/>
-      <c r="FN28" s="137"/>
-      <c r="FO28" s="137"/>
-      <c r="FP28" s="137"/>
-      <c r="FQ28" s="137"/>
-      <c r="FR28" s="137"/>
-      <c r="FS28" s="137"/>
-      <c r="FT28" s="137"/>
-      <c r="FU28" s="137"/>
-      <c r="FV28" s="137"/>
-      <c r="FW28" s="137"/>
-      <c r="FX28" s="137"/>
-      <c r="FY28" s="137"/>
-      <c r="FZ28" s="137"/>
-      <c r="GA28" s="137"/>
-      <c r="GB28" s="137"/>
-      <c r="GC28" s="137"/>
-      <c r="GD28" s="137"/>
-      <c r="GE28" s="137"/>
-      <c r="GF28" s="137"/>
-      <c r="GG28" s="137"/>
-      <c r="GH28" s="137"/>
-      <c r="GI28" s="137"/>
-      <c r="GJ28" s="137"/>
-      <c r="GK28" s="137"/>
-      <c r="GL28" s="137"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="156"/>
+      <c r="O28" s="156"/>
+      <c r="P28" s="156"/>
+      <c r="Q28" s="156"/>
+      <c r="R28" s="156"/>
+      <c r="S28" s="155"/>
+      <c r="T28" s="155"/>
+      <c r="U28" s="155"/>
+      <c r="V28" s="155"/>
+      <c r="W28" s="155"/>
+      <c r="X28" s="155"/>
+      <c r="Y28" s="155"/>
+      <c r="Z28" s="155"/>
+      <c r="AA28" s="155"/>
+      <c r="AB28" s="155"/>
+      <c r="AC28" s="155"/>
+      <c r="AD28" s="155"/>
+      <c r="AE28" s="155"/>
+      <c r="AF28" s="155"/>
+      <c r="AG28" s="155"/>
+      <c r="AH28" s="155"/>
+      <c r="AI28" s="155"/>
+      <c r="AJ28" s="155"/>
+      <c r="AK28" s="155"/>
+      <c r="AL28" s="155"/>
+      <c r="AM28" s="155"/>
+      <c r="AN28" s="155"/>
+      <c r="AO28" s="155"/>
+      <c r="AP28" s="155"/>
+      <c r="AQ28" s="155"/>
+      <c r="AR28" s="155"/>
+      <c r="AS28" s="155"/>
+      <c r="AT28" s="155"/>
+      <c r="AU28" s="155"/>
+      <c r="AV28" s="155"/>
+      <c r="AW28" s="155"/>
+      <c r="AX28" s="155"/>
+      <c r="AY28" s="155"/>
+      <c r="AZ28" s="155"/>
+      <c r="BA28" s="155"/>
+      <c r="BB28" s="155"/>
+      <c r="BC28" s="155"/>
+      <c r="BD28" s="155"/>
+      <c r="BE28" s="155"/>
+      <c r="BF28" s="155"/>
+      <c r="BG28" s="155"/>
+      <c r="BH28" s="155"/>
+      <c r="BI28" s="155"/>
+      <c r="BJ28" s="155"/>
+      <c r="BK28" s="155"/>
+      <c r="BL28" s="155"/>
+      <c r="BM28" s="155"/>
+      <c r="BN28" s="155"/>
+      <c r="BO28" s="155"/>
+      <c r="BP28" s="155"/>
+      <c r="BQ28" s="155"/>
+      <c r="BR28" s="155"/>
+      <c r="BS28" s="155"/>
+      <c r="BT28" s="155"/>
+      <c r="BU28" s="155"/>
+      <c r="BV28" s="155"/>
+      <c r="BW28" s="155"/>
+      <c r="BX28" s="155"/>
+      <c r="BY28" s="155"/>
+      <c r="BZ28" s="155"/>
+      <c r="CA28" s="155"/>
+      <c r="CB28" s="155"/>
+      <c r="CC28" s="155"/>
+      <c r="CD28" s="155"/>
+      <c r="CE28" s="155"/>
+      <c r="CF28" s="155"/>
+      <c r="CG28" s="155"/>
+      <c r="CH28" s="155"/>
+      <c r="CI28" s="155"/>
+      <c r="CJ28" s="155"/>
+      <c r="CK28" s="155"/>
+      <c r="CL28" s="155"/>
+      <c r="CM28" s="155"/>
+      <c r="CN28" s="155"/>
+      <c r="CO28" s="155"/>
+      <c r="CP28" s="155"/>
+      <c r="CQ28" s="155"/>
+      <c r="CR28" s="155"/>
+      <c r="CS28" s="155"/>
+      <c r="CT28" s="155"/>
+      <c r="CU28" s="155"/>
+      <c r="CV28" s="155"/>
+      <c r="CW28" s="155"/>
+      <c r="CX28" s="155"/>
+      <c r="CY28" s="155"/>
+      <c r="CZ28" s="155"/>
+      <c r="DA28" s="155"/>
+      <c r="DB28" s="155"/>
+      <c r="DC28" s="155"/>
+      <c r="DD28" s="155"/>
+      <c r="DE28" s="155"/>
+      <c r="DF28" s="155"/>
+      <c r="DG28" s="155"/>
+      <c r="DH28" s="155"/>
+      <c r="DI28" s="155"/>
+      <c r="DJ28" s="155"/>
+      <c r="DK28" s="155"/>
+      <c r="DL28" s="155"/>
+      <c r="DM28" s="155"/>
+      <c r="DN28" s="155"/>
+      <c r="DO28" s="155"/>
+      <c r="DP28" s="155"/>
+      <c r="DQ28" s="155"/>
+      <c r="DR28" s="155"/>
+      <c r="DS28" s="155"/>
+      <c r="DT28" s="155"/>
+      <c r="DU28" s="155"/>
+      <c r="DV28" s="155"/>
+      <c r="DW28" s="155"/>
+      <c r="DX28" s="155"/>
+      <c r="DY28" s="155"/>
+      <c r="DZ28" s="155"/>
+      <c r="EA28" s="155"/>
+      <c r="EB28" s="155"/>
+      <c r="EC28" s="155"/>
+      <c r="ED28" s="155"/>
+      <c r="EE28" s="155"/>
+      <c r="EF28" s="155"/>
+      <c r="EG28" s="155"/>
+      <c r="EH28" s="155"/>
+      <c r="EI28" s="155"/>
+      <c r="EJ28" s="155"/>
+      <c r="EK28" s="155"/>
+      <c r="EL28" s="155"/>
+      <c r="EM28" s="155"/>
+      <c r="EN28" s="155"/>
+      <c r="EO28" s="155"/>
+      <c r="EP28" s="155"/>
+      <c r="EQ28" s="155"/>
+      <c r="ER28" s="155"/>
+      <c r="ES28" s="155"/>
+      <c r="ET28" s="155"/>
+      <c r="EU28" s="155"/>
+      <c r="EV28" s="155"/>
+      <c r="EW28" s="155"/>
+      <c r="EX28" s="155"/>
+      <c r="EY28" s="155"/>
+      <c r="EZ28" s="155"/>
+      <c r="FA28" s="155"/>
+      <c r="FB28" s="155"/>
+      <c r="FC28" s="155"/>
+      <c r="FD28" s="155"/>
+      <c r="FE28" s="155"/>
+      <c r="FF28" s="155"/>
+      <c r="FG28" s="155"/>
+      <c r="FH28" s="155"/>
+      <c r="FI28" s="155"/>
+      <c r="FJ28" s="155"/>
+      <c r="FK28" s="155"/>
+      <c r="FL28" s="155"/>
+      <c r="FM28" s="155"/>
+      <c r="FN28" s="155"/>
+      <c r="FO28" s="155"/>
+      <c r="FP28" s="155"/>
+      <c r="FQ28" s="155"/>
+      <c r="FR28" s="155"/>
+      <c r="FS28" s="155"/>
+      <c r="FT28" s="155"/>
+      <c r="FU28" s="155"/>
+      <c r="FV28" s="155"/>
+      <c r="FW28" s="155"/>
+      <c r="FX28" s="155"/>
+      <c r="FY28" s="155"/>
+      <c r="FZ28" s="155"/>
+      <c r="GA28" s="155"/>
+      <c r="GB28" s="155"/>
+      <c r="GC28" s="155"/>
+      <c r="GD28" s="155"/>
+      <c r="GE28" s="155"/>
+      <c r="GF28" s="155"/>
+      <c r="GG28" s="155"/>
+      <c r="GH28" s="155"/>
+      <c r="GI28" s="155"/>
+      <c r="GJ28" s="155"/>
+      <c r="GK28" s="155"/>
+      <c r="GL28" s="155"/>
       <c r="GM28" s="122"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="138"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="138"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="138"/>
-      <c r="K29" s="138"/>
-      <c r="L29" s="138"/>
-      <c r="M29" s="138"/>
-      <c r="N29" s="138"/>
-      <c r="O29" s="138"/>
-      <c r="P29" s="138"/>
-      <c r="Q29" s="138"/>
-      <c r="R29" s="138"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="154"/>
+      <c r="O29" s="154"/>
+      <c r="P29" s="154"/>
+      <c r="Q29" s="154"/>
+      <c r="R29" s="154"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="136"/>
-      <c r="B30" s="136"/>
-      <c r="C30" s="136"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="136"/>
+      <c r="A30" s="157"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="157"/>
       <c r="K30" s="123"/>
       <c r="L30" s="123"/>
       <c r="M30" s="123"/>
@@ -4723,16 +4719,16 @@
       <c r="R30" s="123"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="136"/>
-      <c r="B31" s="136"/>
-      <c r="C31" s="136"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="136"/>
+      <c r="A31" s="157"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="157"/>
       <c r="K31" s="123"/>
       <c r="L31" s="123"/>
       <c r="M31" s="123"/>
@@ -4744,6 +4740,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4757,28 +4775,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5333,10 +5329,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5363,8 +5359,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5406,14 +5402,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="166" t="s">
+      <c r="E4" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
       <c r="A5" s="40">
@@ -5428,14 +5424,14 @@
       <c r="D5" s="102" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="167" t="s">
+      <c r="E5" s="166" t="s">
         <v>209</v>
       </c>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
-      <c r="J5" s="158"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="92">
@@ -5462,12 +5458,12 @@
       </c>
       <c r="C7" s="80"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="161"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="160"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="94">
@@ -5478,12 +5474,12 @@
       </c>
       <c r="C8" s="80"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="164"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="163"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="95">
@@ -5494,12 +5490,12 @@
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="161"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="160"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="96">
@@ -5510,12 +5506,12 @@
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="161"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="160"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="97">
@@ -5526,12 +5522,12 @@
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="161"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="160"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="98">
@@ -5542,12 +5538,12 @@
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="161"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="160"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="99">
@@ -5558,12 +5554,12 @@
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="161"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="160"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="100">
@@ -5574,12 +5570,12 @@
       </c>
       <c r="C14" s="80"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="161"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="160"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5590,12 +5586,12 @@
       </c>
       <c r="C15" s="80"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="158"/>
-      <c r="J15" s="158"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="167"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="92">
@@ -5606,12 +5602,12 @@
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="167"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="93">
@@ -5622,12 +5618,12 @@
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="158"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="167"/>
+      <c r="I17" s="167"/>
+      <c r="J17" s="167"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="94">
@@ -5638,12 +5634,12 @@
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="167"/>
+      <c r="I18" s="167"/>
+      <c r="J18" s="167"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="95">
@@ -5654,12 +5650,12 @@
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="167"/>
+      <c r="H19" s="167"/>
+      <c r="I19" s="167"/>
+      <c r="J19" s="167"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="96">
@@ -5670,12 +5666,12 @@
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="158"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="167"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="167"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="97">
@@ -5686,12 +5682,12 @@
       </c>
       <c r="C21" s="80"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="158"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="167"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="98">
@@ -5702,12 +5698,12 @@
       </c>
       <c r="C22" s="80"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="158"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="167"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="99">
@@ -5718,12 +5714,12 @@
       </c>
       <c r="C23" s="80"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="158"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="167"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="100">
@@ -5734,12 +5730,12 @@
       </c>
       <c r="C24" s="80"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="158"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="167"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5750,12 +5746,12 @@
       </c>
       <c r="C25" s="80"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="158"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="167"/>
+      <c r="H25" s="167"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="167"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5766,12 +5762,12 @@
       </c>
       <c r="C26" s="80"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="158"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="167"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="92">
@@ -5782,12 +5778,12 @@
       </c>
       <c r="C27" s="80"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="158"/>
-      <c r="J27" s="158"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="167"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="93">
@@ -5798,12 +5794,12 @@
       </c>
       <c r="C28" s="80"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="158"/>
-      <c r="I28" s="158"/>
-      <c r="J28" s="158"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="167"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="94">
@@ -5814,12 +5810,12 @@
       </c>
       <c r="C29" s="80"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="158"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="167"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="95">
@@ -5830,12 +5826,12 @@
       </c>
       <c r="C30" s="80"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="158"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="167"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="96">
@@ -5846,12 +5842,12 @@
       </c>
       <c r="C31" s="80"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="158"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="167"/>
+      <c r="H31" s="167"/>
+      <c r="I31" s="167"/>
+      <c r="J31" s="167"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="97">
@@ -5862,12 +5858,12 @@
       </c>
       <c r="C32" s="80"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="158"/>
-      <c r="J32" s="158"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="167"/>
+      <c r="J32" s="167"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="98">
@@ -5878,12 +5874,12 @@
       </c>
       <c r="C33" s="80"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="158"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="167"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="167"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="99">
@@ -5894,12 +5890,12 @@
       </c>
       <c r="C34" s="80"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="158"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="167"/>
+      <c r="G34" s="167"/>
+      <c r="H34" s="167"/>
+      <c r="I34" s="167"/>
+      <c r="J34" s="167"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="100">
@@ -5910,12 +5906,12 @@
       </c>
       <c r="C35" s="80"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="158"/>
-      <c r="I35" s="158"/>
-      <c r="J35" s="158"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="167"/>
+      <c r="H35" s="167"/>
+      <c r="I35" s="167"/>
+      <c r="J35" s="167"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -5926,12 +5922,12 @@
       </c>
       <c r="C36" s="80"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="158"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="158"/>
-      <c r="I36" s="158"/>
-      <c r="J36" s="158"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="167"/>
+      <c r="H36" s="167"/>
+      <c r="I36" s="167"/>
+      <c r="J36" s="167"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="92">
@@ -5942,12 +5938,12 @@
       </c>
       <c r="C37" s="80"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="158"/>
-      <c r="I37" s="158"/>
-      <c r="J37" s="158"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="167"/>
+      <c r="G37" s="167"/>
+      <c r="H37" s="167"/>
+      <c r="I37" s="167"/>
+      <c r="J37" s="167"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="93">
@@ -5958,12 +5954,12 @@
       </c>
       <c r="C38" s="80"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="158"/>
-      <c r="I38" s="158"/>
-      <c r="J38" s="158"/>
+      <c r="E38" s="167"/>
+      <c r="F38" s="167"/>
+      <c r="G38" s="167"/>
+      <c r="H38" s="167"/>
+      <c r="I38" s="167"/>
+      <c r="J38" s="167"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="94">
@@ -5974,12 +5970,12 @@
       </c>
       <c r="C39" s="80"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="158"/>
-      <c r="I39" s="158"/>
-      <c r="J39" s="158"/>
+      <c r="E39" s="167"/>
+      <c r="F39" s="167"/>
+      <c r="G39" s="167"/>
+      <c r="H39" s="167"/>
+      <c r="I39" s="167"/>
+      <c r="J39" s="167"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="95">
@@ -5990,12 +5986,12 @@
       </c>
       <c r="C40" s="80"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="158"/>
-      <c r="F40" s="158"/>
-      <c r="G40" s="158"/>
-      <c r="H40" s="158"/>
-      <c r="I40" s="158"/>
-      <c r="J40" s="158"/>
+      <c r="E40" s="167"/>
+      <c r="F40" s="167"/>
+      <c r="G40" s="167"/>
+      <c r="H40" s="167"/>
+      <c r="I40" s="167"/>
+      <c r="J40" s="167"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="96">
@@ -6006,12 +6002,12 @@
       </c>
       <c r="C41" s="80"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="158"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="158"/>
-      <c r="H41" s="158"/>
-      <c r="I41" s="158"/>
-      <c r="J41" s="158"/>
+      <c r="E41" s="167"/>
+      <c r="F41" s="167"/>
+      <c r="G41" s="167"/>
+      <c r="H41" s="167"/>
+      <c r="I41" s="167"/>
+      <c r="J41" s="167"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="97">
@@ -6022,23 +6018,32 @@
       </c>
       <c r="C42" s="80"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="158"/>
-      <c r="F42" s="158"/>
-      <c r="G42" s="158"/>
-      <c r="H42" s="158"/>
-      <c r="I42" s="158"/>
-      <c r="J42" s="158"/>
+      <c r="E42" s="167"/>
+      <c r="F42" s="167"/>
+      <c r="G42" s="167"/>
+      <c r="H42" s="167"/>
+      <c r="I42" s="167"/>
+      <c r="J42" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6054,23 +6059,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6115,10 +6111,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6148,8 +6144,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6292,7 +6288,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
       <c r="I12" s="174" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J12" s="175"/>
     </row>
@@ -6723,7 +6719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -6752,13 +6748,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6790,11 +6786,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6990,7 +6986,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F8" s="89"/>
       <c r="G8" s="128"/>
@@ -7438,10 +7434,10 @@
         <v>5</v>
       </c>
       <c r="E20" s="59" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F20" s="89" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G20" s="85"/>
       <c r="H20" s="40"/>
@@ -7453,7 +7449,7 @@
       <c r="N20" s="40"/>
       <c r="O20" s="84"/>
       <c r="P20" s="89" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -7470,10 +7466,10 @@
         <v>6</v>
       </c>
       <c r="E21" s="59" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F21" s="89" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G21" s="89"/>
       <c r="H21" s="40"/>
@@ -7484,8 +7480,8 @@
       <c r="M21" s="40"/>
       <c r="N21" s="40"/>
       <c r="O21" s="70"/>
-      <c r="P21" s="134" t="s">
-        <v>224</v>
+      <c r="P21" s="133" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -9175,7 +9171,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="200" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="126"/>
@@ -9210,7 +9206,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="198"/>
+      <c r="A2" s="201"/>
       <c r="B2" s="127"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -9258,15 +9254,15 @@
       <c r="E4" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="165" t="s">
+      <c r="F4" s="164" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165" t="s">
+      <c r="G4" s="164"/>
+      <c r="H4" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="25.5" customHeight="1">
       <c r="A5" s="33">
@@ -9276,11 +9272,11 @@
       <c r="C5" s="33"/>
       <c r="D5" s="130"/>
       <c r="E5" s="32"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="196"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="200"/>
-      <c r="J5" s="201"/>
+      <c r="F5" s="198"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="195"/>
+      <c r="I5" s="196"/>
+      <c r="J5" s="197"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -9290,11 +9286,11 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="200"/>
-      <c r="J6" s="201"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="199"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="197"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9304,11 +9300,11 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="195"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="199"/>
-      <c r="I7" s="200"/>
-      <c r="J7" s="201"/>
+      <c r="F7" s="198"/>
+      <c r="G7" s="199"/>
+      <c r="H7" s="195"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="197"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9318,11 +9314,11 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="195"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="199"/>
-      <c r="I8" s="200"/>
-      <c r="J8" s="201"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="199"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="197"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9332,11 +9328,11 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="199"/>
-      <c r="I9" s="200"/>
-      <c r="J9" s="201"/>
+      <c r="F9" s="198"/>
+      <c r="G9" s="199"/>
+      <c r="H9" s="195"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="197"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9346,11 +9342,11 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="195"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="199"/>
-      <c r="I10" s="200"/>
-      <c r="J10" s="201"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="199"/>
+      <c r="H10" s="195"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="197"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9360,11 +9356,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="195"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="199"/>
-      <c r="I11" s="200"/>
-      <c r="J11" s="201"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="199"/>
+      <c r="H11" s="195"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="197"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9374,11 +9370,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="195"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="199"/>
-      <c r="I12" s="200"/>
-      <c r="J12" s="201"/>
+      <c r="F12" s="198"/>
+      <c r="G12" s="199"/>
+      <c r="H12" s="195"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="197"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9388,11 +9384,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="195"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="199"/>
-      <c r="I13" s="200"/>
-      <c r="J13" s="201"/>
+      <c r="F13" s="198"/>
+      <c r="G13" s="199"/>
+      <c r="H13" s="195"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="197"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9402,11 +9398,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="195"/>
-      <c r="G14" s="196"/>
-      <c r="H14" s="199"/>
-      <c r="I14" s="200"/>
-      <c r="J14" s="201"/>
+      <c r="F14" s="198"/>
+      <c r="G14" s="199"/>
+      <c r="H14" s="195"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="197"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9416,11 +9412,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="195"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="199"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="201"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="199"/>
+      <c r="H15" s="195"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="197"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9430,11 +9426,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="195"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="200"/>
-      <c r="J16" s="201"/>
+      <c r="F16" s="198"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="197"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9444,11 +9440,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="195"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="201"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="195"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="197"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9458,11 +9454,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="195"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="200"/>
-      <c r="J18" s="201"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="195"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="197"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9472,11 +9468,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="195"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="199"/>
-      <c r="I19" s="200"/>
-      <c r="J19" s="201"/>
+      <c r="F19" s="198"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="195"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="197"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9486,11 +9482,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="195"/>
-      <c r="G20" s="196"/>
-      <c r="H20" s="199"/>
-      <c r="I20" s="200"/>
-      <c r="J20" s="201"/>
+      <c r="F20" s="198"/>
+      <c r="G20" s="199"/>
+      <c r="H20" s="195"/>
+      <c r="I20" s="196"/>
+      <c r="J20" s="197"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9500,11 +9496,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="195"/>
-      <c r="G21" s="196"/>
-      <c r="H21" s="199"/>
-      <c r="I21" s="200"/>
-      <c r="J21" s="201"/>
+      <c r="F21" s="198"/>
+      <c r="G21" s="199"/>
+      <c r="H21" s="195"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="197"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9514,11 +9510,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="199"/>
-      <c r="I22" s="200"/>
-      <c r="J22" s="201"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="195"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="197"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9528,11 +9524,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="199"/>
-      <c r="I23" s="200"/>
-      <c r="J23" s="201"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="195"/>
+      <c r="I23" s="196"/>
+      <c r="J23" s="197"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9542,11 +9538,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="199"/>
-      <c r="I24" s="200"/>
-      <c r="J24" s="201"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="195"/>
+      <c r="I24" s="196"/>
+      <c r="J24" s="197"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9556,11 +9552,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="199"/>
-      <c r="I25" s="200"/>
-      <c r="J25" s="201"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="195"/>
+      <c r="I25" s="196"/>
+      <c r="J25" s="197"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9570,11 +9566,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="199"/>
-      <c r="I26" s="200"/>
-      <c r="J26" s="201"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="195"/>
+      <c r="I26" s="196"/>
+      <c r="J26" s="197"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9584,11 +9580,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="199"/>
-      <c r="I27" s="200"/>
-      <c r="J27" s="201"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="195"/>
+      <c r="I27" s="196"/>
+      <c r="J27" s="197"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9598,11 +9594,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="199"/>
-      <c r="I28" s="200"/>
-      <c r="J28" s="201"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="195"/>
+      <c r="I28" s="196"/>
+      <c r="J28" s="197"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9612,11 +9608,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="199"/>
-      <c r="I29" s="200"/>
-      <c r="J29" s="201"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="195"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="197"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9626,11 +9622,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="199"/>
-      <c r="I30" s="200"/>
-      <c r="J30" s="201"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="195"/>
+      <c r="I30" s="196"/>
+      <c r="J30" s="197"/>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9640,11 +9636,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="199"/>
-      <c r="I31" s="200"/>
-      <c r="J31" s="201"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="195"/>
+      <c r="I31" s="196"/>
+      <c r="J31" s="197"/>
     </row>
     <row r="32" spans="1:18" ht="11.25">
       <c r="A32" s="33">
@@ -9654,11 +9650,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="199"/>
-      <c r="I32" s="200"/>
-      <c r="J32" s="201"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="195"/>
+      <c r="I32" s="196"/>
+      <c r="J32" s="197"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -9675,11 +9671,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="161"/>
-      <c r="H33" s="199"/>
-      <c r="I33" s="200"/>
-      <c r="J33" s="201"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="195"/>
+      <c r="I33" s="196"/>
+      <c r="J33" s="197"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -9696,11 +9692,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="159"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="199"/>
-      <c r="I34" s="200"/>
-      <c r="J34" s="201"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="195"/>
+      <c r="I34" s="196"/>
+      <c r="J34" s="197"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -9717,11 +9713,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="161"/>
-      <c r="H35" s="199"/>
-      <c r="I35" s="200"/>
-      <c r="J35" s="201"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="195"/>
+      <c r="I35" s="196"/>
+      <c r="J35" s="197"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -9738,11 +9734,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="199"/>
-      <c r="I36" s="200"/>
-      <c r="J36" s="201"/>
+      <c r="F36" s="158"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="195"/>
+      <c r="I36" s="196"/>
+      <c r="J36" s="197"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -9759,11 +9755,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="159"/>
-      <c r="G37" s="161"/>
-      <c r="H37" s="199"/>
-      <c r="I37" s="200"/>
-      <c r="J37" s="201"/>
+      <c r="F37" s="158"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="195"/>
+      <c r="I37" s="196"/>
+      <c r="J37" s="197"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -9780,11 +9776,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="159"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="199"/>
-      <c r="I38" s="200"/>
-      <c r="J38" s="201"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="195"/>
+      <c r="I38" s="196"/>
+      <c r="J38" s="197"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -9801,11 +9797,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="159"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="199"/>
-      <c r="I39" s="200"/>
-      <c r="J39" s="201"/>
+      <c r="F39" s="158"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="195"/>
+      <c r="I39" s="196"/>
+      <c r="J39" s="197"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -9822,11 +9818,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="159"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="199"/>
-      <c r="I40" s="200"/>
-      <c r="J40" s="201"/>
+      <c r="F40" s="158"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="195"/>
+      <c r="I40" s="196"/>
+      <c r="J40" s="197"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -9843,11 +9839,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="159"/>
-      <c r="G41" s="161"/>
-      <c r="H41" s="199"/>
-      <c r="I41" s="200"/>
-      <c r="J41" s="201"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="195"/>
+      <c r="I41" s="196"/>
+      <c r="J41" s="197"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -9864,11 +9860,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="159"/>
-      <c r="G42" s="161"/>
-      <c r="H42" s="199"/>
-      <c r="I42" s="200"/>
-      <c r="J42" s="201"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="195"/>
+      <c r="I42" s="196"/>
+      <c r="J42" s="197"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -9885,11 +9881,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="159"/>
-      <c r="G43" s="161"/>
-      <c r="H43" s="199"/>
-      <c r="I43" s="200"/>
-      <c r="J43" s="201"/>
+      <c r="F43" s="158"/>
+      <c r="G43" s="160"/>
+      <c r="H43" s="195"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="197"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -9906,11 +9902,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="159"/>
-      <c r="G44" s="161"/>
-      <c r="H44" s="199"/>
-      <c r="I44" s="200"/>
-      <c r="J44" s="201"/>
+      <c r="F44" s="158"/>
+      <c r="G44" s="160"/>
+      <c r="H44" s="195"/>
+      <c r="I44" s="196"/>
+      <c r="J44" s="197"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -9927,11 +9923,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="159"/>
-      <c r="G45" s="161"/>
-      <c r="H45" s="199"/>
-      <c r="I45" s="200"/>
-      <c r="J45" s="201"/>
+      <c r="F45" s="158"/>
+      <c r="G45" s="160"/>
+      <c r="H45" s="195"/>
+      <c r="I45" s="196"/>
+      <c r="J45" s="197"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -9948,11 +9944,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="159"/>
-      <c r="G46" s="161"/>
-      <c r="H46" s="199"/>
-      <c r="I46" s="200"/>
-      <c r="J46" s="201"/>
+      <c r="F46" s="158"/>
+      <c r="G46" s="160"/>
+      <c r="H46" s="195"/>
+      <c r="I46" s="196"/>
+      <c r="J46" s="197"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -9969,11 +9965,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="159"/>
-      <c r="G47" s="161"/>
-      <c r="H47" s="199"/>
-      <c r="I47" s="200"/>
-      <c r="J47" s="201"/>
+      <c r="F47" s="158"/>
+      <c r="G47" s="160"/>
+      <c r="H47" s="195"/>
+      <c r="I47" s="196"/>
+      <c r="J47" s="197"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -9990,11 +9986,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="159"/>
-      <c r="G48" s="161"/>
-      <c r="H48" s="199"/>
-      <c r="I48" s="200"/>
-      <c r="J48" s="201"/>
+      <c r="F48" s="158"/>
+      <c r="G48" s="160"/>
+      <c r="H48" s="195"/>
+      <c r="I48" s="196"/>
+      <c r="J48" s="197"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -10011,11 +10007,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="159"/>
-      <c r="G49" s="161"/>
-      <c r="H49" s="199"/>
-      <c r="I49" s="200"/>
-      <c r="J49" s="201"/>
+      <c r="F49" s="158"/>
+      <c r="G49" s="160"/>
+      <c r="H49" s="195"/>
+      <c r="I49" s="196"/>
+      <c r="J49" s="197"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -10032,11 +10028,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="159"/>
-      <c r="G50" s="161"/>
-      <c r="H50" s="199"/>
-      <c r="I50" s="200"/>
-      <c r="J50" s="201"/>
+      <c r="F50" s="158"/>
+      <c r="G50" s="160"/>
+      <c r="H50" s="195"/>
+      <c r="I50" s="196"/>
+      <c r="J50" s="197"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -10053,11 +10049,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="159"/>
-      <c r="G51" s="161"/>
-      <c r="H51" s="199"/>
-      <c r="I51" s="200"/>
-      <c r="J51" s="201"/>
+      <c r="F51" s="158"/>
+      <c r="G51" s="160"/>
+      <c r="H51" s="195"/>
+      <c r="I51" s="196"/>
+      <c r="J51" s="197"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -10074,11 +10070,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="159"/>
-      <c r="G52" s="161"/>
-      <c r="H52" s="199"/>
-      <c r="I52" s="200"/>
-      <c r="J52" s="201"/>
+      <c r="F52" s="158"/>
+      <c r="G52" s="160"/>
+      <c r="H52" s="195"/>
+      <c r="I52" s="196"/>
+      <c r="J52" s="197"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -10095,11 +10091,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="159"/>
-      <c r="G53" s="161"/>
-      <c r="H53" s="199"/>
-      <c r="I53" s="200"/>
-      <c r="J53" s="201"/>
+      <c r="F53" s="158"/>
+      <c r="G53" s="160"/>
+      <c r="H53" s="195"/>
+      <c r="I53" s="196"/>
+      <c r="J53" s="197"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -10116,11 +10112,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="159"/>
-      <c r="G54" s="161"/>
-      <c r="H54" s="199"/>
-      <c r="I54" s="200"/>
-      <c r="J54" s="201"/>
+      <c r="F54" s="158"/>
+      <c r="G54" s="160"/>
+      <c r="H54" s="195"/>
+      <c r="I54" s="196"/>
+      <c r="J54" s="197"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -10137,11 +10133,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="159"/>
-      <c r="G55" s="161"/>
-      <c r="H55" s="199"/>
-      <c r="I55" s="200"/>
-      <c r="J55" s="201"/>
+      <c r="F55" s="158"/>
+      <c r="G55" s="160"/>
+      <c r="H55" s="195"/>
+      <c r="I55" s="196"/>
+      <c r="J55" s="197"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -10158,11 +10154,11 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="32"/>
-      <c r="F56" s="159"/>
-      <c r="G56" s="161"/>
-      <c r="H56" s="199"/>
-      <c r="I56" s="200"/>
-      <c r="J56" s="201"/>
+      <c r="F56" s="158"/>
+      <c r="G56" s="160"/>
+      <c r="H56" s="195"/>
+      <c r="I56" s="196"/>
+      <c r="J56" s="197"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -10174,6 +10170,99 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="F54:G54"/>
@@ -10188,99 +10277,6 @@
     <mergeCell ref="H54:J54"/>
     <mergeCell ref="H55:J55"/>
     <mergeCell ref="H56:J56"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E56">
@@ -10298,8 +10294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10328,24 +10324,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="208" t="str">
+      <c r="J1" s="205" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="208"/>
+      <c r="K1" s="205"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10372,22 +10368,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="208" t="str">
+      <c r="J2" s="205" t="str">
         <f>'Update History'!D2</f>
         <v>ASSOFT - CRM</v>
       </c>
-      <c r="K2" s="208"/>
+      <c r="K2" s="205"/>
       <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10420,7 +10416,7 @@
       <c r="B4" s="125" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="134" t="s">
         <v>210</v>
       </c>
       <c r="D4" s="69" t="s">
@@ -10466,7 +10462,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="34" customFormat="1" ht="146.25">
+    <row r="5" spans="1:21" s="34" customFormat="1" ht="123.75">
       <c r="A5" s="33">
         <v>1</v>
       </c>
@@ -10486,25 +10482,25 @@
         <v>198</v>
       </c>
       <c r="I5" s="63" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J5" s="131" t="s">
         <v>199</v>
       </c>
       <c r="K5" s="202" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="L5" s="203"/>
       <c r="M5" s="203"/>
       <c r="N5" s="204"/>
-      <c r="O5" s="133" t="s">
+      <c r="O5" s="135" t="s">
+        <v>223</v>
+      </c>
+      <c r="P5" s="135" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q5" s="77" t="s">
         <v>211</v>
-      </c>
-      <c r="P5" s="133" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q5" s="77" t="s">
-        <v>213</v>
       </c>
       <c r="R5" s="76" t="s">
         <v>200</v>
@@ -10561,7 +10557,7 @@
       <c r="P7" s="90"/>
       <c r="Q7" s="77"/>
       <c r="R7" s="76"/>
-      <c r="S7" s="205"/>
+      <c r="S7" s="206"/>
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
     </row>
@@ -10586,7 +10582,7 @@
       <c r="P8" s="90"/>
       <c r="Q8" s="77"/>
       <c r="R8" s="76"/>
-      <c r="S8" s="206"/>
+      <c r="S8" s="207"/>
       <c r="T8" s="64"/>
       <c r="U8" s="64"/>
     </row>
@@ -10611,7 +10607,7 @@
       <c r="P9" s="90"/>
       <c r="Q9" s="77"/>
       <c r="R9" s="76"/>
-      <c r="S9" s="207"/>
+      <c r="S9" s="208"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
     </row>
@@ -10636,7 +10632,7 @@
       <c r="P10" s="90"/>
       <c r="Q10" s="77"/>
       <c r="R10" s="76"/>
-      <c r="S10" s="205"/>
+      <c r="S10" s="206"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
     </row>
@@ -10661,7 +10657,7 @@
       <c r="P11" s="90"/>
       <c r="Q11" s="77"/>
       <c r="R11" s="76"/>
-      <c r="S11" s="206"/>
+      <c r="S11" s="207"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
     </row>
@@ -10686,7 +10682,7 @@
       <c r="P12" s="86"/>
       <c r="Q12" s="77"/>
       <c r="R12" s="76"/>
-      <c r="S12" s="206"/>
+      <c r="S12" s="207"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
     </row>
@@ -10711,7 +10707,7 @@
       <c r="P13" s="86"/>
       <c r="Q13" s="77"/>
       <c r="R13" s="76"/>
-      <c r="S13" s="207"/>
+      <c r="S13" s="208"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
     </row>
@@ -12684,60 +12680,32 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="96">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="S10:S13"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
     <mergeCell ref="K93:N93"/>
     <mergeCell ref="K94:N94"/>
     <mergeCell ref="K5:N5"/>
@@ -12754,32 +12722,60 @@
     <mergeCell ref="K69:N69"/>
     <mergeCell ref="K70:N70"/>
     <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="S10:S13"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -12825,10 +12821,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12858,8 +12854,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -12917,7 +12913,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -13153,7 +13149,7 @@
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="74"/>
       <c r="B26" s="81" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
@@ -13930,10 +13926,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13963,8 +13959,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMR30101_Bao cao KH moi theo nhan vien.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao KH moi theo nhan vien/CRMR30101_Bao cao KH moi theo nhan vien.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Bao cao KH moi theo nhan vien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\ThuViec\10_DOCUMENT\13_DETAIL_DESIGN\Bao cao KH moi theo nhan vien\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="224">
   <si>
     <t>Detail Design</t>
   </si>
@@ -1921,30 +1921,18 @@
     <t>Ver 1.0</t>
   </si>
   <si>
-    <t>3.10</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
     <t>Ngày</t>
   </si>
   <si>
-    <t>Mã KH</t>
-  </si>
-  <si>
-    <t>Tên KH</t>
-  </si>
-  <si>
     <t>Địa chỉ</t>
   </si>
   <si>
     <t>Điện thoại</t>
   </si>
   <si>
-    <t>NV Giao dịch</t>
-  </si>
-  <si>
     <t>Quan tâm</t>
   </si>
   <si>
@@ -1954,15 +1942,6 @@
     <t>Cọc vỏ</t>
   </si>
   <si>
-    <t>SaleManID</t>
-  </si>
-  <si>
-    <t>FullName</t>
-  </si>
-  <si>
-    <t>CreateDate</t>
-  </si>
-  <si>
     <t>AccountID</t>
   </si>
   <si>
@@ -1975,15 +1954,9 @@
     <t>Tel</t>
   </si>
   <si>
-    <t>EmployeeID</t>
-  </si>
-  <si>
     <t>Textbox</t>
   </si>
   <si>
-    <t>DataGrid</t>
-  </si>
-  <si>
     <t>Grid Column</t>
   </si>
   <si>
@@ -2033,12 +2006,6 @@
   </si>
   <si>
     <t>Đơn vị</t>
-  </si>
-  <si>
-    <t>Group Theo DivisionID</t>
-  </si>
-  <si>
-    <t>Group theo SalesManID</t>
   </si>
   <si>
     <t>SalesManID</t>
@@ -2081,9 +2048,6 @@
   </si>
   <si>
     <t>ToDate</t>
-  </si>
-  <si>
-    <t>Danh sách lưới</t>
   </si>
   <si>
     <t>ID Store</t>
@@ -2121,6 +2085,39 @@
 @@FromAccountID @@ToAccountID
 @@FromEmployeeID @@ToEmployeeID Biến môi trường
 </t>
+  </si>
+  <si>
+    <t>DivisionName</t>
+  </si>
+  <si>
+    <t>SalesManName</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>Mã khách hàng</t>
+  </si>
+  <si>
+    <t>Tên khách hàng</t>
+  </si>
+  <si>
+    <t>Nhân viên giao dịch</t>
+  </si>
+  <si>
+    <t>Tổng (theo nhân viên)</t>
+  </si>
+  <si>
+    <t>Tổng (theo đơn vị)</t>
+  </si>
+  <si>
+    <t>SumDivision</t>
+  </si>
+  <si>
+    <t>SumSalesnam</t>
+  </si>
+  <si>
+    <t>Division</t>
   </si>
 </sst>
 </file>
@@ -2657,7 +2654,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2994,9 +2991,30 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3042,23 +3060,8 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3087,9 +3090,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3159,17 +3159,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3180,18 +3180,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3201,18 +3189,18 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3224,6 +3212,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3358,19 +3370,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:colOff>1950147</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3390,8 +3402,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="180975" y="771525"/>
-          <a:ext cx="8524875" cy="4514850"/>
+          <a:off x="57150" y="1409700"/>
+          <a:ext cx="8770047" cy="3114675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4202,65 +4214,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="141"/>
-      <c r="B1" s="141"/>
-      <c r="C1" s="143" t="s">
+      <c r="A1" s="148"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="150" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="142" t="s">
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="149" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142" t="s">
+      <c r="H1" s="149"/>
+      <c r="I1" s="149" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="142"/>
+      <c r="J1" s="149"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="141"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="142" t="s">
+      <c r="A2" s="148"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="149" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="141"/>
-      <c r="B3" s="141"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="138" t="s">
+      <c r="A3" s="148"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="145" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="139"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="139"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="146"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="119"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="140"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
+      <c r="A13" s="147"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
       <c r="K13" s="120"/>
       <c r="L13" s="120"/>
       <c r="M13" s="120"/>
@@ -4271,56 +4283,56 @@
       <c r="R13" s="120"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="136"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="136"/>
-      <c r="Q14" s="136"/>
-      <c r="R14" s="136"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="141"/>
+      <c r="M14" s="141"/>
+      <c r="N14" s="141"/>
+      <c r="O14" s="141"/>
+      <c r="P14" s="141"/>
+      <c r="Q14" s="141"/>
+      <c r="R14" s="141"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="136"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="136"/>
-      <c r="Q15" s="136"/>
-      <c r="R15" s="136"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="141"/>
+      <c r="L15" s="141"/>
+      <c r="M15" s="141"/>
+      <c r="N15" s="141"/>
+      <c r="O15" s="141"/>
+      <c r="P15" s="141"/>
+      <c r="Q15" s="141"/>
+      <c r="R15" s="141"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="137" t="s">
+      <c r="A16" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
       <c r="K16" s="121"/>
       <c r="L16" s="121"/>
       <c r="M16" s="121"/>
@@ -4331,384 +4343,384 @@
       <c r="R16" s="121"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="136"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="136"/>
-      <c r="O17" s="136"/>
-      <c r="P17" s="136"/>
-      <c r="Q17" s="136"/>
-      <c r="R17" s="136"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="141"/>
+      <c r="O17" s="141"/>
+      <c r="P17" s="141"/>
+      <c r="Q17" s="141"/>
+      <c r="R17" s="141"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="136"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="136"/>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="136"/>
-      <c r="Q18" s="136"/>
-      <c r="R18" s="136"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="141"/>
+      <c r="N18" s="141"/>
+      <c r="O18" s="141"/>
+      <c r="P18" s="141"/>
+      <c r="Q18" s="141"/>
+      <c r="R18" s="141"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="153"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="153"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="153"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="143"/>
+      <c r="N19" s="143"/>
+      <c r="O19" s="143"/>
+      <c r="P19" s="143"/>
+      <c r="Q19" s="143"/>
+      <c r="R19" s="143"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="136"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="136"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="136"/>
-      <c r="N20" s="136"/>
-      <c r="O20" s="136"/>
-      <c r="P20" s="136"/>
-      <c r="Q20" s="136"/>
-      <c r="R20" s="136"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="141"/>
+      <c r="L20" s="141"/>
+      <c r="M20" s="141"/>
+      <c r="N20" s="141"/>
+      <c r="O20" s="141"/>
+      <c r="P20" s="141"/>
+      <c r="Q20" s="141"/>
+      <c r="R20" s="141"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="136"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="136"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="136"/>
-      <c r="O21" s="136"/>
-      <c r="P21" s="136"/>
-      <c r="Q21" s="136"/>
-      <c r="R21" s="136"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="141"/>
+      <c r="N21" s="141"/>
+      <c r="O21" s="141"/>
+      <c r="P21" s="141"/>
+      <c r="Q21" s="141"/>
+      <c r="R21" s="141"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="152"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="152"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="152"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="152"/>
-      <c r="R22" s="152"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="142"/>
+      <c r="M22" s="142"/>
+      <c r="N22" s="142"/>
+      <c r="O22" s="142"/>
+      <c r="P22" s="142"/>
+      <c r="Q22" s="142"/>
+      <c r="R22" s="142"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="152"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="152"/>
-      <c r="L23" s="152"/>
-      <c r="M23" s="152"/>
-      <c r="N23" s="152"/>
-      <c r="O23" s="152"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="152"/>
-      <c r="R23" s="152"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="142"/>
+      <c r="M23" s="142"/>
+      <c r="N23" s="142"/>
+      <c r="O23" s="142"/>
+      <c r="P23" s="142"/>
+      <c r="Q23" s="142"/>
+      <c r="R23" s="142"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="154"/>
-      <c r="L26" s="154"/>
-      <c r="M26" s="154"/>
-      <c r="N26" s="154"/>
-      <c r="O26" s="154"/>
-      <c r="P26" s="154"/>
-      <c r="Q26" s="154"/>
-      <c r="R26" s="154"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="139"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="139"/>
+      <c r="N26" s="139"/>
+      <c r="O26" s="139"/>
+      <c r="P26" s="139"/>
+      <c r="Q26" s="139"/>
+      <c r="R26" s="139"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="156"/>
-      <c r="O28" s="156"/>
-      <c r="P28" s="156"/>
-      <c r="Q28" s="156"/>
-      <c r="R28" s="156"/>
-      <c r="S28" s="155"/>
-      <c r="T28" s="155"/>
-      <c r="U28" s="155"/>
-      <c r="V28" s="155"/>
-      <c r="W28" s="155"/>
-      <c r="X28" s="155"/>
-      <c r="Y28" s="155"/>
-      <c r="Z28" s="155"/>
-      <c r="AA28" s="155"/>
-      <c r="AB28" s="155"/>
-      <c r="AC28" s="155"/>
-      <c r="AD28" s="155"/>
-      <c r="AE28" s="155"/>
-      <c r="AF28" s="155"/>
-      <c r="AG28" s="155"/>
-      <c r="AH28" s="155"/>
-      <c r="AI28" s="155"/>
-      <c r="AJ28" s="155"/>
-      <c r="AK28" s="155"/>
-      <c r="AL28" s="155"/>
-      <c r="AM28" s="155"/>
-      <c r="AN28" s="155"/>
-      <c r="AO28" s="155"/>
-      <c r="AP28" s="155"/>
-      <c r="AQ28" s="155"/>
-      <c r="AR28" s="155"/>
-      <c r="AS28" s="155"/>
-      <c r="AT28" s="155"/>
-      <c r="AU28" s="155"/>
-      <c r="AV28" s="155"/>
-      <c r="AW28" s="155"/>
-      <c r="AX28" s="155"/>
-      <c r="AY28" s="155"/>
-      <c r="AZ28" s="155"/>
-      <c r="BA28" s="155"/>
-      <c r="BB28" s="155"/>
-      <c r="BC28" s="155"/>
-      <c r="BD28" s="155"/>
-      <c r="BE28" s="155"/>
-      <c r="BF28" s="155"/>
-      <c r="BG28" s="155"/>
-      <c r="BH28" s="155"/>
-      <c r="BI28" s="155"/>
-      <c r="BJ28" s="155"/>
-      <c r="BK28" s="155"/>
-      <c r="BL28" s="155"/>
-      <c r="BM28" s="155"/>
-      <c r="BN28" s="155"/>
-      <c r="BO28" s="155"/>
-      <c r="BP28" s="155"/>
-      <c r="BQ28" s="155"/>
-      <c r="BR28" s="155"/>
-      <c r="BS28" s="155"/>
-      <c r="BT28" s="155"/>
-      <c r="BU28" s="155"/>
-      <c r="BV28" s="155"/>
-      <c r="BW28" s="155"/>
-      <c r="BX28" s="155"/>
-      <c r="BY28" s="155"/>
-      <c r="BZ28" s="155"/>
-      <c r="CA28" s="155"/>
-      <c r="CB28" s="155"/>
-      <c r="CC28" s="155"/>
-      <c r="CD28" s="155"/>
-      <c r="CE28" s="155"/>
-      <c r="CF28" s="155"/>
-      <c r="CG28" s="155"/>
-      <c r="CH28" s="155"/>
-      <c r="CI28" s="155"/>
-      <c r="CJ28" s="155"/>
-      <c r="CK28" s="155"/>
-      <c r="CL28" s="155"/>
-      <c r="CM28" s="155"/>
-      <c r="CN28" s="155"/>
-      <c r="CO28" s="155"/>
-      <c r="CP28" s="155"/>
-      <c r="CQ28" s="155"/>
-      <c r="CR28" s="155"/>
-      <c r="CS28" s="155"/>
-      <c r="CT28" s="155"/>
-      <c r="CU28" s="155"/>
-      <c r="CV28" s="155"/>
-      <c r="CW28" s="155"/>
-      <c r="CX28" s="155"/>
-      <c r="CY28" s="155"/>
-      <c r="CZ28" s="155"/>
-      <c r="DA28" s="155"/>
-      <c r="DB28" s="155"/>
-      <c r="DC28" s="155"/>
-      <c r="DD28" s="155"/>
-      <c r="DE28" s="155"/>
-      <c r="DF28" s="155"/>
-      <c r="DG28" s="155"/>
-      <c r="DH28" s="155"/>
-      <c r="DI28" s="155"/>
-      <c r="DJ28" s="155"/>
-      <c r="DK28" s="155"/>
-      <c r="DL28" s="155"/>
-      <c r="DM28" s="155"/>
-      <c r="DN28" s="155"/>
-      <c r="DO28" s="155"/>
-      <c r="DP28" s="155"/>
-      <c r="DQ28" s="155"/>
-      <c r="DR28" s="155"/>
-      <c r="DS28" s="155"/>
-      <c r="DT28" s="155"/>
-      <c r="DU28" s="155"/>
-      <c r="DV28" s="155"/>
-      <c r="DW28" s="155"/>
-      <c r="DX28" s="155"/>
-      <c r="DY28" s="155"/>
-      <c r="DZ28" s="155"/>
-      <c r="EA28" s="155"/>
-      <c r="EB28" s="155"/>
-      <c r="EC28" s="155"/>
-      <c r="ED28" s="155"/>
-      <c r="EE28" s="155"/>
-      <c r="EF28" s="155"/>
-      <c r="EG28" s="155"/>
-      <c r="EH28" s="155"/>
-      <c r="EI28" s="155"/>
-      <c r="EJ28" s="155"/>
-      <c r="EK28" s="155"/>
-      <c r="EL28" s="155"/>
-      <c r="EM28" s="155"/>
-      <c r="EN28" s="155"/>
-      <c r="EO28" s="155"/>
-      <c r="EP28" s="155"/>
-      <c r="EQ28" s="155"/>
-      <c r="ER28" s="155"/>
-      <c r="ES28" s="155"/>
-      <c r="ET28" s="155"/>
-      <c r="EU28" s="155"/>
-      <c r="EV28" s="155"/>
-      <c r="EW28" s="155"/>
-      <c r="EX28" s="155"/>
-      <c r="EY28" s="155"/>
-      <c r="EZ28" s="155"/>
-      <c r="FA28" s="155"/>
-      <c r="FB28" s="155"/>
-      <c r="FC28" s="155"/>
-      <c r="FD28" s="155"/>
-      <c r="FE28" s="155"/>
-      <c r="FF28" s="155"/>
-      <c r="FG28" s="155"/>
-      <c r="FH28" s="155"/>
-      <c r="FI28" s="155"/>
-      <c r="FJ28" s="155"/>
-      <c r="FK28" s="155"/>
-      <c r="FL28" s="155"/>
-      <c r="FM28" s="155"/>
-      <c r="FN28" s="155"/>
-      <c r="FO28" s="155"/>
-      <c r="FP28" s="155"/>
-      <c r="FQ28" s="155"/>
-      <c r="FR28" s="155"/>
-      <c r="FS28" s="155"/>
-      <c r="FT28" s="155"/>
-      <c r="FU28" s="155"/>
-      <c r="FV28" s="155"/>
-      <c r="FW28" s="155"/>
-      <c r="FX28" s="155"/>
-      <c r="FY28" s="155"/>
-      <c r="FZ28" s="155"/>
-      <c r="GA28" s="155"/>
-      <c r="GB28" s="155"/>
-      <c r="GC28" s="155"/>
-      <c r="GD28" s="155"/>
-      <c r="GE28" s="155"/>
-      <c r="GF28" s="155"/>
-      <c r="GG28" s="155"/>
-      <c r="GH28" s="155"/>
-      <c r="GI28" s="155"/>
-      <c r="GJ28" s="155"/>
-      <c r="GK28" s="155"/>
-      <c r="GL28" s="155"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="140"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="140"/>
+      <c r="P28" s="140"/>
+      <c r="Q28" s="140"/>
+      <c r="R28" s="140"/>
+      <c r="S28" s="138"/>
+      <c r="T28" s="138"/>
+      <c r="U28" s="138"/>
+      <c r="V28" s="138"/>
+      <c r="W28" s="138"/>
+      <c r="X28" s="138"/>
+      <c r="Y28" s="138"/>
+      <c r="Z28" s="138"/>
+      <c r="AA28" s="138"/>
+      <c r="AB28" s="138"/>
+      <c r="AC28" s="138"/>
+      <c r="AD28" s="138"/>
+      <c r="AE28" s="138"/>
+      <c r="AF28" s="138"/>
+      <c r="AG28" s="138"/>
+      <c r="AH28" s="138"/>
+      <c r="AI28" s="138"/>
+      <c r="AJ28" s="138"/>
+      <c r="AK28" s="138"/>
+      <c r="AL28" s="138"/>
+      <c r="AM28" s="138"/>
+      <c r="AN28" s="138"/>
+      <c r="AO28" s="138"/>
+      <c r="AP28" s="138"/>
+      <c r="AQ28" s="138"/>
+      <c r="AR28" s="138"/>
+      <c r="AS28" s="138"/>
+      <c r="AT28" s="138"/>
+      <c r="AU28" s="138"/>
+      <c r="AV28" s="138"/>
+      <c r="AW28" s="138"/>
+      <c r="AX28" s="138"/>
+      <c r="AY28" s="138"/>
+      <c r="AZ28" s="138"/>
+      <c r="BA28" s="138"/>
+      <c r="BB28" s="138"/>
+      <c r="BC28" s="138"/>
+      <c r="BD28" s="138"/>
+      <c r="BE28" s="138"/>
+      <c r="BF28" s="138"/>
+      <c r="BG28" s="138"/>
+      <c r="BH28" s="138"/>
+      <c r="BI28" s="138"/>
+      <c r="BJ28" s="138"/>
+      <c r="BK28" s="138"/>
+      <c r="BL28" s="138"/>
+      <c r="BM28" s="138"/>
+      <c r="BN28" s="138"/>
+      <c r="BO28" s="138"/>
+      <c r="BP28" s="138"/>
+      <c r="BQ28" s="138"/>
+      <c r="BR28" s="138"/>
+      <c r="BS28" s="138"/>
+      <c r="BT28" s="138"/>
+      <c r="BU28" s="138"/>
+      <c r="BV28" s="138"/>
+      <c r="BW28" s="138"/>
+      <c r="BX28" s="138"/>
+      <c r="BY28" s="138"/>
+      <c r="BZ28" s="138"/>
+      <c r="CA28" s="138"/>
+      <c r="CB28" s="138"/>
+      <c r="CC28" s="138"/>
+      <c r="CD28" s="138"/>
+      <c r="CE28" s="138"/>
+      <c r="CF28" s="138"/>
+      <c r="CG28" s="138"/>
+      <c r="CH28" s="138"/>
+      <c r="CI28" s="138"/>
+      <c r="CJ28" s="138"/>
+      <c r="CK28" s="138"/>
+      <c r="CL28" s="138"/>
+      <c r="CM28" s="138"/>
+      <c r="CN28" s="138"/>
+      <c r="CO28" s="138"/>
+      <c r="CP28" s="138"/>
+      <c r="CQ28" s="138"/>
+      <c r="CR28" s="138"/>
+      <c r="CS28" s="138"/>
+      <c r="CT28" s="138"/>
+      <c r="CU28" s="138"/>
+      <c r="CV28" s="138"/>
+      <c r="CW28" s="138"/>
+      <c r="CX28" s="138"/>
+      <c r="CY28" s="138"/>
+      <c r="CZ28" s="138"/>
+      <c r="DA28" s="138"/>
+      <c r="DB28" s="138"/>
+      <c r="DC28" s="138"/>
+      <c r="DD28" s="138"/>
+      <c r="DE28" s="138"/>
+      <c r="DF28" s="138"/>
+      <c r="DG28" s="138"/>
+      <c r="DH28" s="138"/>
+      <c r="DI28" s="138"/>
+      <c r="DJ28" s="138"/>
+      <c r="DK28" s="138"/>
+      <c r="DL28" s="138"/>
+      <c r="DM28" s="138"/>
+      <c r="DN28" s="138"/>
+      <c r="DO28" s="138"/>
+      <c r="DP28" s="138"/>
+      <c r="DQ28" s="138"/>
+      <c r="DR28" s="138"/>
+      <c r="DS28" s="138"/>
+      <c r="DT28" s="138"/>
+      <c r="DU28" s="138"/>
+      <c r="DV28" s="138"/>
+      <c r="DW28" s="138"/>
+      <c r="DX28" s="138"/>
+      <c r="DY28" s="138"/>
+      <c r="DZ28" s="138"/>
+      <c r="EA28" s="138"/>
+      <c r="EB28" s="138"/>
+      <c r="EC28" s="138"/>
+      <c r="ED28" s="138"/>
+      <c r="EE28" s="138"/>
+      <c r="EF28" s="138"/>
+      <c r="EG28" s="138"/>
+      <c r="EH28" s="138"/>
+      <c r="EI28" s="138"/>
+      <c r="EJ28" s="138"/>
+      <c r="EK28" s="138"/>
+      <c r="EL28" s="138"/>
+      <c r="EM28" s="138"/>
+      <c r="EN28" s="138"/>
+      <c r="EO28" s="138"/>
+      <c r="EP28" s="138"/>
+      <c r="EQ28" s="138"/>
+      <c r="ER28" s="138"/>
+      <c r="ES28" s="138"/>
+      <c r="ET28" s="138"/>
+      <c r="EU28" s="138"/>
+      <c r="EV28" s="138"/>
+      <c r="EW28" s="138"/>
+      <c r="EX28" s="138"/>
+      <c r="EY28" s="138"/>
+      <c r="EZ28" s="138"/>
+      <c r="FA28" s="138"/>
+      <c r="FB28" s="138"/>
+      <c r="FC28" s="138"/>
+      <c r="FD28" s="138"/>
+      <c r="FE28" s="138"/>
+      <c r="FF28" s="138"/>
+      <c r="FG28" s="138"/>
+      <c r="FH28" s="138"/>
+      <c r="FI28" s="138"/>
+      <c r="FJ28" s="138"/>
+      <c r="FK28" s="138"/>
+      <c r="FL28" s="138"/>
+      <c r="FM28" s="138"/>
+      <c r="FN28" s="138"/>
+      <c r="FO28" s="138"/>
+      <c r="FP28" s="138"/>
+      <c r="FQ28" s="138"/>
+      <c r="FR28" s="138"/>
+      <c r="FS28" s="138"/>
+      <c r="FT28" s="138"/>
+      <c r="FU28" s="138"/>
+      <c r="FV28" s="138"/>
+      <c r="FW28" s="138"/>
+      <c r="FX28" s="138"/>
+      <c r="FY28" s="138"/>
+      <c r="FZ28" s="138"/>
+      <c r="GA28" s="138"/>
+      <c r="GB28" s="138"/>
+      <c r="GC28" s="138"/>
+      <c r="GD28" s="138"/>
+      <c r="GE28" s="138"/>
+      <c r="GF28" s="138"/>
+      <c r="GG28" s="138"/>
+      <c r="GH28" s="138"/>
+      <c r="GI28" s="138"/>
+      <c r="GJ28" s="138"/>
+      <c r="GK28" s="138"/>
+      <c r="GL28" s="138"/>
       <c r="GM28" s="122"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="154"/>
-      <c r="L29" s="154"/>
-      <c r="M29" s="154"/>
-      <c r="N29" s="154"/>
-      <c r="O29" s="154"/>
-      <c r="P29" s="154"/>
-      <c r="Q29" s="154"/>
-      <c r="R29" s="154"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="139"/>
+      <c r="L29" s="139"/>
+      <c r="M29" s="139"/>
+      <c r="N29" s="139"/>
+      <c r="O29" s="139"/>
+      <c r="P29" s="139"/>
+      <c r="Q29" s="139"/>
+      <c r="R29" s="139"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="157"/>
-      <c r="B30" s="157"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="157"/>
+      <c r="A30" s="137"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="137"/>
       <c r="K30" s="123"/>
       <c r="L30" s="123"/>
       <c r="M30" s="123"/>
@@ -4719,16 +4731,16 @@
       <c r="R30" s="123"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="157"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="157"/>
+      <c r="A31" s="137"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="137"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="137"/>
+      <c r="J31" s="137"/>
       <c r="K31" s="123"/>
       <c r="L31" s="123"/>
       <c r="M31" s="123"/>
@@ -4740,28 +4752,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4775,6 +4765,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -4801,14 +4813,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5001,11 +5013,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="210" t="s">
+      <c r="E27" s="207" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="211"/>
-      <c r="G27" s="212"/>
+      <c r="F27" s="208"/>
+      <c r="G27" s="209"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5329,10 +5341,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5343,7 +5355,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -5359,8 +5371,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5402,14 +5414,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="165" t="s">
+      <c r="E4" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
       <c r="A5" s="40">
@@ -5424,14 +5436,14 @@
       <c r="D5" s="102" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="166" t="s">
-        <v>209</v>
-      </c>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
+      <c r="E5" s="168" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="159"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="92">
@@ -5442,12 +5454,12 @@
       </c>
       <c r="C6" s="79"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="170"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="171"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="93">
@@ -5458,12 +5470,12 @@
       </c>
       <c r="C7" s="80"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="162"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="94">
@@ -5474,12 +5486,12 @@
       </c>
       <c r="C8" s="80"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="165"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="95">
@@ -5490,12 +5502,12 @@
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="159"/>
-      <c r="J9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="162"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="96">
@@ -5506,12 +5518,12 @@
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="159"/>
-      <c r="J10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="162"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="97">
@@ -5522,12 +5534,12 @@
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="160"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="162"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="98">
@@ -5538,12 +5550,12 @@
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="160"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="162"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="99">
@@ -5554,12 +5566,12 @@
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="160"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="162"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="100">
@@ -5570,12 +5582,12 @@
       </c>
       <c r="C14" s="80"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="160"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="162"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5586,12 +5598,12 @@
       </c>
       <c r="C15" s="80"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="92">
@@ -5602,12 +5614,12 @@
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="93">
@@ -5618,12 +5630,12 @@
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="159"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="94">
@@ -5634,12 +5646,12 @@
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="167"/>
-      <c r="I18" s="167"/>
-      <c r="J18" s="167"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="159"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="95">
@@ -5650,12 +5662,12 @@
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="167"/>
-      <c r="J19" s="167"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="159"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="96">
@@ -5666,12 +5678,12 @@
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="167"/>
-      <c r="J20" s="167"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="159"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="97">
@@ -5682,12 +5694,12 @@
       </c>
       <c r="C21" s="80"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="167"/>
-      <c r="I21" s="167"/>
-      <c r="J21" s="167"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="159"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="98">
@@ -5698,12 +5710,12 @@
       </c>
       <c r="C22" s="80"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="167"/>
-      <c r="I22" s="167"/>
-      <c r="J22" s="167"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="159"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="99">
@@ -5714,12 +5726,12 @@
       </c>
       <c r="C23" s="80"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="167"/>
-      <c r="I23" s="167"/>
-      <c r="J23" s="167"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="159"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="100">
@@ -5730,12 +5742,12 @@
       </c>
       <c r="C24" s="80"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="167"/>
-      <c r="J24" s="167"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="159"/>
+      <c r="J24" s="159"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5746,12 +5758,12 @@
       </c>
       <c r="C25" s="80"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="167"/>
-      <c r="J25" s="167"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="159"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5762,12 +5774,12 @@
       </c>
       <c r="C26" s="80"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="167"/>
-      <c r="I26" s="167"/>
-      <c r="J26" s="167"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="159"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="92">
@@ -5778,12 +5790,12 @@
       </c>
       <c r="C27" s="80"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="167"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="159"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="93">
@@ -5794,12 +5806,12 @@
       </c>
       <c r="C28" s="80"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="167"/>
-      <c r="J28" s="167"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="94">
@@ -5810,12 +5822,12 @@
       </c>
       <c r="C29" s="80"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="167"/>
-      <c r="H29" s="167"/>
-      <c r="I29" s="167"/>
-      <c r="J29" s="167"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="159"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="95">
@@ -5826,12 +5838,12 @@
       </c>
       <c r="C30" s="80"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="167"/>
-      <c r="J30" s="167"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="159"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="96">
@@ -5842,12 +5854,12 @@
       </c>
       <c r="C31" s="80"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="167"/>
-      <c r="H31" s="167"/>
-      <c r="I31" s="167"/>
-      <c r="J31" s="167"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="159"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="97">
@@ -5858,12 +5870,12 @@
       </c>
       <c r="C32" s="80"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="167"/>
-      <c r="I32" s="167"/>
-      <c r="J32" s="167"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="159"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="98">
@@ -5874,12 +5886,12 @@
       </c>
       <c r="C33" s="80"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="167"/>
-      <c r="H33" s="167"/>
-      <c r="I33" s="167"/>
-      <c r="J33" s="167"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="159"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="159"/>
+      <c r="J33" s="159"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="99">
@@ -5890,12 +5902,12 @@
       </c>
       <c r="C34" s="80"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="167"/>
-      <c r="F34" s="167"/>
-      <c r="G34" s="167"/>
-      <c r="H34" s="167"/>
-      <c r="I34" s="167"/>
-      <c r="J34" s="167"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="159"/>
+      <c r="J34" s="159"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="100">
@@ -5906,12 +5918,12 @@
       </c>
       <c r="C35" s="80"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="167"/>
-      <c r="H35" s="167"/>
-      <c r="I35" s="167"/>
-      <c r="J35" s="167"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="159"/>
+      <c r="I35" s="159"/>
+      <c r="J35" s="159"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -5922,12 +5934,12 @@
       </c>
       <c r="C36" s="80"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="167"/>
-      <c r="F36" s="167"/>
-      <c r="G36" s="167"/>
-      <c r="H36" s="167"/>
-      <c r="I36" s="167"/>
-      <c r="J36" s="167"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="159"/>
+      <c r="J36" s="159"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="92">
@@ -5938,12 +5950,12 @@
       </c>
       <c r="C37" s="80"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="167"/>
-      <c r="H37" s="167"/>
-      <c r="I37" s="167"/>
-      <c r="J37" s="167"/>
+      <c r="E37" s="159"/>
+      <c r="F37" s="159"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="159"/>
+      <c r="I37" s="159"/>
+      <c r="J37" s="159"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="93">
@@ -5954,12 +5966,12 @@
       </c>
       <c r="C38" s="80"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="167"/>
-      <c r="F38" s="167"/>
-      <c r="G38" s="167"/>
-      <c r="H38" s="167"/>
-      <c r="I38" s="167"/>
-      <c r="J38" s="167"/>
+      <c r="E38" s="159"/>
+      <c r="F38" s="159"/>
+      <c r="G38" s="159"/>
+      <c r="H38" s="159"/>
+      <c r="I38" s="159"/>
+      <c r="J38" s="159"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="94">
@@ -5970,12 +5982,12 @@
       </c>
       <c r="C39" s="80"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="167"/>
-      <c r="F39" s="167"/>
-      <c r="G39" s="167"/>
-      <c r="H39" s="167"/>
-      <c r="I39" s="167"/>
-      <c r="J39" s="167"/>
+      <c r="E39" s="159"/>
+      <c r="F39" s="159"/>
+      <c r="G39" s="159"/>
+      <c r="H39" s="159"/>
+      <c r="I39" s="159"/>
+      <c r="J39" s="159"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="95">
@@ -5986,12 +5998,12 @@
       </c>
       <c r="C40" s="80"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="167"/>
-      <c r="F40" s="167"/>
-      <c r="G40" s="167"/>
-      <c r="H40" s="167"/>
-      <c r="I40" s="167"/>
-      <c r="J40" s="167"/>
+      <c r="E40" s="159"/>
+      <c r="F40" s="159"/>
+      <c r="G40" s="159"/>
+      <c r="H40" s="159"/>
+      <c r="I40" s="159"/>
+      <c r="J40" s="159"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="96">
@@ -6002,12 +6014,12 @@
       </c>
       <c r="C41" s="80"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="167"/>
-      <c r="F41" s="167"/>
-      <c r="G41" s="167"/>
-      <c r="H41" s="167"/>
-      <c r="I41" s="167"/>
-      <c r="J41" s="167"/>
+      <c r="E41" s="159"/>
+      <c r="F41" s="159"/>
+      <c r="G41" s="159"/>
+      <c r="H41" s="159"/>
+      <c r="I41" s="159"/>
+      <c r="J41" s="159"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="97">
@@ -6018,32 +6030,23 @@
       </c>
       <c r="C42" s="80"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="167"/>
-      <c r="F42" s="167"/>
-      <c r="G42" s="167"/>
-      <c r="H42" s="167"/>
-      <c r="I42" s="167"/>
-      <c r="J42" s="167"/>
+      <c r="E42" s="159"/>
+      <c r="F42" s="159"/>
+      <c r="G42" s="159"/>
+      <c r="H42" s="159"/>
+      <c r="I42" s="159"/>
+      <c r="J42" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6059,14 +6062,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6091,7 +6103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I12" sqref="I12:J43"/>
     </sheetView>
   </sheetViews>
@@ -6111,10 +6123,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6144,8 +6156,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6175,20 +6187,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="173"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="171" t="s">
+      <c r="B4" s="174"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="172" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="172"/>
+      <c r="J4" s="173"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -6199,10 +6211,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="180" t="s">
+      <c r="I5" s="181" t="s">
         <v>162</v>
       </c>
-      <c r="J5" s="181"/>
+      <c r="J5" s="182"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -6213,8 +6225,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="182"/>
-      <c r="J6" s="183"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="184"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -6225,8 +6237,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="183"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="184"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -6237,8 +6249,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="182"/>
-      <c r="J8" s="183"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="184"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -6249,8 +6261,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="182"/>
-      <c r="J9" s="183"/>
+      <c r="I9" s="183"/>
+      <c r="J9" s="184"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -6261,8 +6273,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="184"/>
-      <c r="J10" s="185"/>
+      <c r="I10" s="185"/>
+      <c r="J10" s="186"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -6273,10 +6285,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="171" t="s">
+      <c r="I11" s="172" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="172"/>
+      <c r="J11" s="173"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -6287,10 +6299,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="174" t="s">
-        <v>212</v>
-      </c>
-      <c r="J12" s="175"/>
+      <c r="I12" s="175" t="s">
+        <v>201</v>
+      </c>
+      <c r="J12" s="176"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -6301,8 +6313,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="177"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="178"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -6313,8 +6325,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="178"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -6325,8 +6337,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="178"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -6337,8 +6349,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="178"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -6349,8 +6361,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="177"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="178"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -6361,8 +6373,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="176"/>
-      <c r="J18" s="177"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="178"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -6373,8 +6385,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="177"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="178"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -6385,8 +6397,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="177"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="178"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -6397,8 +6409,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="177"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="178"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -6409,8 +6421,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="177"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="178"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -6421,8 +6433,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="177"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="178"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -6433,8 +6445,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="177"/>
+      <c r="I24" s="177"/>
+      <c r="J24" s="178"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -6445,8 +6457,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="176"/>
-      <c r="J25" s="177"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="178"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -6457,8 +6469,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="177"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="178"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -6469,8 +6481,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="177"/>
+      <c r="I27" s="177"/>
+      <c r="J27" s="178"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -6481,8 +6493,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="177"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="178"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -6493,8 +6505,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="177"/>
+      <c r="I29" s="177"/>
+      <c r="J29" s="178"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -6505,8 +6517,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="177"/>
+      <c r="I30" s="177"/>
+      <c r="J30" s="178"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -6517,8 +6529,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="177"/>
+      <c r="I31" s="177"/>
+      <c r="J31" s="178"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -6529,8 +6541,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="177"/>
+      <c r="I32" s="177"/>
+      <c r="J32" s="178"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -6541,8 +6553,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="177"/>
+      <c r="I33" s="177"/>
+      <c r="J33" s="178"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -6553,8 +6565,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="176"/>
-      <c r="J34" s="177"/>
+      <c r="I34" s="177"/>
+      <c r="J34" s="178"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -6565,8 +6577,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="176"/>
-      <c r="J35" s="177"/>
+      <c r="I35" s="177"/>
+      <c r="J35" s="178"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -6577,8 +6589,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="176"/>
-      <c r="J36" s="177"/>
+      <c r="I36" s="177"/>
+      <c r="J36" s="178"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -6589,8 +6601,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="176"/>
-      <c r="J37" s="177"/>
+      <c r="I37" s="177"/>
+      <c r="J37" s="178"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -6601,8 +6613,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="176"/>
-      <c r="J38" s="177"/>
+      <c r="I38" s="177"/>
+      <c r="J38" s="178"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -6613,8 +6625,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="176"/>
-      <c r="J39" s="177"/>
+      <c r="I39" s="177"/>
+      <c r="J39" s="178"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -6625,8 +6637,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="176"/>
-      <c r="J40" s="177"/>
+      <c r="I40" s="177"/>
+      <c r="J40" s="178"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -6637,8 +6649,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="176"/>
-      <c r="J41" s="177"/>
+      <c r="I41" s="177"/>
+      <c r="J41" s="178"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -6649,8 +6661,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="176"/>
-      <c r="J42" s="177"/>
+      <c r="I42" s="177"/>
+      <c r="J42" s="178"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -6661,8 +6673,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="178"/>
-      <c r="J43" s="179"/>
+      <c r="I43" s="179"/>
+      <c r="J43" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6717,13 +6729,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P25" sqref="P24:P25"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6731,30 +6743,30 @@
     <col min="1" max="1" width="4.5703125" style="22" customWidth="1"/>
     <col min="2" max="2" width="7.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="22" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.28515625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="23" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="23" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="45" style="22" customWidth="1"/>
+    <col min="16" max="16" width="32" style="22" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6762,15 +6774,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="186" t="s">
+      <c r="H1" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="187"/>
-      <c r="J1" s="188" t="s">
-        <v>207</v>
-      </c>
-      <c r="K1" s="189"/>
-      <c r="L1" s="190"/>
+      <c r="I1" s="188"/>
+      <c r="J1" s="189" t="s">
+        <v>196</v>
+      </c>
+      <c r="K1" s="190"/>
+      <c r="L1" s="191"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -6786,11 +6798,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6798,16 +6810,16 @@
         <f>'Update History'!D2</f>
         <v>ASSOFT - CRM</v>
       </c>
-      <c r="H2" s="186" t="s">
+      <c r="H2" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="187"/>
-      <c r="J2" s="188" t="str">
+      <c r="I2" s="188"/>
+      <c r="J2" s="189" t="str">
         <f>'Update History'!F2</f>
         <v>Báo cáo khách hàng theo nhân viên</v>
       </c>
-      <c r="K2" s="189"/>
-      <c r="L2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="191"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -6827,7 +6839,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>163</v>
@@ -6873,19 +6885,17 @@
       </c>
     </row>
     <row r="5" spans="1:16" s="34" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A5" s="33">
+      <c r="A5" s="35">
         <v>1</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="35">
         <v>51</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="33">
-        <v>1</v>
-      </c>
-      <c r="E5" s="59" t="str">
+      <c r="D5" s="35"/>
+      <c r="E5" s="213" t="str">
         <f>'Update History'!F2</f>
         <v>Báo cáo khách hàng theo nhân viên</v>
       </c>
@@ -6907,283 +6917,283 @@
       <c r="P5" s="70"/>
     </row>
     <row r="6" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A6" s="191">
+      <c r="A6" s="217">
         <v>2</v>
       </c>
-      <c r="B6" s="191">
+      <c r="B6" s="217">
         <v>51</v>
       </c>
-      <c r="C6" s="191" t="s">
+      <c r="C6" s="217" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="191">
-        <v>2</v>
-      </c>
-      <c r="E6" s="193" t="s">
-        <v>195</v>
+      <c r="D6" s="217">
+        <v>1</v>
+      </c>
+      <c r="E6" s="212" t="s">
+        <v>202</v>
       </c>
       <c r="F6" s="89" t="s">
-        <v>205</v>
-      </c>
-      <c r="G6" s="128" t="s">
-        <v>176</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>184</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G6" s="128"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="40" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
-      <c r="L6" s="40"/>
+      <c r="L6" s="40" t="s">
+        <v>181</v>
+      </c>
       <c r="M6" s="70"/>
       <c r="N6" s="70"/>
       <c r="O6" s="70"/>
       <c r="P6" s="89" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A7" s="192"/>
-      <c r="B7" s="192"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="128" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="128" t="s">
-        <v>177</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>184</v>
-      </c>
+      <c r="A7" s="35">
+        <v>3</v>
+      </c>
+      <c r="B7" s="35">
+        <v>51</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="35">
+        <v>2</v>
+      </c>
+      <c r="E7" s="213" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" s="89" t="s">
+        <v>205</v>
+      </c>
+      <c r="G7" s="128"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="40" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J7" s="62"/>
       <c r="K7" s="62"/>
       <c r="L7" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="M7" s="128"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="128"/>
-      <c r="P7" s="128"/>
+        <v>181</v>
+      </c>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="133" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="8" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A8" s="33">
+      <c r="A8" s="35">
+        <v>4</v>
+      </c>
+      <c r="B8" s="214">
+        <v>51</v>
+      </c>
+      <c r="C8" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="214">
         <v>3</v>
       </c>
-      <c r="B8" s="33">
-        <v>51</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="D8" s="33">
-        <v>3</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>217</v>
-      </c>
-      <c r="F8" s="89"/>
-      <c r="G8" s="128"/>
+      <c r="E8" s="210" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>223</v>
+      </c>
       <c r="H8" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="I8" s="40"/>
+        <v>177</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>178</v>
+      </c>
       <c r="J8" s="62"/>
       <c r="K8" s="62"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
+      <c r="L8" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
       <c r="P8" s="89"/>
     </row>
     <row r="9" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="33">
-        <v>4</v>
-      </c>
-      <c r="B9" s="33">
-        <v>51</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="33">
-        <v>3.1</v>
-      </c>
-      <c r="E9" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="G9" s="32"/>
+      <c r="A9" s="35">
+        <v>5</v>
+      </c>
+      <c r="B9" s="215"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="215"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9" s="136" t="s">
+        <v>213</v>
+      </c>
       <c r="H9" s="40" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
+        <v>181</v>
+      </c>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
       <c r="P9" s="89"/>
     </row>
     <row r="10" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="33">
-        <v>5</v>
-      </c>
-      <c r="B10" s="33">
+      <c r="A10" s="35">
+        <v>6</v>
+      </c>
+      <c r="B10" s="214">
         <v>51</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="214" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="33">
-        <v>3.2</v>
-      </c>
-      <c r="E10" s="59" t="s">
-        <v>167</v>
+      <c r="D10" s="214">
+        <v>4</v>
+      </c>
+      <c r="E10" s="210" t="s">
+        <v>186</v>
       </c>
       <c r="F10" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="G10" s="128" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="136" t="s">
+        <v>194</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="I10" s="40" t="s">
         <v>178</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="I10" s="40" t="s">
-        <v>189</v>
       </c>
       <c r="J10" s="62"/>
       <c r="K10" s="62"/>
       <c r="L10" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
+        <v>181</v>
+      </c>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
       <c r="P10" s="89"/>
     </row>
     <row r="11" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A11" s="33">
-        <v>6</v>
-      </c>
-      <c r="B11" s="33">
-        <v>51</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" s="33">
-        <v>3.3</v>
-      </c>
-      <c r="E11" s="59" t="s">
-        <v>168</v>
-      </c>
+      <c r="A11" s="35">
+        <v>7</v>
+      </c>
+      <c r="B11" s="215"/>
+      <c r="C11" s="215"/>
+      <c r="D11" s="215"/>
+      <c r="E11" s="211"/>
       <c r="F11" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="G11" s="128" t="s">
-        <v>179</v>
+        <v>214</v>
+      </c>
+      <c r="G11" s="136" t="s">
+        <v>214</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J11" s="62"/>
       <c r="K11" s="62"/>
       <c r="L11" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="M11" s="70"/>
+        <v>181</v>
+      </c>
+      <c r="M11" s="84"/>
       <c r="N11" s="70"/>
       <c r="O11" s="70"/>
       <c r="P11" s="89"/>
     </row>
-    <row r="12" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A12" s="33">
-        <v>7</v>
-      </c>
-      <c r="B12" s="33">
+    <row r="12" spans="1:16" s="34" customFormat="1" ht="11.25">
+      <c r="A12" s="35">
+        <v>8</v>
+      </c>
+      <c r="B12" s="35">
         <v>51</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="33">
-        <v>3.4</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>169</v>
+      <c r="D12" s="35">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E12" s="213" t="s">
+        <v>165</v>
       </c>
       <c r="F12" s="89" t="s">
-        <v>180</v>
-      </c>
-      <c r="G12" s="128" t="s">
-        <v>180</v>
+        <v>9</v>
+      </c>
+      <c r="G12" s="136" t="s">
+        <v>9</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="J12" s="62"/>
       <c r="K12" s="62"/>
       <c r="L12" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="M12" s="84"/>
+        <v>181</v>
+      </c>
+      <c r="M12" s="91"/>
       <c r="N12" s="70"/>
       <c r="O12" s="70"/>
       <c r="P12" s="89"/>
     </row>
-    <row r="13" spans="1:16" s="34" customFormat="1" ht="11.25">
-      <c r="A13" s="33">
-        <v>8</v>
-      </c>
-      <c r="B13" s="33">
+    <row r="13" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A13" s="35">
+        <v>9</v>
+      </c>
+      <c r="B13" s="35">
         <v>51</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="D13" s="33">
-        <v>3.5</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>170</v>
+      <c r="D13" s="35">
+        <v>4.2</v>
+      </c>
+      <c r="E13" s="213" t="s">
+        <v>166</v>
       </c>
       <c r="F13" s="89" t="s">
-        <v>181</v>
-      </c>
-      <c r="G13" s="128" t="s">
-        <v>181</v>
+        <v>184</v>
+      </c>
+      <c r="G13" s="136" t="s">
+        <v>184</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J13" s="62"/>
       <c r="K13" s="62"/>
       <c r="L13" s="40" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="M13" s="91"/>
       <c r="N13" s="70"/>
@@ -7191,75 +7201,75 @@
       <c r="P13" s="89"/>
     </row>
     <row r="14" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A14" s="33">
-        <v>9</v>
-      </c>
-      <c r="B14" s="33">
+      <c r="A14" s="35">
+        <v>10</v>
+      </c>
+      <c r="B14" s="35">
         <v>51</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="D14" s="33">
-        <v>3.6</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>171</v>
+      <c r="D14" s="35">
+        <v>4.3</v>
+      </c>
+      <c r="E14" s="213" t="s">
+        <v>216</v>
       </c>
       <c r="F14" s="89" t="s">
-        <v>182</v>
-      </c>
-      <c r="G14" s="128" t="s">
-        <v>182</v>
+        <v>172</v>
+      </c>
+      <c r="G14" s="136" t="s">
+        <v>172</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="J14" s="62"/>
       <c r="K14" s="62"/>
       <c r="L14" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="M14" s="91"/>
+        <v>181</v>
+      </c>
+      <c r="M14" s="62"/>
       <c r="N14" s="70"/>
       <c r="O14" s="70"/>
       <c r="P14" s="89"/>
     </row>
     <row r="15" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A15" s="33">
-        <v>10</v>
-      </c>
-      <c r="B15" s="33">
+      <c r="A15" s="35">
+        <v>11</v>
+      </c>
+      <c r="B15" s="35">
         <v>51</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="D15" s="33">
-        <v>3.7</v>
-      </c>
-      <c r="E15" s="59" t="s">
-        <v>172</v>
+      <c r="D15" s="35">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E15" s="213" t="s">
+        <v>217</v>
       </c>
       <c r="F15" s="89" t="s">
-        <v>194</v>
-      </c>
-      <c r="G15" s="128" t="s">
-        <v>183</v>
+        <v>173</v>
+      </c>
+      <c r="G15" s="136" t="s">
+        <v>173</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J15" s="62"/>
       <c r="K15" s="62"/>
       <c r="L15" s="40" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="M15" s="62"/>
       <c r="N15" s="70"/>
@@ -7267,37 +7277,37 @@
       <c r="P15" s="89"/>
     </row>
     <row r="16" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="33">
-        <v>11</v>
-      </c>
-      <c r="B16" s="33">
+      <c r="A16" s="35">
+        <v>12</v>
+      </c>
+      <c r="B16" s="35">
         <v>51</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="33">
-        <v>3.8</v>
-      </c>
-      <c r="E16" s="59" t="s">
-        <v>173</v>
+      <c r="D16" s="35">
+        <v>4.5</v>
+      </c>
+      <c r="E16" s="213" t="s">
+        <v>167</v>
       </c>
       <c r="F16" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="G16" s="128" t="s">
-        <v>192</v>
+        <v>174</v>
+      </c>
+      <c r="G16" s="136" t="s">
+        <v>174</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J16" s="62"/>
       <c r="K16" s="62"/>
       <c r="L16" s="40" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="M16" s="62"/>
       <c r="N16" s="70"/>
@@ -7305,255 +7315,295 @@
       <c r="P16" s="89"/>
     </row>
     <row r="17" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="33">
-        <v>12</v>
-      </c>
-      <c r="B17" s="33">
+      <c r="A17" s="35">
+        <v>13</v>
+      </c>
+      <c r="B17" s="35">
         <v>51</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="D17" s="33">
-        <v>3.9</v>
-      </c>
-      <c r="E17" s="59" t="s">
-        <v>174</v>
+      <c r="D17" s="35">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E17" s="213" t="s">
+        <v>168</v>
       </c>
       <c r="F17" s="89" t="s">
-        <v>191</v>
-      </c>
-      <c r="G17" s="128" t="s">
-        <v>191</v>
+        <v>175</v>
+      </c>
+      <c r="G17" s="136" t="s">
+        <v>175</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="I17" s="40" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
+      <c r="K17" s="40"/>
       <c r="L17" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="M17" s="62"/>
+        <v>181</v>
+      </c>
+      <c r="M17" s="70"/>
       <c r="N17" s="70"/>
       <c r="O17" s="70"/>
       <c r="P17" s="89"/>
     </row>
     <row r="18" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="33">
-        <v>13</v>
-      </c>
-      <c r="B18" s="33">
+      <c r="A18" s="35">
+        <v>14</v>
+      </c>
+      <c r="B18" s="35">
         <v>51</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="130" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="F18" s="89" t="s">
-        <v>196</v>
-      </c>
-      <c r="G18" s="128" t="s">
-        <v>196</v>
+      <c r="D18" s="35">
+        <v>4.7</v>
+      </c>
+      <c r="E18" s="213" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" s="132" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" s="136" t="s">
+        <v>185</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="I18" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="J18" s="62"/>
+        <v>178</v>
+      </c>
+      <c r="J18" s="40"/>
       <c r="K18" s="40"/>
       <c r="L18" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
+        <v>181</v>
+      </c>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
       <c r="O18" s="70"/>
       <c r="P18" s="89"/>
     </row>
     <row r="19" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="33">
-        <v>14</v>
-      </c>
-      <c r="B19" s="33">
+      <c r="A19" s="35">
+        <v>15</v>
+      </c>
+      <c r="B19" s="35">
         <v>51</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="33">
-        <v>4</v>
-      </c>
-      <c r="E19" s="59" t="s">
-        <v>202</v>
-      </c>
-      <c r="F19" s="132" t="s">
-        <v>201</v>
-      </c>
-      <c r="G19" s="89" t="s">
-        <v>201</v>
+      <c r="D19" s="35">
+        <v>4.8</v>
+      </c>
+      <c r="E19" s="213" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="89" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" s="136" t="s">
+        <v>183</v>
       </c>
       <c r="H19" s="40" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="I19" s="40" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J19" s="40"/>
       <c r="K19" s="40"/>
       <c r="L19" s="40" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="M19" s="40"/>
       <c r="N19" s="40"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="89" t="s">
-        <v>203</v>
-      </c>
+      <c r="O19" s="84"/>
     </row>
     <row r="20" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="33">
-        <v>15</v>
-      </c>
-      <c r="B20" s="33">
+      <c r="A20" s="35">
+        <v>16</v>
+      </c>
+      <c r="B20" s="35">
         <v>51</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="D20" s="33">
-        <v>5</v>
-      </c>
-      <c r="E20" s="59" t="s">
-        <v>213</v>
+      <c r="D20" s="35">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E20" s="213" t="s">
+        <v>170</v>
       </c>
       <c r="F20" s="89" t="s">
-        <v>215</v>
-      </c>
-      <c r="G20" s="85"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
+        <v>182</v>
+      </c>
+      <c r="G20" s="136" t="s">
+        <v>182</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>179</v>
+      </c>
       <c r="J20" s="40"/>
       <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
+      <c r="L20" s="40" t="s">
+        <v>181</v>
+      </c>
       <c r="M20" s="40"/>
       <c r="N20" s="40"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="89" t="s">
-        <v>221</v>
-      </c>
+      <c r="O20" s="70"/>
     </row>
     <row r="21" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="33">
-        <v>16</v>
-      </c>
-      <c r="B21" s="33">
+      <c r="A21" s="35">
+        <v>18</v>
+      </c>
+      <c r="B21" s="35">
         <v>51</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="D21" s="33">
-        <v>6</v>
-      </c>
-      <c r="E21" s="59" t="s">
-        <v>214</v>
+      <c r="D21" s="216" t="s">
+        <v>215</v>
+      </c>
+      <c r="E21" s="213" t="s">
+        <v>171</v>
       </c>
       <c r="F21" s="89" t="s">
-        <v>216</v>
-      </c>
-      <c r="G21" s="89"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
+        <v>187</v>
+      </c>
+      <c r="G21" s="136" t="s">
+        <v>187</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>178</v>
+      </c>
       <c r="J21" s="40"/>
       <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
+      <c r="L21" s="40" t="s">
+        <v>181</v>
+      </c>
       <c r="M21" s="40"/>
       <c r="N21" s="40"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="133" t="s">
-        <v>221</v>
-      </c>
+      <c r="O21" s="89"/>
+      <c r="P21" s="89"/>
     </row>
     <row r="22" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="33">
-        <v>18</v>
-      </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="89"/>
+      <c r="A22" s="35">
+        <v>19</v>
+      </c>
+      <c r="B22" s="35">
+        <v>51</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="35">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="E22" s="213" t="s">
+        <v>219</v>
+      </c>
+      <c r="F22" s="89" t="s">
+        <v>222</v>
+      </c>
       <c r="G22" s="89"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
+      <c r="H22" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>179</v>
+      </c>
       <c r="J22" s="40"/>
       <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
+      <c r="L22" s="40" t="s">
+        <v>181</v>
+      </c>
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
-      <c r="O22" s="89"/>
+      <c r="O22" s="70"/>
       <c r="P22" s="89"/>
     </row>
     <row r="23" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="33">
-        <v>19</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
+      <c r="A23" s="35">
+        <v>20</v>
+      </c>
+      <c r="B23" s="35">
+        <v>51</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="35">
+        <v>4.12</v>
+      </c>
+      <c r="E23" s="213" t="s">
+        <v>220</v>
+      </c>
+      <c r="F23" s="85" t="s">
+        <v>221</v>
+      </c>
+      <c r="G23" s="85"/>
+      <c r="H23" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>179</v>
+      </c>
       <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="89"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="32"/>
     </row>
     <row r="24" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="59"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="84"/>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
       <c r="J24" s="40"/>
       <c r="K24" s="61"/>
       <c r="L24" s="40"/>
-      <c r="M24" s="61"/>
+      <c r="M24" s="62"/>
       <c r="N24" s="61"/>
-      <c r="O24" s="40"/>
+      <c r="O24" s="61"/>
       <c r="P24" s="32"/>
     </row>
     <row r="25" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="84"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="40"/>
       <c r="H25" s="40"/>
       <c r="I25" s="40"/>
       <c r="J25" s="40"/>
@@ -7566,13 +7616,13 @@
     </row>
     <row r="26" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
       <c r="I26" s="40"/>
@@ -7586,7 +7636,7 @@
     </row>
     <row r="27" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
@@ -7606,7 +7656,7 @@
     </row>
     <row r="28" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -7626,7 +7676,7 @@
     </row>
     <row r="29" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
@@ -7646,7 +7696,7 @@
     </row>
     <row r="30" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
@@ -7666,7 +7716,7 @@
     </row>
     <row r="31" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="33">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -7686,7 +7736,7 @@
     </row>
     <row r="32" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="33">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
@@ -7706,7 +7756,7 @@
     </row>
     <row r="33" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="33">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
@@ -7726,7 +7776,7 @@
     </row>
     <row r="34" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="33">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
@@ -7746,7 +7796,7 @@
     </row>
     <row r="35" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -7766,7 +7816,7 @@
     </row>
     <row r="36" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
@@ -7786,7 +7836,7 @@
     </row>
     <row r="37" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="33">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
@@ -7806,7 +7856,7 @@
     </row>
     <row r="38" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="33">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
@@ -7826,7 +7876,7 @@
     </row>
     <row r="39" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="33">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
@@ -7846,7 +7896,7 @@
     </row>
     <row r="40" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A40" s="33">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
@@ -7866,7 +7916,7 @@
     </row>
     <row r="41" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A41" s="33">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
@@ -7886,7 +7936,7 @@
     </row>
     <row r="42" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="33">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -7906,7 +7956,7 @@
     </row>
     <row r="43" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A43" s="33">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
@@ -7926,7 +7976,7 @@
     </row>
     <row r="44" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A44" s="33">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
@@ -7946,7 +7996,7 @@
     </row>
     <row r="45" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="33">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -7966,7 +8016,7 @@
     </row>
     <row r="46" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A46" s="33">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
@@ -7986,14 +8036,14 @@
     </row>
     <row r="47" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A47" s="33">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="40"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
       <c r="H47" s="40"/>
       <c r="I47" s="40"/>
       <c r="J47" s="40"/>
@@ -8006,14 +8056,14 @@
     </row>
     <row r="48" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A48" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="75"/>
       <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
+      <c r="G48" s="40"/>
       <c r="H48" s="40"/>
       <c r="I48" s="40"/>
       <c r="J48" s="40"/>
@@ -8026,14 +8076,14 @@
     </row>
     <row r="49" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A49" s="33">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="75"/>
       <c r="F49" s="75"/>
-      <c r="G49" s="40"/>
+      <c r="G49" s="75"/>
       <c r="H49" s="40"/>
       <c r="I49" s="40"/>
       <c r="J49" s="40"/>
@@ -8046,14 +8096,14 @@
     </row>
     <row r="50" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A50" s="33">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="75"/>
       <c r="F50" s="75"/>
-      <c r="G50" s="75"/>
+      <c r="G50" s="40"/>
       <c r="H50" s="40"/>
       <c r="I50" s="40"/>
       <c r="J50" s="40"/>
@@ -8066,7 +8116,7 @@
     </row>
     <row r="51" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A51" s="33">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
@@ -8086,7 +8136,7 @@
     </row>
     <row r="52" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A52" s="33">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
@@ -8106,7 +8156,7 @@
     </row>
     <row r="53" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A53" s="33">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
@@ -8124,51 +8174,34 @@
       <c r="O53" s="61"/>
       <c r="P53" s="32"/>
     </row>
-    <row r="54" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A54" s="33">
-        <v>50</v>
-      </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="61"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="62"/>
-      <c r="N54" s="61"/>
-      <c r="O54" s="61"/>
-      <c r="P54" s="32"/>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
     <mergeCell ref="A1:E2"/>
-    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N25:O54 M24:N24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N24:O53 M23:N23">
       <formula1>"   ,l"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I22:I54 I5:I20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I53">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G26:G54 G5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L54">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G25:G53 G5"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L53">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H53">
       <formula1>"Caption,Textbox,DateTimePicker,Grid Column,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9171,7 +9204,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="194" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="126"/>
@@ -9206,7 +9239,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="201"/>
+      <c r="A2" s="195"/>
       <c r="B2" s="127"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -9254,15 +9287,15 @@
       <c r="E4" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="164" t="s">
+      <c r="F4" s="166" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164" t="s">
+      <c r="G4" s="166"/>
+      <c r="H4" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="25.5" customHeight="1">
       <c r="A5" s="33">
@@ -9272,11 +9305,11 @@
       <c r="C5" s="33"/>
       <c r="D5" s="130"/>
       <c r="E5" s="32"/>
-      <c r="F5" s="198"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="195"/>
-      <c r="I5" s="196"/>
-      <c r="J5" s="197"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="196"/>
+      <c r="I5" s="197"/>
+      <c r="J5" s="198"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -9286,11 +9319,11 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="195"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="197"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="197"/>
+      <c r="J6" s="198"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9300,11 +9333,11 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="199"/>
-      <c r="H7" s="195"/>
-      <c r="I7" s="196"/>
-      <c r="J7" s="197"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="198"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9314,11 +9347,11 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="199"/>
-      <c r="H8" s="195"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="197"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="196"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="198"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9328,11 +9361,11 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="198"/>
-      <c r="G9" s="199"/>
-      <c r="H9" s="195"/>
-      <c r="I9" s="196"/>
-      <c r="J9" s="197"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="198"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9342,11 +9375,11 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="199"/>
-      <c r="H10" s="195"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="197"/>
+      <c r="F10" s="192"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="196"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="198"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9356,11 +9389,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="199"/>
-      <c r="H11" s="195"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="197"/>
+      <c r="F11" s="192"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="197"/>
+      <c r="J11" s="198"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9370,11 +9403,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="198"/>
-      <c r="G12" s="199"/>
-      <c r="H12" s="195"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="197"/>
+      <c r="F12" s="192"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="196"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="198"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9384,11 +9417,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="198"/>
-      <c r="G13" s="199"/>
-      <c r="H13" s="195"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="197"/>
+      <c r="F13" s="192"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="197"/>
+      <c r="J13" s="198"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9398,11 +9431,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="198"/>
-      <c r="G14" s="199"/>
-      <c r="H14" s="195"/>
-      <c r="I14" s="196"/>
-      <c r="J14" s="197"/>
+      <c r="F14" s="192"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="196"/>
+      <c r="I14" s="197"/>
+      <c r="J14" s="198"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9412,11 +9445,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="198"/>
-      <c r="G15" s="199"/>
-      <c r="H15" s="195"/>
-      <c r="I15" s="196"/>
-      <c r="J15" s="197"/>
+      <c r="F15" s="192"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="196"/>
+      <c r="I15" s="197"/>
+      <c r="J15" s="198"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9426,11 +9459,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="198"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="195"/>
-      <c r="I16" s="196"/>
-      <c r="J16" s="197"/>
+      <c r="F16" s="192"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="198"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9440,11 +9473,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="198"/>
-      <c r="G17" s="199"/>
-      <c r="H17" s="195"/>
-      <c r="I17" s="196"/>
-      <c r="J17" s="197"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="196"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="198"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9454,11 +9487,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="198"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="195"/>
-      <c r="I18" s="196"/>
-      <c r="J18" s="197"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="196"/>
+      <c r="I18" s="197"/>
+      <c r="J18" s="198"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9468,11 +9501,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="198"/>
-      <c r="G19" s="199"/>
-      <c r="H19" s="195"/>
-      <c r="I19" s="196"/>
-      <c r="J19" s="197"/>
+      <c r="F19" s="192"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="197"/>
+      <c r="J19" s="198"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9482,11 +9515,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="198"/>
-      <c r="G20" s="199"/>
-      <c r="H20" s="195"/>
-      <c r="I20" s="196"/>
-      <c r="J20" s="197"/>
+      <c r="F20" s="192"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="196"/>
+      <c r="I20" s="197"/>
+      <c r="J20" s="198"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9496,11 +9529,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="198"/>
-      <c r="G21" s="199"/>
-      <c r="H21" s="195"/>
-      <c r="I21" s="196"/>
-      <c r="J21" s="197"/>
+      <c r="F21" s="192"/>
+      <c r="G21" s="193"/>
+      <c r="H21" s="196"/>
+      <c r="I21" s="197"/>
+      <c r="J21" s="198"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9510,11 +9543,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="195"/>
-      <c r="I22" s="196"/>
-      <c r="J22" s="197"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="196"/>
+      <c r="I22" s="197"/>
+      <c r="J22" s="198"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9524,11 +9557,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="195"/>
-      <c r="I23" s="196"/>
-      <c r="J23" s="197"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="196"/>
+      <c r="I23" s="197"/>
+      <c r="J23" s="198"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9538,11 +9571,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="195"/>
-      <c r="I24" s="196"/>
-      <c r="J24" s="197"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="196"/>
+      <c r="I24" s="197"/>
+      <c r="J24" s="198"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9552,11 +9585,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="195"/>
-      <c r="I25" s="196"/>
-      <c r="J25" s="197"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="196"/>
+      <c r="I25" s="197"/>
+      <c r="J25" s="198"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9566,11 +9599,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="195"/>
-      <c r="I26" s="196"/>
-      <c r="J26" s="197"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="196"/>
+      <c r="I26" s="197"/>
+      <c r="J26" s="198"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9580,11 +9613,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="195"/>
-      <c r="I27" s="196"/>
-      <c r="J27" s="197"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="162"/>
+      <c r="H27" s="196"/>
+      <c r="I27" s="197"/>
+      <c r="J27" s="198"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9594,11 +9627,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="195"/>
-      <c r="I28" s="196"/>
-      <c r="J28" s="197"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="196"/>
+      <c r="I28" s="197"/>
+      <c r="J28" s="198"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9608,11 +9641,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="195"/>
-      <c r="I29" s="196"/>
-      <c r="J29" s="197"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="197"/>
+      <c r="J29" s="198"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9622,11 +9655,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="195"/>
-      <c r="I30" s="196"/>
-      <c r="J30" s="197"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="162"/>
+      <c r="H30" s="196"/>
+      <c r="I30" s="197"/>
+      <c r="J30" s="198"/>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9636,11 +9669,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="195"/>
-      <c r="I31" s="196"/>
-      <c r="J31" s="197"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="162"/>
+      <c r="H31" s="196"/>
+      <c r="I31" s="197"/>
+      <c r="J31" s="198"/>
     </row>
     <row r="32" spans="1:18" ht="11.25">
       <c r="A32" s="33">
@@ -9650,11 +9683,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="195"/>
-      <c r="I32" s="196"/>
-      <c r="J32" s="197"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="196"/>
+      <c r="I32" s="197"/>
+      <c r="J32" s="198"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -9671,11 +9704,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="160"/>
-      <c r="H33" s="195"/>
-      <c r="I33" s="196"/>
-      <c r="J33" s="197"/>
+      <c r="F33" s="160"/>
+      <c r="G33" s="162"/>
+      <c r="H33" s="196"/>
+      <c r="I33" s="197"/>
+      <c r="J33" s="198"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -9692,11 +9725,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="195"/>
-      <c r="I34" s="196"/>
-      <c r="J34" s="197"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="162"/>
+      <c r="H34" s="196"/>
+      <c r="I34" s="197"/>
+      <c r="J34" s="198"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -9713,11 +9746,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="195"/>
-      <c r="I35" s="196"/>
-      <c r="J35" s="197"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="162"/>
+      <c r="H35" s="196"/>
+      <c r="I35" s="197"/>
+      <c r="J35" s="198"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -9734,11 +9767,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="160"/>
-      <c r="H36" s="195"/>
-      <c r="I36" s="196"/>
-      <c r="J36" s="197"/>
+      <c r="F36" s="160"/>
+      <c r="G36" s="162"/>
+      <c r="H36" s="196"/>
+      <c r="I36" s="197"/>
+      <c r="J36" s="198"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -9755,11 +9788,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="160"/>
-      <c r="H37" s="195"/>
-      <c r="I37" s="196"/>
-      <c r="J37" s="197"/>
+      <c r="F37" s="160"/>
+      <c r="G37" s="162"/>
+      <c r="H37" s="196"/>
+      <c r="I37" s="197"/>
+      <c r="J37" s="198"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -9776,11 +9809,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="160"/>
-      <c r="H38" s="195"/>
-      <c r="I38" s="196"/>
-      <c r="J38" s="197"/>
+      <c r="F38" s="160"/>
+      <c r="G38" s="162"/>
+      <c r="H38" s="196"/>
+      <c r="I38" s="197"/>
+      <c r="J38" s="198"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -9797,11 +9830,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="160"/>
-      <c r="H39" s="195"/>
-      <c r="I39" s="196"/>
-      <c r="J39" s="197"/>
+      <c r="F39" s="160"/>
+      <c r="G39" s="162"/>
+      <c r="H39" s="196"/>
+      <c r="I39" s="197"/>
+      <c r="J39" s="198"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -9818,11 +9851,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="158"/>
-      <c r="G40" s="160"/>
-      <c r="H40" s="195"/>
-      <c r="I40" s="196"/>
-      <c r="J40" s="197"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="162"/>
+      <c r="H40" s="196"/>
+      <c r="I40" s="197"/>
+      <c r="J40" s="198"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -9839,11 +9872,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="160"/>
-      <c r="H41" s="195"/>
-      <c r="I41" s="196"/>
-      <c r="J41" s="197"/>
+      <c r="F41" s="160"/>
+      <c r="G41" s="162"/>
+      <c r="H41" s="196"/>
+      <c r="I41" s="197"/>
+      <c r="J41" s="198"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -9860,11 +9893,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="158"/>
-      <c r="G42" s="160"/>
-      <c r="H42" s="195"/>
-      <c r="I42" s="196"/>
-      <c r="J42" s="197"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="162"/>
+      <c r="H42" s="196"/>
+      <c r="I42" s="197"/>
+      <c r="J42" s="198"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -9881,11 +9914,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="158"/>
-      <c r="G43" s="160"/>
-      <c r="H43" s="195"/>
-      <c r="I43" s="196"/>
-      <c r="J43" s="197"/>
+      <c r="F43" s="160"/>
+      <c r="G43" s="162"/>
+      <c r="H43" s="196"/>
+      <c r="I43" s="197"/>
+      <c r="J43" s="198"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -9902,11 +9935,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="158"/>
-      <c r="G44" s="160"/>
-      <c r="H44" s="195"/>
-      <c r="I44" s="196"/>
-      <c r="J44" s="197"/>
+      <c r="F44" s="160"/>
+      <c r="G44" s="162"/>
+      <c r="H44" s="196"/>
+      <c r="I44" s="197"/>
+      <c r="J44" s="198"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -9923,11 +9956,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="158"/>
-      <c r="G45" s="160"/>
-      <c r="H45" s="195"/>
-      <c r="I45" s="196"/>
-      <c r="J45" s="197"/>
+      <c r="F45" s="160"/>
+      <c r="G45" s="162"/>
+      <c r="H45" s="196"/>
+      <c r="I45" s="197"/>
+      <c r="J45" s="198"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -9944,11 +9977,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="158"/>
-      <c r="G46" s="160"/>
-      <c r="H46" s="195"/>
-      <c r="I46" s="196"/>
-      <c r="J46" s="197"/>
+      <c r="F46" s="160"/>
+      <c r="G46" s="162"/>
+      <c r="H46" s="196"/>
+      <c r="I46" s="197"/>
+      <c r="J46" s="198"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -9965,11 +9998,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="158"/>
-      <c r="G47" s="160"/>
-      <c r="H47" s="195"/>
-      <c r="I47" s="196"/>
-      <c r="J47" s="197"/>
+      <c r="F47" s="160"/>
+      <c r="G47" s="162"/>
+      <c r="H47" s="196"/>
+      <c r="I47" s="197"/>
+      <c r="J47" s="198"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -9986,11 +10019,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="158"/>
-      <c r="G48" s="160"/>
-      <c r="H48" s="195"/>
-      <c r="I48" s="196"/>
-      <c r="J48" s="197"/>
+      <c r="F48" s="160"/>
+      <c r="G48" s="162"/>
+      <c r="H48" s="196"/>
+      <c r="I48" s="197"/>
+      <c r="J48" s="198"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -10007,11 +10040,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="158"/>
-      <c r="G49" s="160"/>
-      <c r="H49" s="195"/>
-      <c r="I49" s="196"/>
-      <c r="J49" s="197"/>
+      <c r="F49" s="160"/>
+      <c r="G49" s="162"/>
+      <c r="H49" s="196"/>
+      <c r="I49" s="197"/>
+      <c r="J49" s="198"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -10028,11 +10061,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="158"/>
-      <c r="G50" s="160"/>
-      <c r="H50" s="195"/>
-      <c r="I50" s="196"/>
-      <c r="J50" s="197"/>
+      <c r="F50" s="160"/>
+      <c r="G50" s="162"/>
+      <c r="H50" s="196"/>
+      <c r="I50" s="197"/>
+      <c r="J50" s="198"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -10049,11 +10082,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="158"/>
-      <c r="G51" s="160"/>
-      <c r="H51" s="195"/>
-      <c r="I51" s="196"/>
-      <c r="J51" s="197"/>
+      <c r="F51" s="160"/>
+      <c r="G51" s="162"/>
+      <c r="H51" s="196"/>
+      <c r="I51" s="197"/>
+      <c r="J51" s="198"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -10070,11 +10103,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="158"/>
-      <c r="G52" s="160"/>
-      <c r="H52" s="195"/>
-      <c r="I52" s="196"/>
-      <c r="J52" s="197"/>
+      <c r="F52" s="160"/>
+      <c r="G52" s="162"/>
+      <c r="H52" s="196"/>
+      <c r="I52" s="197"/>
+      <c r="J52" s="198"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -10091,11 +10124,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="158"/>
-      <c r="G53" s="160"/>
-      <c r="H53" s="195"/>
-      <c r="I53" s="196"/>
-      <c r="J53" s="197"/>
+      <c r="F53" s="160"/>
+      <c r="G53" s="162"/>
+      <c r="H53" s="196"/>
+      <c r="I53" s="197"/>
+      <c r="J53" s="198"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -10112,11 +10145,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="158"/>
-      <c r="G54" s="160"/>
-      <c r="H54" s="195"/>
-      <c r="I54" s="196"/>
-      <c r="J54" s="197"/>
+      <c r="F54" s="160"/>
+      <c r="G54" s="162"/>
+      <c r="H54" s="196"/>
+      <c r="I54" s="197"/>
+      <c r="J54" s="198"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -10133,11 +10166,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="158"/>
-      <c r="G55" s="160"/>
-      <c r="H55" s="195"/>
-      <c r="I55" s="196"/>
-      <c r="J55" s="197"/>
+      <c r="F55" s="160"/>
+      <c r="G55" s="162"/>
+      <c r="H55" s="196"/>
+      <c r="I55" s="197"/>
+      <c r="J55" s="198"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -10154,11 +10187,11 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="32"/>
-      <c r="F56" s="158"/>
-      <c r="G56" s="160"/>
-      <c r="H56" s="195"/>
-      <c r="I56" s="196"/>
-      <c r="J56" s="197"/>
+      <c r="F56" s="160"/>
+      <c r="G56" s="162"/>
+      <c r="H56" s="196"/>
+      <c r="I56" s="197"/>
+      <c r="J56" s="198"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -10170,25 +10203,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
@@ -10203,80 +10291,25 @@
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E56">
@@ -10294,8 +10327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10324,16 +10357,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
@@ -10368,14 +10401,14 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
@@ -10417,7 +10450,7 @@
         <v>163</v>
       </c>
       <c r="C4" s="134" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D4" s="69" t="s">
         <v>97</v>
@@ -10440,12 +10473,12 @@
       <c r="J4" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="171" t="s">
+      <c r="K4" s="172" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="173"/>
-      <c r="M4" s="173"/>
-      <c r="N4" s="172"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="173"/>
       <c r="O4" s="39" t="s">
         <v>56</v>
       </c>
@@ -10476,37 +10509,37 @@
       <c r="E5" s="33"/>
       <c r="F5" s="32"/>
       <c r="G5" s="89" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="H5" s="63" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="I5" s="63" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="J5" s="131" t="s">
-        <v>199</v>
-      </c>
-      <c r="K5" s="202" t="s">
-        <v>222</v>
-      </c>
-      <c r="L5" s="203"/>
-      <c r="M5" s="203"/>
-      <c r="N5" s="204"/>
+        <v>190</v>
+      </c>
+      <c r="K5" s="199" t="s">
+        <v>210</v>
+      </c>
+      <c r="L5" s="200"/>
+      <c r="M5" s="200"/>
+      <c r="N5" s="201"/>
       <c r="O5" s="135" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="P5" s="135" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Q5" s="77" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="R5" s="76" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="S5" s="132" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="T5" s="64"/>
       <c r="U5" s="64"/>
@@ -10524,10 +10557,10 @@
       <c r="H6" s="63"/>
       <c r="I6" s="63"/>
       <c r="J6" s="83"/>
-      <c r="K6" s="202"/>
-      <c r="L6" s="203"/>
-      <c r="M6" s="203"/>
-      <c r="N6" s="204"/>
+      <c r="K6" s="199"/>
+      <c r="L6" s="200"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="201"/>
       <c r="O6" s="89"/>
       <c r="P6" s="90"/>
       <c r="Q6" s="77"/>
@@ -10549,15 +10582,15 @@
       <c r="H7" s="63"/>
       <c r="I7" s="63"/>
       <c r="J7" s="83"/>
-      <c r="K7" s="202"/>
-      <c r="L7" s="203"/>
-      <c r="M7" s="203"/>
-      <c r="N7" s="204"/>
+      <c r="K7" s="199"/>
+      <c r="L7" s="200"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="201"/>
       <c r="O7" s="90"/>
       <c r="P7" s="90"/>
       <c r="Q7" s="77"/>
       <c r="R7" s="76"/>
-      <c r="S7" s="206"/>
+      <c r="S7" s="202"/>
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
     </row>
@@ -10574,15 +10607,15 @@
       <c r="H8" s="63"/>
       <c r="I8" s="63"/>
       <c r="J8" s="83"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="203"/>
-      <c r="M8" s="203"/>
-      <c r="N8" s="204"/>
+      <c r="K8" s="199"/>
+      <c r="L8" s="200"/>
+      <c r="M8" s="200"/>
+      <c r="N8" s="201"/>
       <c r="O8" s="90"/>
       <c r="P8" s="90"/>
       <c r="Q8" s="77"/>
       <c r="R8" s="76"/>
-      <c r="S8" s="207"/>
+      <c r="S8" s="203"/>
       <c r="T8" s="64"/>
       <c r="U8" s="64"/>
     </row>
@@ -10599,15 +10632,15 @@
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
       <c r="J9" s="83"/>
-      <c r="K9" s="202"/>
-      <c r="L9" s="203"/>
-      <c r="M9" s="203"/>
-      <c r="N9" s="204"/>
+      <c r="K9" s="199"/>
+      <c r="L9" s="200"/>
+      <c r="M9" s="200"/>
+      <c r="N9" s="201"/>
       <c r="O9" s="90"/>
       <c r="P9" s="90"/>
       <c r="Q9" s="77"/>
       <c r="R9" s="76"/>
-      <c r="S9" s="208"/>
+      <c r="S9" s="204"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
     </row>
@@ -10624,15 +10657,15 @@
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
       <c r="J10" s="83"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="203"/>
-      <c r="M10" s="203"/>
-      <c r="N10" s="204"/>
+      <c r="K10" s="199"/>
+      <c r="L10" s="200"/>
+      <c r="M10" s="200"/>
+      <c r="N10" s="201"/>
       <c r="O10" s="90"/>
       <c r="P10" s="90"/>
       <c r="Q10" s="77"/>
       <c r="R10" s="76"/>
-      <c r="S10" s="206"/>
+      <c r="S10" s="202"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
     </row>
@@ -10649,15 +10682,15 @@
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="83"/>
-      <c r="K11" s="202"/>
-      <c r="L11" s="203"/>
-      <c r="M11" s="203"/>
-      <c r="N11" s="204"/>
+      <c r="K11" s="199"/>
+      <c r="L11" s="200"/>
+      <c r="M11" s="200"/>
+      <c r="N11" s="201"/>
       <c r="O11" s="90"/>
       <c r="P11" s="90"/>
       <c r="Q11" s="77"/>
       <c r="R11" s="76"/>
-      <c r="S11" s="207"/>
+      <c r="S11" s="203"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
     </row>
@@ -10674,15 +10707,15 @@
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
       <c r="J12" s="83"/>
-      <c r="K12" s="202"/>
-      <c r="L12" s="203"/>
-      <c r="M12" s="203"/>
-      <c r="N12" s="204"/>
+      <c r="K12" s="199"/>
+      <c r="L12" s="200"/>
+      <c r="M12" s="200"/>
+      <c r="N12" s="201"/>
       <c r="O12" s="86"/>
       <c r="P12" s="86"/>
       <c r="Q12" s="77"/>
       <c r="R12" s="76"/>
-      <c r="S12" s="207"/>
+      <c r="S12" s="203"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
     </row>
@@ -10699,15 +10732,15 @@
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="J13" s="83"/>
-      <c r="K13" s="202"/>
-      <c r="L13" s="203"/>
-      <c r="M13" s="203"/>
-      <c r="N13" s="204"/>
+      <c r="K13" s="199"/>
+      <c r="L13" s="200"/>
+      <c r="M13" s="200"/>
+      <c r="N13" s="201"/>
       <c r="O13" s="86"/>
       <c r="P13" s="86"/>
       <c r="Q13" s="77"/>
       <c r="R13" s="76"/>
-      <c r="S13" s="208"/>
+      <c r="S13" s="204"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
     </row>
@@ -10724,10 +10757,10 @@
       <c r="H14" s="63"/>
       <c r="I14" s="63"/>
       <c r="J14" s="83"/>
-      <c r="K14" s="202"/>
-      <c r="L14" s="203"/>
-      <c r="M14" s="203"/>
-      <c r="N14" s="204"/>
+      <c r="K14" s="199"/>
+      <c r="L14" s="200"/>
+      <c r="M14" s="200"/>
+      <c r="N14" s="201"/>
       <c r="O14" s="82"/>
       <c r="P14" s="82"/>
       <c r="Q14" s="77"/>
@@ -10749,10 +10782,10 @@
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
       <c r="J15" s="83"/>
-      <c r="K15" s="202"/>
-      <c r="L15" s="203"/>
-      <c r="M15" s="203"/>
-      <c r="N15" s="204"/>
+      <c r="K15" s="199"/>
+      <c r="L15" s="200"/>
+      <c r="M15" s="200"/>
+      <c r="N15" s="201"/>
       <c r="O15" s="82"/>
       <c r="P15" s="82"/>
       <c r="Q15" s="77"/>
@@ -10774,10 +10807,10 @@
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="202"/>
-      <c r="L16" s="203"/>
-      <c r="M16" s="203"/>
-      <c r="N16" s="204"/>
+      <c r="K16" s="199"/>
+      <c r="L16" s="200"/>
+      <c r="M16" s="200"/>
+      <c r="N16" s="201"/>
       <c r="O16" s="73"/>
       <c r="P16" s="60"/>
       <c r="Q16" s="77"/>
@@ -10799,10 +10832,10 @@
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="202"/>
-      <c r="L17" s="203"/>
-      <c r="M17" s="203"/>
-      <c r="N17" s="204"/>
+      <c r="K17" s="199"/>
+      <c r="L17" s="200"/>
+      <c r="M17" s="200"/>
+      <c r="N17" s="201"/>
       <c r="O17" s="60"/>
       <c r="P17" s="60"/>
       <c r="Q17" s="77"/>
@@ -10824,10 +10857,10 @@
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="202"/>
-      <c r="L18" s="203"/>
-      <c r="M18" s="203"/>
-      <c r="N18" s="204"/>
+      <c r="K18" s="199"/>
+      <c r="L18" s="200"/>
+      <c r="M18" s="200"/>
+      <c r="N18" s="201"/>
       <c r="O18" s="60"/>
       <c r="P18" s="60"/>
       <c r="Q18" s="77"/>
@@ -10849,10 +10882,10 @@
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="202"/>
-      <c r="L19" s="203"/>
-      <c r="M19" s="203"/>
-      <c r="N19" s="204"/>
+      <c r="K19" s="199"/>
+      <c r="L19" s="200"/>
+      <c r="M19" s="200"/>
+      <c r="N19" s="201"/>
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="77"/>
@@ -10874,10 +10907,10 @@
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="202"/>
-      <c r="L20" s="203"/>
-      <c r="M20" s="203"/>
-      <c r="N20" s="204"/>
+      <c r="K20" s="199"/>
+      <c r="L20" s="200"/>
+      <c r="M20" s="200"/>
+      <c r="N20" s="201"/>
       <c r="O20" s="60"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="77"/>
@@ -10899,10 +10932,10 @@
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="202"/>
-      <c r="L21" s="203"/>
-      <c r="M21" s="203"/>
-      <c r="N21" s="204"/>
+      <c r="K21" s="199"/>
+      <c r="L21" s="200"/>
+      <c r="M21" s="200"/>
+      <c r="N21" s="201"/>
       <c r="O21" s="60"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="77"/>
@@ -10924,10 +10957,10 @@
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="202"/>
-      <c r="L22" s="203"/>
-      <c r="M22" s="203"/>
-      <c r="N22" s="204"/>
+      <c r="K22" s="199"/>
+      <c r="L22" s="200"/>
+      <c r="M22" s="200"/>
+      <c r="N22" s="201"/>
       <c r="O22" s="60"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="77"/>
@@ -10949,10 +10982,10 @@
       <c r="H23" s="63"/>
       <c r="I23" s="63"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="202"/>
-      <c r="L23" s="203"/>
-      <c r="M23" s="203"/>
-      <c r="N23" s="204"/>
+      <c r="K23" s="199"/>
+      <c r="L23" s="200"/>
+      <c r="M23" s="200"/>
+      <c r="N23" s="201"/>
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="77"/>
@@ -10974,10 +11007,10 @@
       <c r="H24" s="63"/>
       <c r="I24" s="63"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="202"/>
-      <c r="L24" s="203"/>
-      <c r="M24" s="203"/>
-      <c r="N24" s="204"/>
+      <c r="K24" s="199"/>
+      <c r="L24" s="200"/>
+      <c r="M24" s="200"/>
+      <c r="N24" s="201"/>
       <c r="O24" s="60"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="77"/>
@@ -10999,10 +11032,10 @@
       <c r="H25" s="63"/>
       <c r="I25" s="63"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="202"/>
-      <c r="L25" s="203"/>
-      <c r="M25" s="203"/>
-      <c r="N25" s="204"/>
+      <c r="K25" s="199"/>
+      <c r="L25" s="200"/>
+      <c r="M25" s="200"/>
+      <c r="N25" s="201"/>
       <c r="O25" s="60"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="77"/>
@@ -11024,10 +11057,10 @@
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="202"/>
-      <c r="L26" s="203"/>
-      <c r="M26" s="203"/>
-      <c r="N26" s="204"/>
+      <c r="K26" s="199"/>
+      <c r="L26" s="200"/>
+      <c r="M26" s="200"/>
+      <c r="N26" s="201"/>
       <c r="O26" s="60"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="77"/>
@@ -11049,10 +11082,10 @@
       <c r="H27" s="63"/>
       <c r="I27" s="63"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="202"/>
-      <c r="L27" s="203"/>
-      <c r="M27" s="203"/>
-      <c r="N27" s="204"/>
+      <c r="K27" s="199"/>
+      <c r="L27" s="200"/>
+      <c r="M27" s="200"/>
+      <c r="N27" s="201"/>
       <c r="O27" s="60"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="77"/>
@@ -11074,10 +11107,10 @@
       <c r="H28" s="63"/>
       <c r="I28" s="63"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="202"/>
-      <c r="L28" s="203"/>
-      <c r="M28" s="203"/>
-      <c r="N28" s="204"/>
+      <c r="K28" s="199"/>
+      <c r="L28" s="200"/>
+      <c r="M28" s="200"/>
+      <c r="N28" s="201"/>
       <c r="O28" s="60"/>
       <c r="P28" s="60"/>
       <c r="Q28" s="77"/>
@@ -11099,10 +11132,10 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="202"/>
-      <c r="L29" s="203"/>
-      <c r="M29" s="203"/>
-      <c r="N29" s="204"/>
+      <c r="K29" s="199"/>
+      <c r="L29" s="200"/>
+      <c r="M29" s="200"/>
+      <c r="N29" s="201"/>
       <c r="O29" s="60"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="77"/>
@@ -11124,10 +11157,10 @@
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="202"/>
-      <c r="L30" s="203"/>
-      <c r="M30" s="203"/>
-      <c r="N30" s="204"/>
+      <c r="K30" s="199"/>
+      <c r="L30" s="200"/>
+      <c r="M30" s="200"/>
+      <c r="N30" s="201"/>
       <c r="O30" s="60"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="77"/>
@@ -11149,10 +11182,10 @@
       <c r="H31" s="63"/>
       <c r="I31" s="63"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="202"/>
-      <c r="L31" s="203"/>
-      <c r="M31" s="203"/>
-      <c r="N31" s="204"/>
+      <c r="K31" s="199"/>
+      <c r="L31" s="200"/>
+      <c r="M31" s="200"/>
+      <c r="N31" s="201"/>
       <c r="O31" s="60"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="77"/>
@@ -11174,10 +11207,10 @@
       <c r="H32" s="63"/>
       <c r="I32" s="63"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="202"/>
-      <c r="L32" s="203"/>
-      <c r="M32" s="203"/>
-      <c r="N32" s="204"/>
+      <c r="K32" s="199"/>
+      <c r="L32" s="200"/>
+      <c r="M32" s="200"/>
+      <c r="N32" s="201"/>
       <c r="O32" s="60"/>
       <c r="P32" s="60"/>
       <c r="Q32" s="77"/>
@@ -11199,10 +11232,10 @@
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="202"/>
-      <c r="L33" s="203"/>
-      <c r="M33" s="203"/>
-      <c r="N33" s="204"/>
+      <c r="K33" s="199"/>
+      <c r="L33" s="200"/>
+      <c r="M33" s="200"/>
+      <c r="N33" s="201"/>
       <c r="O33" s="60"/>
       <c r="P33" s="60"/>
       <c r="Q33" s="77"/>
@@ -11224,10 +11257,10 @@
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
       <c r="J34" s="83"/>
-      <c r="K34" s="202"/>
-      <c r="L34" s="203"/>
-      <c r="M34" s="203"/>
-      <c r="N34" s="204"/>
+      <c r="K34" s="199"/>
+      <c r="L34" s="200"/>
+      <c r="M34" s="200"/>
+      <c r="N34" s="201"/>
       <c r="O34" s="86"/>
       <c r="P34" s="86"/>
       <c r="Q34" s="77"/>
@@ -11249,10 +11282,10 @@
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
       <c r="J35" s="40"/>
-      <c r="K35" s="202"/>
-      <c r="L35" s="203"/>
-      <c r="M35" s="203"/>
-      <c r="N35" s="204"/>
+      <c r="K35" s="199"/>
+      <c r="L35" s="200"/>
+      <c r="M35" s="200"/>
+      <c r="N35" s="201"/>
       <c r="O35" s="60"/>
       <c r="P35" s="60"/>
       <c r="Q35" s="77"/>
@@ -11274,10 +11307,10 @@
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="202"/>
-      <c r="L36" s="203"/>
-      <c r="M36" s="203"/>
-      <c r="N36" s="204"/>
+      <c r="K36" s="199"/>
+      <c r="L36" s="200"/>
+      <c r="M36" s="200"/>
+      <c r="N36" s="201"/>
       <c r="O36" s="60"/>
       <c r="P36" s="60"/>
       <c r="Q36" s="77"/>
@@ -11299,10 +11332,10 @@
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="202"/>
-      <c r="L37" s="203"/>
-      <c r="M37" s="203"/>
-      <c r="N37" s="204"/>
+      <c r="K37" s="199"/>
+      <c r="L37" s="200"/>
+      <c r="M37" s="200"/>
+      <c r="N37" s="201"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60"/>
       <c r="Q37" s="77"/>
@@ -11324,10 +11357,10 @@
       <c r="H38" s="63"/>
       <c r="I38" s="63"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="202"/>
-      <c r="L38" s="203"/>
-      <c r="M38" s="203"/>
-      <c r="N38" s="204"/>
+      <c r="K38" s="199"/>
+      <c r="L38" s="200"/>
+      <c r="M38" s="200"/>
+      <c r="N38" s="201"/>
       <c r="O38" s="60"/>
       <c r="P38" s="60"/>
       <c r="Q38" s="77"/>
@@ -11349,10 +11382,10 @@
       <c r="H39" s="63"/>
       <c r="I39" s="63"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="202"/>
-      <c r="L39" s="203"/>
-      <c r="M39" s="203"/>
-      <c r="N39" s="204"/>
+      <c r="K39" s="199"/>
+      <c r="L39" s="200"/>
+      <c r="M39" s="200"/>
+      <c r="N39" s="201"/>
       <c r="O39" s="60"/>
       <c r="P39" s="60"/>
       <c r="Q39" s="77"/>
@@ -11374,10 +11407,10 @@
       <c r="H40" s="63"/>
       <c r="I40" s="63"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="202"/>
-      <c r="L40" s="203"/>
-      <c r="M40" s="203"/>
-      <c r="N40" s="204"/>
+      <c r="K40" s="199"/>
+      <c r="L40" s="200"/>
+      <c r="M40" s="200"/>
+      <c r="N40" s="201"/>
       <c r="O40" s="75"/>
       <c r="P40" s="75"/>
       <c r="Q40" s="77"/>
@@ -11399,10 +11432,10 @@
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="202"/>
-      <c r="L41" s="203"/>
-      <c r="M41" s="203"/>
-      <c r="N41" s="204"/>
+      <c r="K41" s="199"/>
+      <c r="L41" s="200"/>
+      <c r="M41" s="200"/>
+      <c r="N41" s="201"/>
       <c r="O41" s="75"/>
       <c r="P41" s="75"/>
       <c r="Q41" s="77"/>
@@ -11424,10 +11457,10 @@
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="202"/>
-      <c r="L42" s="203"/>
-      <c r="M42" s="203"/>
-      <c r="N42" s="204"/>
+      <c r="K42" s="199"/>
+      <c r="L42" s="200"/>
+      <c r="M42" s="200"/>
+      <c r="N42" s="201"/>
       <c r="O42" s="75"/>
       <c r="P42" s="75"/>
       <c r="Q42" s="77"/>
@@ -11449,10 +11482,10 @@
       <c r="H43" s="63"/>
       <c r="I43" s="63"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="202"/>
-      <c r="L43" s="203"/>
-      <c r="M43" s="203"/>
-      <c r="N43" s="204"/>
+      <c r="K43" s="199"/>
+      <c r="L43" s="200"/>
+      <c r="M43" s="200"/>
+      <c r="N43" s="201"/>
       <c r="O43" s="75"/>
       <c r="P43" s="75"/>
       <c r="Q43" s="77"/>
@@ -11474,10 +11507,10 @@
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="202"/>
-      <c r="L44" s="203"/>
-      <c r="M44" s="203"/>
-      <c r="N44" s="204"/>
+      <c r="K44" s="199"/>
+      <c r="L44" s="200"/>
+      <c r="M44" s="200"/>
+      <c r="N44" s="201"/>
       <c r="O44" s="75"/>
       <c r="P44" s="75"/>
       <c r="Q44" s="77"/>
@@ -11499,10 +11532,10 @@
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="202"/>
-      <c r="L45" s="203"/>
-      <c r="M45" s="203"/>
-      <c r="N45" s="204"/>
+      <c r="K45" s="199"/>
+      <c r="L45" s="200"/>
+      <c r="M45" s="200"/>
+      <c r="N45" s="201"/>
       <c r="O45" s="75"/>
       <c r="P45" s="75"/>
       <c r="Q45" s="77"/>
@@ -11524,10 +11557,10 @@
       <c r="H46" s="63"/>
       <c r="I46" s="63"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="202"/>
-      <c r="L46" s="203"/>
-      <c r="M46" s="203"/>
-      <c r="N46" s="204"/>
+      <c r="K46" s="199"/>
+      <c r="L46" s="200"/>
+      <c r="M46" s="200"/>
+      <c r="N46" s="201"/>
       <c r="O46" s="75"/>
       <c r="P46" s="75"/>
       <c r="Q46" s="77"/>
@@ -11549,10 +11582,10 @@
       <c r="H47" s="63"/>
       <c r="I47" s="63"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="202"/>
-      <c r="L47" s="203"/>
-      <c r="M47" s="203"/>
-      <c r="N47" s="204"/>
+      <c r="K47" s="199"/>
+      <c r="L47" s="200"/>
+      <c r="M47" s="200"/>
+      <c r="N47" s="201"/>
       <c r="O47" s="75"/>
       <c r="P47" s="75"/>
       <c r="Q47" s="77"/>
@@ -11574,10 +11607,10 @@
       <c r="H48" s="63"/>
       <c r="I48" s="63"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="202"/>
-      <c r="L48" s="203"/>
-      <c r="M48" s="203"/>
-      <c r="N48" s="204"/>
+      <c r="K48" s="199"/>
+      <c r="L48" s="200"/>
+      <c r="M48" s="200"/>
+      <c r="N48" s="201"/>
       <c r="O48" s="75"/>
       <c r="P48" s="75"/>
       <c r="Q48" s="77"/>
@@ -11599,10 +11632,10 @@
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="202"/>
-      <c r="L49" s="203"/>
-      <c r="M49" s="203"/>
-      <c r="N49" s="204"/>
+      <c r="K49" s="199"/>
+      <c r="L49" s="200"/>
+      <c r="M49" s="200"/>
+      <c r="N49" s="201"/>
       <c r="O49" s="75"/>
       <c r="P49" s="75"/>
       <c r="Q49" s="77"/>
@@ -11624,10 +11657,10 @@
       <c r="H50" s="63"/>
       <c r="I50" s="63"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="202"/>
-      <c r="L50" s="203"/>
-      <c r="M50" s="203"/>
-      <c r="N50" s="204"/>
+      <c r="K50" s="199"/>
+      <c r="L50" s="200"/>
+      <c r="M50" s="200"/>
+      <c r="N50" s="201"/>
       <c r="O50" s="75"/>
       <c r="P50" s="75"/>
       <c r="Q50" s="77"/>
@@ -11649,10 +11682,10 @@
       <c r="H51" s="63"/>
       <c r="I51" s="63"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="202"/>
-      <c r="L51" s="203"/>
-      <c r="M51" s="203"/>
-      <c r="N51" s="204"/>
+      <c r="K51" s="199"/>
+      <c r="L51" s="200"/>
+      <c r="M51" s="200"/>
+      <c r="N51" s="201"/>
       <c r="O51" s="75"/>
       <c r="P51" s="75"/>
       <c r="Q51" s="77"/>
@@ -11674,10 +11707,10 @@
       <c r="H52" s="63"/>
       <c r="I52" s="63"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="202"/>
-      <c r="L52" s="203"/>
-      <c r="M52" s="203"/>
-      <c r="N52" s="204"/>
+      <c r="K52" s="199"/>
+      <c r="L52" s="200"/>
+      <c r="M52" s="200"/>
+      <c r="N52" s="201"/>
       <c r="O52" s="75"/>
       <c r="P52" s="75"/>
       <c r="Q52" s="77"/>
@@ -11699,10 +11732,10 @@
       <c r="H53" s="63"/>
       <c r="I53" s="63"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="202"/>
-      <c r="L53" s="203"/>
-      <c r="M53" s="203"/>
-      <c r="N53" s="204"/>
+      <c r="K53" s="199"/>
+      <c r="L53" s="200"/>
+      <c r="M53" s="200"/>
+      <c r="N53" s="201"/>
       <c r="O53" s="75"/>
       <c r="P53" s="75"/>
       <c r="Q53" s="77"/>
@@ -11724,10 +11757,10 @@
       <c r="H54" s="63"/>
       <c r="I54" s="63"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="202"/>
-      <c r="L54" s="203"/>
-      <c r="M54" s="203"/>
-      <c r="N54" s="204"/>
+      <c r="K54" s="199"/>
+      <c r="L54" s="200"/>
+      <c r="M54" s="200"/>
+      <c r="N54" s="201"/>
       <c r="O54" s="75"/>
       <c r="P54" s="75"/>
       <c r="Q54" s="77"/>
@@ -11749,10 +11782,10 @@
       <c r="H55" s="63"/>
       <c r="I55" s="63"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="202"/>
-      <c r="L55" s="203"/>
-      <c r="M55" s="203"/>
-      <c r="N55" s="204"/>
+      <c r="K55" s="199"/>
+      <c r="L55" s="200"/>
+      <c r="M55" s="200"/>
+      <c r="N55" s="201"/>
       <c r="O55" s="75"/>
       <c r="P55" s="75"/>
       <c r="Q55" s="77"/>
@@ -11774,10 +11807,10 @@
       <c r="H56" s="63"/>
       <c r="I56" s="63"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="202"/>
-      <c r="L56" s="203"/>
-      <c r="M56" s="203"/>
-      <c r="N56" s="204"/>
+      <c r="K56" s="199"/>
+      <c r="L56" s="200"/>
+      <c r="M56" s="200"/>
+      <c r="N56" s="201"/>
       <c r="O56" s="75"/>
       <c r="P56" s="75"/>
       <c r="Q56" s="77"/>
@@ -11799,10 +11832,10 @@
       <c r="H57" s="63"/>
       <c r="I57" s="63"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="202"/>
-      <c r="L57" s="203"/>
-      <c r="M57" s="203"/>
-      <c r="N57" s="204"/>
+      <c r="K57" s="199"/>
+      <c r="L57" s="200"/>
+      <c r="M57" s="200"/>
+      <c r="N57" s="201"/>
       <c r="O57" s="75"/>
       <c r="P57" s="75"/>
       <c r="Q57" s="77"/>
@@ -11824,10 +11857,10 @@
       <c r="H58" s="63"/>
       <c r="I58" s="63"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="202"/>
-      <c r="L58" s="203"/>
-      <c r="M58" s="203"/>
-      <c r="N58" s="204"/>
+      <c r="K58" s="199"/>
+      <c r="L58" s="200"/>
+      <c r="M58" s="200"/>
+      <c r="N58" s="201"/>
       <c r="O58" s="75"/>
       <c r="P58" s="75"/>
       <c r="Q58" s="77"/>
@@ -11849,10 +11882,10 @@
       <c r="H59" s="63"/>
       <c r="I59" s="63"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="202"/>
-      <c r="L59" s="203"/>
-      <c r="M59" s="203"/>
-      <c r="N59" s="204"/>
+      <c r="K59" s="199"/>
+      <c r="L59" s="200"/>
+      <c r="M59" s="200"/>
+      <c r="N59" s="201"/>
       <c r="O59" s="75"/>
       <c r="P59" s="75"/>
       <c r="Q59" s="77"/>
@@ -11874,10 +11907,10 @@
       <c r="H60" s="63"/>
       <c r="I60" s="63"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="202"/>
-      <c r="L60" s="203"/>
-      <c r="M60" s="203"/>
-      <c r="N60" s="204"/>
+      <c r="K60" s="199"/>
+      <c r="L60" s="200"/>
+      <c r="M60" s="200"/>
+      <c r="N60" s="201"/>
       <c r="O60" s="75"/>
       <c r="P60" s="75"/>
       <c r="Q60" s="77"/>
@@ -11899,10 +11932,10 @@
       <c r="H61" s="63"/>
       <c r="I61" s="63"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="202"/>
-      <c r="L61" s="203"/>
-      <c r="M61" s="203"/>
-      <c r="N61" s="204"/>
+      <c r="K61" s="199"/>
+      <c r="L61" s="200"/>
+      <c r="M61" s="200"/>
+      <c r="N61" s="201"/>
       <c r="O61" s="75"/>
       <c r="P61" s="75"/>
       <c r="Q61" s="77"/>
@@ -11924,10 +11957,10 @@
       <c r="H62" s="63"/>
       <c r="I62" s="63"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="202"/>
-      <c r="L62" s="203"/>
-      <c r="M62" s="203"/>
-      <c r="N62" s="204"/>
+      <c r="K62" s="199"/>
+      <c r="L62" s="200"/>
+      <c r="M62" s="200"/>
+      <c r="N62" s="201"/>
       <c r="O62" s="85"/>
       <c r="P62" s="85"/>
       <c r="Q62" s="77"/>
@@ -11949,10 +11982,10 @@
       <c r="H63" s="63"/>
       <c r="I63" s="63"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="202"/>
-      <c r="L63" s="203"/>
-      <c r="M63" s="203"/>
-      <c r="N63" s="204"/>
+      <c r="K63" s="199"/>
+      <c r="L63" s="200"/>
+      <c r="M63" s="200"/>
+      <c r="N63" s="201"/>
       <c r="O63" s="85"/>
       <c r="P63" s="85"/>
       <c r="Q63" s="77"/>
@@ -11974,10 +12007,10 @@
       <c r="H64" s="63"/>
       <c r="I64" s="63"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="202"/>
-      <c r="L64" s="203"/>
-      <c r="M64" s="203"/>
-      <c r="N64" s="204"/>
+      <c r="K64" s="199"/>
+      <c r="L64" s="200"/>
+      <c r="M64" s="200"/>
+      <c r="N64" s="201"/>
       <c r="O64" s="85"/>
       <c r="P64" s="85"/>
       <c r="Q64" s="77"/>
@@ -11997,10 +12030,10 @@
       <c r="H65" s="63"/>
       <c r="I65" s="63"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="202"/>
-      <c r="L65" s="203"/>
-      <c r="M65" s="203"/>
-      <c r="N65" s="204"/>
+      <c r="K65" s="199"/>
+      <c r="L65" s="200"/>
+      <c r="M65" s="200"/>
+      <c r="N65" s="201"/>
       <c r="O65" s="85"/>
       <c r="P65" s="85"/>
       <c r="Q65" s="77"/>
@@ -12020,10 +12053,10 @@
       <c r="H66" s="63"/>
       <c r="I66" s="63"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="202"/>
-      <c r="L66" s="203"/>
-      <c r="M66" s="203"/>
-      <c r="N66" s="204"/>
+      <c r="K66" s="199"/>
+      <c r="L66" s="200"/>
+      <c r="M66" s="200"/>
+      <c r="N66" s="201"/>
       <c r="O66" s="85"/>
       <c r="P66" s="85"/>
       <c r="Q66" s="77"/>
@@ -12043,10 +12076,10 @@
       <c r="H67" s="63"/>
       <c r="I67" s="63"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="202"/>
-      <c r="L67" s="203"/>
-      <c r="M67" s="203"/>
-      <c r="N67" s="204"/>
+      <c r="K67" s="199"/>
+      <c r="L67" s="200"/>
+      <c r="M67" s="200"/>
+      <c r="N67" s="201"/>
       <c r="O67" s="85"/>
       <c r="P67" s="85"/>
       <c r="Q67" s="77"/>
@@ -12066,10 +12099,10 @@
       <c r="H68" s="63"/>
       <c r="I68" s="63"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="202"/>
-      <c r="L68" s="203"/>
-      <c r="M68" s="203"/>
-      <c r="N68" s="204"/>
+      <c r="K68" s="199"/>
+      <c r="L68" s="200"/>
+      <c r="M68" s="200"/>
+      <c r="N68" s="201"/>
       <c r="O68" s="85"/>
       <c r="P68" s="85"/>
       <c r="Q68" s="77"/>
@@ -12089,10 +12122,10 @@
       <c r="H69" s="63"/>
       <c r="I69" s="63"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="202"/>
-      <c r="L69" s="203"/>
-      <c r="M69" s="203"/>
-      <c r="N69" s="204"/>
+      <c r="K69" s="199"/>
+      <c r="L69" s="200"/>
+      <c r="M69" s="200"/>
+      <c r="N69" s="201"/>
       <c r="O69" s="85"/>
       <c r="P69" s="85"/>
       <c r="Q69" s="77"/>
@@ -12112,10 +12145,10 @@
       <c r="H70" s="63"/>
       <c r="I70" s="63"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="202"/>
-      <c r="L70" s="203"/>
-      <c r="M70" s="203"/>
-      <c r="N70" s="204"/>
+      <c r="K70" s="199"/>
+      <c r="L70" s="200"/>
+      <c r="M70" s="200"/>
+      <c r="N70" s="201"/>
       <c r="O70" s="85"/>
       <c r="P70" s="85"/>
       <c r="Q70" s="77"/>
@@ -12135,10 +12168,10 @@
       <c r="H71" s="63"/>
       <c r="I71" s="63"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="202"/>
-      <c r="L71" s="203"/>
-      <c r="M71" s="203"/>
-      <c r="N71" s="204"/>
+      <c r="K71" s="199"/>
+      <c r="L71" s="200"/>
+      <c r="M71" s="200"/>
+      <c r="N71" s="201"/>
       <c r="O71" s="85"/>
       <c r="P71" s="85"/>
       <c r="Q71" s="77"/>
@@ -12158,10 +12191,10 @@
       <c r="H72" s="63"/>
       <c r="I72" s="63"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="202"/>
-      <c r="L72" s="203"/>
-      <c r="M72" s="203"/>
-      <c r="N72" s="204"/>
+      <c r="K72" s="199"/>
+      <c r="L72" s="200"/>
+      <c r="M72" s="200"/>
+      <c r="N72" s="201"/>
       <c r="O72" s="85"/>
       <c r="P72" s="85"/>
       <c r="Q72" s="77"/>
@@ -12181,10 +12214,10 @@
       <c r="H73" s="63"/>
       <c r="I73" s="63"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="202"/>
-      <c r="L73" s="203"/>
-      <c r="M73" s="203"/>
-      <c r="N73" s="204"/>
+      <c r="K73" s="199"/>
+      <c r="L73" s="200"/>
+      <c r="M73" s="200"/>
+      <c r="N73" s="201"/>
       <c r="O73" s="85"/>
       <c r="P73" s="85"/>
       <c r="Q73" s="77"/>
@@ -12204,10 +12237,10 @@
       <c r="H74" s="63"/>
       <c r="I74" s="63"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="202"/>
-      <c r="L74" s="203"/>
-      <c r="M74" s="203"/>
-      <c r="N74" s="204"/>
+      <c r="K74" s="199"/>
+      <c r="L74" s="200"/>
+      <c r="M74" s="200"/>
+      <c r="N74" s="201"/>
       <c r="O74" s="85"/>
       <c r="P74" s="85"/>
       <c r="Q74" s="77"/>
@@ -12227,10 +12260,10 @@
       <c r="H75" s="63"/>
       <c r="I75" s="63"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="202"/>
-      <c r="L75" s="203"/>
-      <c r="M75" s="203"/>
-      <c r="N75" s="204"/>
+      <c r="K75" s="199"/>
+      <c r="L75" s="200"/>
+      <c r="M75" s="200"/>
+      <c r="N75" s="201"/>
       <c r="O75" s="85"/>
       <c r="P75" s="85"/>
       <c r="Q75" s="77"/>
@@ -12250,10 +12283,10 @@
       <c r="H76" s="63"/>
       <c r="I76" s="63"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="202"/>
-      <c r="L76" s="203"/>
-      <c r="M76" s="203"/>
-      <c r="N76" s="204"/>
+      <c r="K76" s="199"/>
+      <c r="L76" s="200"/>
+      <c r="M76" s="200"/>
+      <c r="N76" s="201"/>
       <c r="O76" s="85"/>
       <c r="P76" s="85"/>
       <c r="Q76" s="77"/>
@@ -12273,10 +12306,10 @@
       <c r="H77" s="63"/>
       <c r="I77" s="63"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="202"/>
-      <c r="L77" s="203"/>
-      <c r="M77" s="203"/>
-      <c r="N77" s="204"/>
+      <c r="K77" s="199"/>
+      <c r="L77" s="200"/>
+      <c r="M77" s="200"/>
+      <c r="N77" s="201"/>
       <c r="O77" s="85"/>
       <c r="P77" s="85"/>
       <c r="Q77" s="77"/>
@@ -12296,10 +12329,10 @@
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="202"/>
-      <c r="L78" s="203"/>
-      <c r="M78" s="203"/>
-      <c r="N78" s="204"/>
+      <c r="K78" s="199"/>
+      <c r="L78" s="200"/>
+      <c r="M78" s="200"/>
+      <c r="N78" s="201"/>
       <c r="O78" s="85"/>
       <c r="P78" s="85"/>
       <c r="Q78" s="77"/>
@@ -12319,10 +12352,10 @@
       <c r="H79" s="63"/>
       <c r="I79" s="63"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="202"/>
-      <c r="L79" s="203"/>
-      <c r="M79" s="203"/>
-      <c r="N79" s="204"/>
+      <c r="K79" s="199"/>
+      <c r="L79" s="200"/>
+      <c r="M79" s="200"/>
+      <c r="N79" s="201"/>
       <c r="O79" s="85"/>
       <c r="P79" s="85"/>
       <c r="Q79" s="77"/>
@@ -12342,10 +12375,10 @@
       <c r="H80" s="63"/>
       <c r="I80" s="63"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="202"/>
-      <c r="L80" s="203"/>
-      <c r="M80" s="203"/>
-      <c r="N80" s="204"/>
+      <c r="K80" s="199"/>
+      <c r="L80" s="200"/>
+      <c r="M80" s="200"/>
+      <c r="N80" s="201"/>
       <c r="O80" s="85"/>
       <c r="P80" s="85"/>
       <c r="Q80" s="77"/>
@@ -12365,10 +12398,10 @@
       <c r="H81" s="63"/>
       <c r="I81" s="63"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="202"/>
-      <c r="L81" s="203"/>
-      <c r="M81" s="203"/>
-      <c r="N81" s="204"/>
+      <c r="K81" s="199"/>
+      <c r="L81" s="200"/>
+      <c r="M81" s="200"/>
+      <c r="N81" s="201"/>
       <c r="O81" s="85"/>
       <c r="P81" s="85"/>
       <c r="Q81" s="77"/>
@@ -12388,10 +12421,10 @@
       <c r="H82" s="63"/>
       <c r="I82" s="63"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="202"/>
-      <c r="L82" s="203"/>
-      <c r="M82" s="203"/>
-      <c r="N82" s="204"/>
+      <c r="K82" s="199"/>
+      <c r="L82" s="200"/>
+      <c r="M82" s="200"/>
+      <c r="N82" s="201"/>
       <c r="O82" s="85"/>
       <c r="P82" s="85"/>
       <c r="Q82" s="77"/>
@@ -12411,10 +12444,10 @@
       <c r="H83" s="63"/>
       <c r="I83" s="63"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="202"/>
-      <c r="L83" s="203"/>
-      <c r="M83" s="203"/>
-      <c r="N83" s="204"/>
+      <c r="K83" s="199"/>
+      <c r="L83" s="200"/>
+      <c r="M83" s="200"/>
+      <c r="N83" s="201"/>
       <c r="O83" s="85"/>
       <c r="P83" s="85"/>
       <c r="Q83" s="77"/>
@@ -12434,10 +12467,10 @@
       <c r="H84" s="63"/>
       <c r="I84" s="63"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="202"/>
-      <c r="L84" s="203"/>
-      <c r="M84" s="203"/>
-      <c r="N84" s="204"/>
+      <c r="K84" s="199"/>
+      <c r="L84" s="200"/>
+      <c r="M84" s="200"/>
+      <c r="N84" s="201"/>
       <c r="O84" s="85"/>
       <c r="P84" s="85"/>
       <c r="Q84" s="77"/>
@@ -12457,10 +12490,10 @@
       <c r="H85" s="63"/>
       <c r="I85" s="63"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="202"/>
-      <c r="L85" s="203"/>
-      <c r="M85" s="203"/>
-      <c r="N85" s="204"/>
+      <c r="K85" s="199"/>
+      <c r="L85" s="200"/>
+      <c r="M85" s="200"/>
+      <c r="N85" s="201"/>
       <c r="O85" s="85"/>
       <c r="P85" s="85"/>
       <c r="Q85" s="77"/>
@@ -12480,10 +12513,10 @@
       <c r="H86" s="63"/>
       <c r="I86" s="63"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="202"/>
-      <c r="L86" s="203"/>
-      <c r="M86" s="203"/>
-      <c r="N86" s="204"/>
+      <c r="K86" s="199"/>
+      <c r="L86" s="200"/>
+      <c r="M86" s="200"/>
+      <c r="N86" s="201"/>
       <c r="O86" s="85"/>
       <c r="P86" s="85"/>
       <c r="Q86" s="77"/>
@@ -12503,10 +12536,10 @@
       <c r="H87" s="63"/>
       <c r="I87" s="63"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="202"/>
-      <c r="L87" s="203"/>
-      <c r="M87" s="203"/>
-      <c r="N87" s="204"/>
+      <c r="K87" s="199"/>
+      <c r="L87" s="200"/>
+      <c r="M87" s="200"/>
+      <c r="N87" s="201"/>
       <c r="O87" s="85"/>
       <c r="P87" s="85"/>
       <c r="Q87" s="77"/>
@@ -12526,10 +12559,10 @@
       <c r="H88" s="63"/>
       <c r="I88" s="63"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="202"/>
-      <c r="L88" s="203"/>
-      <c r="M88" s="203"/>
-      <c r="N88" s="204"/>
+      <c r="K88" s="199"/>
+      <c r="L88" s="200"/>
+      <c r="M88" s="200"/>
+      <c r="N88" s="201"/>
       <c r="O88" s="85"/>
       <c r="P88" s="85"/>
       <c r="Q88" s="77"/>
@@ -12549,10 +12582,10 @@
       <c r="H89" s="63"/>
       <c r="I89" s="63"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="202"/>
-      <c r="L89" s="203"/>
-      <c r="M89" s="203"/>
-      <c r="N89" s="204"/>
+      <c r="K89" s="199"/>
+      <c r="L89" s="200"/>
+      <c r="M89" s="200"/>
+      <c r="N89" s="201"/>
       <c r="O89" s="85"/>
       <c r="P89" s="85"/>
       <c r="Q89" s="77"/>
@@ -12572,10 +12605,10 @@
       <c r="H90" s="63"/>
       <c r="I90" s="63"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="202"/>
-      <c r="L90" s="203"/>
-      <c r="M90" s="203"/>
-      <c r="N90" s="204"/>
+      <c r="K90" s="199"/>
+      <c r="L90" s="200"/>
+      <c r="M90" s="200"/>
+      <c r="N90" s="201"/>
       <c r="O90" s="85"/>
       <c r="P90" s="85"/>
       <c r="Q90" s="77"/>
@@ -12595,10 +12628,10 @@
       <c r="H91" s="63"/>
       <c r="I91" s="63"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="202"/>
-      <c r="L91" s="203"/>
-      <c r="M91" s="203"/>
-      <c r="N91" s="204"/>
+      <c r="K91" s="199"/>
+      <c r="L91" s="200"/>
+      <c r="M91" s="200"/>
+      <c r="N91" s="201"/>
       <c r="O91" s="85"/>
       <c r="P91" s="85"/>
       <c r="Q91" s="77"/>
@@ -12618,10 +12651,10 @@
       <c r="H92" s="63"/>
       <c r="I92" s="63"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="202"/>
-      <c r="L92" s="203"/>
-      <c r="M92" s="203"/>
-      <c r="N92" s="204"/>
+      <c r="K92" s="199"/>
+      <c r="L92" s="200"/>
+      <c r="M92" s="200"/>
+      <c r="N92" s="201"/>
       <c r="O92" s="85"/>
       <c r="P92" s="85"/>
       <c r="Q92" s="77"/>
@@ -12641,10 +12674,10 @@
       <c r="H93" s="63"/>
       <c r="I93" s="63"/>
       <c r="J93" s="40"/>
-      <c r="K93" s="202"/>
-      <c r="L93" s="203"/>
-      <c r="M93" s="203"/>
-      <c r="N93" s="204"/>
+      <c r="K93" s="199"/>
+      <c r="L93" s="200"/>
+      <c r="M93" s="200"/>
+      <c r="N93" s="201"/>
       <c r="O93" s="85"/>
       <c r="P93" s="85"/>
       <c r="Q93" s="77"/>
@@ -12664,10 +12697,10 @@
       <c r="H94" s="63"/>
       <c r="I94" s="63"/>
       <c r="J94" s="40"/>
-      <c r="K94" s="202"/>
-      <c r="L94" s="203"/>
-      <c r="M94" s="203"/>
-      <c r="N94" s="204"/>
+      <c r="K94" s="199"/>
+      <c r="L94" s="200"/>
+      <c r="M94" s="200"/>
+      <c r="N94" s="201"/>
       <c r="O94" s="85"/>
       <c r="P94" s="85"/>
       <c r="Q94" s="77"/>
@@ -12680,11 +12713,81 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="96">
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
     <mergeCell ref="K77:N77"/>
     <mergeCell ref="K60:N60"/>
     <mergeCell ref="S7:S9"/>
@@ -12701,81 +12804,11 @@
     <mergeCell ref="K51:N51"/>
     <mergeCell ref="K52:N52"/>
     <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -12821,10 +12854,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12854,8 +12887,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -12913,7 +12946,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -13149,7 +13182,7 @@
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="74"/>
       <c r="B26" s="81" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
@@ -13926,10 +13959,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13959,8 +13992,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
